--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEAB5BB-FA16-4EC9-8E8E-2BA56FA65C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9751C0-1F32-418F-A0BA-73B2B5FD2557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D309"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C309"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5120,14 +5120,14 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143825</v>
+        <v>143826</v>
       </c>
       <c r="C266">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D266">
         <f t="shared" ref="D266:D279" si="9">AVERAGE(C260:C266)</f>
-        <v>779.57142857142856</v>
+        <v>779.71428571428567</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -5136,14 +5136,14 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144945</v>
+        <v>144946</v>
       </c>
       <c r="C267">
         <v>1120</v>
       </c>
       <c r="D267">
         <f t="shared" si="9"/>
-        <v>827</v>
+        <v>827.14285714285711</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -5152,14 +5152,14 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146148</v>
+        <v>146149</v>
       </c>
       <c r="C268">
         <v>1203</v>
       </c>
       <c r="D268">
         <f t="shared" si="9"/>
-        <v>870.42857142857144</v>
+        <v>870.57142857142856</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -5168,14 +5168,14 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147527</v>
+        <v>147528</v>
       </c>
       <c r="C269">
         <v>1379</v>
       </c>
       <c r="D269">
         <f t="shared" si="9"/>
-        <v>931.57142857142856</v>
+        <v>931.71428571428567</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -5187,7 +5187,7 @@
         <v>148754</v>
       </c>
       <c r="C270">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D270">
         <f t="shared" si="9"/>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="D273">
         <f t="shared" si="9"/>
-        <v>1103.5714285714287</v>
+        <v>1103.4285714285713</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="D274">
         <f t="shared" si="9"/>
-        <v>1135.8571428571429</v>
+        <v>1135.7142857142858</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -5264,10 +5264,10 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154338</v>
+        <v>154339</v>
       </c>
       <c r="C275">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D275">
         <f t="shared" si="9"/>
@@ -5283,11 +5283,11 @@
         <v>155725</v>
       </c>
       <c r="C276">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D276">
         <f t="shared" si="9"/>
-        <v>1171.1428571428571</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -5350,7 +5350,7 @@
         <v>1839</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D309" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D310" si="10">AVERAGE(C274:C280)</f>
         <v>1219</v>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1404.8571428571429</v>
+        <v>1404.7142857142858</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -5392,14 +5392,14 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166587</v>
+        <v>166589</v>
       </c>
       <c r="C283">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1551.7142857142858</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -5408,14 +5408,14 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168825</v>
+        <v>168827</v>
       </c>
       <c r="C284">
         <v>2238</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1710.7142857142858</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -5424,14 +5424,14 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170151</v>
+        <v>170153</v>
       </c>
       <c r="C285">
         <v>1326</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1775.5714285714287</v>
+        <v>1775.8571428571429</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -5440,14 +5440,14 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171094</v>
+        <v>171096</v>
       </c>
       <c r="C286">
         <v>943</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1835.7142857142858</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -5455,15 +5455,15 @@
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B309" si="11">C287+B286</f>
-        <v>174273</v>
+        <f t="shared" ref="B287:B310" si="11">C287+B286</f>
+        <v>174275</v>
       </c>
       <c r="C287">
         <v>3179</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2027.1428571428571</v>
+        <v>2027.4285714285713</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177096</v>
+        <v>177099</v>
       </c>
       <c r="C288">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2157.4285714285716</v>
+        <v>2157.8571428571427</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -5488,14 +5488,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179762</v>
+        <v>179765</v>
       </c>
       <c r="C289">
         <v>2666</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2227.1428571428573</v>
+        <v>2227.5714285714284</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -5504,14 +5504,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182752</v>
+        <v>182758</v>
       </c>
       <c r="C290">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2309.2857142857142</v>
+        <v>2309.8571428571427</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -5520,14 +5520,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185360</v>
+        <v>185367</v>
       </c>
       <c r="C291">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2362.1428571428573</v>
+        <v>2362.8571428571427</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -5536,14 +5536,14 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187075</v>
+        <v>187082</v>
       </c>
       <c r="C292">
         <v>1715</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2417.7142857142858</v>
+        <v>2418.4285714285716</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -5552,14 +5552,14 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188270</v>
+        <v>188277</v>
       </c>
       <c r="C293">
         <v>1195</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2453.7142857142858</v>
+        <v>2454.4285714285716</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191791</v>
+        <v>191798</v>
       </c>
       <c r="C294">
         <v>3521</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2502.5714285714284</v>
+        <v>2503.2857142857142</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -5584,14 +5584,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194920</v>
+        <v>194935</v>
       </c>
       <c r="C295">
-        <v>3129</v>
+        <v>3137</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2546.2857142857142</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197841</v>
+        <v>197856</v>
       </c>
       <c r="C296">
         <v>2921</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2582.7142857142858</v>
+        <v>2584.4285714285716</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -5616,14 +5616,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200842</v>
+        <v>200858</v>
       </c>
       <c r="C297">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2584.2857142857142</v>
+        <v>2585.7142857142858</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -5632,14 +5632,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203703</v>
+        <v>203721</v>
       </c>
       <c r="C298">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2620.4285714285716</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205470</v>
+        <v>205493</v>
       </c>
       <c r="C299">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2627.8571428571427</v>
+        <v>2630.1428571428573</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206654</v>
+        <v>206681</v>
       </c>
       <c r="C300">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2626.2857142857142</v>
+        <v>2629.1428571428573</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210127</v>
+        <v>210266</v>
       </c>
       <c r="C301">
-        <v>3473</v>
+        <v>3585</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2619.4285714285716</v>
+        <v>2638.2857142857142</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -5696,14 +5696,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213697</v>
+        <v>214046</v>
       </c>
       <c r="C302">
-        <v>3570</v>
+        <v>3780</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2682.4285714285716</v>
+        <v>2730.1428571428573</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -5712,14 +5712,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216437</v>
+        <v>216977</v>
       </c>
       <c r="C303">
-        <v>2740</v>
+        <v>2931</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2656.5714285714284</v>
+        <v>2731.5714285714284</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>216845</v>
+        <v>217407</v>
       </c>
       <c r="C304">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2286.1428571428573</v>
+        <v>2364.1428571428573</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>219701</v>
+        <v>220627</v>
       </c>
       <c r="C305">
-        <v>2856</v>
+        <v>3220</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2285.4285714285716</v>
+        <v>2415.1428571428573</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>221868</v>
+        <v>223333</v>
       </c>
       <c r="C306">
-        <v>2167</v>
+        <v>2706</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2342.5714285714284</v>
+        <v>2548.5714285714284</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>222974</v>
+        <v>224763</v>
       </c>
       <c r="C307">
-        <v>1106</v>
+        <v>1430</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2331.4285714285716</v>
+        <v>2583.1428571428573</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>225533</v>
+        <v>228567</v>
       </c>
       <c r="C308">
-        <v>2559</v>
+        <v>3804</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2200.8571428571427</v>
+        <v>2614.4285714285716</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -5808,14 +5808,30 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>225787</v>
+        <v>231857</v>
       </c>
       <c r="C309">
-        <v>254</v>
+        <v>3290</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>1727.1428571428571</v>
+        <v>2544.4285714285716</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="11"/>
+        <v>232264</v>
+      </c>
+      <c r="C310">
+        <v>407</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="10"/>
+        <v>2183.8571428571427</v>
       </c>
     </row>
   </sheetData>
@@ -5824,15 +5840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -5946,21 +5953,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5976,11 +5984,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9751C0-1F32-418F-A0BA-73B2B5FD2557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C801F-6C00-46DA-9F38-7E3FA4CF3FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,24 +884,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C310"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43859</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43860</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43861</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43862</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43863</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43864</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43866</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43867</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43868</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43869</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43870</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43871</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43872</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43874</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43875</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43876</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43877</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43878</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43879</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43880</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43881</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43882</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43883</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43884</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43885</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43886</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43887</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43888</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43889</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43890</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43891</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43892</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43893</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43894</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43895</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43896</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43897</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43898</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43899</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43900</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43901</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43902</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43903</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>27.714285714285715</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43904</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>31.857142857142858</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43905</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>38.857142857142854</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43906</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>59.571428571428569</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43907</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>93.142857142857139</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43908</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43909</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>162.57142857142858</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43910</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>209.28571428571428</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43911</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>244.85714285714286</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43912</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43913</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>341.57142857142856</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43914</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>408.57142857142856</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43915</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>478.14285714285717</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43916</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43917</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>651.28571428571433</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43918</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>698.71428571428567</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43919</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>732.57142857142856</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43920</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>822.42857142857144</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43921</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>900.71428571428567</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43922</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>985.28571428571433</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43923</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43924</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>1110.7142857142858</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43925</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>1183.2857142857142</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43926</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1248.1428571428571</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43927</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1347.2857142857142</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43928</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>1455.2857142857142</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43929</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1530.4285714285713</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43930</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1630.7142857142858</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43931</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>1712.8571428571429</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43932</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>1736.7142857142858</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43933</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43934</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>1737.7142857142858</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43935</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43936</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>1963.7142857142858</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43937</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43938</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>2155.5714285714284</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43939</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>2177.2857142857142</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43940</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43941</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43942</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>2194.2857142857142</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43943</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>2217.5714285714284</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43944</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>2220.2857142857142</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43945</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>2118.4285714285716</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43946</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>2120.2857142857142</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43947</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>2085.2857142857142</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43948</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>2005.7142857142858</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43949</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1993.8571428571429</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43950</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1919.8571428571429</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43951</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>1868.7142857142858</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43952</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1840.7142857142858</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43953</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1774.2857142857142</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43954</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>1758.5714285714287</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43955</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1722.8571428571429</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43956</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>1670.1428571428571</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43957</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1600.5714285714287</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43958</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>1547.7142857142858</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43959</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>1458.1428571428571</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43960</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1408.7142857142858</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43961</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1358.8571428571429</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43962</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43963</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>1236.2857142857142</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43964</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>1181.2857142857142</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43965</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>1129.5714285714287</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43966</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1079.7142857142858</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43967</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>1074.2857142857142</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43968</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>1071.1428571428571</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43969</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>1072.2857142857142</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43970</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>1018.4285714285714</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43971</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>975.14285714285711</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43972</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>925.14285714285711</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43973</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>890.57142857142856</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43974</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>853.85714285714289</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43975</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>845.14285714285711</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43976</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>685.71428571428567</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43977</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>655.85714285714289</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43978</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>609.57142857142856</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43979</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43980</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>515.42857142857144</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43981</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>498.71428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43982</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>478.57142857142856</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43983</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>522.85714285714289</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43984</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>463.28571428571428</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43985</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>430.71428571428572</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43986</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>393.57142857142856</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43987</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43988</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>348.42857142857144</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43989</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43990</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>324.85714285714283</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43991</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43992</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>281.42857142857144</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43993</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>259.57142857142856</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43994</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>247.71428571428572</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43995</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>240.42857142857142</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43996</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>229.71428571428572</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43997</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>212.85714285714286</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43998</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>192.14285714285714</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43999</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>190.71428571428572</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44000</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>192.71428571428572</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44001</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>181.42857142857142</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44002</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>180.85714285714286</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44003</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>181.28571428571428</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44004</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>179.85714285714286</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44005</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>178.57142857142858</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44006</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44007</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>168.14285714285714</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44008</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>171.42857142857142</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44009</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>177.28571428571428</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44010</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>176.14285714285714</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44011</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>173.28571428571428</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44012</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>177.71428571428572</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44013</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>178.57142857142858</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44014</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>181.42857142857142</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44015</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>167.28571428571428</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44016</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>156.71428571428572</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44017</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44018</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>165.57142857142858</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44019</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>168.71428571428572</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44020</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>168.71428571428572</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44021</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>172.71428571428572</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44022</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>191.14285714285714</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44023</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>199.28571428571428</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44024</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>197.28571428571428</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44025</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>201.42857142857142</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44026</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44027</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44028</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>210.28571428571428</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44029</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>210.14285714285714</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44030</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44031</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>209.85714285714286</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44032</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44033</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44034</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>209.28571428571428</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44035</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>211.42857142857142</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44036</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>215.85714285714286</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44037</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>220.28571428571428</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44038</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>224.14285714285714</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44039</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>235.85714285714286</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44040</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>245.14285714285714</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44041</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>253.85714285714286</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44042</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>264.85714285714283</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44043</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>273.57142857142856</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44044</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>271.85714285714283</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44045</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44046</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>272.71428571428572</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44047</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44048</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44049</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>275.57142857142856</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44050</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>272.71428571428572</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44051</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>275.85714285714283</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44052</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>272.42857142857144</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44053</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>274.57142857142856</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44054</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>271.28571428571428</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44055</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>267.14285714285717</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44056</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>266.42857142857144</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44057</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>272.57142857142856</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44058</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44059</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44060</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>274.28571428571428</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44061</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44062</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>292.85714285714283</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44063</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>293.85714285714283</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44064</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>285.42857142857144</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44065</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>285.14285714285717</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44066</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>281.14285714285717</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44067</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44068</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>284.85714285714283</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44069</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>290.71428571428572</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44070</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>289.14285714285717</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44071</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>300.71428571428572</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44072</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44073</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>310.71428571428572</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44074</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>316.71428571428572</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44075</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>318.85714285714283</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44076</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>319.57142857142856</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44077</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>336.57142857142856</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44078</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>334.28571428571428</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44079</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44080</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>334.14285714285717</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44081</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>294.57142857142856</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44082</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>316.28571428571428</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44083</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>329.14285714285717</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44084</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>321.42857142857144</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44085</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>330.14285714285717</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44086</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>328.85714285714283</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44087</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>335.85714285714283</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44088</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>384.85714285714283</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44089</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>366.85714285714283</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44090</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>358.28571428571428</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44091</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>350.42857142857144</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44092</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>354.14285714285717</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44093</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44094</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>353.28571428571428</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44095</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>342.28571428571428</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44096</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>354.85714285714283</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44097</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>375.71428571428572</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44098</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>410.42857142857144</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44099</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>427.28571428571428</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44100</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>450.42857142857144</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44101</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>462.14285714285717</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44102</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44103</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>554.85714285714289</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44104</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>562.42857142857144</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44105</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>574.57142857142856</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44106</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>576.42857142857144</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44107</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>582.71428571428567</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44108</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>592.42857142857144</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44109</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>575.85714285714289</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44110</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>578.14285714285711</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44111</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>593.42857142857144</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44112</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>614.85714285714289</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44113</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>632.71428571428567</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44114</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>633.42857142857144</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44115</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>629.42857142857144</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44116</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>606.85714285714289</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44117</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>614.57142857142856</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44118</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>640.14285714285711</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44119</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44120</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44121</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>700.71428571428567</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44122</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>710.28571428571433</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44123</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>779.71428571428567</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44124</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>827.14285714285711</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44125</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>870.57142857142856</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44126</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>931.71428571428567</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44127</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>983.14285714285711</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44128</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44129</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>1039.8571428571429</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44130</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>1103.4285714285713</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44131</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>1135.7142857142858</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44132</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44133</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44134</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>1156.5714285714287</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44135</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>1168.5714285714287</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44136</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44137</v>
       </c>
@@ -5350,11 +5350,11 @@
         <v>1839</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D310" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D311" si="10">AVERAGE(C274:C280)</f>
         <v>1219</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44138</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>1299.7142857142858</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44139</v>
       </c>
@@ -5386,39 +5386,39 @@
         <v>1404.7142857142858</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44140</v>
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166589</v>
+        <v>166588</v>
       </c>
       <c r="C283">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1551.8571428571429</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44141</v>
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168827</v>
+        <v>168826</v>
       </c>
       <c r="C284">
         <v>2238</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1710.8571428571429</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44142</v>
       </c>
@@ -5427,14 +5427,14 @@
         <v>170153</v>
       </c>
       <c r="C285">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
         <v>1775.8571428571429</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44143</v>
       </c>
@@ -5450,388 +5450,404 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B310" si="11">C287+B286</f>
-        <v>174275</v>
+        <f t="shared" ref="B287:B311" si="11">C287+B286</f>
+        <v>174276</v>
       </c>
       <c r="C287">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2027.4285714285713</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2027.5714285714287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44145</v>
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177099</v>
+        <v>177102</v>
       </c>
       <c r="C288">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2157.8571428571427</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2158.2857142857142</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44146</v>
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179765</v>
+        <v>179772</v>
       </c>
       <c r="C289">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2227.5714285714284</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2228.5714285714284</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44147</v>
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182758</v>
+        <v>182769</v>
       </c>
       <c r="C290">
-        <v>2993</v>
+        <v>2997</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2309.8571428571427</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2311.5714285714284</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44148</v>
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185367</v>
+        <v>185380</v>
       </c>
       <c r="C291">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2362.8571428571427</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2364.8571428571427</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44149</v>
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187082</v>
+        <v>187096</v>
       </c>
       <c r="C292">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2418.4285714285716</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2420.4285714285716</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44150</v>
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188277</v>
+        <v>188291</v>
       </c>
       <c r="C293">
         <v>1195</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2454.4285714285716</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2456.4285714285716</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44151</v>
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191798</v>
+        <v>191814</v>
       </c>
       <c r="C294">
-        <v>3521</v>
+        <v>3523</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2503.2857142857142</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2505.4285714285716</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44152</v>
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194935</v>
+        <v>194951</v>
       </c>
       <c r="C295">
         <v>3137</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2549.8571428571427</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44153</v>
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197856</v>
+        <v>197875</v>
       </c>
       <c r="C296">
-        <v>2921</v>
+        <v>2924</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2584.4285714285716</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2586.1428571428573</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44154</v>
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200858</v>
+        <v>200880</v>
       </c>
       <c r="C297">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2585.7142857142858</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2587.2857142857142</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44155</v>
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203721</v>
+        <v>203741</v>
       </c>
       <c r="C298">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44156</v>
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205493</v>
+        <v>205514</v>
       </c>
       <c r="C299">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2630.1428571428573</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2631.1428571428573</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44157</v>
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206681</v>
+        <v>206702</v>
       </c>
       <c r="C300">
         <v>1188</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2629.1428571428573</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2630.1428571428573</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44158</v>
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210266</v>
+        <v>210299</v>
       </c>
       <c r="C301">
-        <v>3585</v>
+        <v>3597</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2638.2857142857142</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2640.7142857142858</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44159</v>
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>214046</v>
+        <v>214089</v>
       </c>
       <c r="C302">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2730.1428571428573</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44160</v>
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216977</v>
+        <v>217032</v>
       </c>
       <c r="C303">
-        <v>2931</v>
+        <v>2943</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2731.5714285714284</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2736.7142857142858</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44161</v>
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217407</v>
+        <v>217473</v>
       </c>
       <c r="C304">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2364.1428571428573</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2370.4285714285716</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44162</v>
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220627</v>
+        <v>220818</v>
       </c>
       <c r="C305">
-        <v>3220</v>
+        <v>3345</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2415.1428571428573</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2439.5714285714284</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44163</v>
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223333</v>
+        <v>223685</v>
       </c>
       <c r="C306">
-        <v>2706</v>
+        <v>2867</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2548.5714285714284</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2595.8571428571427</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44164</v>
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>224763</v>
+        <v>225341</v>
       </c>
       <c r="C307">
-        <v>1430</v>
+        <v>1656</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2583.1428571428573</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2662.7142857142858</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44165</v>
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>228567</v>
+        <v>230054</v>
       </c>
       <c r="C308">
-        <v>3804</v>
+        <v>4713</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2614.4285714285716</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2822.1428571428573</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44166</v>
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>231857</v>
+        <v>234204</v>
       </c>
       <c r="C309">
-        <v>3290</v>
+        <v>4150</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>2544.4285714285716</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2873.5714285714284</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44167</v>
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>232264</v>
+        <v>237261</v>
       </c>
       <c r="C310">
-        <v>407</v>
+        <v>3057</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>2183.8571428571427</v>
+        <v>2889.8571428571427</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="11"/>
+        <v>237456</v>
+      </c>
+      <c r="C311">
+        <v>195</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="10"/>
+        <v>2854.7142857142858</v>
       </c>
     </row>
   </sheetData>
@@ -5840,6 +5856,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -5953,22 +5978,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5984,19 +6008,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C801F-6C00-46DA-9F38-7E3FA4CF3FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA01A555-8D6A-4D85-9518-889AC2477900}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasesByDate" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -884,24 +881,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D311"/>
+  <dimension ref="A1:D312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="J309" sqref="J309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43859</v>
       </c>
@@ -926,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43860</v>
       </c>
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43861</v>
       </c>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43862</v>
       </c>
@@ -962,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43863</v>
       </c>
@@ -974,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43864</v>
       </c>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43866</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43867</v>
       </c>
@@ -1034,7 +1031,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43868</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43869</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43870</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43871</v>
       </c>
@@ -1098,7 +1095,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43872</v>
       </c>
@@ -1114,7 +1111,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -1130,7 +1127,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43874</v>
       </c>
@@ -1146,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43875</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43876</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43877</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43878</v>
       </c>
@@ -1210,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43879</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43880</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43881</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43882</v>
       </c>
@@ -1274,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43883</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43884</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43885</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43886</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43887</v>
       </c>
@@ -1354,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43888</v>
       </c>
@@ -1370,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43889</v>
       </c>
@@ -1386,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43890</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43891</v>
       </c>
@@ -1418,7 +1415,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43892</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43893</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43894</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43895</v>
       </c>
@@ -1482,7 +1479,7 @@
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43896</v>
       </c>
@@ -1498,7 +1495,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43897</v>
       </c>
@@ -1514,7 +1511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43898</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43899</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43900</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43901</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43902</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43903</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>27.714285714285715</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43904</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>31.857142857142858</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43905</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>38.857142857142854</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43906</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>59.571428571428569</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43907</v>
       </c>
@@ -1674,7 +1671,7 @@
         <v>93.142857142857139</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43908</v>
       </c>
@@ -1690,7 +1687,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43909</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>162.57142857142858</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43910</v>
       </c>
@@ -1722,7 +1719,7 @@
         <v>209.28571428571428</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43911</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>244.85714285714286</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43912</v>
       </c>
@@ -1754,7 +1751,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43913</v>
       </c>
@@ -1770,7 +1767,7 @@
         <v>341.57142857142856</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43914</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>408.57142857142856</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43915</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>478.14285714285717</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43916</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43917</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>651.28571428571433</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43918</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>698.71428571428567</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43919</v>
       </c>
@@ -1866,7 +1863,7 @@
         <v>732.57142857142856</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43920</v>
       </c>
@@ -1882,7 +1879,7 @@
         <v>822.42857142857144</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43921</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>900.71428571428567</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43922</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>985.28571428571433</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43923</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43924</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>1110.7142857142858</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43925</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>1183.2857142857142</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43926</v>
       </c>
@@ -1978,7 +1975,7 @@
         <v>1248.1428571428571</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43927</v>
       </c>
@@ -1994,7 +1991,7 @@
         <v>1347.2857142857142</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43928</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>1455.2857142857142</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43929</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>1530.4285714285713</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43930</v>
       </c>
@@ -2042,7 +2039,7 @@
         <v>1630.7142857142858</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43931</v>
       </c>
@@ -2058,7 +2055,7 @@
         <v>1712.8571428571429</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43932</v>
       </c>
@@ -2074,7 +2071,7 @@
         <v>1736.7142857142858</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43933</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43934</v>
       </c>
@@ -2106,7 +2103,7 @@
         <v>1737.7142857142858</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43935</v>
       </c>
@@ -2122,7 +2119,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43936</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>1963.7142857142858</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43937</v>
       </c>
@@ -2154,7 +2151,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43938</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>2155.5714285714284</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43939</v>
       </c>
@@ -2186,7 +2183,7 @@
         <v>2177.2857142857142</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43940</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43941</v>
       </c>
@@ -2218,7 +2215,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43942</v>
       </c>
@@ -2234,7 +2231,7 @@
         <v>2194.2857142857142</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43943</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>2217.5714285714284</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43944</v>
       </c>
@@ -2266,7 +2263,7 @@
         <v>2220.2857142857142</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43945</v>
       </c>
@@ -2282,7 +2279,7 @@
         <v>2118.4285714285716</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43946</v>
       </c>
@@ -2298,7 +2295,7 @@
         <v>2120.2857142857142</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43947</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>2085.2857142857142</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43948</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>2005.7142857142858</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43949</v>
       </c>
@@ -2346,7 +2343,7 @@
         <v>1993.8571428571429</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43950</v>
       </c>
@@ -2362,7 +2359,7 @@
         <v>1919.8571428571429</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43951</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>1868.7142857142858</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43952</v>
       </c>
@@ -2394,7 +2391,7 @@
         <v>1840.7142857142858</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43953</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>1774.2857142857142</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43954</v>
       </c>
@@ -2426,7 +2423,7 @@
         <v>1758.5714285714287</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43955</v>
       </c>
@@ -2442,7 +2439,7 @@
         <v>1722.8571428571429</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43956</v>
       </c>
@@ -2458,7 +2455,7 @@
         <v>1670.1428571428571</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43957</v>
       </c>
@@ -2474,7 +2471,7 @@
         <v>1600.5714285714287</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43958</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>1547.7142857142858</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43959</v>
       </c>
@@ -2506,7 +2503,7 @@
         <v>1458.1428571428571</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43960</v>
       </c>
@@ -2522,7 +2519,7 @@
         <v>1408.7142857142858</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43961</v>
       </c>
@@ -2538,7 +2535,7 @@
         <v>1358.8571428571429</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43962</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43963</v>
       </c>
@@ -2570,7 +2567,7 @@
         <v>1236.2857142857142</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43964</v>
       </c>
@@ -2586,7 +2583,7 @@
         <v>1181.2857142857142</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43965</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>1129.5714285714287</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43966</v>
       </c>
@@ -2618,7 +2615,7 @@
         <v>1079.7142857142858</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43967</v>
       </c>
@@ -2634,7 +2631,7 @@
         <v>1074.2857142857142</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43968</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>1071.1428571428571</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43969</v>
       </c>
@@ -2666,7 +2663,7 @@
         <v>1072.2857142857142</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43970</v>
       </c>
@@ -2682,7 +2679,7 @@
         <v>1018.4285714285714</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43971</v>
       </c>
@@ -2698,7 +2695,7 @@
         <v>975.14285714285711</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43972</v>
       </c>
@@ -2714,7 +2711,7 @@
         <v>925.14285714285711</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43973</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>890.57142857142856</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43974</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>853.85714285714289</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43975</v>
       </c>
@@ -2762,7 +2759,7 @@
         <v>845.14285714285711</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43976</v>
       </c>
@@ -2778,7 +2775,7 @@
         <v>685.71428571428567</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43977</v>
       </c>
@@ -2794,7 +2791,7 @@
         <v>655.85714285714289</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43978</v>
       </c>
@@ -2810,7 +2807,7 @@
         <v>609.57142857142856</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43979</v>
       </c>
@@ -2826,7 +2823,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43980</v>
       </c>
@@ -2842,7 +2839,7 @@
         <v>515.42857142857144</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43981</v>
       </c>
@@ -2858,7 +2855,7 @@
         <v>498.71428571428572</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43982</v>
       </c>
@@ -2874,7 +2871,7 @@
         <v>478.57142857142856</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43983</v>
       </c>
@@ -2890,7 +2887,7 @@
         <v>522.85714285714289</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43984</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>463.28571428571428</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43985</v>
       </c>
@@ -2922,7 +2919,7 @@
         <v>430.71428571428572</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43986</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>393.57142857142856</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43987</v>
       </c>
@@ -2954,7 +2951,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43988</v>
       </c>
@@ -2970,7 +2967,7 @@
         <v>348.42857142857144</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43989</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43990</v>
       </c>
@@ -3002,7 +2999,7 @@
         <v>324.85714285714283</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43991</v>
       </c>
@@ -3018,7 +3015,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43992</v>
       </c>
@@ -3034,7 +3031,7 @@
         <v>281.42857142857144</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43993</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>259.57142857142856</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43994</v>
       </c>
@@ -3066,7 +3063,7 @@
         <v>247.71428571428572</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43995</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>240.42857142857142</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43996</v>
       </c>
@@ -3098,7 +3095,7 @@
         <v>229.71428571428572</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43997</v>
       </c>
@@ -3114,7 +3111,7 @@
         <v>212.85714285714286</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43998</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>192.14285714285714</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43999</v>
       </c>
@@ -3146,7 +3143,7 @@
         <v>190.71428571428572</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44000</v>
       </c>
@@ -3162,7 +3159,7 @@
         <v>192.71428571428572</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44001</v>
       </c>
@@ -3178,7 +3175,7 @@
         <v>181.42857142857142</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44002</v>
       </c>
@@ -3194,7 +3191,7 @@
         <v>180.85714285714286</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44003</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>181.28571428571428</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44004</v>
       </c>
@@ -3226,7 +3223,7 @@
         <v>179.85714285714286</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44005</v>
       </c>
@@ -3242,7 +3239,7 @@
         <v>178.57142857142858</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44006</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44007</v>
       </c>
@@ -3274,7 +3271,7 @@
         <v>168.14285714285714</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44008</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>171.42857142857142</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44009</v>
       </c>
@@ -3306,7 +3303,7 @@
         <v>177.28571428571428</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44010</v>
       </c>
@@ -3322,7 +3319,7 @@
         <v>176.14285714285714</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44011</v>
       </c>
@@ -3338,7 +3335,7 @@
         <v>173.28571428571428</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44012</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>177.71428571428572</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44013</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>178.57142857142858</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44014</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>181.42857142857142</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44015</v>
       </c>
@@ -3402,7 +3399,7 @@
         <v>167.28571428571428</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44016</v>
       </c>
@@ -3418,7 +3415,7 @@
         <v>156.71428571428572</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44017</v>
       </c>
@@ -3434,7 +3431,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44018</v>
       </c>
@@ -3450,7 +3447,7 @@
         <v>165.57142857142858</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44019</v>
       </c>
@@ -3466,7 +3463,7 @@
         <v>168.71428571428572</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44020</v>
       </c>
@@ -3482,7 +3479,7 @@
         <v>168.71428571428572</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44021</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>172.71428571428572</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44022</v>
       </c>
@@ -3514,7 +3511,7 @@
         <v>191.14285714285714</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44023</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>199.28571428571428</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44024</v>
       </c>
@@ -3546,7 +3543,7 @@
         <v>197.28571428571428</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44025</v>
       </c>
@@ -3562,7 +3559,7 @@
         <v>201.42857142857142</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44026</v>
       </c>
@@ -3578,7 +3575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44027</v>
       </c>
@@ -3594,7 +3591,7 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44028</v>
       </c>
@@ -3610,7 +3607,7 @@
         <v>210.28571428571428</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44029</v>
       </c>
@@ -3626,7 +3623,7 @@
         <v>210.14285714285714</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44030</v>
       </c>
@@ -3642,7 +3639,7 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44031</v>
       </c>
@@ -3658,7 +3655,7 @@
         <v>209.85714285714286</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44032</v>
       </c>
@@ -3674,7 +3671,7 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44033</v>
       </c>
@@ -3690,7 +3687,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44034</v>
       </c>
@@ -3706,7 +3703,7 @@
         <v>209.28571428571428</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44035</v>
       </c>
@@ -3722,7 +3719,7 @@
         <v>211.42857142857142</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44036</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>215.85714285714286</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44037</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>220.28571428571428</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44038</v>
       </c>
@@ -3770,7 +3767,7 @@
         <v>224.14285714285714</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44039</v>
       </c>
@@ -3786,7 +3783,7 @@
         <v>235.85714285714286</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44040</v>
       </c>
@@ -3802,7 +3799,7 @@
         <v>245.14285714285714</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44041</v>
       </c>
@@ -3818,7 +3815,7 @@
         <v>253.85714285714286</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44042</v>
       </c>
@@ -3834,7 +3831,7 @@
         <v>264.85714285714283</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44043</v>
       </c>
@@ -3850,7 +3847,7 @@
         <v>273.57142857142856</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44044</v>
       </c>
@@ -3866,7 +3863,7 @@
         <v>271.85714285714283</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44045</v>
       </c>
@@ -3882,7 +3879,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44046</v>
       </c>
@@ -3898,7 +3895,7 @@
         <v>272.71428571428572</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44047</v>
       </c>
@@ -3914,7 +3911,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44048</v>
       </c>
@@ -3930,7 +3927,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44049</v>
       </c>
@@ -3946,7 +3943,7 @@
         <v>275.57142857142856</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44050</v>
       </c>
@@ -3962,7 +3959,7 @@
         <v>272.71428571428572</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44051</v>
       </c>
@@ -3978,7 +3975,7 @@
         <v>275.85714285714283</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44052</v>
       </c>
@@ -3994,7 +3991,7 @@
         <v>272.42857142857144</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44053</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>274.57142857142856</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44054</v>
       </c>
@@ -4026,7 +4023,7 @@
         <v>271.28571428571428</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44055</v>
       </c>
@@ -4042,7 +4039,7 @@
         <v>267.14285714285717</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44056</v>
       </c>
@@ -4058,7 +4055,7 @@
         <v>266.42857142857144</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44057</v>
       </c>
@@ -4074,7 +4071,7 @@
         <v>272.57142857142856</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44058</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44059</v>
       </c>
@@ -4106,7 +4103,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44060</v>
       </c>
@@ -4122,7 +4119,7 @@
         <v>274.28571428571428</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44061</v>
       </c>
@@ -4138,7 +4135,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44062</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>292.85714285714283</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44063</v>
       </c>
@@ -4170,7 +4167,7 @@
         <v>293.85714285714283</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44064</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>285.42857142857144</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44065</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>285.14285714285717</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44066</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>281.14285714285717</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44067</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44068</v>
       </c>
@@ -4250,7 +4247,7 @@
         <v>284.85714285714283</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44069</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>290.71428571428572</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44070</v>
       </c>
@@ -4282,7 +4279,7 @@
         <v>289.14285714285717</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44071</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>300.71428571428572</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44072</v>
       </c>
@@ -4314,7 +4311,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44073</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>310.71428571428572</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44074</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>316.71428571428572</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44075</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>318.85714285714283</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44076</v>
       </c>
@@ -4378,7 +4375,7 @@
         <v>319.57142857142856</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44077</v>
       </c>
@@ -4394,7 +4391,7 @@
         <v>336.57142857142856</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44078</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>334.28571428571428</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44079</v>
       </c>
@@ -4426,7 +4423,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44080</v>
       </c>
@@ -4442,7 +4439,7 @@
         <v>334.14285714285717</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44081</v>
       </c>
@@ -4458,7 +4455,7 @@
         <v>294.57142857142856</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44082</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>316.28571428571428</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44083</v>
       </c>
@@ -4490,7 +4487,7 @@
         <v>329.14285714285717</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44084</v>
       </c>
@@ -4506,7 +4503,7 @@
         <v>321.42857142857144</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44085</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>330.14285714285717</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44086</v>
       </c>
@@ -4538,7 +4535,7 @@
         <v>328.85714285714283</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44087</v>
       </c>
@@ -4554,7 +4551,7 @@
         <v>335.85714285714283</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44088</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>384.85714285714283</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44089</v>
       </c>
@@ -4586,7 +4583,7 @@
         <v>366.85714285714283</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44090</v>
       </c>
@@ -4602,7 +4599,7 @@
         <v>358.28571428571428</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44091</v>
       </c>
@@ -4618,7 +4615,7 @@
         <v>350.42857142857144</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44092</v>
       </c>
@@ -4634,7 +4631,7 @@
         <v>354.14285714285717</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44093</v>
       </c>
@@ -4650,7 +4647,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44094</v>
       </c>
@@ -4666,7 +4663,7 @@
         <v>353.28571428571428</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44095</v>
       </c>
@@ -4682,7 +4679,7 @@
         <v>342.28571428571428</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44096</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>354.85714285714283</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44097</v>
       </c>
@@ -4714,7 +4711,7 @@
         <v>375.71428571428572</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44098</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>410.42857142857144</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44099</v>
       </c>
@@ -4746,7 +4743,7 @@
         <v>427.28571428571428</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44100</v>
       </c>
@@ -4762,7 +4759,7 @@
         <v>450.42857142857144</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44101</v>
       </c>
@@ -4778,7 +4775,7 @@
         <v>462.14285714285717</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44102</v>
       </c>
@@ -4794,7 +4791,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44103</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>554.85714285714289</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44104</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>562.42857142857144</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44105</v>
       </c>
@@ -4842,7 +4839,7 @@
         <v>574.57142857142856</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44106</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>576.42857142857144</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44107</v>
       </c>
@@ -4874,7 +4871,7 @@
         <v>582.71428571428567</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44108</v>
       </c>
@@ -4890,7 +4887,7 @@
         <v>592.42857142857144</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44109</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>575.85714285714289</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44110</v>
       </c>
@@ -4922,7 +4919,7 @@
         <v>578.14285714285711</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44111</v>
       </c>
@@ -4938,7 +4935,7 @@
         <v>593.42857142857144</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44112</v>
       </c>
@@ -4954,7 +4951,7 @@
         <v>614.85714285714289</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44113</v>
       </c>
@@ -4970,7 +4967,7 @@
         <v>632.71428571428567</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44114</v>
       </c>
@@ -4986,7 +4983,7 @@
         <v>633.42857142857144</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44115</v>
       </c>
@@ -5002,7 +4999,7 @@
         <v>629.42857142857144</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44116</v>
       </c>
@@ -5018,7 +5015,7 @@
         <v>606.85714285714289</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44117</v>
       </c>
@@ -5034,7 +5031,7 @@
         <v>614.57142857142856</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44118</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>640.14285714285711</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44119</v>
       </c>
@@ -5066,7 +5063,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44120</v>
       </c>
@@ -5082,7 +5079,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44121</v>
       </c>
@@ -5098,7 +5095,7 @@
         <v>700.71428571428567</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44122</v>
       </c>
@@ -5114,125 +5111,125 @@
         <v>710.28571428571433</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44123</v>
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143826</v>
+        <v>143827</v>
       </c>
       <c r="C266">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D266">
         <f t="shared" ref="D266:D279" si="9">AVERAGE(C260:C266)</f>
-        <v>779.71428571428567</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>779.85714285714289</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44124</v>
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144946</v>
+        <v>144947</v>
       </c>
       <c r="C267">
         <v>1120</v>
       </c>
       <c r="D267">
         <f t="shared" si="9"/>
-        <v>827.14285714285711</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>827.28571428571433</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44125</v>
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146149</v>
+        <v>146150</v>
       </c>
       <c r="C268">
         <v>1203</v>
       </c>
       <c r="D268">
         <f t="shared" si="9"/>
-        <v>870.57142857142856</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>870.71428571428567</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44126</v>
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147528</v>
+        <v>147529</v>
       </c>
       <c r="C269">
         <v>1379</v>
       </c>
       <c r="D269">
         <f t="shared" si="9"/>
-        <v>931.71428571428567</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>931.85714285714289</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44127</v>
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148754</v>
+        <v>148755</v>
       </c>
       <c r="C270">
         <v>1226</v>
       </c>
       <c r="D270">
         <f t="shared" si="9"/>
-        <v>983.14285714285711</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>983.28571428571433</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44128</v>
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149542</v>
+        <v>149543</v>
       </c>
       <c r="C271">
         <v>788</v>
       </c>
       <c r="D271">
         <f t="shared" si="9"/>
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1018.1428571428571</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44129</v>
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>150026</v>
+        <v>150027</v>
       </c>
       <c r="C272">
         <v>484</v>
       </c>
       <c r="D272">
         <f t="shared" si="9"/>
-        <v>1039.8571428571429</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44130</v>
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151550</v>
+        <v>151551</v>
       </c>
       <c r="C273">
         <v>1524</v>
@@ -5242,13 +5239,13 @@
         <v>1103.4285714285713</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44131</v>
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152896</v>
+        <v>152897</v>
       </c>
       <c r="C274">
         <v>1346</v>
@@ -5258,13 +5255,13 @@
         <v>1135.7142857142858</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44132</v>
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154339</v>
+        <v>154340</v>
       </c>
       <c r="C275">
         <v>1443</v>
@@ -5274,13 +5271,13 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44133</v>
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155725</v>
+        <v>155726</v>
       </c>
       <c r="C276">
         <v>1386</v>
@@ -5290,13 +5287,13 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44134</v>
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156850</v>
+        <v>156851</v>
       </c>
       <c r="C277">
         <v>1125</v>
@@ -5306,13 +5303,13 @@
         <v>1156.5714285714287</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44135</v>
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157722</v>
+        <v>157723</v>
       </c>
       <c r="C278">
         <v>872</v>
@@ -5322,13 +5319,13 @@
         <v>1168.5714285714287</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44136</v>
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158244</v>
+        <v>158245</v>
       </c>
       <c r="C279">
         <v>522</v>
@@ -5338,29 +5335,29 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44137</v>
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160083</v>
+        <v>160084</v>
       </c>
       <c r="C280">
         <v>1839</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D311" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D312" si="10">AVERAGE(C274:C280)</f>
         <v>1219</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44138</v>
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161994</v>
+        <v>161995</v>
       </c>
       <c r="C281">
         <v>1911</v>
@@ -5370,103 +5367,103 @@
         <v>1299.7142857142858</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44139</v>
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164172</v>
+        <v>164174</v>
       </c>
       <c r="C282">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1404.7142857142858</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1404.8571428571429</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44140</v>
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166588</v>
+        <v>166590</v>
       </c>
       <c r="C283">
         <v>2416</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1551.8571428571429</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44141</v>
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168826</v>
+        <v>168828</v>
       </c>
       <c r="C284">
         <v>2238</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1710.8571428571429</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44142</v>
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170153</v>
+        <v>170155</v>
       </c>
       <c r="C285">
         <v>1327</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1775.8571428571429</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44143</v>
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171096</v>
+        <v>171098</v>
       </c>
       <c r="C286">
         <v>943</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1836.1428571428571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B311" si="11">C287+B286</f>
-        <v>174276</v>
+        <f t="shared" ref="B287:B312" si="11">C287+B286</f>
+        <v>174278</v>
       </c>
       <c r="C287">
         <v>3180</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2027.5714285714287</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2027.7142857142858</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44145</v>
       </c>
@@ -5475,379 +5472,395 @@
         <v>177102</v>
       </c>
       <c r="C288">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2158.2857142857142</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2158.1428571428573</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44146</v>
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179772</v>
+        <v>179767</v>
       </c>
       <c r="C289">
-        <v>2670</v>
+        <v>2665</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2228.5714285714284</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2227.5714285714284</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44147</v>
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182769</v>
+        <v>182760</v>
       </c>
       <c r="C290">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2311.5714285714284</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44148</v>
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185380</v>
+        <v>185369</v>
       </c>
       <c r="C291">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2364.8571428571427</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44149</v>
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187096</v>
+        <v>187084</v>
       </c>
       <c r="C292">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2420.4285714285716</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2418.4285714285716</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44150</v>
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188291</v>
+        <v>188279</v>
       </c>
       <c r="C293">
         <v>1195</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2456.4285714285716</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2454.4285714285716</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44151</v>
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191814</v>
+        <v>191801</v>
       </c>
       <c r="C294">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2505.4285714285716</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2503.2857142857142</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44152</v>
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194951</v>
+        <v>194937</v>
       </c>
       <c r="C295">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2549.8571428571427</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2547.8571428571427</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44153</v>
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197875</v>
+        <v>197858</v>
       </c>
       <c r="C296">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2586.1428571428573</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2584.4285714285716</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44154</v>
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200880</v>
+        <v>200860</v>
       </c>
       <c r="C297">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2587.2857142857142</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2585.7142857142858</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44155</v>
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203741</v>
+        <v>203721</v>
       </c>
       <c r="C298">
         <v>2861</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2621.7142857142858</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44156</v>
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205514</v>
+        <v>205493</v>
       </c>
       <c r="C299">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2631.1428571428573</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2629.8571428571427</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44157</v>
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206702</v>
+        <v>206681</v>
       </c>
       <c r="C300">
         <v>1188</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2630.1428571428573</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2628.8571428571427</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44158</v>
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210299</v>
+        <v>210279</v>
       </c>
       <c r="C301">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2640.7142857142858</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2639.7142857142858</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44159</v>
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>214089</v>
+        <v>214069</v>
       </c>
       <c r="C302">
         <v>3790</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2733.1428571428573</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44160</v>
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>217032</v>
+        <v>217013</v>
       </c>
       <c r="C303">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2736.7142857142858</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2736.4285714285716</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44161</v>
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217473</v>
+        <v>217458</v>
       </c>
       <c r="C304">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2370.4285714285716</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2371.1428571428573</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44162</v>
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220818</v>
+        <v>220816</v>
       </c>
       <c r="C305">
-        <v>3345</v>
+        <v>3358</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2439.5714285714284</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2442.1428571428573</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44163</v>
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223685</v>
+        <v>223715</v>
       </c>
       <c r="C306">
-        <v>2867</v>
+        <v>2899</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2595.8571428571427</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2603.1428571428573</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44164</v>
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225341</v>
+        <v>225403</v>
       </c>
       <c r="C307">
-        <v>1656</v>
+        <v>1688</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2662.7142857142858</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2674.5714285714284</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44165</v>
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230054</v>
+        <v>230444</v>
       </c>
       <c r="C308">
-        <v>4713</v>
+        <v>5041</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2822.1428571428573</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2880.7142857142858</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44166</v>
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>234204</v>
+        <v>235464</v>
       </c>
       <c r="C309">
-        <v>4150</v>
+        <v>5020</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>2873.5714285714284</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3056.4285714285716</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44167</v>
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>237261</v>
+        <v>239583</v>
       </c>
       <c r="C310">
-        <v>3057</v>
+        <v>4119</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>2889.8571428571427</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3224.2857142857142</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44168</v>
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>237456</v>
+        <v>242680</v>
       </c>
       <c r="C311">
-        <v>195</v>
+        <v>3097</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>2854.7142857142858</v>
+        <v>3603.1428571428573</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="11"/>
+        <v>242812</v>
+      </c>
+      <c r="C312">
+        <v>132</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="10"/>
+        <v>3142.2857142857142</v>
       </c>
     </row>
   </sheetData>
@@ -5865,6 +5878,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -5978,12 +5997,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
   <ds:schemaRefs>
@@ -5993,6 +6006,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6006,13 +6028,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA01A555-8D6A-4D85-9518-889AC2477900}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D528E218-B7FC-4B5D-B142-D63EA21C7BC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D312"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B295" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J309" sqref="J309"/>
+      <selection pane="bottomRight" activeCell="E316" sqref="E316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,14 +2125,14 @@
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
-        <v>35724</v>
+        <v>35723</v>
       </c>
       <c r="C79">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D79">
         <f t="shared" si="3"/>
-        <v>1963.7142857142858</v>
+        <v>1963.5714285714287</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,14 +2141,14 @@
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
-        <v>38110</v>
+        <v>38109</v>
       </c>
       <c r="C80">
         <v>2386</v>
       </c>
       <c r="D80">
         <f t="shared" si="3"/>
-        <v>2022</v>
+        <v>2021.8571428571429</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2157,14 +2157,14 @@
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>41100</v>
+        <v>41099</v>
       </c>
       <c r="C81">
         <v>2990</v>
       </c>
       <c r="D81">
         <f t="shared" si="3"/>
-        <v>2155.5714285714284</v>
+        <v>2155.4285714285716</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,14 +2173,14 @@
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
-        <v>42581</v>
+        <v>42580</v>
       </c>
       <c r="C82">
         <v>1481</v>
       </c>
       <c r="D82">
         <f t="shared" si="3"/>
-        <v>2177.2857142857142</v>
+        <v>2177.1428571428573</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,14 +2189,14 @@
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>43670</v>
+        <v>43669</v>
       </c>
       <c r="C83">
         <v>1089</v>
       </c>
       <c r="D83">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>2199.8571428571427</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,14 +2205,14 @@
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>46356</v>
+        <v>46355</v>
       </c>
       <c r="C84">
         <v>2686</v>
       </c>
       <c r="D84">
         <f t="shared" si="3"/>
-        <v>2300</v>
+        <v>2299.8571428571427</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,14 +2221,14 @@
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
-        <v>48543</v>
+        <v>48542</v>
       </c>
       <c r="C85">
         <v>2187</v>
       </c>
       <c r="D85">
         <f t="shared" si="3"/>
-        <v>2194.2857142857142</v>
+        <v>2194.1428571428573</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>51247</v>
+        <v>51246</v>
       </c>
       <c r="C86">
         <v>2704</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>53652</v>
+        <v>53651</v>
       </c>
       <c r="C87">
         <v>2405</v>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>55929</v>
+        <v>55928</v>
       </c>
       <c r="C88">
         <v>2277</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>57423</v>
+        <v>57422</v>
       </c>
       <c r="C89">
         <v>1494</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>58267</v>
+        <v>58266</v>
       </c>
       <c r="C90">
         <v>844</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>60396</v>
+        <v>60395</v>
       </c>
       <c r="C91">
         <v>2129</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>62500</v>
+        <v>62499</v>
       </c>
       <c r="C92">
         <v>2104</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>64686</v>
+        <v>64685</v>
       </c>
       <c r="C93">
         <v>2186</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>66733</v>
+        <v>66732</v>
       </c>
       <c r="C94">
         <v>2047</v>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>68814</v>
+        <v>68813</v>
       </c>
       <c r="C95">
         <v>2081</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>69843</v>
+        <v>69842</v>
       </c>
       <c r="C96">
         <v>1029</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>70577</v>
+        <v>70576</v>
       </c>
       <c r="C97">
         <v>734</v>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>72456</v>
+        <v>72455</v>
       </c>
       <c r="C98">
         <v>1879</v>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>74191</v>
+        <v>74190</v>
       </c>
       <c r="C99">
         <v>1735</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>75890</v>
+        <v>75889</v>
       </c>
       <c r="C100">
         <v>1699</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>77567</v>
+        <v>77566</v>
       </c>
       <c r="C101">
         <v>1677</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>79021</v>
+        <v>79020</v>
       </c>
       <c r="C102">
         <v>1454</v>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>79704</v>
+        <v>79703</v>
       </c>
       <c r="C103">
         <v>683</v>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>80089</v>
+        <v>80088</v>
       </c>
       <c r="C104">
         <v>385</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>81395</v>
+        <v>81394</v>
       </c>
       <c r="C105">
         <v>1306</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>82845</v>
+        <v>82844</v>
       </c>
       <c r="C106">
         <v>1450</v>
@@ -2573,14 +2573,14 @@
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>84159</v>
+        <v>84157</v>
       </c>
       <c r="C107">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D107">
         <f t="shared" si="3"/>
-        <v>1181.2857142857142</v>
+        <v>1181.1428571428571</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,14 +2589,14 @@
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>85474</v>
+        <v>85472</v>
       </c>
       <c r="C108">
         <v>1315</v>
       </c>
       <c r="D108">
         <f t="shared" si="3"/>
-        <v>1129.5714285714287</v>
+        <v>1129.4285714285713</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>86579</v>
+        <v>86577</v>
       </c>
       <c r="C109">
         <v>1105</v>
       </c>
       <c r="D109">
         <f t="shared" si="3"/>
-        <v>1079.7142857142858</v>
+        <v>1079.5714285714287</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,14 +2621,14 @@
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>87224</v>
+        <v>87222</v>
       </c>
       <c r="C110">
         <v>645</v>
       </c>
       <c r="D110">
         <f t="shared" si="3"/>
-        <v>1074.2857142857142</v>
+        <v>1074.1428571428571</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,14 +2637,14 @@
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>87587</v>
+        <v>87585</v>
       </c>
       <c r="C111">
         <v>363</v>
       </c>
       <c r="D111">
         <f t="shared" si="3"/>
-        <v>1071.1428571428571</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,14 +2653,14 @@
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>88901</v>
+        <v>88899</v>
       </c>
       <c r="C112">
         <v>1314</v>
       </c>
       <c r="D112">
         <f t="shared" si="3"/>
-        <v>1072.2857142857142</v>
+        <v>1072.1428571428571</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,14 +2669,14 @@
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>89974</v>
+        <v>89972</v>
       </c>
       <c r="C113">
         <v>1073</v>
       </c>
       <c r="D113">
         <f t="shared" si="3"/>
-        <v>1018.4285714285714</v>
+        <v>1018.2857142857143</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>90985</v>
+        <v>90983</v>
       </c>
       <c r="C114">
         <v>1011</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>91950</v>
+        <v>91948</v>
       </c>
       <c r="C115">
         <v>965</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>92813</v>
+        <v>92811</v>
       </c>
       <c r="C116">
         <v>863</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>93201</v>
+        <v>93199</v>
       </c>
       <c r="C117">
         <v>388</v>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>93503</v>
+        <v>93501</v>
       </c>
       <c r="C118">
         <v>302</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>93701</v>
+        <v>93699</v>
       </c>
       <c r="C119">
         <v>198</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>94565</v>
+        <v>94563</v>
       </c>
       <c r="C120">
         <v>864</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>95252</v>
+        <v>95250</v>
       </c>
       <c r="C121">
         <v>687</v>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>95891</v>
+        <v>95889</v>
       </c>
       <c r="C122">
         <v>639</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>96421</v>
+        <v>96419</v>
       </c>
       <c r="C123">
         <v>530</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>96692</v>
+        <v>96690</v>
       </c>
       <c r="C124">
         <v>271</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>96853</v>
+        <v>96851</v>
       </c>
       <c r="C125">
         <v>161</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>97361</v>
+        <v>97359</v>
       </c>
       <c r="C126">
         <v>508</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
-        <v>97808</v>
+        <v>97806</v>
       </c>
       <c r="C127">
         <v>447</v>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
-        <v>98267</v>
+        <v>98265</v>
       </c>
       <c r="C128">
         <v>459</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>98646</v>
+        <v>98644</v>
       </c>
       <c r="C129">
         <v>379</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>98983</v>
+        <v>98981</v>
       </c>
       <c r="C130">
         <v>337</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="2"/>
-        <v>99131</v>
+        <v>99129</v>
       </c>
       <c r="C131">
         <v>148</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" si="4">C132+B131</f>
-        <v>99282</v>
+        <v>99280</v>
       </c>
       <c r="C132">
         <v>151</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>99635</v>
+        <v>99633</v>
       </c>
       <c r="C133">
         <v>353</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>99978</v>
+        <v>99976</v>
       </c>
       <c r="C134">
         <v>343</v>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>100237</v>
+        <v>100235</v>
       </c>
       <c r="C135">
         <v>259</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>100463</v>
+        <v>100461</v>
       </c>
       <c r="C136">
         <v>226</v>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
-        <v>100717</v>
+        <v>100715</v>
       </c>
       <c r="C137">
         <v>254</v>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>100814</v>
+        <v>100812</v>
       </c>
       <c r="C138">
         <v>97</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>100890</v>
+        <v>100888</v>
       </c>
       <c r="C139">
         <v>76</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>101125</v>
+        <v>101123</v>
       </c>
       <c r="C140">
         <v>235</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>101323</v>
+        <v>101321</v>
       </c>
       <c r="C141">
         <v>198</v>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>101572</v>
+        <v>101570</v>
       </c>
       <c r="C142">
         <v>249</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>101812</v>
+        <v>101810</v>
       </c>
       <c r="C143">
         <v>240</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>101987</v>
+        <v>101985</v>
       </c>
       <c r="C144">
         <v>175</v>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>102080</v>
+        <v>102078</v>
       </c>
       <c r="C145">
         <v>93</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>102159</v>
+        <v>102157</v>
       </c>
       <c r="C146">
         <v>79</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>102384</v>
+        <v>102382</v>
       </c>
       <c r="C147">
         <v>225</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>102573</v>
+        <v>102571</v>
       </c>
       <c r="C148">
         <v>189</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>102783</v>
+        <v>102781</v>
       </c>
       <c r="C149">
         <v>210</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>102989</v>
+        <v>102987</v>
       </c>
       <c r="C150">
         <v>206</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>103187</v>
+        <v>103185</v>
       </c>
       <c r="C151">
         <v>198</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>103321</v>
+        <v>103319</v>
       </c>
       <c r="C152">
         <v>134</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>103392</v>
+        <v>103390</v>
       </c>
       <c r="C153">
         <v>71</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>103597</v>
+        <v>103595</v>
       </c>
       <c r="C154">
         <v>205</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>103817</v>
+        <v>103815</v>
       </c>
       <c r="C155">
         <v>220</v>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>104033</v>
+        <v>104031</v>
       </c>
       <c r="C156">
         <v>216</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>104259</v>
+        <v>104257</v>
       </c>
       <c r="C157">
         <v>226</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>104358</v>
+        <v>104356</v>
       </c>
       <c r="C158">
         <v>99</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>104418</v>
+        <v>104416</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>104519</v>
+        <v>104517</v>
       </c>
       <c r="C160">
         <v>101</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>104756</v>
+        <v>104754</v>
       </c>
       <c r="C161">
         <v>237</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>104998</v>
+        <v>104996</v>
       </c>
       <c r="C162">
         <v>242</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>105214</v>
+        <v>105212</v>
       </c>
       <c r="C163">
         <v>216</v>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>105468</v>
+        <v>105466</v>
       </c>
       <c r="C164">
         <v>254</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>105696</v>
+        <v>105694</v>
       </c>
       <c r="C165">
         <v>228</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>105813</v>
+        <v>105811</v>
       </c>
       <c r="C166">
         <v>117</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>105900</v>
+        <v>105898</v>
       </c>
       <c r="C167">
         <v>87</v>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>106166</v>
+        <v>106164</v>
       </c>
       <c r="C168">
         <v>266</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
-        <v>106398</v>
+        <v>106396</v>
       </c>
       <c r="C169">
         <v>232</v>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>106696</v>
+        <v>106694</v>
       </c>
       <c r="C170">
         <v>298</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>106940</v>
+        <v>106938</v>
       </c>
       <c r="C171">
         <v>244</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>107167</v>
+        <v>107165</v>
       </c>
       <c r="C172">
         <v>227</v>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>107295</v>
+        <v>107293</v>
       </c>
       <c r="C173">
         <v>128</v>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>107369</v>
+        <v>107367</v>
       </c>
       <c r="C174">
         <v>74</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
-        <v>107648</v>
+        <v>107646</v>
       </c>
       <c r="C175">
         <v>279</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>107903</v>
+        <v>107901</v>
       </c>
       <c r="C176">
         <v>255</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>108161</v>
+        <v>108159</v>
       </c>
       <c r="C177">
         <v>258</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
-        <v>108420</v>
+        <v>108418</v>
       </c>
       <c r="C178">
         <v>259</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
-        <v>108678</v>
+        <v>108676</v>
       </c>
       <c r="C179">
         <v>258</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="4"/>
-        <v>108837</v>
+        <v>108835</v>
       </c>
       <c r="C180">
         <v>159</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="4"/>
-        <v>108938</v>
+        <v>108936</v>
       </c>
       <c r="C181">
         <v>101</v>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
-        <v>109299</v>
+        <v>109297</v>
       </c>
       <c r="C182">
         <v>361</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
-        <v>109619</v>
+        <v>109617</v>
       </c>
       <c r="C183">
         <v>320</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="4"/>
-        <v>109938</v>
+        <v>109936</v>
       </c>
       <c r="C184">
         <v>319</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
-        <v>110274</v>
+        <v>110272</v>
       </c>
       <c r="C185">
         <v>336</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
-        <v>110593</v>
+        <v>110591</v>
       </c>
       <c r="C186">
         <v>319</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
-        <v>110740</v>
+        <v>110738</v>
       </c>
       <c r="C187">
         <v>147</v>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
-        <v>110849</v>
+        <v>110847</v>
       </c>
       <c r="C188">
         <v>109</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="4"/>
-        <v>111208</v>
+        <v>111206</v>
       </c>
       <c r="C189">
         <v>359</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>111516</v>
+        <v>111514</v>
       </c>
       <c r="C190">
         <v>308</v>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
-        <v>111849</v>
+        <v>111847</v>
       </c>
       <c r="C191">
         <v>333</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
-        <v>112203</v>
+        <v>112201</v>
       </c>
       <c r="C192">
         <v>354</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="4"/>
-        <v>112502</v>
+        <v>112500</v>
       </c>
       <c r="C193">
         <v>299</v>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B194">
         <f t="shared" si="4"/>
-        <v>112671</v>
+        <v>112669</v>
       </c>
       <c r="C194">
         <v>169</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="4"/>
-        <v>112756</v>
+        <v>112754</v>
       </c>
       <c r="C195">
         <v>85</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B259" si="6">C196+B195</f>
-        <v>113130</v>
+        <v>113128</v>
       </c>
       <c r="C196">
         <v>374</v>
@@ -4013,14 +4013,14 @@
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>113415</v>
+        <v>113412</v>
       </c>
       <c r="C197">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D197">
         <f t="shared" si="5"/>
-        <v>271.28571428571428</v>
+        <v>271.14285714285717</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,14 +4029,14 @@
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
-        <v>113719</v>
+        <v>113716</v>
       </c>
       <c r="C198">
         <v>304</v>
       </c>
       <c r="D198">
         <f t="shared" si="5"/>
-        <v>267.14285714285717</v>
+        <v>267</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4045,14 +4045,14 @@
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
-        <v>114068</v>
+        <v>114065</v>
       </c>
       <c r="C199">
         <v>349</v>
       </c>
       <c r="D199">
         <f t="shared" si="5"/>
-        <v>266.42857142857144</v>
+        <v>266.28571428571428</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
-        <v>114410</v>
+        <v>114407</v>
       </c>
       <c r="C200">
         <v>342</v>
       </c>
       <c r="D200">
         <f t="shared" si="5"/>
-        <v>272.57142857142856</v>
+        <v>272.42857142857144</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
-        <v>114561</v>
+        <v>114558</v>
       </c>
       <c r="C201">
         <v>151</v>
       </c>
       <c r="D201">
         <f t="shared" ref="D201:D264" si="7">AVERAGE(C195:C201)</f>
-        <v>270</v>
+        <v>269.85714285714283</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4093,14 +4093,14 @@
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
-        <v>114681</v>
+        <v>114678</v>
       </c>
       <c r="C202">
         <v>120</v>
       </c>
       <c r="D202">
         <f t="shared" si="7"/>
-        <v>275</v>
+        <v>274.85714285714283</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4109,14 +4109,14 @@
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
-        <v>115050</v>
+        <v>115047</v>
       </c>
       <c r="C203">
         <v>369</v>
       </c>
       <c r="D203">
         <f t="shared" si="7"/>
-        <v>274.28571428571428</v>
+        <v>274.14285714285717</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>115431</v>
+        <v>115428</v>
       </c>
       <c r="C204">
         <v>381</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>115769</v>
+        <v>115766</v>
       </c>
       <c r="C205">
         <v>338</v>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>116125</v>
+        <v>116122</v>
       </c>
       <c r="C206">
         <v>356</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>116408</v>
+        <v>116405</v>
       </c>
       <c r="C207">
         <v>283</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>116557</v>
+        <v>116554</v>
       </c>
       <c r="C208">
         <v>149</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>116649</v>
+        <v>116646</v>
       </c>
       <c r="C209">
         <v>92</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>117045</v>
+        <v>117042</v>
       </c>
       <c r="C210">
         <v>396</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
-        <v>117425</v>
+        <v>117422</v>
       </c>
       <c r="C211">
         <v>380</v>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>117804</v>
+        <v>117801</v>
       </c>
       <c r="C212">
         <v>379</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>118149</v>
+        <v>118146</v>
       </c>
       <c r="C213">
         <v>345</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>118513</v>
+        <v>118510</v>
       </c>
       <c r="C214">
         <v>364</v>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>118685</v>
+        <v>118682</v>
       </c>
       <c r="C215">
         <v>172</v>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>118824</v>
+        <v>118821</v>
       </c>
       <c r="C216">
         <v>139</v>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>119262</v>
+        <v>119259</v>
       </c>
       <c r="C217">
         <v>438</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>119657</v>
+        <v>119654</v>
       </c>
       <c r="C218">
         <v>395</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>120041</v>
+        <v>120038</v>
       </c>
       <c r="C219">
         <v>384</v>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>120505</v>
+        <v>120502</v>
       </c>
       <c r="C220">
         <v>464</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>120853</v>
+        <v>120850</v>
       </c>
       <c r="C221">
         <v>348</v>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>121051</v>
+        <v>121048</v>
       </c>
       <c r="C222">
         <v>198</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>121163</v>
+        <v>121160</v>
       </c>
       <c r="C223">
         <v>112</v>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>121324</v>
+        <v>121321</v>
       </c>
       <c r="C224">
         <v>161</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>121871</v>
+        <v>121868</v>
       </c>
       <c r="C225">
         <v>547</v>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>122345</v>
+        <v>122342</v>
       </c>
       <c r="C226">
         <v>474</v>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>122755</v>
+        <v>122752</v>
       </c>
       <c r="C227">
         <v>410</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>123164</v>
+        <v>123161</v>
       </c>
       <c r="C228">
         <v>409</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>123353</v>
+        <v>123350</v>
       </c>
       <c r="C229">
         <v>189</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>123514</v>
+        <v>123511</v>
       </c>
       <c r="C230">
         <v>161</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>124018</v>
+        <v>124015</v>
       </c>
       <c r="C231">
         <v>504</v>
@@ -4573,14 +4573,14 @@
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>124439</v>
+        <v>124438</v>
       </c>
       <c r="C232">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D232">
         <f t="shared" si="7"/>
-        <v>366.85714285714283</v>
+        <v>367.14285714285717</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,14 +4589,14 @@
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>124853</v>
+        <v>124852</v>
       </c>
       <c r="C233">
         <v>414</v>
       </c>
       <c r="D233">
         <f t="shared" si="7"/>
-        <v>358.28571428571428</v>
+        <v>358.57142857142856</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,14 +4605,14 @@
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>125208</v>
+        <v>125207</v>
       </c>
       <c r="C234">
         <v>355</v>
       </c>
       <c r="D234">
         <f t="shared" si="7"/>
-        <v>350.42857142857144</v>
+        <v>350.71428571428572</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4621,14 +4621,14 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>125643</v>
+        <v>125642</v>
       </c>
       <c r="C235">
         <v>435</v>
       </c>
       <c r="D235">
         <f t="shared" si="7"/>
-        <v>354.14285714285717</v>
+        <v>354.42857142857144</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,14 +4637,14 @@
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>125845</v>
+        <v>125844</v>
       </c>
       <c r="C236">
         <v>202</v>
       </c>
       <c r="D236">
         <f t="shared" si="7"/>
-        <v>356</v>
+        <v>356.28571428571428</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>125987</v>
+        <v>125986</v>
       </c>
       <c r="C237">
         <v>142</v>
       </c>
       <c r="D237">
         <f t="shared" si="7"/>
-        <v>353.28571428571428</v>
+        <v>353.57142857142856</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4669,14 +4669,14 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>126414</v>
+        <v>126413</v>
       </c>
       <c r="C238">
         <v>427</v>
       </c>
       <c r="D238">
         <f t="shared" si="7"/>
-        <v>342.28571428571428</v>
+        <v>342.57142857142856</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>126923</v>
+        <v>126922</v>
       </c>
       <c r="C239">
         <v>509</v>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>127483</v>
+        <v>127482</v>
       </c>
       <c r="C240">
         <v>560</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>128081</v>
+        <v>128080</v>
       </c>
       <c r="C241">
         <v>598</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>128634</v>
+        <v>128633</v>
       </c>
       <c r="C242">
         <v>553</v>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>128998</v>
+        <v>128997</v>
       </c>
       <c r="C243">
         <v>364</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129222</v>
+        <v>129221</v>
       </c>
       <c r="C244">
         <v>224</v>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130089</v>
+        <v>130088</v>
       </c>
       <c r="C245">
         <v>867</v>
@@ -4800,11 +4800,11 @@
         <v>130807</v>
       </c>
       <c r="C246">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D246">
         <f t="shared" si="7"/>
-        <v>554.85714285714289</v>
+        <v>555</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="7"/>
-        <v>562.42857142857144</v>
+        <v>562.57142857142856</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="D248">
         <f t="shared" si="7"/>
-        <v>574.57142857142856</v>
+        <v>574.71428571428567</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="7"/>
-        <v>576.42857142857144</v>
+        <v>576.57142857142856</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="7"/>
-        <v>582.71428571428567</v>
+        <v>582.85714285714289</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="7"/>
-        <v>592.42857142857144</v>
+        <v>592.57142857142856</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="7"/>
-        <v>575.85714285714289</v>
+        <v>576</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5341,14 +5341,14 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160084</v>
+        <v>160085</v>
       </c>
       <c r="C280">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D312" si="10">AVERAGE(C274:C280)</f>
-        <v>1219</v>
+        <f t="shared" ref="D280:D313" si="10">AVERAGE(C274:C280)</f>
+        <v>1219.1428571428571</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5357,14 +5357,14 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161995</v>
+        <v>161996</v>
       </c>
       <c r="C281">
         <v>1911</v>
       </c>
       <c r="D281">
         <f t="shared" si="10"/>
-        <v>1299.7142857142858</v>
+        <v>1299.8571428571429</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5373,14 +5373,14 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164174</v>
+        <v>164175</v>
       </c>
       <c r="C282">
         <v>2179</v>
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1404.8571428571429</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5389,14 +5389,14 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166590</v>
+        <v>166595</v>
       </c>
       <c r="C283">
-        <v>2416</v>
+        <v>2420</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1552</v>
+        <v>1552.7142857142858</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5405,14 +5405,14 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168828</v>
+        <v>168834</v>
       </c>
       <c r="C284">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1711</v>
+        <v>1711.8571428571429</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,14 +5421,14 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170155</v>
+        <v>170161</v>
       </c>
       <c r="C285">
         <v>1327</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1776</v>
+        <v>1776.8571428571429</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5437,14 +5437,14 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171098</v>
+        <v>171103</v>
       </c>
       <c r="C286">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1836.1428571428571</v>
+        <v>1836.8571428571429</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5452,15 +5452,15 @@
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B312" si="11">C287+B286</f>
-        <v>174278</v>
+        <f t="shared" ref="B287:B313" si="11">C287+B286</f>
+        <v>174282</v>
       </c>
       <c r="C287">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2027.7142857142858</v>
+        <v>2028.1428571428571</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,14 +5469,14 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177102</v>
+        <v>177106</v>
       </c>
       <c r="C288">
         <v>2824</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2158.1428571428573</v>
+        <v>2158.5714285714284</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,14 +5485,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179767</v>
+        <v>179771</v>
       </c>
       <c r="C289">
         <v>2665</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2227.5714285714284</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,14 +5501,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182760</v>
+        <v>182764</v>
       </c>
       <c r="C290">
         <v>2993</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2310</v>
+        <v>2309.8571428571427</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5517,14 +5517,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185369</v>
+        <v>185373</v>
       </c>
       <c r="C291">
         <v>2609</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2363</v>
+        <v>2362.7142857142858</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,14 +5533,14 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187084</v>
+        <v>187087</v>
       </c>
       <c r="C292">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2418.4285714285716</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188279</v>
+        <v>188282</v>
       </c>
       <c r="C293">
         <v>1195</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2454.4285714285716</v>
+        <v>2454.1428571428573</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,14 +5565,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191801</v>
+        <v>191804</v>
       </c>
       <c r="C294">
         <v>3522</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2503.2857142857142</v>
+        <v>2503.1428571428573</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5581,14 +5581,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194937</v>
+        <v>194939</v>
       </c>
       <c r="C295">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2547.8571428571427</v>
+        <v>2547.5714285714284</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5600,11 +5600,11 @@
         <v>197858</v>
       </c>
       <c r="C296">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2584.4285714285716</v>
+        <v>2583.8571428571427</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5613,14 +5613,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200860</v>
+        <v>200858</v>
       </c>
       <c r="C297">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2585.7142857142858</v>
+        <v>2584.8571428571427</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5629,14 +5629,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203721</v>
+        <v>203717</v>
       </c>
       <c r="C298">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2621.7142857142858</v>
+        <v>2620.5714285714284</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205493</v>
+        <v>205489</v>
       </c>
       <c r="C299">
         <v>1772</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2629.8571428571427</v>
+        <v>2628.8571428571427</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,14 +5661,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206681</v>
+        <v>206676</v>
       </c>
       <c r="C300">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2628.8571428571427</v>
+        <v>2627.7142857142858</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,14 +5677,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210279</v>
+        <v>210272</v>
       </c>
       <c r="C301">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2639.7142857142858</v>
+        <v>2638.2857142857142</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,14 +5693,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>214069</v>
+        <v>214062</v>
       </c>
       <c r="C302">
         <v>3790</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2733.1428571428573</v>
+        <v>2731.8571428571427</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,14 +5709,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>217013</v>
+        <v>217008</v>
       </c>
       <c r="C303">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2736.4285714285716</v>
+        <v>2735.7142857142858</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,14 +5725,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217458</v>
+        <v>217453</v>
       </c>
       <c r="C304">
         <v>445</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2371.1428571428573</v>
+        <v>2370.7142857142858</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5744,11 +5744,11 @@
         <v>220816</v>
       </c>
       <c r="C305">
-        <v>3358</v>
+        <v>3363</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2442.1428571428573</v>
+        <v>2442.7142857142858</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,14 +5757,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223715</v>
+        <v>223718</v>
       </c>
       <c r="C306">
-        <v>2899</v>
+        <v>2902</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2603.1428571428573</v>
+        <v>2604.1428571428573</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,14 +5773,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225403</v>
+        <v>225445</v>
       </c>
       <c r="C307">
-        <v>1688</v>
+        <v>1727</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2674.5714285714284</v>
+        <v>2681.2857142857142</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,14 +5789,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230444</v>
+        <v>230739</v>
       </c>
       <c r="C308">
-        <v>5041</v>
+        <v>5294</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2880.7142857142858</v>
+        <v>2923.8571428571427</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5805,14 +5805,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>235464</v>
+        <v>236187</v>
       </c>
       <c r="C309">
-        <v>5020</v>
+        <v>5448</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3056.4285714285716</v>
+        <v>3160.7142857142858</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,14 +5821,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>239583</v>
+        <v>240949</v>
       </c>
       <c r="C310">
-        <v>4119</v>
+        <v>4762</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3224.2857142857142</v>
+        <v>3420.1428571428573</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,14 +5837,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>242680</v>
+        <v>244877</v>
       </c>
       <c r="C311">
-        <v>3097</v>
+        <v>3928</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>3603.1428571428573</v>
+        <v>3917.7142857142858</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5853,14 +5853,30 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>242812</v>
+        <v>247474</v>
       </c>
       <c r="C312">
-        <v>132</v>
+        <v>2597</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>3142.2857142857142</v>
+        <v>3808.2857142857142</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="11"/>
+        <v>247559</v>
+      </c>
+      <c r="C313">
+        <v>85</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="10"/>
+        <v>3405.8571428571427</v>
       </c>
     </row>
   </sheetData>
@@ -5878,12 +5894,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -5997,6 +6007,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
   <ds:schemaRefs>
@@ -6006,15 +6022,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6028,4 +6035,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D528E218-B7FC-4B5D-B142-D63EA21C7BC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E22A85-5AC4-4893-B365-6B45E1AE7493}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E316" sqref="E316"/>
+      <selection pane="bottomRight" activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,14 +2557,14 @@
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>82844</v>
+        <v>82845</v>
       </c>
       <c r="C106">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D106">
         <f t="shared" si="3"/>
-        <v>1236.2857142857142</v>
+        <v>1236.4285714285713</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,14 +2573,14 @@
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>84157</v>
+        <v>84158</v>
       </c>
       <c r="C107">
         <v>1313</v>
       </c>
       <c r="D107">
         <f t="shared" si="3"/>
-        <v>1181.1428571428571</v>
+        <v>1181.2857142857142</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,14 +2589,14 @@
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>85472</v>
+        <v>85473</v>
       </c>
       <c r="C108">
         <v>1315</v>
       </c>
       <c r="D108">
         <f t="shared" si="3"/>
-        <v>1129.4285714285713</v>
+        <v>1129.5714285714287</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>86577</v>
+        <v>86578</v>
       </c>
       <c r="C109">
         <v>1105</v>
       </c>
       <c r="D109">
         <f t="shared" si="3"/>
-        <v>1079.5714285714287</v>
+        <v>1079.7142857142858</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,14 +2621,14 @@
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>87222</v>
+        <v>87223</v>
       </c>
       <c r="C110">
         <v>645</v>
       </c>
       <c r="D110">
         <f t="shared" si="3"/>
-        <v>1074.1428571428571</v>
+        <v>1074.2857142857142</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,14 +2637,14 @@
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>87585</v>
+        <v>87586</v>
       </c>
       <c r="C111">
         <v>363</v>
       </c>
       <c r="D111">
         <f t="shared" si="3"/>
-        <v>1071</v>
+        <v>1071.1428571428571</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,14 +2653,14 @@
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>88899</v>
+        <v>88900</v>
       </c>
       <c r="C112">
         <v>1314</v>
       </c>
       <c r="D112">
         <f t="shared" si="3"/>
-        <v>1072.1428571428571</v>
+        <v>1072.2857142857142</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>89972</v>
+        <v>89973</v>
       </c>
       <c r="C113">
         <v>1073</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>90983</v>
+        <v>90984</v>
       </c>
       <c r="C114">
         <v>1011</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>91948</v>
+        <v>91949</v>
       </c>
       <c r="C115">
         <v>965</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>92811</v>
+        <v>92812</v>
       </c>
       <c r="C116">
         <v>863</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>93199</v>
+        <v>93200</v>
       </c>
       <c r="C117">
         <v>388</v>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>93501</v>
+        <v>93502</v>
       </c>
       <c r="C118">
         <v>302</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>93699</v>
+        <v>93700</v>
       </c>
       <c r="C119">
         <v>198</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>94563</v>
+        <v>94564</v>
       </c>
       <c r="C120">
         <v>864</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>95250</v>
+        <v>95251</v>
       </c>
       <c r="C121">
         <v>687</v>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>95889</v>
+        <v>95890</v>
       </c>
       <c r="C122">
         <v>639</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>96419</v>
+        <v>96420</v>
       </c>
       <c r="C123">
         <v>530</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>96690</v>
+        <v>96691</v>
       </c>
       <c r="C124">
         <v>271</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>96851</v>
+        <v>96852</v>
       </c>
       <c r="C125">
         <v>161</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>97359</v>
+        <v>97360</v>
       </c>
       <c r="C126">
         <v>508</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
-        <v>97806</v>
+        <v>97807</v>
       </c>
       <c r="C127">
         <v>447</v>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
-        <v>98265</v>
+        <v>98266</v>
       </c>
       <c r="C128">
         <v>459</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>98644</v>
+        <v>98645</v>
       </c>
       <c r="C129">
         <v>379</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>98981</v>
+        <v>98982</v>
       </c>
       <c r="C130">
         <v>337</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="2"/>
-        <v>99129</v>
+        <v>99130</v>
       </c>
       <c r="C131">
         <v>148</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" si="4">C132+B131</f>
-        <v>99280</v>
+        <v>99281</v>
       </c>
       <c r="C132">
         <v>151</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>99633</v>
+        <v>99634</v>
       </c>
       <c r="C133">
         <v>353</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>99976</v>
+        <v>99977</v>
       </c>
       <c r="C134">
         <v>343</v>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>100235</v>
+        <v>100236</v>
       </c>
       <c r="C135">
         <v>259</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>100461</v>
+        <v>100462</v>
       </c>
       <c r="C136">
         <v>226</v>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
-        <v>100715</v>
+        <v>100716</v>
       </c>
       <c r="C137">
         <v>254</v>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>100812</v>
+        <v>100813</v>
       </c>
       <c r="C138">
         <v>97</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>100888</v>
+        <v>100889</v>
       </c>
       <c r="C139">
         <v>76</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>101123</v>
+        <v>101124</v>
       </c>
       <c r="C140">
         <v>235</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>101321</v>
+        <v>101322</v>
       </c>
       <c r="C141">
         <v>198</v>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>101570</v>
+        <v>101571</v>
       </c>
       <c r="C142">
         <v>249</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>101810</v>
+        <v>101811</v>
       </c>
       <c r="C143">
         <v>240</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>101985</v>
+        <v>101986</v>
       </c>
       <c r="C144">
         <v>175</v>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>102078</v>
+        <v>102079</v>
       </c>
       <c r="C145">
         <v>93</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>102157</v>
+        <v>102158</v>
       </c>
       <c r="C146">
         <v>79</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>102382</v>
+        <v>102383</v>
       </c>
       <c r="C147">
         <v>225</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>102571</v>
+        <v>102572</v>
       </c>
       <c r="C148">
         <v>189</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>102781</v>
+        <v>102782</v>
       </c>
       <c r="C149">
         <v>210</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>102987</v>
+        <v>102988</v>
       </c>
       <c r="C150">
         <v>206</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>103185</v>
+        <v>103186</v>
       </c>
       <c r="C151">
         <v>198</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>103319</v>
+        <v>103320</v>
       </c>
       <c r="C152">
         <v>134</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>103390</v>
+        <v>103391</v>
       </c>
       <c r="C153">
         <v>71</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>103595</v>
+        <v>103596</v>
       </c>
       <c r="C154">
         <v>205</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>103815</v>
+        <v>103816</v>
       </c>
       <c r="C155">
         <v>220</v>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>104031</v>
+        <v>104032</v>
       </c>
       <c r="C156">
         <v>216</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>104257</v>
+        <v>104258</v>
       </c>
       <c r="C157">
         <v>226</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>104356</v>
+        <v>104357</v>
       </c>
       <c r="C158">
         <v>99</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>104416</v>
+        <v>104417</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>104517</v>
+        <v>104518</v>
       </c>
       <c r="C160">
         <v>101</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>104754</v>
+        <v>104755</v>
       </c>
       <c r="C161">
         <v>237</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>104996</v>
+        <v>104997</v>
       </c>
       <c r="C162">
         <v>242</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>105212</v>
+        <v>105213</v>
       </c>
       <c r="C163">
         <v>216</v>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>105466</v>
+        <v>105467</v>
       </c>
       <c r="C164">
         <v>254</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>105694</v>
+        <v>105695</v>
       </c>
       <c r="C165">
         <v>228</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>105811</v>
+        <v>105812</v>
       </c>
       <c r="C166">
         <v>117</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>105898</v>
+        <v>105899</v>
       </c>
       <c r="C167">
         <v>87</v>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>106164</v>
+        <v>106165</v>
       </c>
       <c r="C168">
         <v>266</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
-        <v>106396</v>
+        <v>106397</v>
       </c>
       <c r="C169">
         <v>232</v>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>106694</v>
+        <v>106695</v>
       </c>
       <c r="C170">
         <v>298</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>106938</v>
+        <v>106939</v>
       </c>
       <c r="C171">
         <v>244</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>107165</v>
+        <v>107166</v>
       </c>
       <c r="C172">
         <v>227</v>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>107293</v>
+        <v>107294</v>
       </c>
       <c r="C173">
         <v>128</v>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>107367</v>
+        <v>107368</v>
       </c>
       <c r="C174">
         <v>74</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
-        <v>107646</v>
+        <v>107647</v>
       </c>
       <c r="C175">
         <v>279</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>107901</v>
+        <v>107902</v>
       </c>
       <c r="C176">
         <v>255</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>108159</v>
+        <v>108160</v>
       </c>
       <c r="C177">
         <v>258</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
-        <v>108418</v>
+        <v>108419</v>
       </c>
       <c r="C178">
         <v>259</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
-        <v>108676</v>
+        <v>108677</v>
       </c>
       <c r="C179">
         <v>258</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="4"/>
-        <v>108835</v>
+        <v>108836</v>
       </c>
       <c r="C180">
         <v>159</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="4"/>
-        <v>108936</v>
+        <v>108937</v>
       </c>
       <c r="C181">
         <v>101</v>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
-        <v>109297</v>
+        <v>109298</v>
       </c>
       <c r="C182">
         <v>361</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
-        <v>109617</v>
+        <v>109618</v>
       </c>
       <c r="C183">
         <v>320</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="4"/>
-        <v>109936</v>
+        <v>109937</v>
       </c>
       <c r="C184">
         <v>319</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
-        <v>110272</v>
+        <v>110273</v>
       </c>
       <c r="C185">
         <v>336</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
-        <v>110591</v>
+        <v>110592</v>
       </c>
       <c r="C186">
         <v>319</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
-        <v>110738</v>
+        <v>110739</v>
       </c>
       <c r="C187">
         <v>147</v>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
-        <v>110847</v>
+        <v>110848</v>
       </c>
       <c r="C188">
         <v>109</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="4"/>
-        <v>111206</v>
+        <v>111207</v>
       </c>
       <c r="C189">
         <v>359</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>111514</v>
+        <v>111515</v>
       </c>
       <c r="C190">
         <v>308</v>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
-        <v>111847</v>
+        <v>111848</v>
       </c>
       <c r="C191">
         <v>333</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
-        <v>112201</v>
+        <v>112202</v>
       </c>
       <c r="C192">
         <v>354</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="4"/>
-        <v>112500</v>
+        <v>112501</v>
       </c>
       <c r="C193">
         <v>299</v>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B194">
         <f t="shared" si="4"/>
-        <v>112669</v>
+        <v>112670</v>
       </c>
       <c r="C194">
         <v>169</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="4"/>
-        <v>112754</v>
+        <v>112755</v>
       </c>
       <c r="C195">
         <v>85</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B259" si="6">C196+B195</f>
-        <v>113128</v>
+        <v>113129</v>
       </c>
       <c r="C196">
         <v>374</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>113412</v>
+        <v>113413</v>
       </c>
       <c r="C197">
         <v>284</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
-        <v>113716</v>
+        <v>113717</v>
       </c>
       <c r="C198">
         <v>304</v>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
-        <v>114065</v>
+        <v>114066</v>
       </c>
       <c r="C199">
         <v>349</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
-        <v>114407</v>
+        <v>114408</v>
       </c>
       <c r="C200">
         <v>342</v>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
-        <v>114558</v>
+        <v>114559</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
-        <v>114678</v>
+        <v>114679</v>
       </c>
       <c r="C202">
         <v>120</v>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
-        <v>115047</v>
+        <v>115048</v>
       </c>
       <c r="C203">
         <v>369</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>115428</v>
+        <v>115429</v>
       </c>
       <c r="C204">
         <v>381</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>115766</v>
+        <v>115767</v>
       </c>
       <c r="C205">
         <v>338</v>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>116122</v>
+        <v>116123</v>
       </c>
       <c r="C206">
         <v>356</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>116405</v>
+        <v>116406</v>
       </c>
       <c r="C207">
         <v>283</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>116554</v>
+        <v>116555</v>
       </c>
       <c r="C208">
         <v>149</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>116646</v>
+        <v>116647</v>
       </c>
       <c r="C209">
         <v>92</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>117042</v>
+        <v>117043</v>
       </c>
       <c r="C210">
         <v>396</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
-        <v>117422</v>
+        <v>117423</v>
       </c>
       <c r="C211">
         <v>380</v>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>117801</v>
+        <v>117802</v>
       </c>
       <c r="C212">
         <v>379</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>118146</v>
+        <v>118147</v>
       </c>
       <c r="C213">
         <v>345</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>118510</v>
+        <v>118511</v>
       </c>
       <c r="C214">
         <v>364</v>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>118682</v>
+        <v>118683</v>
       </c>
       <c r="C215">
         <v>172</v>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>118821</v>
+        <v>118822</v>
       </c>
       <c r="C216">
         <v>139</v>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>119259</v>
+        <v>119260</v>
       </c>
       <c r="C217">
         <v>438</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>119654</v>
+        <v>119655</v>
       </c>
       <c r="C218">
         <v>395</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>120038</v>
+        <v>120039</v>
       </c>
       <c r="C219">
         <v>384</v>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>120502</v>
+        <v>120503</v>
       </c>
       <c r="C220">
         <v>464</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>120850</v>
+        <v>120851</v>
       </c>
       <c r="C221">
         <v>348</v>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>121048</v>
+        <v>121049</v>
       </c>
       <c r="C222">
         <v>198</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>121160</v>
+        <v>121161</v>
       </c>
       <c r="C223">
         <v>112</v>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>121321</v>
+        <v>121322</v>
       </c>
       <c r="C224">
         <v>161</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>121868</v>
+        <v>121869</v>
       </c>
       <c r="C225">
         <v>547</v>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>122342</v>
+        <v>122343</v>
       </c>
       <c r="C226">
         <v>474</v>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>122752</v>
+        <v>122753</v>
       </c>
       <c r="C227">
         <v>410</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>123161</v>
+        <v>123162</v>
       </c>
       <c r="C228">
         <v>409</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>123350</v>
+        <v>123351</v>
       </c>
       <c r="C229">
         <v>189</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>123511</v>
+        <v>123512</v>
       </c>
       <c r="C230">
         <v>161</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>124015</v>
+        <v>124016</v>
       </c>
       <c r="C231">
         <v>504</v>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>124438</v>
+        <v>124439</v>
       </c>
       <c r="C232">
         <v>423</v>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>124852</v>
+        <v>124853</v>
       </c>
       <c r="C233">
         <v>414</v>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>125207</v>
+        <v>125208</v>
       </c>
       <c r="C234">
         <v>355</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>125642</v>
+        <v>125643</v>
       </c>
       <c r="C235">
         <v>435</v>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>125844</v>
+        <v>125845</v>
       </c>
       <c r="C236">
         <v>202</v>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>125986</v>
+        <v>125987</v>
       </c>
       <c r="C237">
         <v>142</v>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>126413</v>
+        <v>126414</v>
       </c>
       <c r="C238">
         <v>427</v>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>126922</v>
+        <v>126923</v>
       </c>
       <c r="C239">
         <v>509</v>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>127482</v>
+        <v>127483</v>
       </c>
       <c r="C240">
         <v>560</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>128080</v>
+        <v>128081</v>
       </c>
       <c r="C241">
         <v>598</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>128633</v>
+        <v>128634</v>
       </c>
       <c r="C242">
         <v>553</v>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>128997</v>
+        <v>128998</v>
       </c>
       <c r="C243">
         <v>364</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129221</v>
+        <v>129222</v>
       </c>
       <c r="C244">
         <v>224</v>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130088</v>
+        <v>130089</v>
       </c>
       <c r="C245">
         <v>867</v>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130807</v>
+        <v>130808</v>
       </c>
       <c r="C246">
         <v>719</v>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131420</v>
+        <v>131421</v>
       </c>
       <c r="C247">
         <v>613</v>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132103</v>
+        <v>132104</v>
       </c>
       <c r="C248">
         <v>683</v>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132669</v>
+        <v>132670</v>
       </c>
       <c r="C249">
         <v>566</v>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133077</v>
+        <v>133078</v>
       </c>
       <c r="C250">
         <v>408</v>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133369</v>
+        <v>133370</v>
       </c>
       <c r="C251">
         <v>292</v>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134120</v>
+        <v>134121</v>
       </c>
       <c r="C252">
         <v>751</v>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134854</v>
+        <v>134855</v>
       </c>
       <c r="C253">
         <v>734</v>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135574</v>
+        <v>135575</v>
       </c>
       <c r="C254">
         <v>720</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136407</v>
+        <v>136408</v>
       </c>
       <c r="C255">
         <v>833</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137098</v>
+        <v>137099</v>
       </c>
       <c r="C256">
         <v>691</v>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137511</v>
+        <v>137512</v>
       </c>
       <c r="C257">
         <v>413</v>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137775</v>
+        <v>137776</v>
       </c>
       <c r="C258">
         <v>264</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138368</v>
+        <v>138369</v>
       </c>
       <c r="C259">
         <v>593</v>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139156</v>
+        <v>139157</v>
       </c>
       <c r="C260">
         <v>788</v>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140055</v>
+        <v>140056</v>
       </c>
       <c r="C261">
         <v>899</v>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>141006</v>
+        <v>141007</v>
       </c>
       <c r="C262">
         <v>951</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141872</v>
+        <v>141873</v>
       </c>
       <c r="C263">
         <v>866</v>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142416</v>
+        <v>142417</v>
       </c>
       <c r="C264">
         <v>544</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142747</v>
+        <v>142748</v>
       </c>
       <c r="C265">
         <v>331</v>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143827</v>
+        <v>143828</v>
       </c>
       <c r="C266">
         <v>1080</v>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144947</v>
+        <v>144948</v>
       </c>
       <c r="C267">
         <v>1120</v>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146150</v>
+        <v>146151</v>
       </c>
       <c r="C268">
         <v>1203</v>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147529</v>
+        <v>147530</v>
       </c>
       <c r="C269">
         <v>1379</v>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148755</v>
+        <v>148756</v>
       </c>
       <c r="C270">
         <v>1226</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149543</v>
+        <v>149544</v>
       </c>
       <c r="C271">
         <v>788</v>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>150027</v>
+        <v>150028</v>
       </c>
       <c r="C272">
         <v>484</v>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151551</v>
+        <v>151552</v>
       </c>
       <c r="C273">
         <v>1524</v>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152897</v>
+        <v>152898</v>
       </c>
       <c r="C274">
         <v>1346</v>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154340</v>
+        <v>154341</v>
       </c>
       <c r="C275">
         <v>1443</v>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155726</v>
+        <v>155727</v>
       </c>
       <c r="C276">
         <v>1386</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156851</v>
+        <v>156852</v>
       </c>
       <c r="C277">
         <v>1125</v>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157723</v>
+        <v>157724</v>
       </c>
       <c r="C278">
         <v>872</v>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158245</v>
+        <v>158246</v>
       </c>
       <c r="C279">
         <v>522</v>
@@ -5341,13 +5341,13 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160085</v>
+        <v>160086</v>
       </c>
       <c r="C280">
         <v>1840</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D313" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D314" si="10">AVERAGE(C274:C280)</f>
         <v>1219.1428571428571</v>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161996</v>
+        <v>161997</v>
       </c>
       <c r="C281">
         <v>1911</v>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164175</v>
+        <v>164176</v>
       </c>
       <c r="C282">
         <v>2179</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166595</v>
+        <v>166596</v>
       </c>
       <c r="C283">
         <v>2420</v>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168834</v>
+        <v>168835</v>
       </c>
       <c r="C284">
         <v>2239</v>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170161</v>
+        <v>170162</v>
       </c>
       <c r="C285">
         <v>1327</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171103</v>
+        <v>171104</v>
       </c>
       <c r="C286">
         <v>942</v>
@@ -5452,8 +5452,8 @@
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B313" si="11">C287+B286</f>
-        <v>174282</v>
+        <f t="shared" ref="B287:B314" si="11">C287+B286</f>
+        <v>174283</v>
       </c>
       <c r="C287">
         <v>3179</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177106</v>
+        <v>177107</v>
       </c>
       <c r="C288">
         <v>2824</v>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179771</v>
+        <v>179772</v>
       </c>
       <c r="C289">
         <v>2665</v>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182764</v>
+        <v>182765</v>
       </c>
       <c r="C290">
         <v>2993</v>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185373</v>
+        <v>185374</v>
       </c>
       <c r="C291">
         <v>2609</v>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187087</v>
+        <v>187088</v>
       </c>
       <c r="C292">
         <v>1714</v>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188282</v>
+        <v>188283</v>
       </c>
       <c r="C293">
         <v>1195</v>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191804</v>
+        <v>191805</v>
       </c>
       <c r="C294">
         <v>3522</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194939</v>
+        <v>194940</v>
       </c>
       <c r="C295">
         <v>3135</v>
@@ -5600,11 +5600,11 @@
         <v>197858</v>
       </c>
       <c r="C296">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2583.8571428571427</v>
+        <v>2583.7142857142858</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2584.8571428571427</v>
+        <v>2584.7142857142858</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2620.5714285714284</v>
+        <v>2620.4285714285716</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205489</v>
+        <v>205488</v>
       </c>
       <c r="C299">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2628.8571428571427</v>
+        <v>2628.5714285714284</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,14 +5661,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206676</v>
+        <v>206675</v>
       </c>
       <c r="C300">
         <v>1187</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2627.7142857142858</v>
+        <v>2627.4285714285716</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,14 +5677,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210272</v>
+        <v>210271</v>
       </c>
       <c r="C301">
         <v>3596</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2638.2857142857142</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,14 +5693,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>214062</v>
+        <v>214061</v>
       </c>
       <c r="C302">
         <v>3790</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2731.8571428571427</v>
+        <v>2731.5714285714284</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,14 +5709,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>217008</v>
+        <v>217007</v>
       </c>
       <c r="C303">
         <v>2946</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2735.7142857142858</v>
+        <v>2735.5714285714284</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,14 +5725,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217453</v>
+        <v>217452</v>
       </c>
       <c r="C304">
         <v>445</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2370.7142857142858</v>
+        <v>2370.5714285714284</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5741,14 +5741,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220816</v>
+        <v>220814</v>
       </c>
       <c r="C305">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2442.7142857142858</v>
+        <v>2442.4285714285716</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,11 +5760,11 @@
         <v>223718</v>
       </c>
       <c r="C306">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2604.1428571428573</v>
+        <v>2604.2857142857142</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,14 +5773,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225445</v>
+        <v>225458</v>
       </c>
       <c r="C307">
-        <v>1727</v>
+        <v>1740</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2681.2857142857142</v>
+        <v>2683.2857142857142</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,14 +5789,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230739</v>
+        <v>230854</v>
       </c>
       <c r="C308">
-        <v>5294</v>
+        <v>5396</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2923.8571428571427</v>
+        <v>2940.4285714285716</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5805,14 +5805,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236187</v>
+        <v>236478</v>
       </c>
       <c r="C309">
-        <v>5448</v>
+        <v>5624</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3160.7142857142858</v>
+        <v>3202.4285714285716</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,14 +5821,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>240949</v>
+        <v>241672</v>
       </c>
       <c r="C310">
-        <v>4762</v>
+        <v>5194</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3420.1428571428573</v>
+        <v>3523.5714285714284</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,14 +5837,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>244877</v>
+        <v>246143</v>
       </c>
       <c r="C311">
-        <v>3928</v>
+        <v>4471</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>3917.7142857142858</v>
+        <v>4098.7142857142853</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5853,14 +5853,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>247474</v>
+        <v>249191</v>
       </c>
       <c r="C312">
-        <v>2597</v>
+        <v>3048</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>3808.2857142857142</v>
+        <v>4053.8571428571427</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5869,14 +5869,30 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>247559</v>
+        <v>249978</v>
       </c>
       <c r="C313">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>3405.8571428571427</v>
+        <v>3751.4285714285716</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="11"/>
+        <v>250022</v>
+      </c>
+      <c r="C314">
+        <v>44</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="10"/>
+        <v>3509.1428571428573</v>
       </c>
     </row>
   </sheetData>
@@ -5894,6 +5910,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6007,12 +6029,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
   <ds:schemaRefs>
@@ -6022,6 +6038,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6035,13 +6060,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E22A85-5AC4-4893-B365-6B45E1AE7493}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5572DB17-11D4-4D8B-A32F-A63E7DE36E01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C317" sqref="C317"/>
+      <selection pane="bottomRight" activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,14 +1917,14 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>12541</v>
+        <v>12540</v>
       </c>
       <c r="C66">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>1034</v>
+        <v>1033.8571428571429</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1933,14 +1933,14 @@
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>14021</v>
+        <v>14020</v>
       </c>
       <c r="C67">
         <v>1480</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>1110.7142857142858</v>
+        <v>1110.5714285714287</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,14 +1949,14 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B131" si="2">C68+B67</f>
-        <v>15183</v>
+        <v>15182</v>
       </c>
       <c r="C68">
         <v>1162</v>
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>1183.2857142857142</v>
+        <v>1183.1428571428571</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,14 +1965,14 @@
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
-        <v>16160</v>
+        <v>16159</v>
       </c>
       <c r="C69">
         <v>977</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>1248.1428571428571</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,14 +1981,14 @@
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
-        <v>18092</v>
+        <v>18091</v>
       </c>
       <c r="C70">
         <v>1932</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>1347.2857142857142</v>
+        <v>1347.1428571428571</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,14 +1997,14 @@
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
-        <v>20114</v>
+        <v>20113</v>
       </c>
       <c r="C71">
         <v>2022</v>
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
-        <v>1455.2857142857142</v>
+        <v>1455.1428571428571</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,14 +2013,14 @@
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
-        <v>21978</v>
+        <v>21977</v>
       </c>
       <c r="C72">
         <v>1864</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
-        <v>1530.4285714285713</v>
+        <v>1530.2857142857142</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
-        <v>23956</v>
+        <v>23955</v>
       </c>
       <c r="C73">
         <v>1978</v>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
-        <v>26011</v>
+        <v>26010</v>
       </c>
       <c r="C74">
         <v>2055</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
-        <v>27340</v>
+        <v>27339</v>
       </c>
       <c r="C75">
         <v>1329</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="2"/>
-        <v>28270</v>
+        <v>28269</v>
       </c>
       <c r="C76">
         <v>930</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="2"/>
-        <v>30256</v>
+        <v>30255</v>
       </c>
       <c r="C77">
         <v>1986</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="2"/>
-        <v>33183</v>
+        <v>33182</v>
       </c>
       <c r="C78">
         <v>2927</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
-        <v>35723</v>
+        <v>35722</v>
       </c>
       <c r="C79">
         <v>2540</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
-        <v>38109</v>
+        <v>38108</v>
       </c>
       <c r="C80">
         <v>2386</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>41099</v>
+        <v>41098</v>
       </c>
       <c r="C81">
         <v>2990</v>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
-        <v>42580</v>
+        <v>42579</v>
       </c>
       <c r="C82">
         <v>1481</v>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>43669</v>
+        <v>43668</v>
       </c>
       <c r="C83">
         <v>1089</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>46355</v>
+        <v>46354</v>
       </c>
       <c r="C84">
         <v>2686</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
-        <v>48542</v>
+        <v>48541</v>
       </c>
       <c r="C85">
         <v>2187</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>51246</v>
+        <v>51245</v>
       </c>
       <c r="C86">
         <v>2704</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>53651</v>
+        <v>53650</v>
       </c>
       <c r="C87">
         <v>2405</v>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>55928</v>
+        <v>55927</v>
       </c>
       <c r="C88">
         <v>2277</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>57422</v>
+        <v>57421</v>
       </c>
       <c r="C89">
         <v>1494</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>58266</v>
+        <v>58265</v>
       </c>
       <c r="C90">
         <v>844</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>60395</v>
+        <v>60394</v>
       </c>
       <c r="C91">
         <v>2129</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>62499</v>
+        <v>62498</v>
       </c>
       <c r="C92">
         <v>2104</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>64685</v>
+        <v>64684</v>
       </c>
       <c r="C93">
         <v>2186</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>66732</v>
+        <v>66731</v>
       </c>
       <c r="C94">
         <v>2047</v>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>68813</v>
+        <v>68812</v>
       </c>
       <c r="C95">
         <v>2081</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>69842</v>
+        <v>69841</v>
       </c>
       <c r="C96">
         <v>1029</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>70576</v>
+        <v>70575</v>
       </c>
       <c r="C97">
         <v>734</v>
@@ -2429,14 +2429,14 @@
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>72455</v>
+        <v>72453</v>
       </c>
       <c r="C98">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D98">
         <f t="shared" si="3"/>
-        <v>1722.8571428571429</v>
+        <v>1722.7142857142858</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,14 +2445,14 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>74190</v>
+        <v>74187</v>
       </c>
       <c r="C99">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D99">
         <f t="shared" si="3"/>
-        <v>1670.1428571428571</v>
+        <v>1669.8571428571429</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>75889</v>
+        <v>75886</v>
       </c>
       <c r="C100">
         <v>1699</v>
       </c>
       <c r="D100">
         <f t="shared" si="3"/>
-        <v>1600.5714285714287</v>
+        <v>1600.2857142857142</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2477,14 +2477,14 @@
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>77566</v>
+        <v>77563</v>
       </c>
       <c r="C101">
         <v>1677</v>
       </c>
       <c r="D101">
         <f t="shared" si="3"/>
-        <v>1547.7142857142858</v>
+        <v>1547.4285714285713</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2493,14 +2493,14 @@
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>79020</v>
+        <v>79017</v>
       </c>
       <c r="C102">
         <v>1454</v>
       </c>
       <c r="D102">
         <f t="shared" si="3"/>
-        <v>1458.1428571428571</v>
+        <v>1457.8571428571429</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2509,14 +2509,14 @@
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>79703</v>
+        <v>79700</v>
       </c>
       <c r="C103">
         <v>683</v>
       </c>
       <c r="D103">
         <f t="shared" si="3"/>
-        <v>1408.7142857142858</v>
+        <v>1408.4285714285713</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,14 +2525,14 @@
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>80088</v>
+        <v>80085</v>
       </c>
       <c r="C104">
         <v>385</v>
       </c>
       <c r="D104">
         <f t="shared" si="3"/>
-        <v>1358.8571428571429</v>
+        <v>1358.5714285714287</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>81394</v>
+        <v>81391</v>
       </c>
       <c r="C105">
         <v>1306</v>
       </c>
       <c r="D105">
         <f t="shared" si="3"/>
-        <v>1277</v>
+        <v>1276.8571428571429</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>82845</v>
+        <v>82842</v>
       </c>
       <c r="C106">
         <v>1451</v>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>84158</v>
+        <v>84155</v>
       </c>
       <c r="C107">
         <v>1313</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>85473</v>
+        <v>85470</v>
       </c>
       <c r="C108">
         <v>1315</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>86578</v>
+        <v>86575</v>
       </c>
       <c r="C109">
         <v>1105</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>87223</v>
+        <v>87220</v>
       </c>
       <c r="C110">
         <v>645</v>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>87586</v>
+        <v>87583</v>
       </c>
       <c r="C111">
         <v>363</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>88900</v>
+        <v>88897</v>
       </c>
       <c r="C112">
         <v>1314</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>89973</v>
+        <v>89970</v>
       </c>
       <c r="C113">
         <v>1073</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>90984</v>
+        <v>90981</v>
       </c>
       <c r="C114">
         <v>1011</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>91949</v>
+        <v>91946</v>
       </c>
       <c r="C115">
         <v>965</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>92812</v>
+        <v>92809</v>
       </c>
       <c r="C116">
         <v>863</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>93200</v>
+        <v>93197</v>
       </c>
       <c r="C117">
         <v>388</v>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>93502</v>
+        <v>93499</v>
       </c>
       <c r="C118">
         <v>302</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>93700</v>
+        <v>93697</v>
       </c>
       <c r="C119">
         <v>198</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>94564</v>
+        <v>94561</v>
       </c>
       <c r="C120">
         <v>864</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>95251</v>
+        <v>95248</v>
       </c>
       <c r="C121">
         <v>687</v>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>95890</v>
+        <v>95887</v>
       </c>
       <c r="C122">
         <v>639</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>96420</v>
+        <v>96417</v>
       </c>
       <c r="C123">
         <v>530</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>96691</v>
+        <v>96688</v>
       </c>
       <c r="C124">
         <v>271</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>96852</v>
+        <v>96849</v>
       </c>
       <c r="C125">
         <v>161</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>97360</v>
+        <v>97357</v>
       </c>
       <c r="C126">
         <v>508</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
-        <v>97807</v>
+        <v>97804</v>
       </c>
       <c r="C127">
         <v>447</v>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
-        <v>98266</v>
+        <v>98263</v>
       </c>
       <c r="C128">
         <v>459</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>98645</v>
+        <v>98642</v>
       </c>
       <c r="C129">
         <v>379</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>98982</v>
+        <v>98979</v>
       </c>
       <c r="C130">
         <v>337</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="2"/>
-        <v>99130</v>
+        <v>99127</v>
       </c>
       <c r="C131">
         <v>148</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" si="4">C132+B131</f>
-        <v>99281</v>
+        <v>99278</v>
       </c>
       <c r="C132">
         <v>151</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>99634</v>
+        <v>99631</v>
       </c>
       <c r="C133">
         <v>353</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>99977</v>
+        <v>99974</v>
       </c>
       <c r="C134">
         <v>343</v>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>100236</v>
+        <v>100233</v>
       </c>
       <c r="C135">
         <v>259</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>100462</v>
+        <v>100459</v>
       </c>
       <c r="C136">
         <v>226</v>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
-        <v>100716</v>
+        <v>100713</v>
       </c>
       <c r="C137">
         <v>254</v>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>100813</v>
+        <v>100810</v>
       </c>
       <c r="C138">
         <v>97</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>100889</v>
+        <v>100886</v>
       </c>
       <c r="C139">
         <v>76</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>101124</v>
+        <v>101121</v>
       </c>
       <c r="C140">
         <v>235</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>101322</v>
+        <v>101319</v>
       </c>
       <c r="C141">
         <v>198</v>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>101571</v>
+        <v>101568</v>
       </c>
       <c r="C142">
         <v>249</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>101811</v>
+        <v>101808</v>
       </c>
       <c r="C143">
         <v>240</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>101986</v>
+        <v>101983</v>
       </c>
       <c r="C144">
         <v>175</v>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>102079</v>
+        <v>102076</v>
       </c>
       <c r="C145">
         <v>93</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>102158</v>
+        <v>102155</v>
       </c>
       <c r="C146">
         <v>79</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>102383</v>
+        <v>102380</v>
       </c>
       <c r="C147">
         <v>225</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>102572</v>
+        <v>102569</v>
       </c>
       <c r="C148">
         <v>189</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>102782</v>
+        <v>102779</v>
       </c>
       <c r="C149">
         <v>210</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>102988</v>
+        <v>102985</v>
       </c>
       <c r="C150">
         <v>206</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>103186</v>
+        <v>103183</v>
       </c>
       <c r="C151">
         <v>198</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>103320</v>
+        <v>103317</v>
       </c>
       <c r="C152">
         <v>134</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>103391</v>
+        <v>103388</v>
       </c>
       <c r="C153">
         <v>71</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>103596</v>
+        <v>103593</v>
       </c>
       <c r="C154">
         <v>205</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>103816</v>
+        <v>103813</v>
       </c>
       <c r="C155">
         <v>220</v>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>104032</v>
+        <v>104029</v>
       </c>
       <c r="C156">
         <v>216</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>104258</v>
+        <v>104255</v>
       </c>
       <c r="C157">
         <v>226</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>104357</v>
+        <v>104354</v>
       </c>
       <c r="C158">
         <v>99</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>104417</v>
+        <v>104414</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>104518</v>
+        <v>104515</v>
       </c>
       <c r="C160">
         <v>101</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>104755</v>
+        <v>104752</v>
       </c>
       <c r="C161">
         <v>237</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>104997</v>
+        <v>104994</v>
       </c>
       <c r="C162">
         <v>242</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>105213</v>
+        <v>105210</v>
       </c>
       <c r="C163">
         <v>216</v>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>105467</v>
+        <v>105464</v>
       </c>
       <c r="C164">
         <v>254</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>105695</v>
+        <v>105692</v>
       </c>
       <c r="C165">
         <v>228</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>105812</v>
+        <v>105809</v>
       </c>
       <c r="C166">
         <v>117</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>105899</v>
+        <v>105896</v>
       </c>
       <c r="C167">
         <v>87</v>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>106165</v>
+        <v>106162</v>
       </c>
       <c r="C168">
         <v>266</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
-        <v>106397</v>
+        <v>106394</v>
       </c>
       <c r="C169">
         <v>232</v>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>106695</v>
+        <v>106692</v>
       </c>
       <c r="C170">
         <v>298</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>106939</v>
+        <v>106936</v>
       </c>
       <c r="C171">
         <v>244</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>107166</v>
+        <v>107163</v>
       </c>
       <c r="C172">
         <v>227</v>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>107294</v>
+        <v>107291</v>
       </c>
       <c r="C173">
         <v>128</v>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>107368</v>
+        <v>107365</v>
       </c>
       <c r="C174">
         <v>74</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
-        <v>107647</v>
+        <v>107644</v>
       </c>
       <c r="C175">
         <v>279</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>107902</v>
+        <v>107899</v>
       </c>
       <c r="C176">
         <v>255</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>108160</v>
+        <v>108157</v>
       </c>
       <c r="C177">
         <v>258</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
-        <v>108419</v>
+        <v>108416</v>
       </c>
       <c r="C178">
         <v>259</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
-        <v>108677</v>
+        <v>108674</v>
       </c>
       <c r="C179">
         <v>258</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="4"/>
-        <v>108836</v>
+        <v>108833</v>
       </c>
       <c r="C180">
         <v>159</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="4"/>
-        <v>108937</v>
+        <v>108934</v>
       </c>
       <c r="C181">
         <v>101</v>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
-        <v>109298</v>
+        <v>109295</v>
       </c>
       <c r="C182">
         <v>361</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
-        <v>109618</v>
+        <v>109615</v>
       </c>
       <c r="C183">
         <v>320</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="4"/>
-        <v>109937</v>
+        <v>109934</v>
       </c>
       <c r="C184">
         <v>319</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
-        <v>110273</v>
+        <v>110270</v>
       </c>
       <c r="C185">
         <v>336</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
-        <v>110592</v>
+        <v>110589</v>
       </c>
       <c r="C186">
         <v>319</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
-        <v>110739</v>
+        <v>110736</v>
       </c>
       <c r="C187">
         <v>147</v>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
-        <v>110848</v>
+        <v>110845</v>
       </c>
       <c r="C188">
         <v>109</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="4"/>
-        <v>111207</v>
+        <v>111204</v>
       </c>
       <c r="C189">
         <v>359</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>111515</v>
+        <v>111512</v>
       </c>
       <c r="C190">
         <v>308</v>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
-        <v>111848</v>
+        <v>111845</v>
       </c>
       <c r="C191">
         <v>333</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
-        <v>112202</v>
+        <v>112199</v>
       </c>
       <c r="C192">
         <v>354</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="4"/>
-        <v>112501</v>
+        <v>112498</v>
       </c>
       <c r="C193">
         <v>299</v>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B194">
         <f t="shared" si="4"/>
-        <v>112670</v>
+        <v>112667</v>
       </c>
       <c r="C194">
         <v>169</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="4"/>
-        <v>112755</v>
+        <v>112752</v>
       </c>
       <c r="C195">
         <v>85</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B259" si="6">C196+B195</f>
-        <v>113129</v>
+        <v>113126</v>
       </c>
       <c r="C196">
         <v>374</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>113413</v>
+        <v>113410</v>
       </c>
       <c r="C197">
         <v>284</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
-        <v>113717</v>
+        <v>113714</v>
       </c>
       <c r="C198">
         <v>304</v>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
-        <v>114066</v>
+        <v>114063</v>
       </c>
       <c r="C199">
         <v>349</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
-        <v>114408</v>
+        <v>114405</v>
       </c>
       <c r="C200">
         <v>342</v>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
-        <v>114559</v>
+        <v>114556</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
-        <v>114679</v>
+        <v>114676</v>
       </c>
       <c r="C202">
         <v>120</v>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
-        <v>115048</v>
+        <v>115045</v>
       </c>
       <c r="C203">
         <v>369</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>115429</v>
+        <v>115426</v>
       </c>
       <c r="C204">
         <v>381</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>115767</v>
+        <v>115764</v>
       </c>
       <c r="C205">
         <v>338</v>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>116123</v>
+        <v>116120</v>
       </c>
       <c r="C206">
         <v>356</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>116406</v>
+        <v>116403</v>
       </c>
       <c r="C207">
         <v>283</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>116555</v>
+        <v>116552</v>
       </c>
       <c r="C208">
         <v>149</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>116647</v>
+        <v>116644</v>
       </c>
       <c r="C209">
         <v>92</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>117043</v>
+        <v>117040</v>
       </c>
       <c r="C210">
         <v>396</v>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
-        <v>117423</v>
+        <v>117420</v>
       </c>
       <c r="C211">
         <v>380</v>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>117802</v>
+        <v>117799</v>
       </c>
       <c r="C212">
         <v>379</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>118147</v>
+        <v>118144</v>
       </c>
       <c r="C213">
         <v>345</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>118511</v>
+        <v>118508</v>
       </c>
       <c r="C214">
         <v>364</v>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>118683</v>
+        <v>118680</v>
       </c>
       <c r="C215">
         <v>172</v>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>118822</v>
+        <v>118819</v>
       </c>
       <c r="C216">
         <v>139</v>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>119260</v>
+        <v>119257</v>
       </c>
       <c r="C217">
         <v>438</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>119655</v>
+        <v>119652</v>
       </c>
       <c r="C218">
         <v>395</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>120039</v>
+        <v>120036</v>
       </c>
       <c r="C219">
         <v>384</v>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>120503</v>
+        <v>120500</v>
       </c>
       <c r="C220">
         <v>464</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>120851</v>
+        <v>120848</v>
       </c>
       <c r="C221">
         <v>348</v>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>121049</v>
+        <v>121046</v>
       </c>
       <c r="C222">
         <v>198</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>121161</v>
+        <v>121158</v>
       </c>
       <c r="C223">
         <v>112</v>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>121322</v>
+        <v>121319</v>
       </c>
       <c r="C224">
         <v>161</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>121869</v>
+        <v>121866</v>
       </c>
       <c r="C225">
         <v>547</v>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>122343</v>
+        <v>122340</v>
       </c>
       <c r="C226">
         <v>474</v>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>122753</v>
+        <v>122750</v>
       </c>
       <c r="C227">
         <v>410</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>123162</v>
+        <v>123159</v>
       </c>
       <c r="C228">
         <v>409</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>123351</v>
+        <v>123348</v>
       </c>
       <c r="C229">
         <v>189</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>123512</v>
+        <v>123509</v>
       </c>
       <c r="C230">
         <v>161</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>124016</v>
+        <v>124013</v>
       </c>
       <c r="C231">
         <v>504</v>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>124439</v>
+        <v>124436</v>
       </c>
       <c r="C232">
         <v>423</v>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>124853</v>
+        <v>124850</v>
       </c>
       <c r="C233">
         <v>414</v>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>125208</v>
+        <v>125205</v>
       </c>
       <c r="C234">
         <v>355</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>125643</v>
+        <v>125640</v>
       </c>
       <c r="C235">
         <v>435</v>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>125845</v>
+        <v>125842</v>
       </c>
       <c r="C236">
         <v>202</v>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>125987</v>
+        <v>125984</v>
       </c>
       <c r="C237">
         <v>142</v>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>126414</v>
+        <v>126411</v>
       </c>
       <c r="C238">
         <v>427</v>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>126923</v>
+        <v>126920</v>
       </c>
       <c r="C239">
         <v>509</v>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>127483</v>
+        <v>127480</v>
       </c>
       <c r="C240">
         <v>560</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>128081</v>
+        <v>128078</v>
       </c>
       <c r="C241">
         <v>598</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>128634</v>
+        <v>128631</v>
       </c>
       <c r="C242">
         <v>553</v>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>128998</v>
+        <v>128995</v>
       </c>
       <c r="C243">
         <v>364</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129222</v>
+        <v>129219</v>
       </c>
       <c r="C244">
         <v>224</v>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130089</v>
+        <v>130086</v>
       </c>
       <c r="C245">
         <v>867</v>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130808</v>
+        <v>130805</v>
       </c>
       <c r="C246">
         <v>719</v>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131421</v>
+        <v>131418</v>
       </c>
       <c r="C247">
         <v>613</v>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132104</v>
+        <v>132101</v>
       </c>
       <c r="C248">
         <v>683</v>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132670</v>
+        <v>132667</v>
       </c>
       <c r="C249">
         <v>566</v>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133078</v>
+        <v>133075</v>
       </c>
       <c r="C250">
         <v>408</v>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133370</v>
+        <v>133367</v>
       </c>
       <c r="C251">
         <v>292</v>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134121</v>
+        <v>134118</v>
       </c>
       <c r="C252">
         <v>751</v>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134855</v>
+        <v>134852</v>
       </c>
       <c r="C253">
         <v>734</v>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135575</v>
+        <v>135572</v>
       </c>
       <c r="C254">
         <v>720</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136408</v>
+        <v>136405</v>
       </c>
       <c r="C255">
         <v>833</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137099</v>
+        <v>137096</v>
       </c>
       <c r="C256">
         <v>691</v>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137512</v>
+        <v>137509</v>
       </c>
       <c r="C257">
         <v>413</v>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137776</v>
+        <v>137773</v>
       </c>
       <c r="C258">
         <v>264</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138369</v>
+        <v>138366</v>
       </c>
       <c r="C259">
         <v>593</v>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139157</v>
+        <v>139154</v>
       </c>
       <c r="C260">
         <v>788</v>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140056</v>
+        <v>140053</v>
       </c>
       <c r="C261">
         <v>899</v>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>141007</v>
+        <v>141004</v>
       </c>
       <c r="C262">
         <v>951</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141873</v>
+        <v>141870</v>
       </c>
       <c r="C263">
         <v>866</v>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142417</v>
+        <v>142414</v>
       </c>
       <c r="C264">
         <v>544</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142748</v>
+        <v>142745</v>
       </c>
       <c r="C265">
         <v>331</v>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143828</v>
+        <v>143825</v>
       </c>
       <c r="C266">
         <v>1080</v>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144948</v>
+        <v>144945</v>
       </c>
       <c r="C267">
         <v>1120</v>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146151</v>
+        <v>146148</v>
       </c>
       <c r="C268">
         <v>1203</v>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147530</v>
+        <v>147527</v>
       </c>
       <c r="C269">
         <v>1379</v>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148756</v>
+        <v>148753</v>
       </c>
       <c r="C270">
         <v>1226</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149544</v>
+        <v>149541</v>
       </c>
       <c r="C271">
         <v>788</v>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>150028</v>
+        <v>150025</v>
       </c>
       <c r="C272">
         <v>484</v>
@@ -5229,14 +5229,14 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151552</v>
+        <v>151550</v>
       </c>
       <c r="C273">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D273">
         <f t="shared" si="9"/>
-        <v>1103.4285714285713</v>
+        <v>1103.5714285714287</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5245,14 +5245,14 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152898</v>
+        <v>152896</v>
       </c>
       <c r="C274">
         <v>1346</v>
       </c>
       <c r="D274">
         <f t="shared" si="9"/>
-        <v>1135.7142857142858</v>
+        <v>1135.8571428571429</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5261,14 +5261,14 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154341</v>
+        <v>154339</v>
       </c>
       <c r="C275">
         <v>1443</v>
       </c>
       <c r="D275">
         <f t="shared" si="9"/>
-        <v>1170</v>
+        <v>1170.1428571428571</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5277,14 +5277,14 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155727</v>
+        <v>155725</v>
       </c>
       <c r="C276">
         <v>1386</v>
       </c>
       <c r="D276">
         <f t="shared" si="9"/>
-        <v>1171</v>
+        <v>1171.1428571428571</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5293,14 +5293,14 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156852</v>
+        <v>156850</v>
       </c>
       <c r="C277">
         <v>1125</v>
       </c>
       <c r="D277">
         <f t="shared" si="9"/>
-        <v>1156.5714285714287</v>
+        <v>1156.7142857142858</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,14 +5309,14 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157724</v>
+        <v>157722</v>
       </c>
       <c r="C278">
         <v>872</v>
       </c>
       <c r="D278">
         <f t="shared" si="9"/>
-        <v>1168.5714285714287</v>
+        <v>1168.7142857142858</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5325,14 +5325,14 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158246</v>
+        <v>158244</v>
       </c>
       <c r="C279">
         <v>522</v>
       </c>
       <c r="D279">
         <f t="shared" si="9"/>
-        <v>1174</v>
+        <v>1174.1428571428571</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5341,13 +5341,13 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160086</v>
+        <v>160084</v>
       </c>
       <c r="C280">
         <v>1840</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D314" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D315" si="10">AVERAGE(C274:C280)</f>
         <v>1219.1428571428571</v>
       </c>
     </row>
@@ -5357,14 +5357,14 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161997</v>
+        <v>161994</v>
       </c>
       <c r="C281">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D281">
         <f t="shared" si="10"/>
-        <v>1299.8571428571429</v>
+        <v>1299.7142857142858</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5373,14 +5373,14 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164176</v>
+        <v>164173</v>
       </c>
       <c r="C282">
         <v>2179</v>
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1405</v>
+        <v>1404.8571428571429</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5389,14 +5389,14 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166596</v>
+        <v>166593</v>
       </c>
       <c r="C283">
         <v>2420</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1552.7142857142858</v>
+        <v>1552.5714285714287</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5405,14 +5405,14 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168835</v>
+        <v>168832</v>
       </c>
       <c r="C284">
         <v>2239</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1711.8571428571429</v>
+        <v>1711.7142857142858</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,14 +5421,14 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170162</v>
+        <v>170159</v>
       </c>
       <c r="C285">
         <v>1327</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1776.8571428571429</v>
+        <v>1776.7142857142858</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5437,14 +5437,14 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171104</v>
+        <v>171101</v>
       </c>
       <c r="C286">
         <v>942</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1836.8571428571429</v>
+        <v>1836.7142857142858</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5452,11 +5452,11 @@
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B314" si="11">C287+B286</f>
-        <v>174283</v>
+        <f t="shared" ref="B287:B315" si="11">C287+B286</f>
+        <v>174281</v>
       </c>
       <c r="C287">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
@@ -5469,14 +5469,14 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177107</v>
+        <v>177105</v>
       </c>
       <c r="C288">
         <v>2824</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2158.5714285714284</v>
+        <v>2158.7142857142858</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,14 +5485,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179772</v>
+        <v>179771</v>
       </c>
       <c r="C289">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2228</v>
+        <v>2228.2857142857142</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,14 +5501,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182765</v>
+        <v>182764</v>
       </c>
       <c r="C290">
         <v>2993</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2309.8571428571427</v>
+        <v>2310.1428571428573</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5517,14 +5517,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185374</v>
+        <v>185373</v>
       </c>
       <c r="C291">
         <v>2609</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2362.7142857142858</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,14 +5533,14 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187088</v>
+        <v>187086</v>
       </c>
       <c r="C292">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2418</v>
+        <v>2418.1428571428573</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188283</v>
+        <v>188281</v>
       </c>
       <c r="C293">
         <v>1195</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2454.1428571428573</v>
+        <v>2454.2857142857142</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,14 +5565,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191805</v>
+        <v>191804</v>
       </c>
       <c r="C294">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2503.1428571428573</v>
+        <v>2503.2857142857142</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5581,14 +5581,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194940</v>
+        <v>194939</v>
       </c>
       <c r="C295">
         <v>3135</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2547.5714285714284</v>
+        <v>2547.7142857142858</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197858</v>
+        <v>197857</v>
       </c>
       <c r="C296">
         <v>2918</v>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200858</v>
+        <v>200857</v>
       </c>
       <c r="C297">
         <v>3000</v>
@@ -5629,14 +5629,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203717</v>
+        <v>203714</v>
       </c>
       <c r="C298">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2620.4285714285716</v>
+        <v>2620.1428571428573</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205488</v>
+        <v>205485</v>
       </c>
       <c r="C299">
         <v>1771</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2628.5714285714284</v>
+        <v>2628.4285714285716</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,10 +5661,10 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206675</v>
+        <v>206673</v>
       </c>
       <c r="C300">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
@@ -5677,10 +5677,10 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210271</v>
+        <v>210270</v>
       </c>
       <c r="C301">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
@@ -5693,14 +5693,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>214061</v>
+        <v>214062</v>
       </c>
       <c r="C302">
-        <v>3790</v>
+        <v>3792</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2731.5714285714284</v>
+        <v>2731.8571428571427</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,14 +5709,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>217007</v>
+        <v>217008</v>
       </c>
       <c r="C303">
         <v>2946</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2735.5714285714284</v>
+        <v>2735.8571428571427</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,14 +5725,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217452</v>
+        <v>217455</v>
       </c>
       <c r="C304">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2370.5714285714284</v>
+        <v>2371.1428571428573</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5741,14 +5741,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220814</v>
+        <v>220820</v>
       </c>
       <c r="C305">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2442.4285714285716</v>
+        <v>2443.7142857142858</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,14 +5757,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223718</v>
+        <v>223729</v>
       </c>
       <c r="C306">
-        <v>2904</v>
+        <v>2909</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2604.2857142857142</v>
+        <v>2606.2857142857142</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,14 +5773,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225458</v>
+        <v>225480</v>
       </c>
       <c r="C307">
-        <v>1740</v>
+        <v>1751</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2683.2857142857142</v>
+        <v>2686.7142857142858</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,14 +5789,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230854</v>
+        <v>230920</v>
       </c>
       <c r="C308">
-        <v>5396</v>
+        <v>5440</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2940.4285714285716</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5805,14 +5805,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236478</v>
+        <v>236685</v>
       </c>
       <c r="C309">
-        <v>5624</v>
+        <v>5765</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3202.4285714285716</v>
+        <v>3231.8571428571427</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,14 +5821,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>241672</v>
+        <v>242272</v>
       </c>
       <c r="C310">
-        <v>5194</v>
+        <v>5587</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3523.5714285714284</v>
+        <v>3609.1428571428573</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,14 +5837,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>246143</v>
+        <v>247259</v>
       </c>
       <c r="C311">
-        <v>4471</v>
+        <v>4987</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4098.7142857142853</v>
+        <v>4257.7142857142853</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5853,14 +5853,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>249191</v>
+        <v>251144</v>
       </c>
       <c r="C312">
-        <v>3048</v>
+        <v>3885</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4053.8571428571427</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5869,14 +5869,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>249978</v>
+        <v>252374</v>
       </c>
       <c r="C313">
-        <v>787</v>
+        <v>1230</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>3751.4285714285716</v>
+        <v>4092.1428571428573</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5885,14 +5885,30 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>250022</v>
+        <v>253355</v>
       </c>
       <c r="C314">
-        <v>44</v>
+        <v>981</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>3509.1428571428573</v>
+        <v>3982.1428571428573</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="11"/>
+        <v>253649</v>
+      </c>
+      <c r="C315">
+        <v>294</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="10"/>
+        <v>3247</v>
       </c>
     </row>
   </sheetData>
@@ -5910,12 +5926,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6029,6 +6039,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
   <ds:schemaRefs>
@@ -6038,15 +6054,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6060,4 +6067,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5572DB17-11D4-4D8B-A32F-A63E7DE36E01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF4470-FF08-4953-98B2-F059FB7BD44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasesByDate" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -881,24 +884,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B304" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C321" sqref="C321"/>
+      <selection pane="bottomRight" activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43859</v>
       </c>
@@ -923,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43860</v>
       </c>
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43861</v>
       </c>
@@ -947,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43862</v>
       </c>
@@ -959,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43863</v>
       </c>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43864</v>
       </c>
@@ -983,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43865</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43866</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43867</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43868</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43869</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43870</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43871</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43872</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43874</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43875</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43876</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43877</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43878</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43879</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43880</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43881</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43882</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43883</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43884</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43885</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43886</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43887</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43888</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43889</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43890</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43891</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43892</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43893</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43894</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43895</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43896</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43897</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43898</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43899</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43900</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43901</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43902</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43903</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>27.714285714285715</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43904</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>31.857142857142858</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43905</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>38.857142857142854</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43906</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>59.571428571428569</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43907</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>93.142857142857139</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43908</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43909</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>162.57142857142858</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43910</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>209.28571428571428</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43911</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>244.85714285714286</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43912</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43913</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>341.57142857142856</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43914</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>408.57142857142856</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43915</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>478.14285714285717</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43916</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43917</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>651.28571428571433</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43918</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>698.71428571428567</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43919</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>732.57142857142856</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43920</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>822.42857142857144</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43921</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>900.71428571428567</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43922</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>985.28571428571433</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43923</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>1033.8571428571429</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43924</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>1110.5714285714287</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43925</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>1183.1428571428571</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43926</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43927</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>1347.1428571428571</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43928</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>1455.1428571428571</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43929</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>1530.2857142857142</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43930</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>1630.7142857142858</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43931</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>1712.8571428571429</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43932</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>1736.7142857142858</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43933</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43934</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>1737.7142857142858</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43935</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43936</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>1963.5714285714287</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43937</v>
       </c>
@@ -2151,717 +2154,717 @@
         <v>2021.8571428571429</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43938</v>
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>41098</v>
+        <v>41097</v>
       </c>
       <c r="C81">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="D81">
         <f t="shared" si="3"/>
-        <v>2155.4285714285716</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2155.2857142857142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43939</v>
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
-        <v>42579</v>
+        <v>42577</v>
       </c>
       <c r="C82">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D82">
         <f t="shared" si="3"/>
-        <v>2177.1428571428573</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2176.8571428571427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43940</v>
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>43668</v>
+        <v>43666</v>
       </c>
       <c r="C83">
         <v>1089</v>
       </c>
       <c r="D83">
         <f t="shared" si="3"/>
-        <v>2199.8571428571427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2199.5714285714284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43941</v>
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>46354</v>
+        <v>46352</v>
       </c>
       <c r="C84">
         <v>2686</v>
       </c>
       <c r="D84">
         <f t="shared" si="3"/>
-        <v>2299.8571428571427</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2299.5714285714284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43942</v>
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
-        <v>48541</v>
+        <v>48538</v>
       </c>
       <c r="C85">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D85">
         <f t="shared" si="3"/>
-        <v>2194.1428571428573</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2193.7142857142858</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43943</v>
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>51245</v>
+        <v>51241</v>
       </c>
       <c r="C86">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D86">
         <f t="shared" si="3"/>
-        <v>2217.5714285714284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43944</v>
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>53650</v>
+        <v>53646</v>
       </c>
       <c r="C87">
         <v>2405</v>
       </c>
       <c r="D87">
         <f t="shared" si="3"/>
-        <v>2220.2857142857142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2219.7142857142858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43945</v>
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>55927</v>
+        <v>55920</v>
       </c>
       <c r="C88">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="D88">
         <f t="shared" si="3"/>
-        <v>2118.4285714285716</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2117.5714285714284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43946</v>
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>57421</v>
+        <v>57412</v>
       </c>
       <c r="C89">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="D89">
         <f t="shared" si="3"/>
-        <v>2120.2857142857142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2119.2857142857142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43947</v>
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>58265</v>
+        <v>58256</v>
       </c>
       <c r="C90">
         <v>844</v>
       </c>
       <c r="D90">
         <f t="shared" si="3"/>
-        <v>2085.2857142857142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2084.2857142857142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43948</v>
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>60394</v>
+        <v>60384</v>
       </c>
       <c r="C91">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D91">
         <f t="shared" si="3"/>
-        <v>2005.7142857142858</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2004.5714285714287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43949</v>
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>62498</v>
+        <v>62487</v>
       </c>
       <c r="C92">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D92">
         <f t="shared" si="3"/>
-        <v>1993.8571428571429</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1992.7142857142858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43950</v>
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>64684</v>
+        <v>64673</v>
       </c>
       <c r="C93">
         <v>2186</v>
       </c>
       <c r="D93">
         <f t="shared" si="3"/>
-        <v>1919.8571428571429</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1918.8571428571429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43951</v>
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>66731</v>
+        <v>66720</v>
       </c>
       <c r="C94">
         <v>2047</v>
       </c>
       <c r="D94">
         <f t="shared" si="3"/>
-        <v>1868.7142857142858</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1867.7142857142858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43952</v>
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>68812</v>
+        <v>68801</v>
       </c>
       <c r="C95">
         <v>2081</v>
       </c>
       <c r="D95">
         <f t="shared" si="3"/>
-        <v>1840.7142857142858</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1840.1428571428571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43953</v>
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>69841</v>
+        <v>69830</v>
       </c>
       <c r="C96">
         <v>1029</v>
       </c>
       <c r="D96">
         <f t="shared" si="3"/>
-        <v>1774.2857142857142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43954</v>
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>70575</v>
+        <v>70563</v>
       </c>
       <c r="C97">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D97">
         <f t="shared" si="3"/>
-        <v>1758.5714285714287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1758.1428571428571</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43955</v>
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>72453</v>
+        <v>72441</v>
       </c>
       <c r="C98">
         <v>1878</v>
       </c>
       <c r="D98">
         <f t="shared" si="3"/>
-        <v>1722.7142857142858</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1722.4285714285713</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43956</v>
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>74187</v>
+        <v>74175</v>
       </c>
       <c r="C99">
         <v>1734</v>
       </c>
       <c r="D99">
         <f t="shared" si="3"/>
-        <v>1669.8571428571429</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1669.7142857142858</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43957</v>
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>75886</v>
+        <v>75873</v>
       </c>
       <c r="C100">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D100">
         <f t="shared" si="3"/>
-        <v>1600.2857142857142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43958</v>
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>77563</v>
+        <v>77550</v>
       </c>
       <c r="C101">
         <v>1677</v>
       </c>
       <c r="D101">
         <f t="shared" si="3"/>
-        <v>1547.4285714285713</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1547.1428571428571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43959</v>
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>79017</v>
+        <v>79004</v>
       </c>
       <c r="C102">
         <v>1454</v>
       </c>
       <c r="D102">
         <f t="shared" si="3"/>
-        <v>1457.8571428571429</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1457.5714285714287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43960</v>
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>79700</v>
+        <v>79686</v>
       </c>
       <c r="C103">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D103">
         <f t="shared" si="3"/>
-        <v>1408.4285714285713</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43961</v>
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>80085</v>
+        <v>80071</v>
       </c>
       <c r="C104">
         <v>385</v>
       </c>
       <c r="D104">
         <f t="shared" si="3"/>
-        <v>1358.5714285714287</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1358.2857142857142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43962</v>
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>81391</v>
+        <v>81377</v>
       </c>
       <c r="C105">
         <v>1306</v>
       </c>
       <c r="D105">
         <f t="shared" si="3"/>
-        <v>1276.8571428571429</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1276.5714285714287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43963</v>
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>82842</v>
+        <v>82827</v>
       </c>
       <c r="C106">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D106">
         <f t="shared" si="3"/>
-        <v>1236.4285714285713</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43964</v>
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>84155</v>
+        <v>84138</v>
       </c>
       <c r="C107">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D107">
         <f t="shared" si="3"/>
-        <v>1181.2857142857142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1180.7142857142858</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43965</v>
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>85470</v>
+        <v>85453</v>
       </c>
       <c r="C108">
         <v>1315</v>
       </c>
       <c r="D108">
         <f t="shared" si="3"/>
-        <v>1129.5714285714287</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43966</v>
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>86575</v>
+        <v>86558</v>
       </c>
       <c r="C109">
         <v>1105</v>
       </c>
       <c r="D109">
         <f t="shared" si="3"/>
-        <v>1079.7142857142858</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1079.1428571428571</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43967</v>
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>87220</v>
+        <v>87203</v>
       </c>
       <c r="C110">
         <v>645</v>
       </c>
       <c r="D110">
         <f t="shared" si="3"/>
-        <v>1074.2857142857142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1073.8571428571429</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43968</v>
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>87583</v>
+        <v>87566</v>
       </c>
       <c r="C111">
         <v>363</v>
       </c>
       <c r="D111">
         <f t="shared" si="3"/>
-        <v>1071.1428571428571</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1070.7142857142858</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43969</v>
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>88897</v>
+        <v>88879</v>
       </c>
       <c r="C112">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D112">
         <f t="shared" si="3"/>
-        <v>1072.2857142857142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1071.7142857142858</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43970</v>
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>89970</v>
+        <v>89952</v>
       </c>
       <c r="C113">
         <v>1073</v>
       </c>
       <c r="D113">
         <f t="shared" si="3"/>
-        <v>1018.2857142857143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1017.8571428571429</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43971</v>
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>90981</v>
+        <v>90963</v>
       </c>
       <c r="C114">
         <v>1011</v>
       </c>
       <c r="D114">
         <f t="shared" si="3"/>
-        <v>975.14285714285711</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43972</v>
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>91946</v>
+        <v>91927</v>
       </c>
       <c r="C115">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D115">
         <f t="shared" si="3"/>
-        <v>925.14285714285711</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>924.85714285714289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43973</v>
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>92809</v>
+        <v>92789</v>
       </c>
       <c r="C116">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D116">
         <f t="shared" si="3"/>
-        <v>890.57142857142856</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>890.14285714285711</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43974</v>
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>93197</v>
+        <v>93176</v>
       </c>
       <c r="C117">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D117">
         <f t="shared" si="3"/>
-        <v>853.85714285714289</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>853.28571428571433</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43975</v>
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>93499</v>
+        <v>93477</v>
       </c>
       <c r="C118">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D118">
         <f t="shared" si="3"/>
-        <v>845.14285714285711</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>844.42857142857144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43976</v>
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>93697</v>
+        <v>93675</v>
       </c>
       <c r="C119">
         <v>198</v>
       </c>
       <c r="D119">
         <f t="shared" si="3"/>
-        <v>685.71428571428567</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>685.14285714285711</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43977</v>
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>94561</v>
+        <v>94539</v>
       </c>
       <c r="C120">
         <v>864</v>
       </c>
       <c r="D120">
         <f t="shared" si="3"/>
-        <v>655.85714285714289</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>655.28571428571433</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43978</v>
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>95248</v>
+        <v>95226</v>
       </c>
       <c r="C121">
         <v>687</v>
       </c>
       <c r="D121">
         <f t="shared" si="3"/>
-        <v>609.57142857142856</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43979</v>
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>95887</v>
+        <v>95865</v>
       </c>
       <c r="C122">
         <v>639</v>
       </c>
       <c r="D122">
         <f t="shared" si="3"/>
-        <v>563</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>562.57142857142856</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43980</v>
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>96417</v>
+        <v>96395</v>
       </c>
       <c r="C123">
         <v>530</v>
       </c>
       <c r="D123">
         <f t="shared" si="3"/>
-        <v>515.42857142857144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>515.14285714285711</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43981</v>
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>96688</v>
+        <v>96666</v>
       </c>
       <c r="C124">
         <v>271</v>
       </c>
       <c r="D124">
         <f t="shared" si="3"/>
-        <v>498.71428571428572</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>498.57142857142856</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43982</v>
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>96849</v>
+        <v>96827</v>
       </c>
       <c r="C125">
         <v>161</v>
@@ -2871,13 +2874,13 @@
         <v>478.57142857142856</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43983</v>
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>97357</v>
+        <v>97335</v>
       </c>
       <c r="C126">
         <v>508</v>
@@ -2887,13 +2890,13 @@
         <v>522.85714285714289</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43984</v>
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
-        <v>97804</v>
+        <v>97782</v>
       </c>
       <c r="C127">
         <v>447</v>
@@ -2903,13 +2906,13 @@
         <v>463.28571428571428</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43985</v>
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
-        <v>98263</v>
+        <v>98241</v>
       </c>
       <c r="C128">
         <v>459</v>
@@ -2919,13 +2922,13 @@
         <v>430.71428571428572</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43986</v>
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>98642</v>
+        <v>98620</v>
       </c>
       <c r="C129">
         <v>379</v>
@@ -2935,13 +2938,13 @@
         <v>393.57142857142856</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43987</v>
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>98979</v>
+        <v>98957</v>
       </c>
       <c r="C130">
         <v>337</v>
@@ -2951,13 +2954,13 @@
         <v>366</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43988</v>
       </c>
       <c r="B131">
         <f t="shared" si="2"/>
-        <v>99127</v>
+        <v>99105</v>
       </c>
       <c r="C131">
         <v>148</v>
@@ -2967,13 +2970,13 @@
         <v>348.42857142857144</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43989</v>
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" si="4">C132+B131</f>
-        <v>99278</v>
+        <v>99256</v>
       </c>
       <c r="C132">
         <v>151</v>
@@ -2983,13 +2986,13 @@
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43990</v>
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>99631</v>
+        <v>99609</v>
       </c>
       <c r="C133">
         <v>353</v>
@@ -2999,13 +3002,13 @@
         <v>324.85714285714283</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43991</v>
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>99974</v>
+        <v>99952</v>
       </c>
       <c r="C134">
         <v>343</v>
@@ -3015,13 +3018,13 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43992</v>
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>100233</v>
+        <v>100211</v>
       </c>
       <c r="C135">
         <v>259</v>
@@ -3031,13 +3034,13 @@
         <v>281.42857142857144</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43993</v>
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>100459</v>
+        <v>100437</v>
       </c>
       <c r="C136">
         <v>226</v>
@@ -3047,13 +3050,13 @@
         <v>259.57142857142856</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43994</v>
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
-        <v>100713</v>
+        <v>100691</v>
       </c>
       <c r="C137">
         <v>254</v>
@@ -3063,13 +3066,13 @@
         <v>247.71428571428572</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43995</v>
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>100810</v>
+        <v>100788</v>
       </c>
       <c r="C138">
         <v>97</v>
@@ -3079,13 +3082,13 @@
         <v>240.42857142857142</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43996</v>
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>100886</v>
+        <v>100864</v>
       </c>
       <c r="C139">
         <v>76</v>
@@ -3095,13 +3098,13 @@
         <v>229.71428571428572</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43997</v>
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>101121</v>
+        <v>101099</v>
       </c>
       <c r="C140">
         <v>235</v>
@@ -3111,13 +3114,13 @@
         <v>212.85714285714286</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43998</v>
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>101319</v>
+        <v>101297</v>
       </c>
       <c r="C141">
         <v>198</v>
@@ -3127,13 +3130,13 @@
         <v>192.14285714285714</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43999</v>
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>101568</v>
+        <v>101546</v>
       </c>
       <c r="C142">
         <v>249</v>
@@ -3143,13 +3146,13 @@
         <v>190.71428571428572</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44000</v>
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>101808</v>
+        <v>101786</v>
       </c>
       <c r="C143">
         <v>240</v>
@@ -3159,13 +3162,13 @@
         <v>192.71428571428572</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44001</v>
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>101983</v>
+        <v>101961</v>
       </c>
       <c r="C144">
         <v>175</v>
@@ -3175,13 +3178,13 @@
         <v>181.42857142857142</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44002</v>
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>102076</v>
+        <v>102054</v>
       </c>
       <c r="C145">
         <v>93</v>
@@ -3191,13 +3194,13 @@
         <v>180.85714285714286</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44003</v>
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>102155</v>
+        <v>102133</v>
       </c>
       <c r="C146">
         <v>79</v>
@@ -3207,13 +3210,13 @@
         <v>181.28571428571428</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44004</v>
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>102380</v>
+        <v>102358</v>
       </c>
       <c r="C147">
         <v>225</v>
@@ -3223,13 +3226,13 @@
         <v>179.85714285714286</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44005</v>
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>102569</v>
+        <v>102547</v>
       </c>
       <c r="C148">
         <v>189</v>
@@ -3239,13 +3242,13 @@
         <v>178.57142857142858</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44006</v>
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>102779</v>
+        <v>102757</v>
       </c>
       <c r="C149">
         <v>210</v>
@@ -3255,13 +3258,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44007</v>
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>102985</v>
+        <v>102963</v>
       </c>
       <c r="C150">
         <v>206</v>
@@ -3271,13 +3274,13 @@
         <v>168.14285714285714</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44008</v>
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>103183</v>
+        <v>103161</v>
       </c>
       <c r="C151">
         <v>198</v>
@@ -3287,13 +3290,13 @@
         <v>171.42857142857142</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44009</v>
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>103317</v>
+        <v>103295</v>
       </c>
       <c r="C152">
         <v>134</v>
@@ -3303,13 +3306,13 @@
         <v>177.28571428571428</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44010</v>
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>103388</v>
+        <v>103366</v>
       </c>
       <c r="C153">
         <v>71</v>
@@ -3319,13 +3322,13 @@
         <v>176.14285714285714</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44011</v>
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>103593</v>
+        <v>103571</v>
       </c>
       <c r="C154">
         <v>205</v>
@@ -3335,13 +3338,13 @@
         <v>173.28571428571428</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44012</v>
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>103813</v>
+        <v>103791</v>
       </c>
       <c r="C155">
         <v>220</v>
@@ -3351,13 +3354,13 @@
         <v>177.71428571428572</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44013</v>
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>104029</v>
+        <v>104007</v>
       </c>
       <c r="C156">
         <v>216</v>
@@ -3367,13 +3370,13 @@
         <v>178.57142857142858</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44014</v>
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>104255</v>
+        <v>104233</v>
       </c>
       <c r="C157">
         <v>226</v>
@@ -3383,13 +3386,13 @@
         <v>181.42857142857142</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44015</v>
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>104354</v>
+        <v>104332</v>
       </c>
       <c r="C158">
         <v>99</v>
@@ -3399,13 +3402,13 @@
         <v>167.28571428571428</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44016</v>
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>104414</v>
+        <v>104392</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -3415,13 +3418,13 @@
         <v>156.71428571428572</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44017</v>
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>104515</v>
+        <v>104493</v>
       </c>
       <c r="C160">
         <v>101</v>
@@ -3431,13 +3434,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44018</v>
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>104752</v>
+        <v>104730</v>
       </c>
       <c r="C161">
         <v>237</v>
@@ -3447,13 +3450,13 @@
         <v>165.57142857142858</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44019</v>
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>104994</v>
+        <v>104972</v>
       </c>
       <c r="C162">
         <v>242</v>
@@ -3463,13 +3466,13 @@
         <v>168.71428571428572</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44020</v>
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>105210</v>
+        <v>105188</v>
       </c>
       <c r="C163">
         <v>216</v>
@@ -3479,13 +3482,13 @@
         <v>168.71428571428572</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44021</v>
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>105464</v>
+        <v>105442</v>
       </c>
       <c r="C164">
         <v>254</v>
@@ -3495,13 +3498,13 @@
         <v>172.71428571428572</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44022</v>
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>105692</v>
+        <v>105670</v>
       </c>
       <c r="C165">
         <v>228</v>
@@ -3511,13 +3514,13 @@
         <v>191.14285714285714</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44023</v>
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>105809</v>
+        <v>105787</v>
       </c>
       <c r="C166">
         <v>117</v>
@@ -3527,13 +3530,13 @@
         <v>199.28571428571428</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44024</v>
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>105896</v>
+        <v>105874</v>
       </c>
       <c r="C167">
         <v>87</v>
@@ -3543,13 +3546,13 @@
         <v>197.28571428571428</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44025</v>
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>106162</v>
+        <v>106140</v>
       </c>
       <c r="C168">
         <v>266</v>
@@ -3559,13 +3562,13 @@
         <v>201.42857142857142</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44026</v>
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
-        <v>106394</v>
+        <v>106372</v>
       </c>
       <c r="C169">
         <v>232</v>
@@ -3575,13 +3578,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44027</v>
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>106692</v>
+        <v>106670</v>
       </c>
       <c r="C170">
         <v>298</v>
@@ -3591,13 +3594,13 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44028</v>
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>106936</v>
+        <v>106914</v>
       </c>
       <c r="C171">
         <v>244</v>
@@ -3607,13 +3610,13 @@
         <v>210.28571428571428</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44029</v>
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>107163</v>
+        <v>107141</v>
       </c>
       <c r="C172">
         <v>227</v>
@@ -3623,13 +3626,13 @@
         <v>210.14285714285714</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44030</v>
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>107291</v>
+        <v>107269</v>
       </c>
       <c r="C173">
         <v>128</v>
@@ -3639,13 +3642,13 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44031</v>
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>107365</v>
+        <v>107343</v>
       </c>
       <c r="C174">
         <v>74</v>
@@ -3655,13 +3658,13 @@
         <v>209.85714285714286</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44032</v>
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
-        <v>107644</v>
+        <v>107622</v>
       </c>
       <c r="C175">
         <v>279</v>
@@ -3671,13 +3674,13 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44033</v>
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>107899</v>
+        <v>107877</v>
       </c>
       <c r="C176">
         <v>255</v>
@@ -3687,13 +3690,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44034</v>
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>108157</v>
+        <v>108135</v>
       </c>
       <c r="C177">
         <v>258</v>
@@ -3703,125 +3706,125 @@
         <v>209.28571428571428</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44035</v>
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
-        <v>108416</v>
+        <v>108393</v>
       </c>
       <c r="C178">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D178">
         <f t="shared" si="5"/>
-        <v>211.42857142857142</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211.28571428571428</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44036</v>
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
-        <v>108674</v>
+        <v>108651</v>
       </c>
       <c r="C179">
         <v>258</v>
       </c>
       <c r="D179">
         <f t="shared" si="5"/>
-        <v>215.85714285714286</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215.71428571428572</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44037</v>
       </c>
       <c r="B180">
         <f t="shared" si="4"/>
-        <v>108833</v>
+        <v>108810</v>
       </c>
       <c r="C180">
         <v>159</v>
       </c>
       <c r="D180">
         <f t="shared" si="5"/>
-        <v>220.28571428571428</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220.14285714285714</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44038</v>
       </c>
       <c r="B181">
         <f t="shared" si="4"/>
-        <v>108934</v>
+        <v>108911</v>
       </c>
       <c r="C181">
         <v>101</v>
       </c>
       <c r="D181">
         <f t="shared" si="5"/>
-        <v>224.14285714285714</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44039</v>
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
-        <v>109295</v>
+        <v>109272</v>
       </c>
       <c r="C182">
         <v>361</v>
       </c>
       <c r="D182">
         <f t="shared" si="5"/>
-        <v>235.85714285714286</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235.71428571428572</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44040</v>
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
-        <v>109615</v>
+        <v>109592</v>
       </c>
       <c r="C183">
         <v>320</v>
       </c>
       <c r="D183">
         <f t="shared" si="5"/>
-        <v>245.14285714285714</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44041</v>
       </c>
       <c r="B184">
         <f t="shared" si="4"/>
-        <v>109934</v>
+        <v>109911</v>
       </c>
       <c r="C184">
         <v>319</v>
       </c>
       <c r="D184">
         <f t="shared" si="5"/>
-        <v>253.85714285714286</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253.71428571428572</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44042</v>
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
-        <v>110270</v>
+        <v>110247</v>
       </c>
       <c r="C185">
         <v>336</v>
@@ -3831,13 +3834,13 @@
         <v>264.85714285714283</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44043</v>
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
-        <v>110589</v>
+        <v>110566</v>
       </c>
       <c r="C186">
         <v>319</v>
@@ -3847,13 +3850,13 @@
         <v>273.57142857142856</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44044</v>
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
-        <v>110736</v>
+        <v>110713</v>
       </c>
       <c r="C187">
         <v>147</v>
@@ -3863,13 +3866,13 @@
         <v>271.85714285714283</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44045</v>
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
-        <v>110845</v>
+        <v>110822</v>
       </c>
       <c r="C188">
         <v>109</v>
@@ -3879,125 +3882,125 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44046</v>
       </c>
       <c r="B189">
         <f t="shared" si="4"/>
-        <v>111204</v>
+        <v>111180</v>
       </c>
       <c r="C189">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D189">
         <f t="shared" si="5"/>
-        <v>272.71428571428572</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272.57142857142856</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44047</v>
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>111512</v>
+        <v>111488</v>
       </c>
       <c r="C190">
         <v>308</v>
       </c>
       <c r="D190">
         <f t="shared" si="5"/>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270.85714285714283</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44048</v>
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
-        <v>111845</v>
+        <v>111821</v>
       </c>
       <c r="C191">
         <v>333</v>
       </c>
       <c r="D191">
         <f t="shared" si="5"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272.85714285714283</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44049</v>
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
-        <v>112199</v>
+        <v>112175</v>
       </c>
       <c r="C192">
         <v>354</v>
       </c>
       <c r="D192">
         <f t="shared" si="5"/>
-        <v>275.57142857142856</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275.42857142857144</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44050</v>
       </c>
       <c r="B193">
         <f t="shared" si="4"/>
-        <v>112498</v>
+        <v>112474</v>
       </c>
       <c r="C193">
         <v>299</v>
       </c>
       <c r="D193">
         <f t="shared" si="5"/>
-        <v>272.71428571428572</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272.57142857142856</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44051</v>
       </c>
       <c r="B194">
         <f t="shared" si="4"/>
-        <v>112667</v>
+        <v>112643</v>
       </c>
       <c r="C194">
         <v>169</v>
       </c>
       <c r="D194">
         <f t="shared" si="5"/>
-        <v>275.85714285714283</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275.71428571428572</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44052</v>
       </c>
       <c r="B195">
         <f t="shared" si="4"/>
-        <v>112752</v>
+        <v>112728</v>
       </c>
       <c r="C195">
         <v>85</v>
       </c>
       <c r="D195">
         <f t="shared" si="5"/>
-        <v>272.42857142857144</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272.28571428571428</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44053</v>
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B259" si="6">C196+B195</f>
-        <v>113126</v>
+        <v>113102</v>
       </c>
       <c r="C196">
         <v>374</v>
@@ -4007,13 +4010,13 @@
         <v>274.57142857142856</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44054</v>
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>113410</v>
+        <v>113386</v>
       </c>
       <c r="C197">
         <v>284</v>
@@ -4023,13 +4026,13 @@
         <v>271.14285714285717</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44055</v>
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
-        <v>113714</v>
+        <v>113690</v>
       </c>
       <c r="C198">
         <v>304</v>
@@ -4039,13 +4042,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44056</v>
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
-        <v>114063</v>
+        <v>114039</v>
       </c>
       <c r="C199">
         <v>349</v>
@@ -4055,13 +4058,13 @@
         <v>266.28571428571428</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44057</v>
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
-        <v>114405</v>
+        <v>114381</v>
       </c>
       <c r="C200">
         <v>342</v>
@@ -4071,13 +4074,13 @@
         <v>272.42857142857144</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44058</v>
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
-        <v>114556</v>
+        <v>114532</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -4087,13 +4090,13 @@
         <v>269.85714285714283</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44059</v>
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
-        <v>114676</v>
+        <v>114652</v>
       </c>
       <c r="C202">
         <v>120</v>
@@ -4103,13 +4106,13 @@
         <v>274.85714285714283</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44060</v>
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
-        <v>115045</v>
+        <v>115021</v>
       </c>
       <c r="C203">
         <v>369</v>
@@ -4119,13 +4122,13 @@
         <v>274.14285714285717</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44061</v>
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>115426</v>
+        <v>115402</v>
       </c>
       <c r="C204">
         <v>381</v>
@@ -4135,13 +4138,13 @@
         <v>288</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44062</v>
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>115764</v>
+        <v>115740</v>
       </c>
       <c r="C205">
         <v>338</v>
@@ -4151,13 +4154,13 @@
         <v>292.85714285714283</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44063</v>
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>116120</v>
+        <v>116096</v>
       </c>
       <c r="C206">
         <v>356</v>
@@ -4167,13 +4170,13 @@
         <v>293.85714285714283</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44064</v>
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>116403</v>
+        <v>116379</v>
       </c>
       <c r="C207">
         <v>283</v>
@@ -4183,13 +4186,13 @@
         <v>285.42857142857144</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44065</v>
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>116552</v>
+        <v>116528</v>
       </c>
       <c r="C208">
         <v>149</v>
@@ -4199,13 +4202,13 @@
         <v>285.14285714285717</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44066</v>
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>116644</v>
+        <v>116620</v>
       </c>
       <c r="C209">
         <v>92</v>
@@ -4215,13 +4218,13 @@
         <v>281.14285714285717</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44067</v>
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>117040</v>
+        <v>117016</v>
       </c>
       <c r="C210">
         <v>396</v>
@@ -4231,173 +4234,173 @@
         <v>285</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44068</v>
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
-        <v>117420</v>
+        <v>117395</v>
       </c>
       <c r="C211">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D211">
         <f t="shared" si="7"/>
-        <v>284.85714285714283</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284.71428571428572</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44069</v>
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>117799</v>
+        <v>117774</v>
       </c>
       <c r="C212">
         <v>379</v>
       </c>
       <c r="D212">
         <f t="shared" si="7"/>
-        <v>290.71428571428572</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290.57142857142856</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44070</v>
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>118144</v>
+        <v>118119</v>
       </c>
       <c r="C213">
         <v>345</v>
       </c>
       <c r="D213">
         <f t="shared" si="7"/>
-        <v>289.14285714285717</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44071</v>
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>118508</v>
+        <v>118482</v>
       </c>
       <c r="C214">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D214">
         <f t="shared" si="7"/>
-        <v>300.71428571428572</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.42857142857144</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44072</v>
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>118680</v>
+        <v>118654</v>
       </c>
       <c r="C215">
         <v>172</v>
       </c>
       <c r="D215">
         <f t="shared" si="7"/>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>303.71428571428572</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44073</v>
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>118819</v>
+        <v>118793</v>
       </c>
       <c r="C216">
         <v>139</v>
       </c>
       <c r="D216">
         <f t="shared" si="7"/>
-        <v>310.71428571428572</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>310.42857142857144</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44074</v>
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>119257</v>
+        <v>119231</v>
       </c>
       <c r="C217">
         <v>438</v>
       </c>
       <c r="D217">
         <f t="shared" si="7"/>
-        <v>316.71428571428572</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>316.42857142857144</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44075</v>
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>119652</v>
+        <v>119626</v>
       </c>
       <c r="C218">
         <v>395</v>
       </c>
       <c r="D218">
         <f t="shared" si="7"/>
-        <v>318.85714285714283</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>318.71428571428572</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44076</v>
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>120036</v>
+        <v>120010</v>
       </c>
       <c r="C219">
         <v>384</v>
       </c>
       <c r="D219">
         <f t="shared" si="7"/>
-        <v>319.57142857142856</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319.42857142857144</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44077</v>
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>120500</v>
+        <v>120474</v>
       </c>
       <c r="C220">
         <v>464</v>
       </c>
       <c r="D220">
         <f t="shared" si="7"/>
-        <v>336.57142857142856</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>336.42857142857144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44078</v>
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>120848</v>
+        <v>120822</v>
       </c>
       <c r="C221">
         <v>348</v>
@@ -4407,13 +4410,13 @@
         <v>334.28571428571428</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44079</v>
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>121046</v>
+        <v>121020</v>
       </c>
       <c r="C222">
         <v>198</v>
@@ -4423,13 +4426,13 @@
         <v>338</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44080</v>
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>121158</v>
+        <v>121132</v>
       </c>
       <c r="C223">
         <v>112</v>
@@ -4439,13 +4442,13 @@
         <v>334.14285714285717</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44081</v>
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>121319</v>
+        <v>121293</v>
       </c>
       <c r="C224">
         <v>161</v>
@@ -4455,221 +4458,221 @@
         <v>294.57142857142856</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44082</v>
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>121866</v>
+        <v>121839</v>
       </c>
       <c r="C225">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D225">
         <f t="shared" si="7"/>
-        <v>316.28571428571428</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>316.14285714285717</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44083</v>
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>122340</v>
+        <v>122313</v>
       </c>
       <c r="C226">
         <v>474</v>
       </c>
       <c r="D226">
         <f t="shared" si="7"/>
-        <v>329.14285714285717</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44084</v>
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>122750</v>
+        <v>122723</v>
       </c>
       <c r="C227">
         <v>410</v>
       </c>
       <c r="D227">
         <f t="shared" si="7"/>
-        <v>321.42857142857144</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>321.28571428571428</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44085</v>
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>123159</v>
+        <v>123132</v>
       </c>
       <c r="C228">
         <v>409</v>
       </c>
       <c r="D228">
         <f t="shared" si="7"/>
-        <v>330.14285714285717</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44086</v>
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>123348</v>
+        <v>123321</v>
       </c>
       <c r="C229">
         <v>189</v>
       </c>
       <c r="D229">
         <f t="shared" si="7"/>
-        <v>328.85714285714283</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>328.71428571428572</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44087</v>
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>123509</v>
+        <v>123482</v>
       </c>
       <c r="C230">
         <v>161</v>
       </c>
       <c r="D230">
         <f t="shared" si="7"/>
-        <v>335.85714285714283</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>335.71428571428572</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44088</v>
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>124013</v>
+        <v>123985</v>
       </c>
       <c r="C231">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D231">
         <f t="shared" si="7"/>
-        <v>384.85714285714283</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>384.57142857142856</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44089</v>
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>124436</v>
+        <v>124408</v>
       </c>
       <c r="C232">
         <v>423</v>
       </c>
       <c r="D232">
         <f t="shared" si="7"/>
-        <v>367.14285714285717</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44090</v>
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>124850</v>
+        <v>124822</v>
       </c>
       <c r="C233">
         <v>414</v>
       </c>
       <c r="D233">
         <f t="shared" si="7"/>
-        <v>358.57142857142856</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>358.42857142857144</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44091</v>
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>125205</v>
+        <v>125177</v>
       </c>
       <c r="C234">
         <v>355</v>
       </c>
       <c r="D234">
         <f t="shared" si="7"/>
-        <v>350.71428571428572</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>350.57142857142856</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44092</v>
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>125640</v>
+        <v>125612</v>
       </c>
       <c r="C235">
         <v>435</v>
       </c>
       <c r="D235">
         <f t="shared" si="7"/>
-        <v>354.42857142857144</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>354.28571428571428</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44093</v>
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>125842</v>
+        <v>125814</v>
       </c>
       <c r="C236">
         <v>202</v>
       </c>
       <c r="D236">
         <f t="shared" si="7"/>
-        <v>356.28571428571428</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>356.14285714285717</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44094</v>
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>125984</v>
+        <v>125956</v>
       </c>
       <c r="C237">
         <v>142</v>
       </c>
       <c r="D237">
         <f t="shared" si="7"/>
-        <v>353.57142857142856</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>353.42857142857144</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44095</v>
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>126411</v>
+        <v>126383</v>
       </c>
       <c r="C238">
         <v>427</v>
@@ -4679,1236 +4682,1252 @@
         <v>342.57142857142856</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44096</v>
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>126920</v>
+        <v>126891</v>
       </c>
       <c r="C239">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D239">
         <f t="shared" si="7"/>
-        <v>354.85714285714283</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>354.71428571428572</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44097</v>
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>127480</v>
+        <v>127451</v>
       </c>
       <c r="C240">
         <v>560</v>
       </c>
       <c r="D240">
         <f t="shared" si="7"/>
-        <v>375.71428571428572</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>375.57142857142856</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44098</v>
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>128078</v>
+        <v>128048</v>
       </c>
       <c r="C241">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D241">
         <f t="shared" si="7"/>
-        <v>410.42857142857144</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>410.14285714285717</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44099</v>
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>128631</v>
+        <v>128601</v>
       </c>
       <c r="C242">
         <v>553</v>
       </c>
       <c r="D242">
         <f t="shared" si="7"/>
-        <v>427.28571428571428</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44100</v>
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>128995</v>
+        <v>128964</v>
       </c>
       <c r="C243">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D243">
         <f t="shared" si="7"/>
-        <v>450.42857142857144</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44101</v>
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129219</v>
+        <v>129188</v>
       </c>
       <c r="C244">
         <v>224</v>
       </c>
       <c r="D244">
         <f t="shared" si="7"/>
-        <v>462.14285714285717</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>461.71428571428572</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44102</v>
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130086</v>
+        <v>130055</v>
       </c>
       <c r="C245">
         <v>867</v>
       </c>
       <c r="D245">
         <f t="shared" si="7"/>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>524.57142857142856</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44103</v>
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130805</v>
+        <v>130774</v>
       </c>
       <c r="C246">
         <v>719</v>
       </c>
       <c r="D246">
         <f t="shared" si="7"/>
-        <v>555</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>554.71428571428567</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44104</v>
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131418</v>
+        <v>131387</v>
       </c>
       <c r="C247">
         <v>613</v>
       </c>
       <c r="D247">
         <f t="shared" si="7"/>
-        <v>562.57142857142856</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>562.28571428571433</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44105</v>
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132101</v>
+        <v>132070</v>
       </c>
       <c r="C248">
         <v>683</v>
       </c>
       <c r="D248">
         <f t="shared" si="7"/>
-        <v>574.71428571428567</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>574.57142857142856</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44106</v>
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132667</v>
+        <v>132635</v>
       </c>
       <c r="C249">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D249">
         <f t="shared" si="7"/>
-        <v>576.57142857142856</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>576.28571428571433</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44107</v>
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133075</v>
+        <v>133043</v>
       </c>
       <c r="C250">
         <v>408</v>
       </c>
       <c r="D250">
         <f t="shared" si="7"/>
-        <v>582.85714285714289</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582.71428571428567</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44108</v>
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133367</v>
+        <v>133335</v>
       </c>
       <c r="C251">
         <v>292</v>
       </c>
       <c r="D251">
         <f t="shared" si="7"/>
-        <v>592.57142857142856</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>592.42857142857144</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44109</v>
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134118</v>
+        <v>134086</v>
       </c>
       <c r="C252">
         <v>751</v>
       </c>
       <c r="D252">
         <f t="shared" si="7"/>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>575.85714285714289</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44110</v>
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134852</v>
+        <v>134820</v>
       </c>
       <c r="C253">
         <v>734</v>
       </c>
       <c r="D253">
         <f t="shared" si="7"/>
-        <v>578.14285714285711</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44111</v>
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135572</v>
+        <v>135539</v>
       </c>
       <c r="C254">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D254">
         <f t="shared" si="7"/>
-        <v>593.42857142857144</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>593.14285714285711</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44112</v>
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136405</v>
+        <v>136372</v>
       </c>
       <c r="C255">
         <v>833</v>
       </c>
       <c r="D255">
         <f t="shared" si="7"/>
-        <v>614.85714285714289</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>614.57142857142856</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44113</v>
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137096</v>
+        <v>137062</v>
       </c>
       <c r="C256">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D256">
         <f t="shared" si="7"/>
-        <v>632.71428571428567</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>632.42857142857144</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44114</v>
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137509</v>
+        <v>137475</v>
       </c>
       <c r="C257">
         <v>413</v>
       </c>
       <c r="D257">
         <f t="shared" si="7"/>
-        <v>633.42857142857144</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>633.14285714285711</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44115</v>
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137773</v>
+        <v>137739</v>
       </c>
       <c r="C258">
         <v>264</v>
       </c>
       <c r="D258">
         <f t="shared" si="7"/>
-        <v>629.42857142857144</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>629.14285714285711</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44116</v>
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138366</v>
+        <v>138332</v>
       </c>
       <c r="C259">
         <v>593</v>
       </c>
       <c r="D259">
         <f t="shared" si="7"/>
-        <v>606.85714285714289</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>606.57142857142856</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44117</v>
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139154</v>
+        <v>139118</v>
       </c>
       <c r="C260">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D260">
         <f t="shared" si="7"/>
-        <v>614.57142857142856</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44118</v>
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140053</v>
+        <v>140016</v>
       </c>
       <c r="C261">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D261">
         <f t="shared" si="7"/>
-        <v>640.14285714285711</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>639.57142857142856</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44119</v>
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>141004</v>
+        <v>140966</v>
       </c>
       <c r="C262">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D262">
         <f t="shared" si="7"/>
-        <v>657</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>656.28571428571433</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44120</v>
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141870</v>
+        <v>141832</v>
       </c>
       <c r="C263">
         <v>866</v>
       </c>
       <c r="D263">
         <f t="shared" si="7"/>
-        <v>682</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>681.42857142857144</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44121</v>
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142414</v>
+        <v>142376</v>
       </c>
       <c r="C264">
         <v>544</v>
       </c>
       <c r="D264">
         <f t="shared" si="7"/>
-        <v>700.71428571428567</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>700.14285714285711</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44122</v>
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142745</v>
+        <v>142707</v>
       </c>
       <c r="C265">
         <v>331</v>
       </c>
       <c r="D265">
         <f>AVERAGE(C259:C265)</f>
-        <v>710.28571428571433</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709.71428571428567</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44123</v>
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143825</v>
+        <v>143786</v>
       </c>
       <c r="C266">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D266">
         <f t="shared" ref="D266:D279" si="9">AVERAGE(C260:C266)</f>
-        <v>779.85714285714289</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>779.14285714285711</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44124</v>
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144945</v>
+        <v>144904</v>
       </c>
       <c r="C267">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D267">
         <f t="shared" si="9"/>
-        <v>827.28571428571433</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>826.57142857142856</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44125</v>
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146148</v>
+        <v>146106</v>
       </c>
       <c r="C268">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D268">
         <f t="shared" si="9"/>
-        <v>870.71428571428567</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44126</v>
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147527</v>
+        <v>147481</v>
       </c>
       <c r="C269">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="D269">
         <f t="shared" si="9"/>
-        <v>931.85714285714289</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>930.71428571428567</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44127</v>
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148753</v>
+        <v>148706</v>
       </c>
       <c r="C270">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D270">
         <f t="shared" si="9"/>
-        <v>983.28571428571433</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44128</v>
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149541</v>
+        <v>149494</v>
       </c>
       <c r="C271">
         <v>788</v>
       </c>
       <c r="D271">
         <f t="shared" si="9"/>
-        <v>1018.1428571428571</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1016.8571428571429</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44129</v>
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>150025</v>
+        <v>149978</v>
       </c>
       <c r="C272">
         <v>484</v>
       </c>
       <c r="D272">
         <f t="shared" si="9"/>
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1038.7142857142858</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44130</v>
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151550</v>
+        <v>151503</v>
       </c>
       <c r="C273">
         <v>1525</v>
       </c>
       <c r="D273">
         <f t="shared" si="9"/>
-        <v>1103.5714285714287</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1102.4285714285713</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44131</v>
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152896</v>
+        <v>152848</v>
       </c>
       <c r="C274">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D274">
         <f t="shared" si="9"/>
-        <v>1135.8571428571429</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1134.8571428571429</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44132</v>
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154339</v>
+        <v>154289</v>
       </c>
       <c r="C275">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D275">
         <f t="shared" si="9"/>
-        <v>1170.1428571428571</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44133</v>
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155725</v>
+        <v>155673</v>
       </c>
       <c r="C276">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D276">
         <f t="shared" si="9"/>
-        <v>1171.1428571428571</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1170.2857142857142</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44134</v>
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156850</v>
+        <v>156797</v>
       </c>
       <c r="C277">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D277">
         <f t="shared" si="9"/>
-        <v>1156.7142857142858</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1155.8571428571429</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44135</v>
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157722</v>
+        <v>157668</v>
       </c>
       <c r="C278">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D278">
         <f t="shared" si="9"/>
-        <v>1168.7142857142858</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1167.7142857142858</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44136</v>
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158244</v>
+        <v>158190</v>
       </c>
       <c r="C279">
         <v>522</v>
       </c>
       <c r="D279">
         <f t="shared" si="9"/>
-        <v>1174.1428571428571</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1173.1428571428571</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44137</v>
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160084</v>
+        <v>160027</v>
       </c>
       <c r="C280">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D315" si="10">AVERAGE(C274:C280)</f>
-        <v>1219.1428571428571</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D280:D316" si="10">AVERAGE(C274:C280)</f>
+        <v>1217.7142857142858</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44138</v>
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161994</v>
+        <v>161934</v>
       </c>
       <c r="C281">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="D281">
         <f t="shared" si="10"/>
-        <v>1299.7142857142858</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44139</v>
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164173</v>
+        <v>164111</v>
       </c>
       <c r="C282">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1404.8571428571429</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1403.1428571428571</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44140</v>
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166593</v>
+        <v>166530</v>
       </c>
       <c r="C283">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1552.5714285714287</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44141</v>
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168832</v>
+        <v>168769</v>
       </c>
       <c r="C284">
         <v>2239</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1711.7142857142858</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1710.2857142857142</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44142</v>
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170159</v>
+        <v>170095</v>
       </c>
       <c r="C285">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1776.7142857142858</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1775.2857142857142</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44143</v>
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171101</v>
+        <v>171038</v>
       </c>
       <c r="C286">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1836.7142857142858</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1835.4285714285713</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B315" si="11">C287+B286</f>
-        <v>174281</v>
+        <f t="shared" ref="B287:B316" si="11">C287+B286</f>
+        <v>174215</v>
       </c>
       <c r="C287">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2028.1428571428571</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2026.8571428571429</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44145</v>
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177105</v>
+        <v>177035</v>
       </c>
       <c r="C288">
-        <v>2824</v>
+        <v>2820</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2158.7142857142858</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2157.2857142857142</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44146</v>
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179771</v>
+        <v>179699</v>
       </c>
       <c r="C289">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2228.2857142857142</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2226.8571428571427</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44147</v>
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182764</v>
+        <v>182687</v>
       </c>
       <c r="C290">
-        <v>2993</v>
+        <v>2988</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2310.1428571428573</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2308.1428571428573</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44148</v>
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185373</v>
+        <v>185293</v>
       </c>
       <c r="C291">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2360.5714285714284</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44149</v>
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187086</v>
+        <v>187005</v>
       </c>
       <c r="C292">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2418.1428571428573</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2415.7142857142858</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44150</v>
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188281</v>
+        <v>188198</v>
       </c>
       <c r="C293">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2454.2857142857142</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2451.4285714285716</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44151</v>
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191804</v>
+        <v>191716</v>
       </c>
       <c r="C294">
-        <v>3523</v>
+        <v>3518</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2503.2857142857142</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2500.1428571428573</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44152</v>
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194939</v>
+        <v>194849</v>
       </c>
       <c r="C295">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2547.7142857142858</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2544.8571428571427</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44153</v>
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197857</v>
+        <v>197765</v>
       </c>
       <c r="C296">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2583.7142857142858</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2580.8571428571427</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44154</v>
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200857</v>
+        <v>200760</v>
       </c>
       <c r="C297">
-        <v>3000</v>
+        <v>2995</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2584.7142857142858</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2581.8571428571427</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44155</v>
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203714</v>
+        <v>203613</v>
       </c>
       <c r="C298">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2620.1428571428573</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2617.1428571428573</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44156</v>
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205485</v>
+        <v>205380</v>
       </c>
       <c r="C299">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2628.4285714285716</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44157</v>
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206673</v>
+        <v>206568</v>
       </c>
       <c r="C300">
         <v>1188</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2627.4285714285716</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2624.2857142857142</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44158</v>
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210270</v>
+        <v>210158</v>
       </c>
       <c r="C301">
-        <v>3597</v>
+        <v>3590</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2634.5714285714284</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44159</v>
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>214062</v>
+        <v>213944</v>
       </c>
       <c r="C302">
-        <v>3792</v>
+        <v>3786</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2731.8571428571427</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2727.8571428571427</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44160</v>
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>217008</v>
+        <v>216882</v>
       </c>
       <c r="C303">
-        <v>2946</v>
+        <v>2938</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2735.8571428571427</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44161</v>
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217455</v>
+        <v>217329</v>
       </c>
       <c r="C304">
         <v>447</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2371.1428571428573</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44162</v>
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220820</v>
+        <v>220689</v>
       </c>
       <c r="C305">
-        <v>3365</v>
+        <v>3360</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2443.7142857142858</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2439.4285714285716</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44163</v>
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223729</v>
+        <v>223594</v>
       </c>
       <c r="C306">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2606.2857142857142</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44164</v>
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225480</v>
+        <v>225346</v>
       </c>
       <c r="C307">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2686.7142857142858</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2682.5714285714284</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44165</v>
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230920</v>
+        <v>230811</v>
       </c>
       <c r="C308">
-        <v>5440</v>
+        <v>5465</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2950.4285714285716</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44166</v>
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236685</v>
+        <v>236617</v>
       </c>
       <c r="C309">
-        <v>5765</v>
+        <v>5806</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3231.8571428571427</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44167</v>
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242272</v>
+        <v>242565</v>
       </c>
       <c r="C310">
-        <v>5587</v>
+        <v>5948</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3609.1428571428573</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44168</v>
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>247259</v>
+        <v>247947</v>
       </c>
       <c r="C311">
-        <v>4987</v>
+        <v>5382</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4257.7142857142853</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44169</v>
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>251144</v>
+        <v>252527</v>
       </c>
       <c r="C312">
-        <v>3885</v>
+        <v>4580</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4332</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4548.2857142857147</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44170</v>
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>252374</v>
+        <v>254169</v>
       </c>
       <c r="C313">
-        <v>1230</v>
+        <v>1642</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4092.1428571428573</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4367.8571428571431</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44171</v>
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>253355</v>
+        <v>255493</v>
       </c>
       <c r="C314">
-        <v>981</v>
+        <v>1324</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>3982.1428571428573</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4306.7142857142853</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44172</v>
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>253649</v>
+        <v>259100</v>
       </c>
       <c r="C315">
-        <v>294</v>
+        <v>3607</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>3247</v>
+        <v>4041.2857142857142</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="11"/>
+        <v>259324</v>
+      </c>
+      <c r="C316">
+        <v>224</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="10"/>
+        <v>3243.8571428571427</v>
       </c>
     </row>
   </sheetData>

--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF4470-FF08-4953-98B2-F059FB7BD44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD2D6C2-2960-4061-A5DC-496A04F125CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="480" windowWidth="21600" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasesByDate" sheetId="1" r:id="rId1"/>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B302" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B324" sqref="B324"/>
@@ -2240,14 +2240,14 @@
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>51241</v>
+        <v>51242</v>
       </c>
       <c r="C86">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="D86">
         <f t="shared" si="3"/>
-        <v>2217</v>
+        <v>2217.1428571428573</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,14 +2256,14 @@
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>53646</v>
+        <v>53647</v>
       </c>
       <c r="C87">
         <v>2405</v>
       </c>
       <c r="D87">
         <f t="shared" si="3"/>
-        <v>2219.7142857142858</v>
+        <v>2219.8571428571427</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2272,14 +2272,14 @@
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>55920</v>
+        <v>55921</v>
       </c>
       <c r="C88">
         <v>2274</v>
       </c>
       <c r="D88">
         <f t="shared" si="3"/>
-        <v>2117.5714285714284</v>
+        <v>2117.7142857142858</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2288,14 +2288,14 @@
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>57412</v>
+        <v>57413</v>
       </c>
       <c r="C89">
         <v>1492</v>
       </c>
       <c r="D89">
         <f t="shared" si="3"/>
-        <v>2119.2857142857142</v>
+        <v>2119.4285714285716</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,14 +2304,14 @@
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>58256</v>
+        <v>58257</v>
       </c>
       <c r="C90">
         <v>844</v>
       </c>
       <c r="D90">
         <f t="shared" si="3"/>
-        <v>2084.2857142857142</v>
+        <v>2084.4285714285716</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2320,14 +2320,14 @@
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>60384</v>
+        <v>60385</v>
       </c>
       <c r="C91">
         <v>2128</v>
       </c>
       <c r="D91">
         <f t="shared" si="3"/>
-        <v>2004.5714285714287</v>
+        <v>2004.7142857142858</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,14 +2336,14 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>62487</v>
+        <v>62488</v>
       </c>
       <c r="C92">
         <v>2103</v>
       </c>
       <c r="D92">
         <f t="shared" si="3"/>
-        <v>1992.7142857142858</v>
+        <v>1992.8571428571429</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>64673</v>
+        <v>64674</v>
       </c>
       <c r="C93">
         <v>2186</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>66720</v>
+        <v>66721</v>
       </c>
       <c r="C94">
         <v>2047</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>68801</v>
+        <v>68802</v>
       </c>
       <c r="C95">
         <v>2081</v>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>69830</v>
+        <v>69831</v>
       </c>
       <c r="C96">
         <v>1029</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>70563</v>
+        <v>70564</v>
       </c>
       <c r="C97">
         <v>733</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>72441</v>
+        <v>72442</v>
       </c>
       <c r="C98">
         <v>1878</v>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>74175</v>
+        <v>74176</v>
       </c>
       <c r="C99">
         <v>1734</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>75873</v>
+        <v>75874</v>
       </c>
       <c r="C100">
         <v>1698</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>77550</v>
+        <v>77551</v>
       </c>
       <c r="C101">
         <v>1677</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>79004</v>
+        <v>79005</v>
       </c>
       <c r="C102">
         <v>1454</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>79686</v>
+        <v>79687</v>
       </c>
       <c r="C103">
         <v>682</v>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>80071</v>
+        <v>80072</v>
       </c>
       <c r="C104">
         <v>385</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>81377</v>
+        <v>81378</v>
       </c>
       <c r="C105">
         <v>1306</v>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>82827</v>
+        <v>82828</v>
       </c>
       <c r="C106">
         <v>1450</v>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>84138</v>
+        <v>84139</v>
       </c>
       <c r="C107">
         <v>1311</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>85453</v>
+        <v>85454</v>
       </c>
       <c r="C108">
         <v>1315</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>86558</v>
+        <v>86559</v>
       </c>
       <c r="C109">
         <v>1105</v>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>87203</v>
+        <v>87204</v>
       </c>
       <c r="C110">
         <v>645</v>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>87566</v>
+        <v>87567</v>
       </c>
       <c r="C111">
         <v>363</v>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>88879</v>
+        <v>88880</v>
       </c>
       <c r="C112">
         <v>1313</v>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>89952</v>
+        <v>89953</v>
       </c>
       <c r="C113">
         <v>1073</v>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>90963</v>
+        <v>90964</v>
       </c>
       <c r="C114">
         <v>1011</v>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>91927</v>
+        <v>91928</v>
       </c>
       <c r="C115">
         <v>964</v>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>92789</v>
+        <v>92790</v>
       </c>
       <c r="C116">
         <v>862</v>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>93176</v>
+        <v>93177</v>
       </c>
       <c r="C117">
         <v>387</v>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>93477</v>
+        <v>93478</v>
       </c>
       <c r="C118">
         <v>301</v>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>93675</v>
+        <v>93676</v>
       </c>
       <c r="C119">
         <v>198</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>94539</v>
+        <v>94540</v>
       </c>
       <c r="C120">
         <v>864</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>95226</v>
+        <v>95227</v>
       </c>
       <c r="C121">
         <v>687</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>95865</v>
+        <v>95866</v>
       </c>
       <c r="C122">
         <v>639</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>96395</v>
+        <v>96396</v>
       </c>
       <c r="C123">
         <v>530</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>96666</v>
+        <v>96667</v>
       </c>
       <c r="C124">
         <v>271</v>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>96827</v>
+        <v>96828</v>
       </c>
       <c r="C125">
         <v>161</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>97335</v>
+        <v>97336</v>
       </c>
       <c r="C126">
         <v>508</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
-        <v>97782</v>
+        <v>97783</v>
       </c>
       <c r="C127">
         <v>447</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
-        <v>98241</v>
+        <v>98242</v>
       </c>
       <c r="C128">
         <v>459</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>98620</v>
+        <v>98621</v>
       </c>
       <c r="C129">
         <v>379</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>98957</v>
+        <v>98958</v>
       </c>
       <c r="C130">
         <v>337</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="2"/>
-        <v>99105</v>
+        <v>99106</v>
       </c>
       <c r="C131">
         <v>148</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" si="4">C132+B131</f>
-        <v>99256</v>
+        <v>99257</v>
       </c>
       <c r="C132">
         <v>151</v>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>99609</v>
+        <v>99610</v>
       </c>
       <c r="C133">
         <v>353</v>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>99952</v>
+        <v>99953</v>
       </c>
       <c r="C134">
         <v>343</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>100211</v>
+        <v>100212</v>
       </c>
       <c r="C135">
         <v>259</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>100437</v>
+        <v>100438</v>
       </c>
       <c r="C136">
         <v>226</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
-        <v>100691</v>
+        <v>100692</v>
       </c>
       <c r="C137">
         <v>254</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>100788</v>
+        <v>100789</v>
       </c>
       <c r="C138">
         <v>97</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>100864</v>
+        <v>100865</v>
       </c>
       <c r="C139">
         <v>76</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>101099</v>
+        <v>101100</v>
       </c>
       <c r="C140">
         <v>235</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>101297</v>
+        <v>101298</v>
       </c>
       <c r="C141">
         <v>198</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>101546</v>
+        <v>101547</v>
       </c>
       <c r="C142">
         <v>249</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>101786</v>
+        <v>101787</v>
       </c>
       <c r="C143">
         <v>240</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>101961</v>
+        <v>101962</v>
       </c>
       <c r="C144">
         <v>175</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>102054</v>
+        <v>102055</v>
       </c>
       <c r="C145">
         <v>93</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>102133</v>
+        <v>102134</v>
       </c>
       <c r="C146">
         <v>79</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>102358</v>
+        <v>102359</v>
       </c>
       <c r="C147">
         <v>225</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>102547</v>
+        <v>102548</v>
       </c>
       <c r="C148">
         <v>189</v>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>102757</v>
+        <v>102758</v>
       </c>
       <c r="C149">
         <v>210</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>102963</v>
+        <v>102964</v>
       </c>
       <c r="C150">
         <v>206</v>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>103161</v>
+        <v>103162</v>
       </c>
       <c r="C151">
         <v>198</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>103295</v>
+        <v>103296</v>
       </c>
       <c r="C152">
         <v>134</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>103366</v>
+        <v>103367</v>
       </c>
       <c r="C153">
         <v>71</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>103571</v>
+        <v>103572</v>
       </c>
       <c r="C154">
         <v>205</v>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>103791</v>
+        <v>103792</v>
       </c>
       <c r="C155">
         <v>220</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>104007</v>
+        <v>104008</v>
       </c>
       <c r="C156">
         <v>216</v>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>104233</v>
+        <v>104234</v>
       </c>
       <c r="C157">
         <v>226</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>104332</v>
+        <v>104333</v>
       </c>
       <c r="C158">
         <v>99</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>104392</v>
+        <v>104393</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>104493</v>
+        <v>104494</v>
       </c>
       <c r="C160">
         <v>101</v>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>104730</v>
+        <v>104731</v>
       </c>
       <c r="C161">
         <v>237</v>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>104972</v>
+        <v>104973</v>
       </c>
       <c r="C162">
         <v>242</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>105188</v>
+        <v>105189</v>
       </c>
       <c r="C163">
         <v>216</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>105442</v>
+        <v>105443</v>
       </c>
       <c r="C164">
         <v>254</v>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>105670</v>
+        <v>105671</v>
       </c>
       <c r="C165">
         <v>228</v>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>105787</v>
+        <v>105788</v>
       </c>
       <c r="C166">
         <v>117</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>105874</v>
+        <v>105875</v>
       </c>
       <c r="C167">
         <v>87</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>106140</v>
+        <v>106141</v>
       </c>
       <c r="C168">
         <v>266</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
-        <v>106372</v>
+        <v>106373</v>
       </c>
       <c r="C169">
         <v>232</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>106670</v>
+        <v>106671</v>
       </c>
       <c r="C170">
         <v>298</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>106914</v>
+        <v>106915</v>
       </c>
       <c r="C171">
         <v>244</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>107141</v>
+        <v>107142</v>
       </c>
       <c r="C172">
         <v>227</v>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>107269</v>
+        <v>107270</v>
       </c>
       <c r="C173">
         <v>128</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>107343</v>
+        <v>107344</v>
       </c>
       <c r="C174">
         <v>74</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
-        <v>107622</v>
+        <v>107623</v>
       </c>
       <c r="C175">
         <v>279</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>107877</v>
+        <v>107878</v>
       </c>
       <c r="C176">
         <v>255</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>108135</v>
+        <v>108136</v>
       </c>
       <c r="C177">
         <v>258</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
-        <v>108393</v>
+        <v>108394</v>
       </c>
       <c r="C178">
         <v>258</v>
@@ -3731,11 +3731,11 @@
         <v>108651</v>
       </c>
       <c r="C179">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D179">
         <f t="shared" si="5"/>
-        <v>215.71428571428572</v>
+        <v>215.57142857142858</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="5"/>
-        <v>220.14285714285714</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="5"/>
-        <v>224</v>
+        <v>223.85714285714286</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="D182">
         <f t="shared" si="5"/>
-        <v>235.71428571428572</v>
+        <v>235.57142857142858</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D183">
         <f t="shared" si="5"/>
-        <v>245</v>
+        <v>244.85714285714286</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D184">
         <f t="shared" si="5"/>
-        <v>253.71428571428572</v>
+        <v>253.57142857142858</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="D185">
         <f t="shared" si="5"/>
-        <v>264.85714285714283</v>
+        <v>264.71428571428572</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4464,14 +4464,14 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>121839</v>
+        <v>121840</v>
       </c>
       <c r="C225">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D225">
         <f t="shared" si="7"/>
-        <v>316.14285714285717</v>
+        <v>316.28571428571428</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4480,14 +4480,14 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>122313</v>
+        <v>122314</v>
       </c>
       <c r="C226">
         <v>474</v>
       </c>
       <c r="D226">
         <f t="shared" si="7"/>
-        <v>329</v>
+        <v>329.14285714285717</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4499,7 +4499,7 @@
         <v>122723</v>
       </c>
       <c r="C227">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D227">
         <f t="shared" si="7"/>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>366.85714285714283</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="D233">
         <f t="shared" si="7"/>
-        <v>358.42857142857144</v>
+        <v>358.28571428571428</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4800,14 +4800,14 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130774</v>
+        <v>130775</v>
       </c>
       <c r="C246">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D246">
         <f t="shared" si="7"/>
-        <v>554.71428571428567</v>
+        <v>554.85714285714289</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4816,14 +4816,14 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131387</v>
+        <v>131388</v>
       </c>
       <c r="C247">
         <v>613</v>
       </c>
       <c r="D247">
         <f t="shared" si="7"/>
-        <v>562.28571428571433</v>
+        <v>562.42857142857144</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4832,14 +4832,14 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132070</v>
+        <v>132071</v>
       </c>
       <c r="C248">
         <v>683</v>
       </c>
       <c r="D248">
         <f t="shared" si="7"/>
-        <v>574.57142857142856</v>
+        <v>574.71428571428567</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4848,14 +4848,14 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132635</v>
+        <v>132636</v>
       </c>
       <c r="C249">
         <v>565</v>
       </c>
       <c r="D249">
         <f t="shared" si="7"/>
-        <v>576.28571428571433</v>
+        <v>576.42857142857144</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,14 +4864,14 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133043</v>
+        <v>133044</v>
       </c>
       <c r="C250">
         <v>408</v>
       </c>
       <c r="D250">
         <f t="shared" si="7"/>
-        <v>582.71428571428567</v>
+        <v>582.85714285714289</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4880,14 +4880,14 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133335</v>
+        <v>133336</v>
       </c>
       <c r="C251">
         <v>292</v>
       </c>
       <c r="D251">
         <f t="shared" si="7"/>
-        <v>592.42857142857144</v>
+        <v>592.57142857142856</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4896,14 +4896,14 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134086</v>
+        <v>134087</v>
       </c>
       <c r="C252">
         <v>751</v>
       </c>
       <c r="D252">
         <f t="shared" si="7"/>
-        <v>575.85714285714289</v>
+        <v>576</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134820</v>
+        <v>134821</v>
       </c>
       <c r="C253">
         <v>734</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135539</v>
+        <v>135540</v>
       </c>
       <c r="C254">
         <v>719</v>
@@ -4944,14 +4944,14 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136372</v>
+        <v>136374</v>
       </c>
       <c r="C255">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D255">
         <f t="shared" si="7"/>
-        <v>614.57142857142856</v>
+        <v>614.71428571428567</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4960,14 +4960,14 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137062</v>
+        <v>137064</v>
       </c>
       <c r="C256">
         <v>690</v>
       </c>
       <c r="D256">
         <f t="shared" si="7"/>
-        <v>632.42857142857144</v>
+        <v>632.57142857142856</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,14 +4976,14 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137475</v>
+        <v>137477</v>
       </c>
       <c r="C257">
         <v>413</v>
       </c>
       <c r="D257">
         <f t="shared" si="7"/>
-        <v>633.14285714285711</v>
+        <v>633.28571428571433</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4992,14 +4992,14 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137739</v>
+        <v>137741</v>
       </c>
       <c r="C258">
         <v>264</v>
       </c>
       <c r="D258">
         <f t="shared" si="7"/>
-        <v>629.14285714285711</v>
+        <v>629.28571428571433</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5008,14 +5008,14 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138332</v>
+        <v>138334</v>
       </c>
       <c r="C259">
         <v>593</v>
       </c>
       <c r="D259">
         <f t="shared" si="7"/>
-        <v>606.57142857142856</v>
+        <v>606.71428571428567</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5024,14 +5024,14 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139118</v>
+        <v>139120</v>
       </c>
       <c r="C260">
         <v>786</v>
       </c>
       <c r="D260">
         <f t="shared" si="7"/>
-        <v>614</v>
+        <v>614.14285714285711</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5040,14 +5040,14 @@
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140016</v>
+        <v>140019</v>
       </c>
       <c r="C261">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D261">
         <f t="shared" si="7"/>
-        <v>639.57142857142856</v>
+        <v>639.85714285714289</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5056,14 +5056,14 @@
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>140966</v>
+        <v>140969</v>
       </c>
       <c r="C262">
         <v>950</v>
       </c>
       <c r="D262">
         <f t="shared" si="7"/>
-        <v>656.28571428571433</v>
+        <v>656.42857142857144</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5072,14 +5072,14 @@
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141832</v>
+        <v>141835</v>
       </c>
       <c r="C263">
         <v>866</v>
       </c>
       <c r="D263">
         <f t="shared" si="7"/>
-        <v>681.42857142857144</v>
+        <v>681.57142857142856</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5088,14 +5088,14 @@
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142376</v>
+        <v>142379</v>
       </c>
       <c r="C264">
         <v>544</v>
       </c>
       <c r="D264">
         <f t="shared" si="7"/>
-        <v>700.14285714285711</v>
+        <v>700.28571428571433</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5104,14 +5104,14 @@
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142707</v>
+        <v>142710</v>
       </c>
       <c r="C265">
         <v>331</v>
       </c>
       <c r="D265">
         <f>AVERAGE(C259:C265)</f>
-        <v>709.71428571428567</v>
+        <v>709.85714285714289</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5120,14 +5120,14 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143786</v>
+        <v>143789</v>
       </c>
       <c r="C266">
         <v>1079</v>
       </c>
       <c r="D266">
         <f t="shared" ref="D266:D279" si="9">AVERAGE(C260:C266)</f>
-        <v>779.14285714285711</v>
+        <v>779.28571428571433</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5136,14 +5136,14 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144904</v>
+        <v>144907</v>
       </c>
       <c r="C267">
         <v>1118</v>
       </c>
       <c r="D267">
         <f t="shared" si="9"/>
-        <v>826.57142857142856</v>
+        <v>826.71428571428567</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146106</v>
+        <v>146109</v>
       </c>
       <c r="C268">
         <v>1202</v>
@@ -5168,14 +5168,14 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147481</v>
+        <v>147483</v>
       </c>
       <c r="C269">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D269">
         <f t="shared" si="9"/>
-        <v>930.71428571428567</v>
+        <v>930.57142857142856</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5184,14 +5184,14 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148706</v>
+        <v>148708</v>
       </c>
       <c r="C270">
         <v>1225</v>
       </c>
       <c r="D270">
         <f t="shared" si="9"/>
-        <v>982</v>
+        <v>981.85714285714289</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5200,14 +5200,14 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149494</v>
+        <v>149496</v>
       </c>
       <c r="C271">
         <v>788</v>
       </c>
       <c r="D271">
         <f t="shared" si="9"/>
-        <v>1016.8571428571429</v>
+        <v>1016.7142857142857</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5216,14 +5216,14 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>149978</v>
+        <v>149980</v>
       </c>
       <c r="C272">
         <v>484</v>
       </c>
       <c r="D272">
         <f t="shared" si="9"/>
-        <v>1038.7142857142858</v>
+        <v>1038.5714285714287</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5232,14 +5232,14 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151503</v>
+        <v>151505</v>
       </c>
       <c r="C273">
         <v>1525</v>
       </c>
       <c r="D273">
         <f t="shared" si="9"/>
-        <v>1102.4285714285713</v>
+        <v>1102.2857142857142</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5248,14 +5248,14 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152848</v>
+        <v>152850</v>
       </c>
       <c r="C274">
         <v>1345</v>
       </c>
       <c r="D274">
         <f t="shared" si="9"/>
-        <v>1134.8571428571429</v>
+        <v>1134.7142857142858</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5264,14 +5264,14 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154289</v>
+        <v>154291</v>
       </c>
       <c r="C275">
         <v>1441</v>
       </c>
       <c r="D275">
         <f t="shared" si="9"/>
-        <v>1169</v>
+        <v>1168.8571428571429</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155673</v>
+        <v>155675</v>
       </c>
       <c r="C276">
         <v>1384</v>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156797</v>
+        <v>156799</v>
       </c>
       <c r="C277">
         <v>1124</v>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157668</v>
+        <v>157670</v>
       </c>
       <c r="C278">
         <v>871</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158190</v>
+        <v>158192</v>
       </c>
       <c r="C279">
         <v>522</v>
@@ -5344,13 +5344,13 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160027</v>
+        <v>160029</v>
       </c>
       <c r="C280">
         <v>1837</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D316" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D317" si="10">AVERAGE(C274:C280)</f>
         <v>1217.7142857142858</v>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161934</v>
+        <v>161936</v>
       </c>
       <c r="C281">
         <v>1907</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164111</v>
+        <v>164113</v>
       </c>
       <c r="C282">
         <v>2177</v>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166530</v>
+        <v>166532</v>
       </c>
       <c r="C283">
         <v>2419</v>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168769</v>
+        <v>168771</v>
       </c>
       <c r="C284">
         <v>2239</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170095</v>
+        <v>170097</v>
       </c>
       <c r="C285">
         <v>1326</v>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171038</v>
+        <v>171040</v>
       </c>
       <c r="C286">
         <v>943</v>
@@ -5455,8 +5455,8 @@
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B316" si="11">C287+B286</f>
-        <v>174215</v>
+        <f t="shared" ref="B287:B317" si="11">C287+B286</f>
+        <v>174217</v>
       </c>
       <c r="C287">
         <v>3177</v>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177035</v>
+        <v>177037</v>
       </c>
       <c r="C288">
         <v>2820</v>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179699</v>
+        <v>179701</v>
       </c>
       <c r="C289">
         <v>2664</v>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182687</v>
+        <v>182689</v>
       </c>
       <c r="C290">
         <v>2988</v>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185293</v>
+        <v>185295</v>
       </c>
       <c r="C291">
         <v>2606</v>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187005</v>
+        <v>187007</v>
       </c>
       <c r="C292">
         <v>1712</v>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188198</v>
+        <v>188200</v>
       </c>
       <c r="C293">
         <v>1193</v>
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191716</v>
+        <v>191721</v>
       </c>
       <c r="C294">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2500.1428571428573</v>
+        <v>2500.5714285714284</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,14 +5584,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194849</v>
+        <v>194855</v>
       </c>
       <c r="C295">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2544.8571428571427</v>
+        <v>2545.4285714285716</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197765</v>
+        <v>197774</v>
       </c>
       <c r="C296">
-        <v>2916</v>
+        <v>2919</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2580.8571428571427</v>
+        <v>2581.8571428571427</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,14 +5616,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200760</v>
+        <v>200771</v>
       </c>
       <c r="C297">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2581.8571428571427</v>
+        <v>2583.1428571428573</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5632,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203613</v>
+        <v>203625</v>
       </c>
       <c r="C298">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2617.1428571428573</v>
+        <v>2618.5714285714284</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205380</v>
+        <v>205392</v>
       </c>
       <c r="C299">
         <v>1767</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2625</v>
+        <v>2626.4285714285716</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206568</v>
+        <v>206579</v>
       </c>
       <c r="C300">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2624.2857142857142</v>
+        <v>2625.5714285714284</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210158</v>
+        <v>210169</v>
       </c>
       <c r="C301">
         <v>3590</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2634.5714285714284</v>
+        <v>2635.4285714285716</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,14 +5696,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213944</v>
+        <v>213958</v>
       </c>
       <c r="C302">
-        <v>3786</v>
+        <v>3789</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2727.8571428571427</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,14 +5712,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216882</v>
+        <v>216896</v>
       </c>
       <c r="C303">
         <v>2938</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2731</v>
+        <v>2731.7142857142858</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217329</v>
+        <v>217343</v>
       </c>
       <c r="C304">
         <v>447</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2367</v>
+        <v>2367.4285714285716</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220689</v>
+        <v>220706</v>
       </c>
       <c r="C305">
-        <v>3360</v>
+        <v>3363</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2439.4285714285716</v>
+        <v>2440.1428571428573</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223594</v>
+        <v>223611</v>
       </c>
       <c r="C306">
         <v>2905</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2602</v>
+        <v>2602.7142857142858</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225346</v>
+        <v>225363</v>
       </c>
       <c r="C307">
         <v>1752</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2682.5714285714284</v>
+        <v>2683.4285714285716</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230811</v>
+        <v>230840</v>
       </c>
       <c r="C308">
-        <v>5465</v>
+        <v>5477</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2950.4285714285716</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236617</v>
+        <v>236674</v>
       </c>
       <c r="C309">
-        <v>5806</v>
+        <v>5834</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3239</v>
+        <v>3245.1428571428573</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242565</v>
+        <v>242699</v>
       </c>
       <c r="C310">
-        <v>5948</v>
+        <v>6025</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3669</v>
+        <v>3686.1428571428573</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>247947</v>
+        <v>248321</v>
       </c>
       <c r="C311">
-        <v>5382</v>
+        <v>5622</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4374</v>
+        <v>4425.4285714285716</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>252527</v>
+        <v>253319</v>
       </c>
       <c r="C312">
-        <v>4580</v>
+        <v>4998</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4548.2857142857147</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>254169</v>
+        <v>255178</v>
       </c>
       <c r="C313">
-        <v>1642</v>
+        <v>1859</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4367.8571428571431</v>
+        <v>4509.5714285714284</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>255493</v>
+        <v>256789</v>
       </c>
       <c r="C314">
-        <v>1324</v>
+        <v>1611</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4306.7142857142853</v>
+        <v>4489.4285714285716</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>259100</v>
+        <v>261159</v>
       </c>
       <c r="C315">
-        <v>3607</v>
+        <v>4370</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4041.2857142857142</v>
+        <v>4331.2857142857147</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,30 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>259324</v>
+        <v>264211</v>
       </c>
       <c r="C316">
-        <v>224</v>
+        <v>3052</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>3243.8571428571427</v>
+        <v>3933.8571428571427</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="11"/>
+        <v>264454</v>
+      </c>
+      <c r="C317">
+        <v>243</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="10"/>
+        <v>3107.8571428571427</v>
       </c>
     </row>
   </sheetData>
@@ -5936,6 +5952,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5944,7 +5966,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6058,13 +6080,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6072,7 +6097,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6086,13 +6111,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD2D6C2-2960-4061-A5DC-496A04F125CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D55BFE-8B82-4D00-B46B-40352F2055EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="480" windowWidth="21600" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasesByDate" sheetId="1" r:id="rId1"/>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D317"/>
+  <dimension ref="A1:D318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B324" sqref="B324"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5280,14 +5280,14 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155675</v>
+        <v>155676</v>
       </c>
       <c r="C276">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D276">
         <f t="shared" si="9"/>
-        <v>1170.2857142857142</v>
+        <v>1170.4285714285713</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5296,14 +5296,14 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156799</v>
+        <v>156800</v>
       </c>
       <c r="C277">
         <v>1124</v>
       </c>
       <c r="D277">
         <f t="shared" si="9"/>
-        <v>1155.8571428571429</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5312,14 +5312,14 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157670</v>
+        <v>157671</v>
       </c>
       <c r="C278">
         <v>871</v>
       </c>
       <c r="D278">
         <f t="shared" si="9"/>
-        <v>1167.7142857142858</v>
+        <v>1167.8571428571429</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5328,14 +5328,14 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158192</v>
+        <v>158193</v>
       </c>
       <c r="C279">
         <v>522</v>
       </c>
       <c r="D279">
         <f t="shared" si="9"/>
-        <v>1173.1428571428571</v>
+        <v>1173.2857142857142</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5344,14 +5344,14 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160029</v>
+        <v>160030</v>
       </c>
       <c r="C280">
         <v>1837</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D317" si="10">AVERAGE(C274:C280)</f>
-        <v>1217.7142857142858</v>
+        <f t="shared" ref="D280:D318" si="10">AVERAGE(C274:C280)</f>
+        <v>1217.8571428571429</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5360,14 +5360,14 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161936</v>
+        <v>161937</v>
       </c>
       <c r="C281">
         <v>1907</v>
       </c>
       <c r="D281">
         <f t="shared" si="10"/>
-        <v>1298</v>
+        <v>1298.1428571428571</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5376,14 +5376,14 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164113</v>
+        <v>164114</v>
       </c>
       <c r="C282">
         <v>2177</v>
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1403.1428571428571</v>
+        <v>1403.2857142857142</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166532</v>
+        <v>166533</v>
       </c>
       <c r="C283">
         <v>2419</v>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168771</v>
+        <v>168772</v>
       </c>
       <c r="C284">
         <v>2239</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170097</v>
+        <v>170098</v>
       </c>
       <c r="C285">
         <v>1326</v>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171040</v>
+        <v>171041</v>
       </c>
       <c r="C286">
         <v>943</v>
@@ -5455,8 +5455,8 @@
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B317" si="11">C287+B286</f>
-        <v>174217</v>
+        <f t="shared" ref="B287:B318" si="11">C287+B286</f>
+        <v>174218</v>
       </c>
       <c r="C287">
         <v>3177</v>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177037</v>
+        <v>177038</v>
       </c>
       <c r="C288">
         <v>2820</v>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179701</v>
+        <v>179702</v>
       </c>
       <c r="C289">
         <v>2664</v>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182689</v>
+        <v>182690</v>
       </c>
       <c r="C290">
         <v>2988</v>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185295</v>
+        <v>185296</v>
       </c>
       <c r="C291">
         <v>2606</v>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187007</v>
+        <v>187008</v>
       </c>
       <c r="C292">
         <v>1712</v>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188200</v>
+        <v>188201</v>
       </c>
       <c r="C293">
         <v>1193</v>
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191721</v>
+        <v>191723</v>
       </c>
       <c r="C294">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2500.5714285714284</v>
+        <v>2500.7142857142858</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,14 +5584,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194855</v>
+        <v>194857</v>
       </c>
       <c r="C295">
         <v>3134</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2545.4285714285716</v>
+        <v>2545.5714285714284</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197774</v>
+        <v>197778</v>
       </c>
       <c r="C296">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2581.8571428571427</v>
+        <v>2582.2857142857142</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,14 +5616,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200771</v>
+        <v>200779</v>
       </c>
       <c r="C297">
-        <v>2997</v>
+        <v>3001</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2583.1428571428573</v>
+        <v>2584.1428571428573</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5632,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203625</v>
+        <v>203631</v>
       </c>
       <c r="C298">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2618.5714285714284</v>
+        <v>2619.2857142857142</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205392</v>
+        <v>205398</v>
       </c>
       <c r="C299">
         <v>1767</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2626.4285714285716</v>
+        <v>2627.1428571428573</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206579</v>
+        <v>206585</v>
       </c>
       <c r="C300">
         <v>1187</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2625.5714285714284</v>
+        <v>2626.2857142857142</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210169</v>
+        <v>210175</v>
       </c>
       <c r="C301">
         <v>3590</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2635.4285714285716</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,14 +5696,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213958</v>
+        <v>213965</v>
       </c>
       <c r="C302">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2729</v>
+        <v>2729.7142857142858</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,14 +5712,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216896</v>
+        <v>216906</v>
       </c>
       <c r="C303">
-        <v>2938</v>
+        <v>2941</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2731.7142857142858</v>
+        <v>2732.5714285714284</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217343</v>
+        <v>217353</v>
       </c>
       <c r="C304">
         <v>447</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2367.4285714285716</v>
+        <v>2367.7142857142858</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220706</v>
+        <v>220716</v>
       </c>
       <c r="C305">
         <v>3363</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2440.1428571428573</v>
+        <v>2440.7142857142858</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223611</v>
+        <v>223621</v>
       </c>
       <c r="C306">
         <v>2905</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2602.7142857142858</v>
+        <v>2603.2857142857142</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225363</v>
+        <v>225373</v>
       </c>
       <c r="C307">
         <v>1752</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2683.4285714285716</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230840</v>
+        <v>230849</v>
       </c>
       <c r="C308">
-        <v>5477</v>
+        <v>5476</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2953</v>
+        <v>2953.4285714285716</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236674</v>
+        <v>236689</v>
       </c>
       <c r="C309">
-        <v>5834</v>
+        <v>5840</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3245.1428571428573</v>
+        <v>3246.2857142857142</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242699</v>
+        <v>242734</v>
       </c>
       <c r="C310">
-        <v>6025</v>
+        <v>6045</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3686.1428571428573</v>
+        <v>3689.7142857142858</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248321</v>
+        <v>248443</v>
       </c>
       <c r="C311">
-        <v>5622</v>
+        <v>5709</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4425.4285714285716</v>
+        <v>4441.4285714285716</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253319</v>
+        <v>253643</v>
       </c>
       <c r="C312">
-        <v>4998</v>
+        <v>5200</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4659</v>
+        <v>4703.8571428571431</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>255178</v>
+        <v>255687</v>
       </c>
       <c r="C313">
-        <v>1859</v>
+        <v>2044</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4509.5714285714284</v>
+        <v>4580.8571428571431</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>256789</v>
+        <v>257656</v>
       </c>
       <c r="C314">
-        <v>1611</v>
+        <v>1969</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4489.4285714285716</v>
+        <v>4611.8571428571431</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>261159</v>
+        <v>262750</v>
       </c>
       <c r="C315">
-        <v>4370</v>
+        <v>5094</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4331.2857142857147</v>
+        <v>4557.2857142857147</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>264211</v>
+        <v>266560</v>
       </c>
       <c r="C316">
-        <v>3052</v>
+        <v>3810</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>3933.8571428571427</v>
+        <v>4267.2857142857147</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,14 +5936,30 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>264454</v>
+        <v>269617</v>
       </c>
       <c r="C317">
-        <v>243</v>
+        <v>3057</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>3107.8571428571427</v>
+        <v>3840.4285714285716</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="11"/>
+        <v>269929</v>
+      </c>
+      <c r="C318">
+        <v>312</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="10"/>
+        <v>3069.4285714285716</v>
       </c>
     </row>
   </sheetData>
@@ -5952,12 +5968,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5966,7 +5976,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6080,16 +6090,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6097,7 +6104,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6111,4 +6118,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D55BFE-8B82-4D00-B46B-40352F2055EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934032AC-9EA6-4C27-886A-3AFD330ED260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:D320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C318"/>
+      <selection pane="bottomRight" activeCell="H315" sqref="H315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5350,7 +5350,7 @@
         <v>1837</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D318" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D320" si="10">AVERAGE(C274:C280)</f>
         <v>1217.8571428571429</v>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
         <v>44144</v>
       </c>
       <c r="B287">
-        <f t="shared" ref="B287:B318" si="11">C287+B286</f>
+        <f t="shared" ref="B287:B319" si="11">C287+B286</f>
         <v>174218</v>
       </c>
       <c r="C287">
@@ -5504,14 +5504,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182690</v>
+        <v>182691</v>
       </c>
       <c r="C290">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2308.1428571428573</v>
+        <v>2308.2857142857142</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5520,14 +5520,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185296</v>
+        <v>185299</v>
       </c>
       <c r="C291">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2360.5714285714284</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,14 +5536,14 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187008</v>
+        <v>187011</v>
       </c>
       <c r="C292">
         <v>1712</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2415.7142857142858</v>
+        <v>2416.1428571428573</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5552,14 +5552,14 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188201</v>
+        <v>188204</v>
       </c>
       <c r="C293">
         <v>1193</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2451.4285714285716</v>
+        <v>2451.8571428571427</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191723</v>
+        <v>191726</v>
       </c>
       <c r="C294">
         <v>3522</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2500.7142857142858</v>
+        <v>2501.1428571428573</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,14 +5584,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194857</v>
+        <v>194861</v>
       </c>
       <c r="C295">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2545.5714285714284</v>
+        <v>2546.1428571428573</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197778</v>
+        <v>197784</v>
       </c>
       <c r="C296">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2582.2857142857142</v>
+        <v>2583.1428571428573</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,14 +5616,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200779</v>
+        <v>200785</v>
       </c>
       <c r="C297">
         <v>3001</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2584.1428571428573</v>
+        <v>2584.8571428571427</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5632,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203631</v>
+        <v>203635</v>
       </c>
       <c r="C298">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2619.2857142857142</v>
+        <v>2619.4285714285716</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205398</v>
+        <v>205402</v>
       </c>
       <c r="C299">
         <v>1767</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2627.1428571428573</v>
+        <v>2627.2857142857142</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206585</v>
+        <v>206589</v>
       </c>
       <c r="C300">
         <v>1187</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2626.2857142857142</v>
+        <v>2626.4285714285716</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210175</v>
+        <v>210182</v>
       </c>
       <c r="C301">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2636</v>
+        <v>2636.5714285714284</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,14 +5696,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213965</v>
+        <v>213976</v>
       </c>
       <c r="C302">
-        <v>3790</v>
+        <v>3794</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2729.7142857142858</v>
+        <v>2730.7142857142858</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,14 +5712,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216906</v>
+        <v>216916</v>
       </c>
       <c r="C303">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2732.5714285714284</v>
+        <v>2733.1428571428573</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217353</v>
+        <v>217362</v>
       </c>
       <c r="C304">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2367.7142857142858</v>
+        <v>2368.1428571428573</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220716</v>
+        <v>220726</v>
       </c>
       <c r="C305">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2440.7142857142858</v>
+        <v>2441.5714285714284</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223621</v>
+        <v>223629</v>
       </c>
       <c r="C306">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2603.2857142857142</v>
+        <v>2603.8571428571427</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225373</v>
+        <v>225382</v>
       </c>
       <c r="C307">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2684</v>
+        <v>2684.7142857142858</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230849</v>
+        <v>230866</v>
       </c>
       <c r="C308">
-        <v>5476</v>
+        <v>5484</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2953.4285714285716</v>
+        <v>2954.8571428571427</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236689</v>
+        <v>236708</v>
       </c>
       <c r="C309">
-        <v>5840</v>
+        <v>5842</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3246.2857142857142</v>
+        <v>3247.4285714285716</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242734</v>
+        <v>242759</v>
       </c>
       <c r="C310">
-        <v>6045</v>
+        <v>6051</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3689.7142857142858</v>
+        <v>3691.8571428571427</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248443</v>
+        <v>248499</v>
       </c>
       <c r="C311">
-        <v>5709</v>
+        <v>5740</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4441.4285714285716</v>
+        <v>4448.1428571428569</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253643</v>
+        <v>253784</v>
       </c>
       <c r="C312">
-        <v>5200</v>
+        <v>5285</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4703.8571428571431</v>
+        <v>4722.5714285714284</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>255687</v>
+        <v>255950</v>
       </c>
       <c r="C313">
-        <v>2044</v>
+        <v>2166</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4580.8571428571431</v>
+        <v>4617.2857142857147</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>257656</v>
+        <v>258042</v>
       </c>
       <c r="C314">
-        <v>1969</v>
+        <v>2092</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4611.8571428571431</v>
+        <v>4665.7142857142853</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>262750</v>
+        <v>264077</v>
       </c>
       <c r="C315">
-        <v>5094</v>
+        <v>6035</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4557.2857142857147</v>
+        <v>4744.4285714285716</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>266560</v>
+        <v>268995</v>
       </c>
       <c r="C316">
-        <v>3810</v>
+        <v>4918</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4267.2857142857147</v>
+        <v>4612.4285714285716</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>269617</v>
+        <v>273126</v>
       </c>
       <c r="C317">
-        <v>3057</v>
+        <v>4131</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>3840.4285714285716</v>
+        <v>4338.1428571428569</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -5952,14 +5952,46 @@
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>269929</v>
+        <v>276766</v>
       </c>
       <c r="C318">
-        <v>312</v>
+        <v>3640</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>3069.4285714285716</v>
+        <v>4038.1428571428573</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="11"/>
+        <v>279363</v>
+      </c>
+      <c r="C319">
+        <v>2597</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="10"/>
+        <v>3654.1428571428573</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B320">
+        <f t="shared" ref="B320" si="12">C320+B319</f>
+        <v>279574</v>
+      </c>
+      <c r="C320">
+        <v>211</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="10"/>
+        <v>3374.8571428571427</v>
       </c>
     </row>
   </sheetData>

--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934032AC-9EA6-4C27-886A-3AFD330ED260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11A9FB-8A4A-4231-8E02-C40986991101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D320"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B290" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H315" sqref="H315"/>
+      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4656,14 +4656,14 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>125956</v>
+        <v>125955</v>
       </c>
       <c r="C237">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D237">
         <f t="shared" si="7"/>
-        <v>353.42857142857144</v>
+        <v>353.28571428571428</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4672,14 +4672,14 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>126383</v>
+        <v>126382</v>
       </c>
       <c r="C238">
         <v>427</v>
       </c>
       <c r="D238">
         <f t="shared" si="7"/>
-        <v>342.57142857142856</v>
+        <v>342.42857142857144</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>126891</v>
+        <v>126890</v>
       </c>
       <c r="C239">
         <v>508</v>
       </c>
       <c r="D239">
         <f t="shared" si="7"/>
-        <v>354.71428571428572</v>
+        <v>354.57142857142856</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4704,14 +4704,14 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>127451</v>
+        <v>127450</v>
       </c>
       <c r="C240">
         <v>560</v>
       </c>
       <c r="D240">
         <f t="shared" si="7"/>
-        <v>375.57142857142856</v>
+        <v>375.42857142857144</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4720,14 +4720,14 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>128048</v>
+        <v>128047</v>
       </c>
       <c r="C241">
         <v>597</v>
       </c>
       <c r="D241">
         <f t="shared" si="7"/>
-        <v>410.14285714285717</v>
+        <v>410</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4736,14 +4736,14 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>128601</v>
+        <v>128600</v>
       </c>
       <c r="C242">
         <v>553</v>
       </c>
       <c r="D242">
         <f t="shared" si="7"/>
-        <v>427</v>
+        <v>426.85714285714283</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4752,14 +4752,14 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>128964</v>
+        <v>128963</v>
       </c>
       <c r="C243">
         <v>363</v>
       </c>
       <c r="D243">
         <f t="shared" si="7"/>
-        <v>450</v>
+        <v>449.85714285714283</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129188</v>
+        <v>129187</v>
       </c>
       <c r="C244">
         <v>224</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130055</v>
+        <v>130054</v>
       </c>
       <c r="C245">
         <v>867</v>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130775</v>
+        <v>130774</v>
       </c>
       <c r="C246">
         <v>720</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131388</v>
+        <v>131387</v>
       </c>
       <c r="C247">
         <v>613</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132071</v>
+        <v>132070</v>
       </c>
       <c r="C248">
         <v>683</v>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132636</v>
+        <v>132635</v>
       </c>
       <c r="C249">
         <v>565</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133044</v>
+        <v>133043</v>
       </c>
       <c r="C250">
         <v>408</v>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133336</v>
+        <v>133335</v>
       </c>
       <c r="C251">
         <v>292</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134087</v>
+        <v>134086</v>
       </c>
       <c r="C252">
         <v>751</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134821</v>
+        <v>134820</v>
       </c>
       <c r="C253">
         <v>734</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135540</v>
+        <v>135539</v>
       </c>
       <c r="C254">
         <v>719</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136374</v>
+        <v>136373</v>
       </c>
       <c r="C255">
         <v>834</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137064</v>
+        <v>137063</v>
       </c>
       <c r="C256">
         <v>690</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137477</v>
+        <v>137476</v>
       </c>
       <c r="C257">
         <v>413</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137741</v>
+        <v>137740</v>
       </c>
       <c r="C258">
         <v>264</v>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138334</v>
+        <v>138333</v>
       </c>
       <c r="C259">
         <v>593</v>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139120</v>
+        <v>139119</v>
       </c>
       <c r="C260">
         <v>786</v>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140019</v>
+        <v>140018</v>
       </c>
       <c r="C261">
         <v>899</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>140969</v>
+        <v>140968</v>
       </c>
       <c r="C262">
         <v>950</v>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141835</v>
+        <v>141834</v>
       </c>
       <c r="C263">
         <v>866</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142379</v>
+        <v>142378</v>
       </c>
       <c r="C264">
         <v>544</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142710</v>
+        <v>142709</v>
       </c>
       <c r="C265">
         <v>331</v>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143789</v>
+        <v>143788</v>
       </c>
       <c r="C266">
         <v>1079</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144907</v>
+        <v>144906</v>
       </c>
       <c r="C267">
         <v>1118</v>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146109</v>
+        <v>146108</v>
       </c>
       <c r="C268">
         <v>1202</v>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147483</v>
+        <v>147482</v>
       </c>
       <c r="C269">
         <v>1374</v>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148708</v>
+        <v>148707</v>
       </c>
       <c r="C270">
         <v>1225</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149496</v>
+        <v>149495</v>
       </c>
       <c r="C271">
         <v>788</v>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>149980</v>
+        <v>149979</v>
       </c>
       <c r="C272">
         <v>484</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151505</v>
+        <v>151504</v>
       </c>
       <c r="C273">
         <v>1525</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152850</v>
+        <v>152849</v>
       </c>
       <c r="C274">
         <v>1345</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154291</v>
+        <v>154290</v>
       </c>
       <c r="C275">
         <v>1441</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155676</v>
+        <v>155675</v>
       </c>
       <c r="C276">
         <v>1385</v>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156800</v>
+        <v>156799</v>
       </c>
       <c r="C277">
         <v>1124</v>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157671</v>
+        <v>157670</v>
       </c>
       <c r="C278">
         <v>871</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158193</v>
+        <v>158192</v>
       </c>
       <c r="C279">
         <v>522</v>
@@ -5344,13 +5344,13 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160030</v>
+        <v>160029</v>
       </c>
       <c r="C280">
         <v>1837</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D320" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D322" si="10">AVERAGE(C274:C280)</f>
         <v>1217.8571428571429</v>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161937</v>
+        <v>161936</v>
       </c>
       <c r="C281">
         <v>1907</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164114</v>
+        <v>164113</v>
       </c>
       <c r="C282">
         <v>2177</v>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166533</v>
+        <v>166532</v>
       </c>
       <c r="C283">
         <v>2419</v>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168772</v>
+        <v>168771</v>
       </c>
       <c r="C284">
         <v>2239</v>
@@ -5424,14 +5424,14 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170098</v>
+        <v>170096</v>
       </c>
       <c r="C285">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1775.2857142857142</v>
+        <v>1775.1428571428571</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5440,14 +5440,14 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171041</v>
+        <v>171039</v>
       </c>
       <c r="C286">
         <v>943</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1835.4285714285713</v>
+        <v>1835.2857142857142</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="B287">
         <f t="shared" ref="B287:B319" si="11">C287+B286</f>
-        <v>174218</v>
+        <v>174216</v>
       </c>
       <c r="C287">
         <v>3177</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2026.8571428571429</v>
+        <v>2026.7142857142858</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177038</v>
+        <v>177035</v>
       </c>
       <c r="C288">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2157.2857142857142</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5488,14 +5488,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179702</v>
+        <v>179699</v>
       </c>
       <c r="C289">
         <v>2664</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2226.8571428571427</v>
+        <v>2226.5714285714284</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5504,14 +5504,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182691</v>
+        <v>182688</v>
       </c>
       <c r="C290">
         <v>2989</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2308.2857142857142</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5520,14 +5520,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185299</v>
+        <v>185296</v>
       </c>
       <c r="C291">
         <v>2608</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2361</v>
+        <v>2360.7142857142858</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,14 +5536,14 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187011</v>
+        <v>187008</v>
       </c>
       <c r="C292">
         <v>1712</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2416.1428571428573</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5552,14 +5552,14 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188204</v>
+        <v>188201</v>
       </c>
       <c r="C293">
         <v>1193</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2451.8571428571427</v>
+        <v>2451.7142857142858</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191726</v>
+        <v>191725</v>
       </c>
       <c r="C294">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2501.1428571428573</v>
+        <v>2501.2857142857142</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5587,11 +5587,11 @@
         <v>194861</v>
       </c>
       <c r="C295">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2546.1428571428573</v>
+        <v>2546.5714285714284</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2583.1428571428573</v>
+        <v>2583.5714285714284</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2584.8571428571427</v>
+        <v>2585.2857142857142</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5632,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203635</v>
+        <v>203636</v>
       </c>
       <c r="C298">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2619.4285714285716</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205402</v>
+        <v>205404</v>
       </c>
       <c r="C299">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2627.2857142857142</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206589</v>
+        <v>206590</v>
       </c>
       <c r="C300">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2626.4285714285716</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210182</v>
+        <v>210184</v>
       </c>
       <c r="C301">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2636.5714285714284</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,14 +5696,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213976</v>
+        <v>213977</v>
       </c>
       <c r="C302">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2730.7142857142858</v>
+        <v>2730.8571428571427</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,14 +5712,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216916</v>
+        <v>216919</v>
       </c>
       <c r="C303">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2733.1428571428573</v>
+        <v>2733.5714285714284</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217362</v>
+        <v>217364</v>
       </c>
       <c r="C304">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2368.1428571428573</v>
+        <v>2368.4285714285716</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220726</v>
+        <v>220731</v>
       </c>
       <c r="C305">
-        <v>3364</v>
+        <v>3367</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2441.5714285714284</v>
+        <v>2442.1428571428573</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223629</v>
+        <v>223634</v>
       </c>
       <c r="C306">
         <v>2903</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2603.8571428571427</v>
+        <v>2604.2857142857142</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225382</v>
+        <v>225388</v>
       </c>
       <c r="C307">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2684.7142857142858</v>
+        <v>2685.4285714285716</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230866</v>
+        <v>230873</v>
       </c>
       <c r="C308">
-        <v>5484</v>
+        <v>5485</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2954.8571428571427</v>
+        <v>2955.5714285714284</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236708</v>
+        <v>236716</v>
       </c>
       <c r="C309">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3247.4285714285716</v>
+        <v>3248.4285714285716</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242759</v>
+        <v>242768</v>
       </c>
       <c r="C310">
-        <v>6051</v>
+        <v>6052</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3691.8571428571427</v>
+        <v>3692.7142857142858</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248499</v>
+        <v>248511</v>
       </c>
       <c r="C311">
-        <v>5740</v>
+        <v>5743</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4448.1428571428569</v>
+        <v>4449.5714285714284</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253784</v>
+        <v>253795</v>
       </c>
       <c r="C312">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4722.5714285714284</v>
+        <v>4723.4285714285716</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>255950</v>
+        <v>255973</v>
       </c>
       <c r="C313">
-        <v>2166</v>
+        <v>2178</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4617.2857142857147</v>
+        <v>4619.8571428571431</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>258042</v>
+        <v>258070</v>
       </c>
       <c r="C314">
-        <v>2092</v>
+        <v>2097</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4665.7142857142853</v>
+        <v>4668.8571428571431</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>264077</v>
+        <v>264214</v>
       </c>
       <c r="C315">
-        <v>6035</v>
+        <v>6144</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4744.4285714285716</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>268995</v>
+        <v>269502</v>
       </c>
       <c r="C316">
-        <v>4918</v>
+        <v>5288</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4612.4285714285716</v>
+        <v>4683.7142857142853</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>273126</v>
+        <v>274701</v>
       </c>
       <c r="C317">
-        <v>4131</v>
+        <v>5199</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>4338.1428571428569</v>
+        <v>4561.8571428571431</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -5952,14 +5952,14 @@
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>276766</v>
+        <v>279606</v>
       </c>
       <c r="C318">
-        <v>3640</v>
+        <v>4905</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>4038.1428571428573</v>
+        <v>4442.1428571428569</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5968,14 +5968,14 @@
       </c>
       <c r="B319">
         <f t="shared" si="11"/>
-        <v>279363</v>
+        <v>283633</v>
       </c>
       <c r="C319">
-        <v>2597</v>
+        <v>4027</v>
       </c>
       <c r="D319">
         <f t="shared" si="10"/>
-        <v>3654.1428571428573</v>
+        <v>4262.5714285714284</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -5983,15 +5983,47 @@
         <v>44177</v>
       </c>
       <c r="B320">
-        <f t="shared" ref="B320" si="12">C320+B319</f>
-        <v>279574</v>
+        <f t="shared" ref="B320:B321" si="12">C320+B319</f>
+        <v>285527</v>
       </c>
       <c r="C320">
-        <v>211</v>
+        <v>1894</v>
       </c>
       <c r="D320">
         <f t="shared" si="10"/>
-        <v>3374.8571428571427</v>
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="12"/>
+        <v>286581</v>
+      </c>
+      <c r="C321">
+        <v>1054</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="10"/>
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B322">
+        <f t="shared" ref="B322" si="13">C322+B321</f>
+        <v>286866</v>
+      </c>
+      <c r="C322">
+        <v>285</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="10"/>
+        <v>3236</v>
       </c>
     </row>
   </sheetData>
@@ -6000,15 +6032,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6122,21 +6145,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6152,11 +6176,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11A9FB-8A4A-4231-8E02-C40986991101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2386F4E-ABE1-4E90-BA86-EBB719EF3EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D322"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,14 +2240,14 @@
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>51242</v>
+        <v>51241</v>
       </c>
       <c r="C86">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D86">
         <f t="shared" si="3"/>
-        <v>2217.1428571428573</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,14 +2256,14 @@
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>53647</v>
+        <v>53646</v>
       </c>
       <c r="C87">
         <v>2405</v>
       </c>
       <c r="D87">
         <f t="shared" si="3"/>
-        <v>2219.8571428571427</v>
+        <v>2219.7142857142858</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2272,14 +2272,14 @@
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>55921</v>
+        <v>55920</v>
       </c>
       <c r="C88">
         <v>2274</v>
       </c>
       <c r="D88">
         <f t="shared" si="3"/>
-        <v>2117.7142857142858</v>
+        <v>2117.5714285714284</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2288,14 +2288,14 @@
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>57413</v>
+        <v>57412</v>
       </c>
       <c r="C89">
         <v>1492</v>
       </c>
       <c r="D89">
         <f t="shared" si="3"/>
-        <v>2119.4285714285716</v>
+        <v>2119.2857142857142</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,14 +2304,14 @@
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>58257</v>
+        <v>58256</v>
       </c>
       <c r="C90">
         <v>844</v>
       </c>
       <c r="D90">
         <f t="shared" si="3"/>
-        <v>2084.4285714285716</v>
+        <v>2084.2857142857142</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2320,14 +2320,14 @@
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>60385</v>
+        <v>60384</v>
       </c>
       <c r="C91">
         <v>2128</v>
       </c>
       <c r="D91">
         <f t="shared" si="3"/>
-        <v>2004.7142857142858</v>
+        <v>2004.5714285714287</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,14 +2336,14 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>62488</v>
+        <v>62487</v>
       </c>
       <c r="C92">
         <v>2103</v>
       </c>
       <c r="D92">
         <f t="shared" si="3"/>
-        <v>1992.8571428571429</v>
+        <v>1992.7142857142858</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>64674</v>
+        <v>64673</v>
       </c>
       <c r="C93">
         <v>2186</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>66721</v>
+        <v>66720</v>
       </c>
       <c r="C94">
         <v>2047</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>68802</v>
+        <v>68801</v>
       </c>
       <c r="C95">
         <v>2081</v>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>69831</v>
+        <v>69830</v>
       </c>
       <c r="C96">
         <v>1029</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>70564</v>
+        <v>70563</v>
       </c>
       <c r="C97">
         <v>733</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>72442</v>
+        <v>72441</v>
       </c>
       <c r="C98">
         <v>1878</v>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>74176</v>
+        <v>74175</v>
       </c>
       <c r="C99">
         <v>1734</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>75874</v>
+        <v>75873</v>
       </c>
       <c r="C100">
         <v>1698</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>77551</v>
+        <v>77550</v>
       </c>
       <c r="C101">
         <v>1677</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>79005</v>
+        <v>79004</v>
       </c>
       <c r="C102">
         <v>1454</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>79687</v>
+        <v>79686</v>
       </c>
       <c r="C103">
         <v>682</v>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>80072</v>
+        <v>80071</v>
       </c>
       <c r="C104">
         <v>385</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>81378</v>
+        <v>81377</v>
       </c>
       <c r="C105">
         <v>1306</v>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>82828</v>
+        <v>82827</v>
       </c>
       <c r="C106">
         <v>1450</v>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>84139</v>
+        <v>84138</v>
       </c>
       <c r="C107">
         <v>1311</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>85454</v>
+        <v>85453</v>
       </c>
       <c r="C108">
         <v>1315</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>86559</v>
+        <v>86558</v>
       </c>
       <c r="C109">
         <v>1105</v>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>87204</v>
+        <v>87203</v>
       </c>
       <c r="C110">
         <v>645</v>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>87567</v>
+        <v>87566</v>
       </c>
       <c r="C111">
         <v>363</v>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>88880</v>
+        <v>88879</v>
       </c>
       <c r="C112">
         <v>1313</v>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>89953</v>
+        <v>89952</v>
       </c>
       <c r="C113">
         <v>1073</v>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>90964</v>
+        <v>90963</v>
       </c>
       <c r="C114">
         <v>1011</v>
@@ -2704,14 +2704,14 @@
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>91928</v>
+        <v>91926</v>
       </c>
       <c r="C115">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D115">
         <f t="shared" si="3"/>
-        <v>924.85714285714289</v>
+        <v>924.71428571428567</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2720,14 +2720,14 @@
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>92790</v>
+        <v>92788</v>
       </c>
       <c r="C116">
         <v>862</v>
       </c>
       <c r="D116">
         <f t="shared" si="3"/>
-        <v>890.14285714285711</v>
+        <v>890</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,14 +2736,14 @@
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>93177</v>
+        <v>93175</v>
       </c>
       <c r="C117">
         <v>387</v>
       </c>
       <c r="D117">
         <f t="shared" si="3"/>
-        <v>853.28571428571433</v>
+        <v>853.14285714285711</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2752,14 +2752,14 @@
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>93478</v>
+        <v>93476</v>
       </c>
       <c r="C118">
         <v>301</v>
       </c>
       <c r="D118">
         <f t="shared" si="3"/>
-        <v>844.42857142857144</v>
+        <v>844.28571428571433</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2768,14 +2768,14 @@
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>93676</v>
+        <v>93674</v>
       </c>
       <c r="C119">
         <v>198</v>
       </c>
       <c r="D119">
         <f t="shared" si="3"/>
-        <v>685.14285714285711</v>
+        <v>685</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2784,14 +2784,14 @@
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>94540</v>
+        <v>94538</v>
       </c>
       <c r="C120">
         <v>864</v>
       </c>
       <c r="D120">
         <f t="shared" si="3"/>
-        <v>655.28571428571433</v>
+        <v>655.14285714285711</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2800,14 +2800,14 @@
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>95227</v>
+        <v>95225</v>
       </c>
       <c r="C121">
         <v>687</v>
       </c>
       <c r="D121">
         <f t="shared" si="3"/>
-        <v>609</v>
+        <v>608.85714285714289</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>95866</v>
+        <v>95864</v>
       </c>
       <c r="C122">
         <v>639</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>96396</v>
+        <v>96394</v>
       </c>
       <c r="C123">
         <v>530</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>96667</v>
+        <v>96665</v>
       </c>
       <c r="C124">
         <v>271</v>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>96828</v>
+        <v>96826</v>
       </c>
       <c r="C125">
         <v>161</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>97336</v>
+        <v>97334</v>
       </c>
       <c r="C126">
         <v>508</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
-        <v>97783</v>
+        <v>97781</v>
       </c>
       <c r="C127">
         <v>447</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
-        <v>98242</v>
+        <v>98240</v>
       </c>
       <c r="C128">
         <v>459</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>98621</v>
+        <v>98619</v>
       </c>
       <c r="C129">
         <v>379</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>98958</v>
+        <v>98956</v>
       </c>
       <c r="C130">
         <v>337</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="2"/>
-        <v>99106</v>
+        <v>99104</v>
       </c>
       <c r="C131">
         <v>148</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" si="4">C132+B131</f>
-        <v>99257</v>
+        <v>99255</v>
       </c>
       <c r="C132">
         <v>151</v>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>99610</v>
+        <v>99608</v>
       </c>
       <c r="C133">
         <v>353</v>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>99953</v>
+        <v>99951</v>
       </c>
       <c r="C134">
         <v>343</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>100212</v>
+        <v>100210</v>
       </c>
       <c r="C135">
         <v>259</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>100438</v>
+        <v>100436</v>
       </c>
       <c r="C136">
         <v>226</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
-        <v>100692</v>
+        <v>100690</v>
       </c>
       <c r="C137">
         <v>254</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>100789</v>
+        <v>100787</v>
       </c>
       <c r="C138">
         <v>97</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>100865</v>
+        <v>100863</v>
       </c>
       <c r="C139">
         <v>76</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>101100</v>
+        <v>101098</v>
       </c>
       <c r="C140">
         <v>235</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>101298</v>
+        <v>101296</v>
       </c>
       <c r="C141">
         <v>198</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>101547</v>
+        <v>101545</v>
       </c>
       <c r="C142">
         <v>249</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>101787</v>
+        <v>101785</v>
       </c>
       <c r="C143">
         <v>240</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>101962</v>
+        <v>101960</v>
       </c>
       <c r="C144">
         <v>175</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>102055</v>
+        <v>102053</v>
       </c>
       <c r="C145">
         <v>93</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>102134</v>
+        <v>102132</v>
       </c>
       <c r="C146">
         <v>79</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>102359</v>
+        <v>102357</v>
       </c>
       <c r="C147">
         <v>225</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>102548</v>
+        <v>102546</v>
       </c>
       <c r="C148">
         <v>189</v>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>102758</v>
+        <v>102756</v>
       </c>
       <c r="C149">
         <v>210</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>102964</v>
+        <v>102962</v>
       </c>
       <c r="C150">
         <v>206</v>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>103162</v>
+        <v>103160</v>
       </c>
       <c r="C151">
         <v>198</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>103296</v>
+        <v>103294</v>
       </c>
       <c r="C152">
         <v>134</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>103367</v>
+        <v>103365</v>
       </c>
       <c r="C153">
         <v>71</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>103572</v>
+        <v>103570</v>
       </c>
       <c r="C154">
         <v>205</v>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>103792</v>
+        <v>103790</v>
       </c>
       <c r="C155">
         <v>220</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>104008</v>
+        <v>104006</v>
       </c>
       <c r="C156">
         <v>216</v>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>104234</v>
+        <v>104232</v>
       </c>
       <c r="C157">
         <v>226</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>104333</v>
+        <v>104331</v>
       </c>
       <c r="C158">
         <v>99</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>104393</v>
+        <v>104391</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>104494</v>
+        <v>104492</v>
       </c>
       <c r="C160">
         <v>101</v>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>104731</v>
+        <v>104729</v>
       </c>
       <c r="C161">
         <v>237</v>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>104973</v>
+        <v>104971</v>
       </c>
       <c r="C162">
         <v>242</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>105189</v>
+        <v>105187</v>
       </c>
       <c r="C163">
         <v>216</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>105443</v>
+        <v>105441</v>
       </c>
       <c r="C164">
         <v>254</v>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>105671</v>
+        <v>105669</v>
       </c>
       <c r="C165">
         <v>228</v>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>105788</v>
+        <v>105786</v>
       </c>
       <c r="C166">
         <v>117</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>105875</v>
+        <v>105873</v>
       </c>
       <c r="C167">
         <v>87</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>106141</v>
+        <v>106139</v>
       </c>
       <c r="C168">
         <v>266</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
-        <v>106373</v>
+        <v>106371</v>
       </c>
       <c r="C169">
         <v>232</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>106671</v>
+        <v>106669</v>
       </c>
       <c r="C170">
         <v>298</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>106915</v>
+        <v>106913</v>
       </c>
       <c r="C171">
         <v>244</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>107142</v>
+        <v>107140</v>
       </c>
       <c r="C172">
         <v>227</v>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>107270</v>
+        <v>107268</v>
       </c>
       <c r="C173">
         <v>128</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>107344</v>
+        <v>107342</v>
       </c>
       <c r="C174">
         <v>74</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
-        <v>107623</v>
+        <v>107621</v>
       </c>
       <c r="C175">
         <v>279</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>107878</v>
+        <v>107876</v>
       </c>
       <c r="C176">
         <v>255</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>108136</v>
+        <v>108134</v>
       </c>
       <c r="C177">
         <v>258</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
-        <v>108394</v>
+        <v>108392</v>
       </c>
       <c r="C178">
         <v>258</v>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
-        <v>108651</v>
+        <v>108649</v>
       </c>
       <c r="C179">
         <v>257</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="4"/>
-        <v>108810</v>
+        <v>108808</v>
       </c>
       <c r="C180">
         <v>159</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="4"/>
-        <v>108911</v>
+        <v>108909</v>
       </c>
       <c r="C181">
         <v>101</v>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
-        <v>109272</v>
+        <v>109270</v>
       </c>
       <c r="C182">
         <v>361</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
-        <v>109592</v>
+        <v>109590</v>
       </c>
       <c r="C183">
         <v>320</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="4"/>
-        <v>109911</v>
+        <v>109909</v>
       </c>
       <c r="C184">
         <v>319</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
-        <v>110247</v>
+        <v>110245</v>
       </c>
       <c r="C185">
         <v>336</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
-        <v>110566</v>
+        <v>110564</v>
       </c>
       <c r="C186">
         <v>319</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
-        <v>110713</v>
+        <v>110711</v>
       </c>
       <c r="C187">
         <v>147</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
-        <v>110822</v>
+        <v>110820</v>
       </c>
       <c r="C188">
         <v>109</v>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="4"/>
-        <v>111180</v>
+        <v>111178</v>
       </c>
       <c r="C189">
         <v>358</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>111488</v>
+        <v>111486</v>
       </c>
       <c r="C190">
         <v>308</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
-        <v>111821</v>
+        <v>111819</v>
       </c>
       <c r="C191">
         <v>333</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
-        <v>112175</v>
+        <v>112173</v>
       </c>
       <c r="C192">
         <v>354</v>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="4"/>
-        <v>112474</v>
+        <v>112472</v>
       </c>
       <c r="C193">
         <v>299</v>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B194">
         <f t="shared" si="4"/>
-        <v>112643</v>
+        <v>112641</v>
       </c>
       <c r="C194">
         <v>169</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="4"/>
-        <v>112728</v>
+        <v>112726</v>
       </c>
       <c r="C195">
         <v>85</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B259" si="6">C196+B195</f>
-        <v>113102</v>
+        <v>113100</v>
       </c>
       <c r="C196">
         <v>374</v>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>113386</v>
+        <v>113384</v>
       </c>
       <c r="C197">
         <v>284</v>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
-        <v>113690</v>
+        <v>113688</v>
       </c>
       <c r="C198">
         <v>304</v>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
-        <v>114039</v>
+        <v>114037</v>
       </c>
       <c r="C199">
         <v>349</v>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
-        <v>114381</v>
+        <v>114379</v>
       </c>
       <c r="C200">
         <v>342</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
-        <v>114532</v>
+        <v>114530</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
-        <v>114652</v>
+        <v>114650</v>
       </c>
       <c r="C202">
         <v>120</v>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
-        <v>115021</v>
+        <v>115019</v>
       </c>
       <c r="C203">
         <v>369</v>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>115402</v>
+        <v>115400</v>
       </c>
       <c r="C204">
         <v>381</v>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>115740</v>
+        <v>115738</v>
       </c>
       <c r="C205">
         <v>338</v>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>116096</v>
+        <v>116094</v>
       </c>
       <c r="C206">
         <v>356</v>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>116379</v>
+        <v>116377</v>
       </c>
       <c r="C207">
         <v>283</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>116528</v>
+        <v>116526</v>
       </c>
       <c r="C208">
         <v>149</v>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>116620</v>
+        <v>116618</v>
       </c>
       <c r="C209">
         <v>92</v>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>117016</v>
+        <v>117014</v>
       </c>
       <c r="C210">
         <v>396</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
-        <v>117395</v>
+        <v>117393</v>
       </c>
       <c r="C211">
         <v>379</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>117774</v>
+        <v>117772</v>
       </c>
       <c r="C212">
         <v>379</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>118119</v>
+        <v>118117</v>
       </c>
       <c r="C213">
         <v>345</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>118482</v>
+        <v>118480</v>
       </c>
       <c r="C214">
         <v>363</v>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>118654</v>
+        <v>118652</v>
       </c>
       <c r="C215">
         <v>172</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>118793</v>
+        <v>118791</v>
       </c>
       <c r="C216">
         <v>139</v>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>119231</v>
+        <v>119229</v>
       </c>
       <c r="C217">
         <v>438</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>119626</v>
+        <v>119624</v>
       </c>
       <c r="C218">
         <v>395</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>120010</v>
+        <v>120008</v>
       </c>
       <c r="C219">
         <v>384</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>120474</v>
+        <v>120472</v>
       </c>
       <c r="C220">
         <v>464</v>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>120822</v>
+        <v>120820</v>
       </c>
       <c r="C221">
         <v>348</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>121020</v>
+        <v>121018</v>
       </c>
       <c r="C222">
         <v>198</v>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>121132</v>
+        <v>121130</v>
       </c>
       <c r="C223">
         <v>112</v>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>121293</v>
+        <v>121291</v>
       </c>
       <c r="C224">
         <v>161</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>121840</v>
+        <v>121838</v>
       </c>
       <c r="C225">
         <v>547</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>122314</v>
+        <v>122312</v>
       </c>
       <c r="C226">
         <v>474</v>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>122723</v>
+        <v>122721</v>
       </c>
       <c r="C227">
         <v>409</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>123132</v>
+        <v>123130</v>
       </c>
       <c r="C228">
         <v>409</v>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>123321</v>
+        <v>123319</v>
       </c>
       <c r="C229">
         <v>189</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>123482</v>
+        <v>123480</v>
       </c>
       <c r="C230">
         <v>161</v>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>123985</v>
+        <v>123983</v>
       </c>
       <c r="C231">
         <v>503</v>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>124408</v>
+        <v>124406</v>
       </c>
       <c r="C232">
         <v>423</v>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>124822</v>
+        <v>124820</v>
       </c>
       <c r="C233">
         <v>414</v>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>125177</v>
+        <v>125175</v>
       </c>
       <c r="C234">
         <v>355</v>
@@ -4624,14 +4624,14 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>125612</v>
+        <v>125611</v>
       </c>
       <c r="C235">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D235">
         <f t="shared" si="7"/>
-        <v>354.28571428571428</v>
+        <v>354.42857142857144</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,14 +4640,14 @@
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>125814</v>
+        <v>125813</v>
       </c>
       <c r="C236">
         <v>202</v>
       </c>
       <c r="D236">
         <f t="shared" si="7"/>
-        <v>356.14285714285717</v>
+        <v>356.28571428571428</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4656,14 +4656,14 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>125955</v>
+        <v>125954</v>
       </c>
       <c r="C237">
         <v>141</v>
       </c>
       <c r="D237">
         <f t="shared" si="7"/>
-        <v>353.28571428571428</v>
+        <v>353.42857142857144</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4672,14 +4672,14 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>126382</v>
+        <v>126381</v>
       </c>
       <c r="C238">
         <v>427</v>
       </c>
       <c r="D238">
         <f t="shared" si="7"/>
-        <v>342.42857142857144</v>
+        <v>342.57142857142856</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>126890</v>
+        <v>126889</v>
       </c>
       <c r="C239">
         <v>508</v>
       </c>
       <c r="D239">
         <f t="shared" si="7"/>
-        <v>354.57142857142856</v>
+        <v>354.71428571428572</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4704,14 +4704,14 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>127450</v>
+        <v>127449</v>
       </c>
       <c r="C240">
         <v>560</v>
       </c>
       <c r="D240">
         <f t="shared" si="7"/>
-        <v>375.42857142857144</v>
+        <v>375.57142857142856</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4720,14 +4720,14 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>128047</v>
+        <v>128046</v>
       </c>
       <c r="C241">
         <v>597</v>
       </c>
       <c r="D241">
         <f t="shared" si="7"/>
-        <v>410</v>
+        <v>410.14285714285717</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>128600</v>
+        <v>128599</v>
       </c>
       <c r="C242">
         <v>553</v>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>128963</v>
+        <v>128962</v>
       </c>
       <c r="C243">
         <v>363</v>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129187</v>
+        <v>129186</v>
       </c>
       <c r="C244">
         <v>224</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130054</v>
+        <v>130053</v>
       </c>
       <c r="C245">
         <v>867</v>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130774</v>
+        <v>130773</v>
       </c>
       <c r="C246">
         <v>720</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131387</v>
+        <v>131386</v>
       </c>
       <c r="C247">
         <v>613</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132070</v>
+        <v>132069</v>
       </c>
       <c r="C248">
         <v>683</v>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132635</v>
+        <v>132634</v>
       </c>
       <c r="C249">
         <v>565</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133043</v>
+        <v>133042</v>
       </c>
       <c r="C250">
         <v>408</v>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133335</v>
+        <v>133334</v>
       </c>
       <c r="C251">
         <v>292</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134086</v>
+        <v>134085</v>
       </c>
       <c r="C252">
         <v>751</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134820</v>
+        <v>134819</v>
       </c>
       <c r="C253">
         <v>734</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135539</v>
+        <v>135538</v>
       </c>
       <c r="C254">
         <v>719</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136373</v>
+        <v>136372</v>
       </c>
       <c r="C255">
         <v>834</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137063</v>
+        <v>137062</v>
       </c>
       <c r="C256">
         <v>690</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137476</v>
+        <v>137475</v>
       </c>
       <c r="C257">
         <v>413</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137740</v>
+        <v>137739</v>
       </c>
       <c r="C258">
         <v>264</v>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138333</v>
+        <v>138332</v>
       </c>
       <c r="C259">
         <v>593</v>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139119</v>
+        <v>139118</v>
       </c>
       <c r="C260">
         <v>786</v>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140018</v>
+        <v>140017</v>
       </c>
       <c r="C261">
         <v>899</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>140968</v>
+        <v>140967</v>
       </c>
       <c r="C262">
         <v>950</v>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141834</v>
+        <v>141833</v>
       </c>
       <c r="C263">
         <v>866</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142378</v>
+        <v>142377</v>
       </c>
       <c r="C264">
         <v>544</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142709</v>
+        <v>142708</v>
       </c>
       <c r="C265">
         <v>331</v>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143788</v>
+        <v>143787</v>
       </c>
       <c r="C266">
         <v>1079</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144906</v>
+        <v>144905</v>
       </c>
       <c r="C267">
         <v>1118</v>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146108</v>
+        <v>146107</v>
       </c>
       <c r="C268">
         <v>1202</v>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147482</v>
+        <v>147481</v>
       </c>
       <c r="C269">
         <v>1374</v>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148707</v>
+        <v>148706</v>
       </c>
       <c r="C270">
         <v>1225</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149495</v>
+        <v>149494</v>
       </c>
       <c r="C271">
         <v>788</v>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>149979</v>
+        <v>149978</v>
       </c>
       <c r="C272">
         <v>484</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151504</v>
+        <v>151503</v>
       </c>
       <c r="C273">
         <v>1525</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152849</v>
+        <v>152848</v>
       </c>
       <c r="C274">
         <v>1345</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154290</v>
+        <v>154289</v>
       </c>
       <c r="C275">
         <v>1441</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155675</v>
+        <v>155674</v>
       </c>
       <c r="C276">
         <v>1385</v>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156799</v>
+        <v>156798</v>
       </c>
       <c r="C277">
         <v>1124</v>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157670</v>
+        <v>157669</v>
       </c>
       <c r="C278">
         <v>871</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158192</v>
+        <v>158191</v>
       </c>
       <c r="C279">
         <v>522</v>
@@ -5344,13 +5344,13 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160029</v>
+        <v>160028</v>
       </c>
       <c r="C280">
         <v>1837</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D322" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D323" si="10">AVERAGE(C274:C280)</f>
         <v>1217.8571428571429</v>
       </c>
     </row>
@@ -5360,14 +5360,14 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161936</v>
+        <v>161934</v>
       </c>
       <c r="C281">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D281">
         <f t="shared" si="10"/>
-        <v>1298.1428571428571</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5376,14 +5376,14 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164113</v>
+        <v>164110</v>
       </c>
       <c r="C282">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1403.2857142857142</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5392,14 +5392,14 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166532</v>
+        <v>166529</v>
       </c>
       <c r="C283">
         <v>2419</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1551</v>
+        <v>1550.7142857142858</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5408,14 +5408,14 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168771</v>
+        <v>168768</v>
       </c>
       <c r="C284">
         <v>2239</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1710.2857142857142</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,14 +5424,14 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170096</v>
+        <v>170094</v>
       </c>
       <c r="C285">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1775.1428571428571</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5440,14 +5440,14 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171039</v>
+        <v>171037</v>
       </c>
       <c r="C286">
         <v>943</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1835.2857142857142</v>
+        <v>1835.1428571428571</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="B287">
         <f t="shared" ref="B287:B319" si="11">C287+B286</f>
-        <v>174216</v>
+        <v>174214</v>
       </c>
       <c r="C287">
         <v>3177</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2026.7142857142858</v>
+        <v>2026.5714285714287</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177035</v>
+        <v>177033</v>
       </c>
       <c r="C288">
         <v>2819</v>
@@ -5488,14 +5488,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179699</v>
+        <v>179697</v>
       </c>
       <c r="C289">
         <v>2664</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2226.5714285714284</v>
+        <v>2226.7142857142858</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5504,14 +5504,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182688</v>
+        <v>182684</v>
       </c>
       <c r="C290">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2308</v>
+        <v>2307.8571428571427</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5520,14 +5520,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185296</v>
+        <v>185291</v>
       </c>
       <c r="C291">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2360.7142857142858</v>
+        <v>2360.4285714285716</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,14 +5536,14 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187008</v>
+        <v>187003</v>
       </c>
       <c r="C292">
         <v>1712</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2416</v>
+        <v>2415.5714285714284</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5552,14 +5552,14 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188201</v>
+        <v>188195</v>
       </c>
       <c r="C293">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2451.7142857142858</v>
+        <v>2451.1428571428573</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191725</v>
+        <v>191719</v>
       </c>
       <c r="C294">
         <v>3524</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2501.2857142857142</v>
+        <v>2500.7142857142858</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,14 +5584,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194861</v>
+        <v>194855</v>
       </c>
       <c r="C295">
         <v>3136</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2546.5714285714284</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197784</v>
+        <v>197778</v>
       </c>
       <c r="C296">
         <v>2923</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2583.5714285714284</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,14 +5616,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200785</v>
+        <v>200779</v>
       </c>
       <c r="C297">
         <v>3001</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2585.2857142857142</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5632,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203636</v>
+        <v>203629</v>
       </c>
       <c r="C298">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2620</v>
+        <v>2619.7142857142858</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205404</v>
+        <v>205397</v>
       </c>
       <c r="C299">
         <v>1768</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2628</v>
+        <v>2627.7142857142858</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206590</v>
+        <v>206583</v>
       </c>
       <c r="C300">
         <v>1186</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2627</v>
+        <v>2626.8571428571427</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,10 +5680,10 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210184</v>
+        <v>210178</v>
       </c>
       <c r="C301">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
@@ -5696,14 +5696,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213977</v>
+        <v>213970</v>
       </c>
       <c r="C302">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2730.8571428571427</v>
+        <v>2730.7142857142858</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,14 +5712,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216919</v>
+        <v>216910</v>
       </c>
       <c r="C303">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2733.5714285714284</v>
+        <v>2733.1428571428573</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217364</v>
+        <v>217354</v>
       </c>
       <c r="C304">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2368.4285714285716</v>
+        <v>2367.8571428571427</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220731</v>
+        <v>220717</v>
       </c>
       <c r="C305">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2442.1428571428573</v>
+        <v>2441.1428571428573</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223634</v>
+        <v>223618</v>
       </c>
       <c r="C306">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2604.2857142857142</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225388</v>
+        <v>225370</v>
       </c>
       <c r="C307">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2685.4285714285716</v>
+        <v>2683.8571428571427</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230873</v>
+        <v>230852</v>
       </c>
       <c r="C308">
-        <v>5485</v>
+        <v>5482</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2955.5714285714284</v>
+        <v>2953.4285714285716</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236716</v>
+        <v>236691</v>
       </c>
       <c r="C309">
-        <v>5843</v>
+        <v>5839</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3248.4285714285716</v>
+        <v>3245.8571428571427</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242768</v>
+        <v>242737</v>
       </c>
       <c r="C310">
-        <v>6052</v>
+        <v>6046</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3692.7142857142858</v>
+        <v>3689.5714285714284</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248511</v>
+        <v>248479</v>
       </c>
       <c r="C311">
-        <v>5743</v>
+        <v>5742</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4449.5714285714284</v>
+        <v>4446.4285714285716</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253795</v>
+        <v>253751</v>
       </c>
       <c r="C312">
-        <v>5284</v>
+        <v>5272</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4723.4285714285716</v>
+        <v>4719.1428571428569</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>255973</v>
+        <v>255927</v>
       </c>
       <c r="C313">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4619.8571428571431</v>
+        <v>4615.5714285714284</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>258070</v>
+        <v>258022</v>
       </c>
       <c r="C314">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4668.8571428571431</v>
+        <v>4664.5714285714284</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>264214</v>
+        <v>264179</v>
       </c>
       <c r="C315">
-        <v>6144</v>
+        <v>6157</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4763</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>269502</v>
+        <v>269520</v>
       </c>
       <c r="C316">
-        <v>5288</v>
+        <v>5341</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4683.7142857142853</v>
+        <v>4689.8571428571431</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>274701</v>
+        <v>274824</v>
       </c>
       <c r="C317">
-        <v>5199</v>
+        <v>5304</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>4561.8571428571431</v>
+        <v>4583.8571428571431</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -5952,14 +5952,14 @@
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>279606</v>
+        <v>280170</v>
       </c>
       <c r="C318">
-        <v>4905</v>
+        <v>5346</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>4442.1428571428569</v>
+        <v>4527.2857142857147</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5968,14 +5968,14 @@
       </c>
       <c r="B319">
         <f t="shared" si="11"/>
-        <v>283633</v>
+        <v>284791</v>
       </c>
       <c r="C319">
-        <v>4027</v>
+        <v>4621</v>
       </c>
       <c r="D319">
         <f t="shared" si="10"/>
-        <v>4262.5714285714284</v>
+        <v>4434.2857142857147</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -5984,14 +5984,14 @@
       </c>
       <c r="B320">
         <f t="shared" ref="B320:B321" si="12">C320+B319</f>
-        <v>285527</v>
+        <v>287063</v>
       </c>
       <c r="C320">
-        <v>1894</v>
+        <v>2272</v>
       </c>
       <c r="D320">
         <f t="shared" si="10"/>
-        <v>4222</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6000,14 +6000,14 @@
       </c>
       <c r="B321">
         <f t="shared" si="12"/>
-        <v>286581</v>
+        <v>288541</v>
       </c>
       <c r="C321">
-        <v>1054</v>
+        <v>1478</v>
       </c>
       <c r="D321">
         <f t="shared" si="10"/>
-        <v>4073</v>
+        <v>4359.8571428571431</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6015,15 +6015,31 @@
         <v>44179</v>
       </c>
       <c r="B322">
-        <f t="shared" ref="B322" si="13">C322+B321</f>
-        <v>286866</v>
+        <f t="shared" ref="B322:B323" si="13">C322+B321</f>
+        <v>292102</v>
       </c>
       <c r="C322">
-        <v>285</v>
+        <v>3561</v>
       </c>
       <c r="D322">
         <f t="shared" si="10"/>
-        <v>3236</v>
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="13"/>
+        <v>292316</v>
+      </c>
+      <c r="C323">
+        <v>214</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="10"/>
+        <v>3256.5714285714284</v>
       </c>
     </row>
   </sheetData>
@@ -6032,6 +6048,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6145,22 +6176,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6174,21 +6207,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2386F4E-ABE1-4E90-BA86-EBB719EF3EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD0FAA4-764F-45ED-9589-891CE56012C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D323"/>
+  <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C323"/>
+      <selection pane="bottomRight" activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,14 +2000,14 @@
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
-        <v>20113</v>
+        <v>20112</v>
       </c>
       <c r="C71">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
-        <v>1455.1428571428571</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2016,14 +2016,14 @@
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
-        <v>21977</v>
+        <v>21976</v>
       </c>
       <c r="C72">
         <v>1864</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
-        <v>1530.2857142857142</v>
+        <v>1530.1428571428571</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2032,14 +2032,14 @@
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
-        <v>23955</v>
+        <v>23954</v>
       </c>
       <c r="C73">
         <v>1978</v>
       </c>
       <c r="D73">
         <f t="shared" ref="D73:D136" si="3">AVERAGE(C67:C73)</f>
-        <v>1630.7142857142858</v>
+        <v>1630.5714285714287</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2048,14 +2048,14 @@
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
-        <v>26010</v>
+        <v>26009</v>
       </c>
       <c r="C74">
         <v>2055</v>
       </c>
       <c r="D74">
         <f t="shared" si="3"/>
-        <v>1712.8571428571429</v>
+        <v>1712.7142857142858</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2064,14 +2064,14 @@
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
-        <v>27339</v>
+        <v>27338</v>
       </c>
       <c r="C75">
         <v>1329</v>
       </c>
       <c r="D75">
         <f t="shared" si="3"/>
-        <v>1736.7142857142858</v>
+        <v>1736.5714285714287</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,14 +2080,14 @@
       </c>
       <c r="B76">
         <f t="shared" si="2"/>
-        <v>28269</v>
+        <v>28268</v>
       </c>
       <c r="C76">
         <v>930</v>
       </c>
       <c r="D76">
         <f t="shared" si="3"/>
-        <v>1730</v>
+        <v>1729.8571428571429</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="B77">
         <f t="shared" si="2"/>
-        <v>30255</v>
+        <v>30254</v>
       </c>
       <c r="C77">
         <v>1986</v>
       </c>
       <c r="D77">
         <f t="shared" si="3"/>
-        <v>1737.7142857142858</v>
+        <v>1737.5714285714287</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="2"/>
-        <v>33182</v>
+        <v>33181</v>
       </c>
       <c r="C78">
         <v>2927</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
-        <v>35722</v>
+        <v>35721</v>
       </c>
       <c r="C79">
         <v>2540</v>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
-        <v>38108</v>
+        <v>38107</v>
       </c>
       <c r="C80">
         <v>2386</v>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>41097</v>
+        <v>41096</v>
       </c>
       <c r="C81">
         <v>2989</v>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
-        <v>42577</v>
+        <v>42576</v>
       </c>
       <c r="C82">
         <v>1480</v>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>43666</v>
+        <v>43665</v>
       </c>
       <c r="C83">
         <v>1089</v>
@@ -2208,14 +2208,14 @@
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>46352</v>
+        <v>46350</v>
       </c>
       <c r="C84">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D84">
         <f t="shared" si="3"/>
-        <v>2299.5714285714284</v>
+        <v>2299.4285714285716</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2224,14 +2224,14 @@
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
-        <v>48538</v>
+        <v>48536</v>
       </c>
       <c r="C85">
         <v>2186</v>
       </c>
       <c r="D85">
         <f t="shared" si="3"/>
-        <v>2193.7142857142858</v>
+        <v>2193.5714285714284</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2240,14 +2240,14 @@
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>51241</v>
+        <v>51239</v>
       </c>
       <c r="C86">
         <v>2703</v>
       </c>
       <c r="D86">
         <f t="shared" si="3"/>
-        <v>2217</v>
+        <v>2216.8571428571427</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,14 +2256,14 @@
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>53646</v>
+        <v>53644</v>
       </c>
       <c r="C87">
         <v>2405</v>
       </c>
       <c r="D87">
         <f t="shared" si="3"/>
-        <v>2219.7142857142858</v>
+        <v>2219.5714285714284</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2272,14 +2272,14 @@
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>55920</v>
+        <v>55918</v>
       </c>
       <c r="C88">
         <v>2274</v>
       </c>
       <c r="D88">
         <f t="shared" si="3"/>
-        <v>2117.5714285714284</v>
+        <v>2117.4285714285716</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2288,14 +2288,14 @@
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>57412</v>
+        <v>57410</v>
       </c>
       <c r="C89">
         <v>1492</v>
       </c>
       <c r="D89">
         <f t="shared" si="3"/>
-        <v>2119.2857142857142</v>
+        <v>2119.1428571428573</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,14 +2304,14 @@
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>58256</v>
+        <v>58254</v>
       </c>
       <c r="C90">
         <v>844</v>
       </c>
       <c r="D90">
         <f t="shared" si="3"/>
-        <v>2084.2857142857142</v>
+        <v>2084.1428571428573</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>60384</v>
+        <v>60382</v>
       </c>
       <c r="C91">
         <v>2128</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>62487</v>
+        <v>62485</v>
       </c>
       <c r="C92">
         <v>2103</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>64673</v>
+        <v>64670</v>
       </c>
       <c r="C93">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D93">
         <f t="shared" si="3"/>
-        <v>1918.8571428571429</v>
+        <v>1918.7142857142858</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2368,14 +2368,14 @@
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>66720</v>
+        <v>66717</v>
       </c>
       <c r="C94">
         <v>2047</v>
       </c>
       <c r="D94">
         <f t="shared" si="3"/>
-        <v>1867.7142857142858</v>
+        <v>1867.5714285714287</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2384,14 +2384,14 @@
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>68801</v>
+        <v>68798</v>
       </c>
       <c r="C95">
         <v>2081</v>
       </c>
       <c r="D95">
         <f t="shared" si="3"/>
-        <v>1840.1428571428571</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2400,14 +2400,14 @@
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>69830</v>
+        <v>69827</v>
       </c>
       <c r="C96">
         <v>1029</v>
       </c>
       <c r="D96">
         <f t="shared" si="3"/>
-        <v>1774</v>
+        <v>1773.8571428571429</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,14 +2416,14 @@
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>70563</v>
+        <v>70560</v>
       </c>
       <c r="C97">
         <v>733</v>
       </c>
       <c r="D97">
         <f t="shared" si="3"/>
-        <v>1758.1428571428571</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2432,14 +2432,14 @@
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>72441</v>
+        <v>72438</v>
       </c>
       <c r="C98">
         <v>1878</v>
       </c>
       <c r="D98">
         <f t="shared" si="3"/>
-        <v>1722.4285714285713</v>
+        <v>1722.2857142857142</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2448,14 +2448,14 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>74175</v>
+        <v>74171</v>
       </c>
       <c r="C99">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D99">
         <f t="shared" si="3"/>
-        <v>1669.7142857142858</v>
+        <v>1669.4285714285713</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2464,14 +2464,14 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>75873</v>
+        <v>75869</v>
       </c>
       <c r="C100">
         <v>1698</v>
       </c>
       <c r="D100">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>1599.8571428571429</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,14 +2480,14 @@
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>77550</v>
+        <v>77546</v>
       </c>
       <c r="C101">
         <v>1677</v>
       </c>
       <c r="D101">
         <f t="shared" si="3"/>
-        <v>1547.1428571428571</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2496,14 +2496,14 @@
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>79004</v>
+        <v>78999</v>
       </c>
       <c r="C102">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D102">
         <f t="shared" si="3"/>
-        <v>1457.5714285714287</v>
+        <v>1457.2857142857142</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2512,14 +2512,14 @@
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>79686</v>
+        <v>79681</v>
       </c>
       <c r="C103">
         <v>682</v>
       </c>
       <c r="D103">
         <f t="shared" si="3"/>
-        <v>1408</v>
+        <v>1407.7142857142858</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2528,14 +2528,14 @@
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>80071</v>
+        <v>80066</v>
       </c>
       <c r="C104">
         <v>385</v>
       </c>
       <c r="D104">
         <f t="shared" si="3"/>
-        <v>1358.2857142857142</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2544,14 +2544,14 @@
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>81377</v>
+        <v>81371</v>
       </c>
       <c r="C105">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D105">
         <f t="shared" si="3"/>
-        <v>1276.5714285714287</v>
+        <v>1276.1428571428571</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2560,14 +2560,14 @@
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>82827</v>
+        <v>82821</v>
       </c>
       <c r="C106">
         <v>1450</v>
       </c>
       <c r="D106">
         <f t="shared" si="3"/>
-        <v>1236</v>
+        <v>1235.7142857142858</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>84138</v>
+        <v>84132</v>
       </c>
       <c r="C107">
         <v>1311</v>
       </c>
       <c r="D107">
         <f t="shared" si="3"/>
-        <v>1180.7142857142858</v>
+        <v>1180.4285714285713</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,14 +2592,14 @@
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>85453</v>
+        <v>85447</v>
       </c>
       <c r="C108">
         <v>1315</v>
       </c>
       <c r="D108">
         <f t="shared" si="3"/>
-        <v>1129</v>
+        <v>1128.7142857142858</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2608,14 +2608,14 @@
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>86558</v>
+        <v>86552</v>
       </c>
       <c r="C109">
         <v>1105</v>
       </c>
       <c r="D109">
         <f t="shared" si="3"/>
-        <v>1079.1428571428571</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2624,14 +2624,14 @@
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>87203</v>
+        <v>87197</v>
       </c>
       <c r="C110">
         <v>645</v>
       </c>
       <c r="D110">
         <f t="shared" si="3"/>
-        <v>1073.8571428571429</v>
+        <v>1073.7142857142858</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2640,14 +2640,14 @@
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>87566</v>
+        <v>87560</v>
       </c>
       <c r="C111">
         <v>363</v>
       </c>
       <c r="D111">
         <f t="shared" si="3"/>
-        <v>1070.7142857142858</v>
+        <v>1070.5714285714287</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2656,14 +2656,14 @@
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>88879</v>
+        <v>88871</v>
       </c>
       <c r="C112">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D112">
         <f t="shared" si="3"/>
-        <v>1071.7142857142858</v>
+        <v>1071.4285714285713</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2672,14 +2672,14 @@
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>89952</v>
+        <v>89944</v>
       </c>
       <c r="C113">
         <v>1073</v>
       </c>
       <c r="D113">
         <f t="shared" si="3"/>
-        <v>1017.8571428571429</v>
+        <v>1017.5714285714286</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2688,14 +2688,14 @@
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>90963</v>
+        <v>90955</v>
       </c>
       <c r="C114">
         <v>1011</v>
       </c>
       <c r="D114">
         <f t="shared" si="3"/>
-        <v>975</v>
+        <v>974.71428571428567</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,14 +2704,14 @@
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>91926</v>
+        <v>91918</v>
       </c>
       <c r="C115">
         <v>963</v>
       </c>
       <c r="D115">
         <f t="shared" si="3"/>
-        <v>924.71428571428567</v>
+        <v>924.42857142857144</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2720,14 +2720,14 @@
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>92788</v>
+        <v>92780</v>
       </c>
       <c r="C116">
         <v>862</v>
       </c>
       <c r="D116">
         <f t="shared" si="3"/>
-        <v>890</v>
+        <v>889.71428571428567</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,14 +2736,14 @@
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>93175</v>
+        <v>93167</v>
       </c>
       <c r="C117">
         <v>387</v>
       </c>
       <c r="D117">
         <f t="shared" si="3"/>
-        <v>853.14285714285711</v>
+        <v>852.85714285714289</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2752,14 +2752,14 @@
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>93476</v>
+        <v>93468</v>
       </c>
       <c r="C118">
         <v>301</v>
       </c>
       <c r="D118">
         <f t="shared" si="3"/>
-        <v>844.28571428571433</v>
+        <v>844</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>93674</v>
+        <v>93666</v>
       </c>
       <c r="C119">
         <v>198</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>94538</v>
+        <v>94530</v>
       </c>
       <c r="C120">
         <v>864</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>95225</v>
+        <v>95217</v>
       </c>
       <c r="C121">
         <v>687</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>95864</v>
+        <v>95856</v>
       </c>
       <c r="C122">
         <v>639</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>96394</v>
+        <v>96386</v>
       </c>
       <c r="C123">
         <v>530</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>96665</v>
+        <v>96657</v>
       </c>
       <c r="C124">
         <v>271</v>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>96826</v>
+        <v>96818</v>
       </c>
       <c r="C125">
         <v>161</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>97334</v>
+        <v>97326</v>
       </c>
       <c r="C126">
         <v>508</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
-        <v>97781</v>
+        <v>97773</v>
       </c>
       <c r="C127">
         <v>447</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
-        <v>98240</v>
+        <v>98232</v>
       </c>
       <c r="C128">
         <v>459</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>98619</v>
+        <v>98611</v>
       </c>
       <c r="C129">
         <v>379</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>98956</v>
+        <v>98948</v>
       </c>
       <c r="C130">
         <v>337</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="2"/>
-        <v>99104</v>
+        <v>99096</v>
       </c>
       <c r="C131">
         <v>148</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" si="4">C132+B131</f>
-        <v>99255</v>
+        <v>99247</v>
       </c>
       <c r="C132">
         <v>151</v>
@@ -2992,14 +2992,14 @@
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>99608</v>
+        <v>99599</v>
       </c>
       <c r="C133">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D133">
         <f t="shared" si="3"/>
-        <v>324.85714285714283</v>
+        <v>324.71428571428572</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>99951</v>
+        <v>99942</v>
       </c>
       <c r="C134">
         <v>343</v>
       </c>
       <c r="D134">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>309.85714285714283</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3024,14 +3024,14 @@
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>100210</v>
+        <v>100201</v>
       </c>
       <c r="C135">
         <v>259</v>
       </c>
       <c r="D135">
         <f t="shared" si="3"/>
-        <v>281.42857142857144</v>
+        <v>281.28571428571428</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3040,14 +3040,14 @@
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>100436</v>
+        <v>100427</v>
       </c>
       <c r="C136">
         <v>226</v>
       </c>
       <c r="D136">
         <f t="shared" si="3"/>
-        <v>259.57142857142856</v>
+        <v>259.42857142857144</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3056,14 +3056,14 @@
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
-        <v>100690</v>
+        <v>100681</v>
       </c>
       <c r="C137">
         <v>254</v>
       </c>
       <c r="D137">
         <f t="shared" ref="D137:D200" si="5">AVERAGE(C131:C137)</f>
-        <v>247.71428571428572</v>
+        <v>247.57142857142858</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3072,14 +3072,14 @@
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>100787</v>
+        <v>100778</v>
       </c>
       <c r="C138">
         <v>97</v>
       </c>
       <c r="D138">
         <f t="shared" si="5"/>
-        <v>240.42857142857142</v>
+        <v>240.28571428571428</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3088,14 +3088,14 @@
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>100863</v>
+        <v>100854</v>
       </c>
       <c r="C139">
         <v>76</v>
       </c>
       <c r="D139">
         <f t="shared" si="5"/>
-        <v>229.71428571428572</v>
+        <v>229.57142857142858</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>101098</v>
+        <v>101089</v>
       </c>
       <c r="C140">
         <v>235</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>101296</v>
+        <v>101287</v>
       </c>
       <c r="C141">
         <v>198</v>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>101545</v>
+        <v>101535</v>
       </c>
       <c r="C142">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D142">
         <f t="shared" si="5"/>
-        <v>190.71428571428572</v>
+        <v>190.57142857142858</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3152,14 +3152,14 @@
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>101785</v>
+        <v>101775</v>
       </c>
       <c r="C143">
         <v>240</v>
       </c>
       <c r="D143">
         <f t="shared" si="5"/>
-        <v>192.71428571428572</v>
+        <v>192.57142857142858</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3168,14 +3168,14 @@
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>101960</v>
+        <v>101950</v>
       </c>
       <c r="C144">
         <v>175</v>
       </c>
       <c r="D144">
         <f t="shared" si="5"/>
-        <v>181.42857142857142</v>
+        <v>181.28571428571428</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,14 +3184,14 @@
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>102053</v>
+        <v>102043</v>
       </c>
       <c r="C145">
         <v>93</v>
       </c>
       <c r="D145">
         <f t="shared" si="5"/>
-        <v>180.85714285714286</v>
+        <v>180.71428571428572</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3200,14 +3200,14 @@
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>102132</v>
+        <v>102122</v>
       </c>
       <c r="C146">
         <v>79</v>
       </c>
       <c r="D146">
         <f t="shared" si="5"/>
-        <v>181.28571428571428</v>
+        <v>181.14285714285714</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3216,14 +3216,14 @@
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>102357</v>
+        <v>102346</v>
       </c>
       <c r="C147">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D147">
         <f t="shared" si="5"/>
-        <v>179.85714285714286</v>
+        <v>179.57142857142858</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3232,14 +3232,14 @@
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>102546</v>
+        <v>102535</v>
       </c>
       <c r="C148">
         <v>189</v>
       </c>
       <c r="D148">
         <f t="shared" si="5"/>
-        <v>178.57142857142858</v>
+        <v>178.28571428571428</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3248,14 +3248,14 @@
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>102756</v>
+        <v>102745</v>
       </c>
       <c r="C149">
         <v>210</v>
       </c>
       <c r="D149">
         <f t="shared" si="5"/>
-        <v>173</v>
+        <v>172.85714285714286</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3264,14 +3264,14 @@
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>102962</v>
+        <v>102951</v>
       </c>
       <c r="C150">
         <v>206</v>
       </c>
       <c r="D150">
         <f t="shared" si="5"/>
-        <v>168.14285714285714</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>103160</v>
+        <v>103149</v>
       </c>
       <c r="C151">
         <v>198</v>
       </c>
       <c r="D151">
         <f t="shared" si="5"/>
-        <v>171.42857142857142</v>
+        <v>171.28571428571428</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,14 +3296,14 @@
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>103294</v>
+        <v>103283</v>
       </c>
       <c r="C152">
         <v>134</v>
       </c>
       <c r="D152">
         <f t="shared" si="5"/>
-        <v>177.28571428571428</v>
+        <v>177.14285714285714</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3312,14 +3312,14 @@
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>103365</v>
+        <v>103354</v>
       </c>
       <c r="C153">
         <v>71</v>
       </c>
       <c r="D153">
         <f t="shared" si="5"/>
-        <v>176.14285714285714</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>103570</v>
+        <v>103559</v>
       </c>
       <c r="C154">
         <v>205</v>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>103790</v>
+        <v>103779</v>
       </c>
       <c r="C155">
         <v>220</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>104006</v>
+        <v>103995</v>
       </c>
       <c r="C156">
         <v>216</v>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>104232</v>
+        <v>104221</v>
       </c>
       <c r="C157">
         <v>226</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>104331</v>
+        <v>104320</v>
       </c>
       <c r="C158">
         <v>99</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>104391</v>
+        <v>104380</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>104492</v>
+        <v>104481</v>
       </c>
       <c r="C160">
         <v>101</v>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>104729</v>
+        <v>104718</v>
       </c>
       <c r="C161">
         <v>237</v>
@@ -3456,14 +3456,14 @@
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>104971</v>
+        <v>104959</v>
       </c>
       <c r="C162">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D162">
         <f t="shared" si="5"/>
-        <v>168.71428571428572</v>
+        <v>168.57142857142858</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3472,14 +3472,14 @@
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>105187</v>
+        <v>105175</v>
       </c>
       <c r="C163">
         <v>216</v>
       </c>
       <c r="D163">
         <f t="shared" si="5"/>
-        <v>168.71428571428572</v>
+        <v>168.57142857142858</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3488,14 +3488,14 @@
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>105441</v>
+        <v>105429</v>
       </c>
       <c r="C164">
         <v>254</v>
       </c>
       <c r="D164">
         <f t="shared" si="5"/>
-        <v>172.71428571428572</v>
+        <v>172.57142857142858</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3504,14 +3504,14 @@
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>105669</v>
+        <v>105657</v>
       </c>
       <c r="C165">
         <v>228</v>
       </c>
       <c r="D165">
         <f t="shared" si="5"/>
-        <v>191.14285714285714</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3520,14 +3520,14 @@
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>105786</v>
+        <v>105774</v>
       </c>
       <c r="C166">
         <v>117</v>
       </c>
       <c r="D166">
         <f t="shared" si="5"/>
-        <v>199.28571428571428</v>
+        <v>199.14285714285714</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3536,14 +3536,14 @@
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>105873</v>
+        <v>105861</v>
       </c>
       <c r="C167">
         <v>87</v>
       </c>
       <c r="D167">
         <f t="shared" si="5"/>
-        <v>197.28571428571428</v>
+        <v>197.14285714285714</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3552,14 +3552,14 @@
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>106139</v>
+        <v>106127</v>
       </c>
       <c r="C168">
         <v>266</v>
       </c>
       <c r="D168">
         <f t="shared" si="5"/>
-        <v>201.42857142857142</v>
+        <v>201.28571428571428</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
-        <v>106371</v>
+        <v>106359</v>
       </c>
       <c r="C169">
         <v>232</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>106669</v>
+        <v>106657</v>
       </c>
       <c r="C170">
         <v>298</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>106913</v>
+        <v>106901</v>
       </c>
       <c r="C171">
         <v>244</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>107140</v>
+        <v>107128</v>
       </c>
       <c r="C172">
         <v>227</v>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>107268</v>
+        <v>107256</v>
       </c>
       <c r="C173">
         <v>128</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>107342</v>
+        <v>107330</v>
       </c>
       <c r="C174">
         <v>74</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
-        <v>107621</v>
+        <v>107609</v>
       </c>
       <c r="C175">
         <v>279</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>107876</v>
+        <v>107864</v>
       </c>
       <c r="C176">
         <v>255</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>108134</v>
+        <v>108122</v>
       </c>
       <c r="C177">
         <v>258</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
-        <v>108392</v>
+        <v>108380</v>
       </c>
       <c r="C178">
         <v>258</v>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
-        <v>108649</v>
+        <v>108637</v>
       </c>
       <c r="C179">
         <v>257</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="4"/>
-        <v>108808</v>
+        <v>108796</v>
       </c>
       <c r="C180">
         <v>159</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="4"/>
-        <v>108909</v>
+        <v>108897</v>
       </c>
       <c r="C181">
         <v>101</v>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
-        <v>109270</v>
+        <v>109258</v>
       </c>
       <c r="C182">
         <v>361</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
-        <v>109590</v>
+        <v>109578</v>
       </c>
       <c r="C183">
         <v>320</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="4"/>
-        <v>109909</v>
+        <v>109897</v>
       </c>
       <c r="C184">
         <v>319</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
-        <v>110245</v>
+        <v>110233</v>
       </c>
       <c r="C185">
         <v>336</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
-        <v>110564</v>
+        <v>110552</v>
       </c>
       <c r="C186">
         <v>319</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
-        <v>110711</v>
+        <v>110699</v>
       </c>
       <c r="C187">
         <v>147</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
-        <v>110820</v>
+        <v>110808</v>
       </c>
       <c r="C188">
         <v>109</v>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="4"/>
-        <v>111178</v>
+        <v>111166</v>
       </c>
       <c r="C189">
         <v>358</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>111486</v>
+        <v>111474</v>
       </c>
       <c r="C190">
         <v>308</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
-        <v>111819</v>
+        <v>111807</v>
       </c>
       <c r="C191">
         <v>333</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
-        <v>112173</v>
+        <v>112161</v>
       </c>
       <c r="C192">
         <v>354</v>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="4"/>
-        <v>112472</v>
+        <v>112460</v>
       </c>
       <c r="C193">
         <v>299</v>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B194">
         <f t="shared" si="4"/>
-        <v>112641</v>
+        <v>112629</v>
       </c>
       <c r="C194">
         <v>169</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="4"/>
-        <v>112726</v>
+        <v>112714</v>
       </c>
       <c r="C195">
         <v>85</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B259" si="6">C196+B195</f>
-        <v>113100</v>
+        <v>113088</v>
       </c>
       <c r="C196">
         <v>374</v>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>113384</v>
+        <v>113372</v>
       </c>
       <c r="C197">
         <v>284</v>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
-        <v>113688</v>
+        <v>113676</v>
       </c>
       <c r="C198">
         <v>304</v>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
-        <v>114037</v>
+        <v>114025</v>
       </c>
       <c r="C199">
         <v>349</v>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
-        <v>114379</v>
+        <v>114367</v>
       </c>
       <c r="C200">
         <v>342</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
-        <v>114530</v>
+        <v>114518</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
-        <v>114650</v>
+        <v>114638</v>
       </c>
       <c r="C202">
         <v>120</v>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
-        <v>115019</v>
+        <v>115007</v>
       </c>
       <c r="C203">
         <v>369</v>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>115400</v>
+        <v>115388</v>
       </c>
       <c r="C204">
         <v>381</v>
@@ -4144,14 +4144,14 @@
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>115738</v>
+        <v>115725</v>
       </c>
       <c r="C205">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D205">
         <f t="shared" si="7"/>
-        <v>292.85714285714283</v>
+        <v>292.71428571428572</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4160,14 +4160,14 @@
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>116094</v>
+        <v>116081</v>
       </c>
       <c r="C206">
         <v>356</v>
       </c>
       <c r="D206">
         <f t="shared" si="7"/>
-        <v>293.85714285714283</v>
+        <v>293.71428571428572</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4176,14 +4176,14 @@
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>116377</v>
+        <v>116364</v>
       </c>
       <c r="C207">
         <v>283</v>
       </c>
       <c r="D207">
         <f t="shared" si="7"/>
-        <v>285.42857142857144</v>
+        <v>285.28571428571428</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4192,14 +4192,14 @@
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>116526</v>
+        <v>116512</v>
       </c>
       <c r="C208">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D208">
         <f t="shared" si="7"/>
-        <v>285.14285714285717</v>
+        <v>284.85714285714283</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4208,14 +4208,14 @@
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>116618</v>
+        <v>116604</v>
       </c>
       <c r="C209">
         <v>92</v>
       </c>
       <c r="D209">
         <f t="shared" si="7"/>
-        <v>281.14285714285717</v>
+        <v>280.85714285714283</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4224,14 +4224,14 @@
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>117014</v>
+        <v>117000</v>
       </c>
       <c r="C210">
         <v>396</v>
       </c>
       <c r="D210">
         <f t="shared" si="7"/>
-        <v>285</v>
+        <v>284.71428571428572</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4240,14 +4240,14 @@
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
-        <v>117393</v>
+        <v>117379</v>
       </c>
       <c r="C211">
         <v>379</v>
       </c>
       <c r="D211">
         <f t="shared" si="7"/>
-        <v>284.71428571428572</v>
+        <v>284.42857142857144</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4256,14 +4256,14 @@
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>117772</v>
+        <v>117758</v>
       </c>
       <c r="C212">
         <v>379</v>
       </c>
       <c r="D212">
         <f t="shared" si="7"/>
-        <v>290.57142857142856</v>
+        <v>290.42857142857144</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4272,14 +4272,14 @@
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>118117</v>
+        <v>118103</v>
       </c>
       <c r="C213">
         <v>345</v>
       </c>
       <c r="D213">
         <f t="shared" si="7"/>
-        <v>289</v>
+        <v>288.85714285714283</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4288,14 +4288,14 @@
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>118480</v>
+        <v>118466</v>
       </c>
       <c r="C214">
         <v>363</v>
       </c>
       <c r="D214">
         <f t="shared" si="7"/>
-        <v>300.42857142857144</v>
+        <v>300.28571428571428</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>118652</v>
+        <v>118638</v>
       </c>
       <c r="C215">
         <v>172</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>118791</v>
+        <v>118777</v>
       </c>
       <c r="C216">
         <v>139</v>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>119229</v>
+        <v>119215</v>
       </c>
       <c r="C217">
         <v>438</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>119624</v>
+        <v>119610</v>
       </c>
       <c r="C218">
         <v>395</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>120008</v>
+        <v>119994</v>
       </c>
       <c r="C219">
         <v>384</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>120472</v>
+        <v>120458</v>
       </c>
       <c r="C220">
         <v>464</v>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>120820</v>
+        <v>120806</v>
       </c>
       <c r="C221">
         <v>348</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>121018</v>
+        <v>121004</v>
       </c>
       <c r="C222">
         <v>198</v>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>121130</v>
+        <v>121116</v>
       </c>
       <c r="C223">
         <v>112</v>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>121291</v>
+        <v>121277</v>
       </c>
       <c r="C224">
         <v>161</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>121838</v>
+        <v>121824</v>
       </c>
       <c r="C225">
         <v>547</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>122312</v>
+        <v>122298</v>
       </c>
       <c r="C226">
         <v>474</v>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>122721</v>
+        <v>122707</v>
       </c>
       <c r="C227">
         <v>409</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>123130</v>
+        <v>123116</v>
       </c>
       <c r="C228">
         <v>409</v>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>123319</v>
+        <v>123305</v>
       </c>
       <c r="C229">
         <v>189</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>123480</v>
+        <v>123466</v>
       </c>
       <c r="C230">
         <v>161</v>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>123983</v>
+        <v>123969</v>
       </c>
       <c r="C231">
         <v>503</v>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>124406</v>
+        <v>124392</v>
       </c>
       <c r="C232">
         <v>423</v>
@@ -4592,14 +4592,14 @@
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>124820</v>
+        <v>124805</v>
       </c>
       <c r="C233">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D233">
         <f t="shared" si="7"/>
-        <v>358.28571428571428</v>
+        <v>358.14285714285717</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4608,14 +4608,14 @@
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>125175</v>
+        <v>125160</v>
       </c>
       <c r="C234">
         <v>355</v>
       </c>
       <c r="D234">
         <f t="shared" si="7"/>
-        <v>350.57142857142856</v>
+        <v>350.42857142857144</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4624,14 +4624,14 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>125611</v>
+        <v>125596</v>
       </c>
       <c r="C235">
         <v>436</v>
       </c>
       <c r="D235">
         <f t="shared" si="7"/>
-        <v>354.42857142857144</v>
+        <v>354.28571428571428</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,14 +4640,14 @@
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>125813</v>
+        <v>125798</v>
       </c>
       <c r="C236">
         <v>202</v>
       </c>
       <c r="D236">
         <f t="shared" si="7"/>
-        <v>356.28571428571428</v>
+        <v>356.14285714285717</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4656,14 +4656,14 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>125954</v>
+        <v>125939</v>
       </c>
       <c r="C237">
         <v>141</v>
       </c>
       <c r="D237">
         <f t="shared" si="7"/>
-        <v>353.42857142857144</v>
+        <v>353.28571428571428</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4672,14 +4672,14 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>126381</v>
+        <v>126366</v>
       </c>
       <c r="C238">
         <v>427</v>
       </c>
       <c r="D238">
         <f t="shared" si="7"/>
-        <v>342.57142857142856</v>
+        <v>342.42857142857144</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>126889</v>
+        <v>126874</v>
       </c>
       <c r="C239">
         <v>508</v>
       </c>
       <c r="D239">
         <f t="shared" si="7"/>
-        <v>354.71428571428572</v>
+        <v>354.57142857142856</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>127449</v>
+        <v>127434</v>
       </c>
       <c r="C240">
         <v>560</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>128046</v>
+        <v>128031</v>
       </c>
       <c r="C241">
         <v>597</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>128599</v>
+        <v>128584</v>
       </c>
       <c r="C242">
         <v>553</v>
@@ -4752,14 +4752,14 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>128962</v>
+        <v>128948</v>
       </c>
       <c r="C243">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D243">
         <f t="shared" si="7"/>
-        <v>449.85714285714283</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4768,14 +4768,14 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129186</v>
+        <v>129172</v>
       </c>
       <c r="C244">
         <v>224</v>
       </c>
       <c r="D244">
         <f t="shared" si="7"/>
-        <v>461.71428571428572</v>
+        <v>461.85714285714283</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4784,14 +4784,14 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130053</v>
+        <v>130039</v>
       </c>
       <c r="C245">
         <v>867</v>
       </c>
       <c r="D245">
         <f t="shared" si="7"/>
-        <v>524.57142857142856</v>
+        <v>524.71428571428567</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4800,14 +4800,14 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130773</v>
+        <v>130759</v>
       </c>
       <c r="C246">
         <v>720</v>
       </c>
       <c r="D246">
         <f t="shared" si="7"/>
-        <v>554.85714285714289</v>
+        <v>555</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4816,14 +4816,14 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131386</v>
+        <v>131372</v>
       </c>
       <c r="C247">
         <v>613</v>
       </c>
       <c r="D247">
         <f t="shared" si="7"/>
-        <v>562.42857142857144</v>
+        <v>562.57142857142856</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4832,14 +4832,14 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132069</v>
+        <v>132055</v>
       </c>
       <c r="C248">
         <v>683</v>
       </c>
       <c r="D248">
         <f t="shared" si="7"/>
-        <v>574.71428571428567</v>
+        <v>574.85714285714289</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4848,14 +4848,14 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132634</v>
+        <v>132620</v>
       </c>
       <c r="C249">
         <v>565</v>
       </c>
       <c r="D249">
         <f t="shared" si="7"/>
-        <v>576.42857142857144</v>
+        <v>576.57142857142856</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133042</v>
+        <v>133028</v>
       </c>
       <c r="C250">
         <v>408</v>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133334</v>
+        <v>133320</v>
       </c>
       <c r="C251">
         <v>292</v>
@@ -4896,14 +4896,14 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134085</v>
+        <v>134070</v>
       </c>
       <c r="C252">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D252">
         <f t="shared" si="7"/>
-        <v>576</v>
+        <v>575.85714285714289</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4912,14 +4912,14 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134819</v>
+        <v>134804</v>
       </c>
       <c r="C253">
         <v>734</v>
       </c>
       <c r="D253">
         <f t="shared" si="7"/>
-        <v>578</v>
+        <v>577.85714285714289</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4928,10 +4928,10 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135538</v>
+        <v>135524</v>
       </c>
       <c r="C254">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D254">
         <f t="shared" si="7"/>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136372</v>
+        <v>136358</v>
       </c>
       <c r="C255">
         <v>834</v>
@@ -4960,14 +4960,14 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137062</v>
+        <v>137047</v>
       </c>
       <c r="C256">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D256">
         <f t="shared" si="7"/>
-        <v>632.57142857142856</v>
+        <v>632.42857142857144</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,14 +4976,14 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137475</v>
+        <v>137460</v>
       </c>
       <c r="C257">
         <v>413</v>
       </c>
       <c r="D257">
         <f t="shared" si="7"/>
-        <v>633.28571428571433</v>
+        <v>633.14285714285711</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4992,14 +4992,14 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137739</v>
+        <v>137724</v>
       </c>
       <c r="C258">
         <v>264</v>
       </c>
       <c r="D258">
         <f t="shared" si="7"/>
-        <v>629.28571428571433</v>
+        <v>629.14285714285711</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138332</v>
+        <v>138317</v>
       </c>
       <c r="C259">
         <v>593</v>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139118</v>
+        <v>139103</v>
       </c>
       <c r="C260">
         <v>786</v>
@@ -5040,14 +5040,14 @@
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140017</v>
+        <v>140002</v>
       </c>
       <c r="C261">
         <v>899</v>
       </c>
       <c r="D261">
         <f t="shared" si="7"/>
-        <v>639.85714285714289</v>
+        <v>639.71428571428567</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5056,14 +5056,14 @@
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>140967</v>
+        <v>140952</v>
       </c>
       <c r="C262">
         <v>950</v>
       </c>
       <c r="D262">
         <f t="shared" si="7"/>
-        <v>656.42857142857144</v>
+        <v>656.28571428571433</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141833</v>
+        <v>141818</v>
       </c>
       <c r="C263">
         <v>866</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142377</v>
+        <v>142362</v>
       </c>
       <c r="C264">
         <v>544</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142708</v>
+        <v>142693</v>
       </c>
       <c r="C265">
         <v>331</v>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143787</v>
+        <v>143772</v>
       </c>
       <c r="C266">
         <v>1079</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144905</v>
+        <v>144890</v>
       </c>
       <c r="C267">
         <v>1118</v>
@@ -5152,14 +5152,14 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146107</v>
+        <v>146091</v>
       </c>
       <c r="C268">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D268">
         <f t="shared" si="9"/>
-        <v>870</v>
+        <v>869.85714285714289</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5168,10 +5168,10 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147481</v>
+        <v>147466</v>
       </c>
       <c r="C269">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D269">
         <f t="shared" si="9"/>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148706</v>
+        <v>148691</v>
       </c>
       <c r="C270">
         <v>1225</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149494</v>
+        <v>149479</v>
       </c>
       <c r="C271">
         <v>788</v>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>149978</v>
+        <v>149963</v>
       </c>
       <c r="C272">
         <v>484</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151503</v>
+        <v>151488</v>
       </c>
       <c r="C273">
         <v>1525</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152848</v>
+        <v>152833</v>
       </c>
       <c r="C274">
         <v>1345</v>
@@ -5264,10 +5264,10 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154289</v>
+        <v>154273</v>
       </c>
       <c r="C275">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D275">
         <f t="shared" si="9"/>
@@ -5280,14 +5280,14 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155674</v>
+        <v>155658</v>
       </c>
       <c r="C276">
         <v>1385</v>
       </c>
       <c r="D276">
         <f t="shared" si="9"/>
-        <v>1170.4285714285713</v>
+        <v>1170.2857142857142</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5296,14 +5296,14 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156798</v>
+        <v>156782</v>
       </c>
       <c r="C277">
         <v>1124</v>
       </c>
       <c r="D277">
         <f t="shared" si="9"/>
-        <v>1156</v>
+        <v>1155.8571428571429</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5312,14 +5312,14 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157669</v>
+        <v>157653</v>
       </c>
       <c r="C278">
         <v>871</v>
       </c>
       <c r="D278">
         <f t="shared" si="9"/>
-        <v>1167.8571428571429</v>
+        <v>1167.7142857142858</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5328,14 +5328,14 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158191</v>
+        <v>158175</v>
       </c>
       <c r="C279">
         <v>522</v>
       </c>
       <c r="D279">
         <f t="shared" si="9"/>
-        <v>1173.2857142857142</v>
+        <v>1173.1428571428571</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5344,14 +5344,14 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160028</v>
+        <v>160012</v>
       </c>
       <c r="C280">
         <v>1837</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D323" si="10">AVERAGE(C274:C280)</f>
-        <v>1217.8571428571429</v>
+        <f t="shared" ref="D280:D325" si="10">AVERAGE(C274:C280)</f>
+        <v>1217.7142857142858</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5360,14 +5360,14 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161934</v>
+        <v>161918</v>
       </c>
       <c r="C281">
         <v>1906</v>
       </c>
       <c r="D281">
         <f t="shared" si="10"/>
-        <v>1298</v>
+        <v>1297.8571428571429</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5376,14 +5376,14 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164110</v>
+        <v>164092</v>
       </c>
       <c r="C282">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1403</v>
+        <v>1402.7142857142858</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5392,14 +5392,14 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166529</v>
+        <v>166509</v>
       </c>
       <c r="C283">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1550.7142857142858</v>
+        <v>1550.1428571428571</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5408,14 +5408,14 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168768</v>
+        <v>168747</v>
       </c>
       <c r="C284">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1710</v>
+        <v>1709.2857142857142</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,14 +5424,14 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170094</v>
+        <v>170073</v>
       </c>
       <c r="C285">
         <v>1326</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1775</v>
+        <v>1774.2857142857142</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5440,14 +5440,14 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171037</v>
+        <v>171016</v>
       </c>
       <c r="C286">
         <v>943</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1835.1428571428571</v>
+        <v>1834.4285714285713</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="B287">
         <f t="shared" ref="B287:B319" si="11">C287+B286</f>
-        <v>174214</v>
+        <v>174193</v>
       </c>
       <c r="C287">
         <v>3177</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2026.5714285714287</v>
+        <v>2025.8571428571429</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177033</v>
+        <v>177011</v>
       </c>
       <c r="C288">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2157</v>
+        <v>2156.1428571428573</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5488,14 +5488,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179697</v>
+        <v>179674</v>
       </c>
       <c r="C289">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2226.7142857142858</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5504,14 +5504,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182684</v>
+        <v>182661</v>
       </c>
       <c r="C290">
         <v>2987</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2307.8571428571427</v>
+        <v>2307.4285714285716</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5520,14 +5520,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185291</v>
+        <v>185268</v>
       </c>
       <c r="C291">
         <v>2607</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2360.4285714285716</v>
+        <v>2360.1428571428573</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,14 +5536,14 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>187003</v>
+        <v>186978</v>
       </c>
       <c r="C292">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2415.5714285714284</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5552,14 +5552,14 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188195</v>
+        <v>188170</v>
       </c>
       <c r="C293">
         <v>1192</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2451.1428571428573</v>
+        <v>2450.5714285714284</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191719</v>
+        <v>191694</v>
       </c>
       <c r="C294">
         <v>3524</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2500.7142857142858</v>
+        <v>2500.1428571428573</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,14 +5584,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194855</v>
+        <v>194828</v>
       </c>
       <c r="C295">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2546</v>
+        <v>2545.2857142857142</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197778</v>
+        <v>197751</v>
       </c>
       <c r="C296">
         <v>2923</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2583</v>
+        <v>2582.4285714285716</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,14 +5616,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200779</v>
+        <v>200752</v>
       </c>
       <c r="C297">
         <v>3001</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2585</v>
+        <v>2584.4285714285716</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5632,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203629</v>
+        <v>203599</v>
       </c>
       <c r="C298">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2619.7142857142858</v>
+        <v>2618.7142857142858</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205397</v>
+        <v>205367</v>
       </c>
       <c r="C299">
         <v>1768</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2627.7142857142858</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206583</v>
+        <v>206555</v>
       </c>
       <c r="C300">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2626.8571428571427</v>
+        <v>2626.4285714285716</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210178</v>
+        <v>210151</v>
       </c>
       <c r="C301">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2637</v>
+        <v>2636.7142857142858</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213970</v>
+        <v>213943</v>
       </c>
       <c r="C302">
         <v>3792</v>
@@ -5712,14 +5712,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216910</v>
+        <v>216884</v>
       </c>
       <c r="C303">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2733.1428571428573</v>
+        <v>2733.2857142857142</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217354</v>
+        <v>217329</v>
       </c>
       <c r="C304">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2367.8571428571427</v>
+        <v>2368.1428571428573</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220717</v>
+        <v>220708</v>
       </c>
       <c r="C305">
-        <v>3363</v>
+        <v>3379</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2441.1428571428573</v>
+        <v>2444.1428571428573</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223618</v>
+        <v>223612</v>
       </c>
       <c r="C306">
-        <v>2901</v>
+        <v>2904</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2603</v>
+        <v>2606.4285714285716</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225370</v>
+        <v>225372</v>
       </c>
       <c r="C307">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2683.8571428571427</v>
+        <v>2688.1428571428573</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230852</v>
+        <v>230873</v>
       </c>
       <c r="C308">
-        <v>5482</v>
+        <v>5501</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2953.4285714285716</v>
+        <v>2960.2857142857142</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236691</v>
+        <v>236727</v>
       </c>
       <c r="C309">
-        <v>5839</v>
+        <v>5854</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3245.8571428571427</v>
+        <v>3254.8571428571427</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242737</v>
+        <v>242794</v>
       </c>
       <c r="C310">
-        <v>6046</v>
+        <v>6067</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3689.5714285714284</v>
+        <v>3701.4285714285716</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248479</v>
+        <v>248542</v>
       </c>
       <c r="C311">
-        <v>5742</v>
+        <v>5748</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4446.4285714285716</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253751</v>
+        <v>253827</v>
       </c>
       <c r="C312">
-        <v>5272</v>
+        <v>5285</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4719.1428571428569</v>
+        <v>4731.2857142857147</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>255927</v>
+        <v>256006</v>
       </c>
       <c r="C313">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4615.5714285714284</v>
+        <v>4627.7142857142853</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>258022</v>
+        <v>258109</v>
       </c>
       <c r="C314">
-        <v>2095</v>
+        <v>2103</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4664.5714285714284</v>
+        <v>4676.7142857142853</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>264179</v>
+        <v>264298</v>
       </c>
       <c r="C315">
-        <v>6157</v>
+        <v>6189</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4761</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>269520</v>
+        <v>269679</v>
       </c>
       <c r="C316">
-        <v>5341</v>
+        <v>5381</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4689.8571428571431</v>
+        <v>4707.4285714285716</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>274824</v>
+        <v>275072</v>
       </c>
       <c r="C317">
-        <v>5304</v>
+        <v>5393</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>4583.8571428571431</v>
+        <v>4611.1428571428569</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -5952,14 +5952,14 @@
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>280170</v>
+        <v>280488</v>
       </c>
       <c r="C318">
-        <v>5346</v>
+        <v>5416</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>4527.2857142857147</v>
+        <v>4563.7142857142853</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5968,14 +5968,14 @@
       </c>
       <c r="B319">
         <f t="shared" si="11"/>
-        <v>284791</v>
+        <v>285369</v>
       </c>
       <c r="C319">
-        <v>4621</v>
+        <v>4881</v>
       </c>
       <c r="D319">
         <f t="shared" si="10"/>
-        <v>4434.2857142857147</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -5984,14 +5984,14 @@
       </c>
       <c r="B320">
         <f t="shared" ref="B320:B321" si="12">C320+B319</f>
-        <v>287063</v>
+        <v>288137</v>
       </c>
       <c r="C320">
-        <v>2272</v>
+        <v>2768</v>
       </c>
       <c r="D320">
         <f t="shared" si="10"/>
-        <v>4448</v>
+        <v>4590.1428571428569</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6000,14 +6000,14 @@
       </c>
       <c r="B321">
         <f t="shared" si="12"/>
-        <v>288541</v>
+        <v>290220</v>
       </c>
       <c r="C321">
-        <v>1478</v>
+        <v>2083</v>
       </c>
       <c r="D321">
         <f t="shared" si="10"/>
-        <v>4359.8571428571431</v>
+        <v>4587.2857142857147</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6015,15 +6015,15 @@
         <v>44179</v>
       </c>
       <c r="B322">
-        <f t="shared" ref="B322:B323" si="13">C322+B321</f>
-        <v>292102</v>
+        <f t="shared" ref="B322:B324" si="13">C322+B321</f>
+        <v>295875</v>
       </c>
       <c r="C322">
-        <v>3561</v>
+        <v>5655</v>
       </c>
       <c r="D322">
         <f t="shared" si="10"/>
-        <v>3989</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -6032,14 +6032,46 @@
       </c>
       <c r="B323">
         <f t="shared" si="13"/>
-        <v>292316</v>
+        <v>300120</v>
       </c>
       <c r="C323">
-        <v>214</v>
+        <v>4245</v>
       </c>
       <c r="D323">
         <f t="shared" si="10"/>
-        <v>3256.5714285714284</v>
+        <v>4348.7142857142853</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="13"/>
+        <v>302845</v>
+      </c>
+      <c r="C324">
+        <v>2725</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="10"/>
+        <v>3967.5714285714284</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B325">
+        <f t="shared" ref="B325" si="14">C325+B324</f>
+        <v>302933</v>
+      </c>
+      <c r="C325">
+        <v>88</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="10"/>
+        <v>3206.4285714285716</v>
       </c>
     </row>
   </sheetData>
@@ -6048,12 +6080,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6062,7 +6088,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6176,16 +6202,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6193,7 +6216,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6207,4 +6230,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD0FAA4-764F-45ED-9589-891CE56012C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E116D2A-3C7C-4D43-80AE-9F8FF91DB9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B296" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C329" sqref="C329"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5350,7 +5350,7 @@
         <v>1837</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D325" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D326" si="10">AVERAGE(C274:C280)</f>
         <v>1217.7142857142858</v>
       </c>
     </row>
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206555</v>
+        <v>206556</v>
       </c>
       <c r="C300">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2626.4285714285716</v>
+        <v>2626.5714285714284</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210151</v>
+        <v>210152</v>
       </c>
       <c r="C301">
         <v>3596</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2636.7142857142858</v>
+        <v>2636.8571428571427</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,14 +5696,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213943</v>
+        <v>213944</v>
       </c>
       <c r="C302">
         <v>3792</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2730.7142857142858</v>
+        <v>2730.8571428571427</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,14 +5712,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216884</v>
+        <v>216885</v>
       </c>
       <c r="C303">
         <v>2941</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2733.2857142857142</v>
+        <v>2733.4285714285716</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217329</v>
+        <v>217330</v>
       </c>
       <c r="C304">
         <v>445</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2368.1428571428573</v>
+        <v>2368.2857142857142</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220708</v>
+        <v>220709</v>
       </c>
       <c r="C305">
         <v>3379</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2444.1428571428573</v>
+        <v>2444.2857142857142</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5763,7 +5763,7 @@
         <v>223612</v>
       </c>
       <c r="C306">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2688.1428571428573</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2960.2857142857142</v>
+        <v>2960.1428571428573</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3254.8571428571427</v>
+        <v>3254.7142857142858</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3701.4285714285716</v>
+        <v>3701.2857142857142</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248542</v>
+        <v>248541</v>
       </c>
       <c r="C311">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4459</v>
+        <v>4458.7142857142853</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253827</v>
+        <v>253824</v>
       </c>
       <c r="C312">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4731.2857142857147</v>
+        <v>4730.7142857142853</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>256006</v>
+        <v>256004</v>
       </c>
       <c r="C313">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4627.7142857142853</v>
+        <v>4627.4285714285716</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>258109</v>
+        <v>258106</v>
       </c>
       <c r="C314">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4676.7142857142853</v>
+        <v>4676.2857142857147</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>264298</v>
+        <v>264301</v>
       </c>
       <c r="C315">
-        <v>6189</v>
+        <v>6195</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4775</v>
+        <v>4775.4285714285716</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>269679</v>
+        <v>269691</v>
       </c>
       <c r="C316">
-        <v>5381</v>
+        <v>5390</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4707.4285714285716</v>
+        <v>4709.1428571428569</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>275072</v>
+        <v>275092</v>
       </c>
       <c r="C317">
-        <v>5393</v>
+        <v>5401</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>4611.1428571428569</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -5952,14 +5952,14 @@
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>280488</v>
+        <v>280512</v>
       </c>
       <c r="C318">
-        <v>5416</v>
+        <v>5420</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>4563.7142857142853</v>
+        <v>4567.2857142857147</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5968,14 +5968,14 @@
       </c>
       <c r="B319">
         <f t="shared" si="11"/>
-        <v>285369</v>
+        <v>285410</v>
       </c>
       <c r="C319">
-        <v>4881</v>
+        <v>4898</v>
       </c>
       <c r="D319">
         <f t="shared" si="10"/>
-        <v>4506</v>
+        <v>4512.2857142857147</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -5984,14 +5984,14 @@
       </c>
       <c r="B320">
         <f t="shared" ref="B320:B321" si="12">C320+B319</f>
-        <v>288137</v>
+        <v>288217</v>
       </c>
       <c r="C320">
-        <v>2768</v>
+        <v>2807</v>
       </c>
       <c r="D320">
         <f t="shared" si="10"/>
-        <v>4590.1428571428569</v>
+        <v>4601.8571428571431</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6000,14 +6000,14 @@
       </c>
       <c r="B321">
         <f t="shared" si="12"/>
-        <v>290220</v>
+        <v>290359</v>
       </c>
       <c r="C321">
-        <v>2083</v>
+        <v>2142</v>
       </c>
       <c r="D321">
         <f t="shared" si="10"/>
-        <v>4587.2857142857147</v>
+        <v>4607.5714285714284</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6016,14 +6016,14 @@
       </c>
       <c r="B322">
         <f t="shared" ref="B322:B324" si="13">C322+B321</f>
-        <v>295875</v>
+        <v>296396</v>
       </c>
       <c r="C322">
-        <v>5655</v>
+        <v>6037</v>
       </c>
       <c r="D322">
         <f t="shared" si="10"/>
-        <v>4511</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -6032,14 +6032,14 @@
       </c>
       <c r="B323">
         <f t="shared" si="13"/>
-        <v>300120</v>
+        <v>301716</v>
       </c>
       <c r="C323">
-        <v>4245</v>
+        <v>5320</v>
       </c>
       <c r="D323">
         <f t="shared" si="10"/>
-        <v>4348.7142857142853</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -6048,14 +6048,14 @@
       </c>
       <c r="B324">
         <f t="shared" si="13"/>
-        <v>302845</v>
+        <v>305908</v>
       </c>
       <c r="C324">
-        <v>2725</v>
+        <v>4192</v>
       </c>
       <c r="D324">
         <f t="shared" si="10"/>
-        <v>3967.5714285714284</v>
+        <v>4402.2857142857147</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -6063,15 +6063,31 @@
         <v>44182</v>
       </c>
       <c r="B325">
-        <f t="shared" ref="B325" si="14">C325+B324</f>
-        <v>302933</v>
+        <f t="shared" ref="B325:B326" si="14">C325+B324</f>
+        <v>306647</v>
       </c>
       <c r="C325">
-        <v>88</v>
+        <v>739</v>
       </c>
       <c r="D325">
         <f t="shared" si="10"/>
-        <v>3206.4285714285716</v>
+        <v>3733.5714285714284</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="14"/>
+        <v>306928</v>
+      </c>
+      <c r="C326">
+        <v>281</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="10"/>
+        <v>3074</v>
       </c>
     </row>
   </sheetData>
@@ -6080,6 +6096,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6088,7 +6110,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6202,13 +6224,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6216,7 +6241,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6230,13 +6255,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E116D2A-3C7C-4D43-80AE-9F8FF91DB9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0486FC7-B2AF-40BD-85E3-C7E1692FE97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasesByDate" sheetId="1" r:id="rId1"/>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D326"/>
+  <dimension ref="A1:D328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B317" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5136,14 +5136,14 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144890</v>
+        <v>144891</v>
       </c>
       <c r="C267">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D267">
         <f t="shared" si="9"/>
-        <v>826.71428571428567</v>
+        <v>826.85714285714289</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5152,14 +5152,14 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146091</v>
+        <v>146092</v>
       </c>
       <c r="C268">
         <v>1201</v>
       </c>
       <c r="D268">
         <f t="shared" si="9"/>
-        <v>869.85714285714289</v>
+        <v>870</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5168,14 +5168,14 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147466</v>
+        <v>147467</v>
       </c>
       <c r="C269">
         <v>1375</v>
       </c>
       <c r="D269">
         <f t="shared" si="9"/>
-        <v>930.57142857142856</v>
+        <v>930.71428571428567</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5184,14 +5184,14 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148691</v>
+        <v>148692</v>
       </c>
       <c r="C270">
         <v>1225</v>
       </c>
       <c r="D270">
         <f t="shared" si="9"/>
-        <v>981.85714285714289</v>
+        <v>982</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5200,14 +5200,14 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149479</v>
+        <v>149480</v>
       </c>
       <c r="C271">
         <v>788</v>
       </c>
       <c r="D271">
         <f t="shared" si="9"/>
-        <v>1016.7142857142857</v>
+        <v>1016.8571428571429</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5216,14 +5216,14 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>149963</v>
+        <v>149964</v>
       </c>
       <c r="C272">
         <v>484</v>
       </c>
       <c r="D272">
         <f t="shared" si="9"/>
-        <v>1038.5714285714287</v>
+        <v>1038.7142857142858</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5232,14 +5232,14 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151488</v>
+        <v>151489</v>
       </c>
       <c r="C273">
         <v>1525</v>
       </c>
       <c r="D273">
         <f t="shared" si="9"/>
-        <v>1102.2857142857142</v>
+        <v>1102.4285714285713</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152833</v>
+        <v>152834</v>
       </c>
       <c r="C274">
         <v>1345</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154273</v>
+        <v>154274</v>
       </c>
       <c r="C275">
         <v>1440</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155658</v>
+        <v>155659</v>
       </c>
       <c r="C276">
         <v>1385</v>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156782</v>
+        <v>156783</v>
       </c>
       <c r="C277">
         <v>1124</v>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157653</v>
+        <v>157654</v>
       </c>
       <c r="C278">
         <v>871</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158175</v>
+        <v>158176</v>
       </c>
       <c r="C279">
         <v>522</v>
@@ -5344,14 +5344,14 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160012</v>
+        <v>160014</v>
       </c>
       <c r="C280">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D326" si="10">AVERAGE(C274:C280)</f>
-        <v>1217.7142857142858</v>
+        <f t="shared" ref="D280:D328" si="10">AVERAGE(C274:C280)</f>
+        <v>1217.8571428571429</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5360,14 +5360,14 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161918</v>
+        <v>161920</v>
       </c>
       <c r="C281">
         <v>1906</v>
       </c>
       <c r="D281">
         <f t="shared" si="10"/>
-        <v>1297.8571428571429</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5376,14 +5376,14 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164092</v>
+        <v>164094</v>
       </c>
       <c r="C282">
         <v>2174</v>
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1402.7142857142858</v>
+        <v>1402.8571428571429</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5392,14 +5392,14 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166509</v>
+        <v>166511</v>
       </c>
       <c r="C283">
         <v>2417</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1550.1428571428571</v>
+        <v>1550.2857142857142</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5408,10 +5408,10 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168747</v>
+        <v>168748</v>
       </c>
       <c r="C284">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170073</v>
+        <v>170074</v>
       </c>
       <c r="C285">
         <v>1326</v>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171016</v>
+        <v>171017</v>
       </c>
       <c r="C286">
         <v>943</v>
@@ -5456,14 +5456,14 @@
       </c>
       <c r="B287">
         <f t="shared" ref="B287:B319" si="11">C287+B286</f>
-        <v>174193</v>
+        <v>174194</v>
       </c>
       <c r="C287">
         <v>3177</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2025.8571428571429</v>
+        <v>2025.7142857142858</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177011</v>
+        <v>177012</v>
       </c>
       <c r="C288">
         <v>2818</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2156.1428571428573</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5488,14 +5488,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179674</v>
+        <v>179675</v>
       </c>
       <c r="C289">
         <v>2663</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2226</v>
+        <v>2225.8571428571427</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5504,14 +5504,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182661</v>
+        <v>182662</v>
       </c>
       <c r="C290">
         <v>2987</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2307.4285714285716</v>
+        <v>2307.2857142857142</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185268</v>
+        <v>185269</v>
       </c>
       <c r="C291">
         <v>2607</v>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>186978</v>
+        <v>186979</v>
       </c>
       <c r="C292">
         <v>1710</v>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188170</v>
+        <v>188171</v>
       </c>
       <c r="C293">
         <v>1192</v>
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191694</v>
+        <v>191696</v>
       </c>
       <c r="C294">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2500.1428571428573</v>
+        <v>2500.2857142857142</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,10 +5584,10 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194828</v>
+        <v>194829</v>
       </c>
       <c r="C295">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197751</v>
+        <v>197752</v>
       </c>
       <c r="C296">
         <v>2923</v>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200752</v>
+        <v>200753</v>
       </c>
       <c r="C297">
         <v>3001</v>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203599</v>
+        <v>203600</v>
       </c>
       <c r="C298">
         <v>2847</v>
@@ -5651,11 +5651,11 @@
         <v>205367</v>
       </c>
       <c r="C299">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2627</v>
+        <v>2626.8571428571427</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2626.5714285714284</v>
+        <v>2626.4285714285716</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2636.8571428571427</v>
+        <v>2636.5714285714284</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2730.8571428571427</v>
+        <v>2730.7142857142858</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,10 +5712,10 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216885</v>
+        <v>216886</v>
       </c>
       <c r="C303">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217330</v>
+        <v>217331</v>
       </c>
       <c r="C304">
         <v>445</v>
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220709</v>
+        <v>220711</v>
       </c>
       <c r="C305">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2444.2857142857142</v>
+        <v>2444.4285714285716</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223612</v>
+        <v>223614</v>
       </c>
       <c r="C306">
         <v>2903</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2606.4285714285716</v>
+        <v>2606.7142857142858</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225372</v>
+        <v>225374</v>
       </c>
       <c r="C307">
         <v>1760</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2688</v>
+        <v>2688.2857142857142</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230873</v>
+        <v>230879</v>
       </c>
       <c r="C308">
-        <v>5501</v>
+        <v>5505</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2960.1428571428573</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236727</v>
+        <v>236739</v>
       </c>
       <c r="C309">
-        <v>5854</v>
+        <v>5860</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3254.7142857142858</v>
+        <v>3256.4285714285716</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242794</v>
+        <v>242814</v>
       </c>
       <c r="C310">
-        <v>6067</v>
+        <v>6075</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3701.2857142857142</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248541</v>
+        <v>248571</v>
       </c>
       <c r="C311">
-        <v>5747</v>
+        <v>5757</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4458.7142857142853</v>
+        <v>4462.8571428571431</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253824</v>
+        <v>253854</v>
       </c>
       <c r="C312">
         <v>5283</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4730.7142857142853</v>
+        <v>4734.7142857142853</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>256004</v>
+        <v>256034</v>
       </c>
       <c r="C313">
         <v>2180</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4627.4285714285716</v>
+        <v>4631.4285714285716</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>258106</v>
+        <v>258135</v>
       </c>
       <c r="C314">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4676.2857142857147</v>
+        <v>4680.1428571428569</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>264301</v>
+        <v>264334</v>
       </c>
       <c r="C315">
-        <v>6195</v>
+        <v>6199</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4775.4285714285716</v>
+        <v>4779.2857142857147</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>269691</v>
+        <v>269731</v>
       </c>
       <c r="C316">
-        <v>5390</v>
+        <v>5397</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4709.1428571428569</v>
+        <v>4713.1428571428569</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>275092</v>
+        <v>275131</v>
       </c>
       <c r="C317">
-        <v>5401</v>
+        <v>5400</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>4614</v>
+        <v>4616.7142857142853</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -5952,14 +5952,14 @@
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>280512</v>
+        <v>280570</v>
       </c>
       <c r="C318">
-        <v>5420</v>
+        <v>5439</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>4567.2857142857147</v>
+        <v>4571.2857142857147</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5968,14 +5968,14 @@
       </c>
       <c r="B319">
         <f t="shared" si="11"/>
-        <v>285410</v>
+        <v>285470</v>
       </c>
       <c r="C319">
-        <v>4898</v>
+        <v>4900</v>
       </c>
       <c r="D319">
         <f t="shared" si="10"/>
-        <v>4512.2857142857147</v>
+        <v>4516.5714285714284</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -5984,14 +5984,14 @@
       </c>
       <c r="B320">
         <f t="shared" ref="B320:B321" si="12">C320+B319</f>
-        <v>288217</v>
+        <v>288280</v>
       </c>
       <c r="C320">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="D320">
         <f t="shared" si="10"/>
-        <v>4601.8571428571431</v>
+        <v>4606.5714285714284</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6000,14 +6000,14 @@
       </c>
       <c r="B321">
         <f t="shared" si="12"/>
-        <v>290359</v>
+        <v>290428</v>
       </c>
       <c r="C321">
-        <v>2142</v>
+        <v>2148</v>
       </c>
       <c r="D321">
         <f t="shared" si="10"/>
-        <v>4607.5714285714284</v>
+        <v>4613.2857142857147</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6016,14 +6016,14 @@
       </c>
       <c r="B322">
         <f t="shared" ref="B322:B324" si="13">C322+B321</f>
-        <v>296396</v>
+        <v>296594</v>
       </c>
       <c r="C322">
-        <v>6037</v>
+        <v>6166</v>
       </c>
       <c r="D322">
         <f t="shared" si="10"/>
-        <v>4585</v>
+        <v>4608.5714285714284</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -6032,14 +6032,14 @@
       </c>
       <c r="B323">
         <f t="shared" si="13"/>
-        <v>301716</v>
+        <v>302418</v>
       </c>
       <c r="C323">
-        <v>5320</v>
+        <v>5824</v>
       </c>
       <c r="D323">
         <f t="shared" si="10"/>
-        <v>4575</v>
+        <v>4669.5714285714284</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -6048,14 +6048,14 @@
       </c>
       <c r="B324">
         <f t="shared" si="13"/>
-        <v>305908</v>
+        <v>307661</v>
       </c>
       <c r="C324">
-        <v>4192</v>
+        <v>5243</v>
       </c>
       <c r="D324">
         <f t="shared" si="10"/>
-        <v>4402.2857142857147</v>
+        <v>4647.1428571428569</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -6063,15 +6063,15 @@
         <v>44182</v>
       </c>
       <c r="B325">
-        <f t="shared" ref="B325:B326" si="14">C325+B324</f>
-        <v>306647</v>
+        <f t="shared" ref="B325:B328" si="14">C325+B324</f>
+        <v>308939</v>
       </c>
       <c r="C325">
-        <v>739</v>
+        <v>1278</v>
       </c>
       <c r="D325">
         <f t="shared" si="10"/>
-        <v>3733.5714285714284</v>
+        <v>4052.7142857142858</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -6080,14 +6080,46 @@
       </c>
       <c r="B326">
         <f t="shared" si="14"/>
-        <v>306928</v>
+        <v>312773</v>
       </c>
       <c r="C326">
-        <v>281</v>
+        <v>3834</v>
       </c>
       <c r="D326">
         <f t="shared" si="10"/>
-        <v>3074</v>
+        <v>3900.4285714285716</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="14"/>
+        <v>314724</v>
+      </c>
+      <c r="C327">
+        <v>1951</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="10"/>
+        <v>3777.7142857142858</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="14"/>
+        <v>314850</v>
+      </c>
+      <c r="C328">
+        <v>126</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="10"/>
+        <v>3488.8571428571427</v>
       </c>
     </row>
   </sheetData>
@@ -6096,21 +6128,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6224,24 +6241,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6255,4 +6270,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0486FC7-B2AF-40BD-85E3-C7E1692FE97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625DD8E-1F24-410B-8DB5-DD52AFD1C0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D328"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B317" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B337" sqref="B337"/>
+      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4320,14 +4320,14 @@
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>118777</v>
+        <v>118778</v>
       </c>
       <c r="C216">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D216">
         <f t="shared" si="7"/>
-        <v>310.42857142857144</v>
+        <v>310.57142857142856</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4336,14 +4336,14 @@
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>119215</v>
+        <v>119216</v>
       </c>
       <c r="C217">
         <v>438</v>
       </c>
       <c r="D217">
         <f t="shared" si="7"/>
-        <v>316.42857142857144</v>
+        <v>316.57142857142856</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4352,14 +4352,14 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>119610</v>
+        <v>119611</v>
       </c>
       <c r="C218">
         <v>395</v>
       </c>
       <c r="D218">
         <f t="shared" si="7"/>
-        <v>318.71428571428572</v>
+        <v>318.85714285714283</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4368,14 +4368,14 @@
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>119994</v>
+        <v>119995</v>
       </c>
       <c r="C219">
         <v>384</v>
       </c>
       <c r="D219">
         <f t="shared" si="7"/>
-        <v>319.42857142857144</v>
+        <v>319.57142857142856</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4384,14 +4384,14 @@
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>120458</v>
+        <v>120459</v>
       </c>
       <c r="C220">
         <v>464</v>
       </c>
       <c r="D220">
         <f t="shared" si="7"/>
-        <v>336.42857142857144</v>
+        <v>336.57142857142856</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4400,14 +4400,14 @@
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>120806</v>
+        <v>120807</v>
       </c>
       <c r="C221">
         <v>348</v>
       </c>
       <c r="D221">
         <f t="shared" si="7"/>
-        <v>334.28571428571428</v>
+        <v>334.42857142857144</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,14 +4416,14 @@
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>121004</v>
+        <v>121005</v>
       </c>
       <c r="C222">
         <v>198</v>
       </c>
       <c r="D222">
         <f t="shared" si="7"/>
-        <v>338</v>
+        <v>338.14285714285717</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>121116</v>
+        <v>121117</v>
       </c>
       <c r="C223">
         <v>112</v>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>121277</v>
+        <v>121278</v>
       </c>
       <c r="C224">
         <v>161</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>121824</v>
+        <v>121825</v>
       </c>
       <c r="C225">
         <v>547</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>122298</v>
+        <v>122299</v>
       </c>
       <c r="C226">
         <v>474</v>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>122707</v>
+        <v>122708</v>
       </c>
       <c r="C227">
         <v>409</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>123116</v>
+        <v>123117</v>
       </c>
       <c r="C228">
         <v>409</v>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>123305</v>
+        <v>123306</v>
       </c>
       <c r="C229">
         <v>189</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>123466</v>
+        <v>123467</v>
       </c>
       <c r="C230">
         <v>161</v>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>123969</v>
+        <v>123970</v>
       </c>
       <c r="C231">
         <v>503</v>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>124392</v>
+        <v>124393</v>
       </c>
       <c r="C232">
         <v>423</v>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>124805</v>
+        <v>124806</v>
       </c>
       <c r="C233">
         <v>413</v>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>125160</v>
+        <v>125161</v>
       </c>
       <c r="C234">
         <v>355</v>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>125596</v>
+        <v>125597</v>
       </c>
       <c r="C235">
         <v>436</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>125798</v>
+        <v>125799</v>
       </c>
       <c r="C236">
         <v>202</v>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>125939</v>
+        <v>125940</v>
       </c>
       <c r="C237">
         <v>141</v>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>126366</v>
+        <v>126367</v>
       </c>
       <c r="C238">
         <v>427</v>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>126874</v>
+        <v>126875</v>
       </c>
       <c r="C239">
         <v>508</v>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>127434</v>
+        <v>127435</v>
       </c>
       <c r="C240">
         <v>560</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>128031</v>
+        <v>128032</v>
       </c>
       <c r="C241">
         <v>597</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>128584</v>
+        <v>128585</v>
       </c>
       <c r="C242">
         <v>553</v>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>128948</v>
+        <v>128949</v>
       </c>
       <c r="C243">
         <v>364</v>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129172</v>
+        <v>129173</v>
       </c>
       <c r="C244">
         <v>224</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130039</v>
+        <v>130040</v>
       </c>
       <c r="C245">
         <v>867</v>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130759</v>
+        <v>130760</v>
       </c>
       <c r="C246">
         <v>720</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131372</v>
+        <v>131373</v>
       </c>
       <c r="C247">
         <v>613</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132055</v>
+        <v>132056</v>
       </c>
       <c r="C248">
         <v>683</v>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132620</v>
+        <v>132621</v>
       </c>
       <c r="C249">
         <v>565</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133028</v>
+        <v>133029</v>
       </c>
       <c r="C250">
         <v>408</v>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133320</v>
+        <v>133321</v>
       </c>
       <c r="C251">
         <v>292</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134070</v>
+        <v>134071</v>
       </c>
       <c r="C252">
         <v>750</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134804</v>
+        <v>134805</v>
       </c>
       <c r="C253">
         <v>734</v>
@@ -4928,14 +4928,14 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135524</v>
+        <v>135526</v>
       </c>
       <c r="C254">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D254">
         <f t="shared" si="7"/>
-        <v>593.14285714285711</v>
+        <v>593.28571428571433</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4944,14 +4944,14 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136358</v>
+        <v>136360</v>
       </c>
       <c r="C255">
         <v>834</v>
       </c>
       <c r="D255">
         <f t="shared" si="7"/>
-        <v>614.71428571428567</v>
+        <v>614.85714285714289</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4960,14 +4960,14 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137047</v>
+        <v>137049</v>
       </c>
       <c r="C256">
         <v>689</v>
       </c>
       <c r="D256">
         <f t="shared" si="7"/>
-        <v>632.42857142857144</v>
+        <v>632.57142857142856</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,14 +4976,14 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137460</v>
+        <v>137462</v>
       </c>
       <c r="C257">
         <v>413</v>
       </c>
       <c r="D257">
         <f t="shared" si="7"/>
-        <v>633.14285714285711</v>
+        <v>633.28571428571433</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4992,14 +4992,14 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137724</v>
+        <v>137726</v>
       </c>
       <c r="C258">
         <v>264</v>
       </c>
       <c r="D258">
         <f t="shared" si="7"/>
-        <v>629.14285714285711</v>
+        <v>629.28571428571433</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5008,14 +5008,14 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138317</v>
+        <v>138319</v>
       </c>
       <c r="C259">
         <v>593</v>
       </c>
       <c r="D259">
         <f t="shared" si="7"/>
-        <v>606.71428571428567</v>
+        <v>606.85714285714289</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5024,14 +5024,14 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139103</v>
+        <v>139105</v>
       </c>
       <c r="C260">
         <v>786</v>
       </c>
       <c r="D260">
         <f t="shared" si="7"/>
-        <v>614.14285714285711</v>
+        <v>614.28571428571433</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140002</v>
+        <v>140004</v>
       </c>
       <c r="C261">
         <v>899</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>140952</v>
+        <v>140954</v>
       </c>
       <c r="C262">
         <v>950</v>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141818</v>
+        <v>141820</v>
       </c>
       <c r="C263">
         <v>866</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142362</v>
+        <v>142364</v>
       </c>
       <c r="C264">
         <v>544</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142693</v>
+        <v>142695</v>
       </c>
       <c r="C265">
         <v>331</v>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143772</v>
+        <v>143774</v>
       </c>
       <c r="C266">
         <v>1079</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144891</v>
+        <v>144893</v>
       </c>
       <c r="C267">
         <v>1119</v>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146092</v>
+        <v>146094</v>
       </c>
       <c r="C268">
         <v>1201</v>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147467</v>
+        <v>147469</v>
       </c>
       <c r="C269">
         <v>1375</v>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148692</v>
+        <v>148694</v>
       </c>
       <c r="C270">
         <v>1225</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149480</v>
+        <v>149482</v>
       </c>
       <c r="C271">
         <v>788</v>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>149964</v>
+        <v>149966</v>
       </c>
       <c r="C272">
         <v>484</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151489</v>
+        <v>151491</v>
       </c>
       <c r="C273">
         <v>1525</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152834</v>
+        <v>152836</v>
       </c>
       <c r="C274">
         <v>1345</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154274</v>
+        <v>154276</v>
       </c>
       <c r="C275">
         <v>1440</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155659</v>
+        <v>155661</v>
       </c>
       <c r="C276">
         <v>1385</v>
@@ -5296,14 +5296,14 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156783</v>
+        <v>156786</v>
       </c>
       <c r="C277">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D277">
         <f t="shared" si="9"/>
-        <v>1155.8571428571429</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5312,14 +5312,14 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157654</v>
+        <v>157657</v>
       </c>
       <c r="C278">
         <v>871</v>
       </c>
       <c r="D278">
         <f t="shared" si="9"/>
-        <v>1167.7142857142858</v>
+        <v>1167.8571428571429</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5328,14 +5328,14 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158176</v>
+        <v>158179</v>
       </c>
       <c r="C279">
         <v>522</v>
       </c>
       <c r="D279">
         <f t="shared" si="9"/>
-        <v>1173.1428571428571</v>
+        <v>1173.2857142857142</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5344,14 +5344,14 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160014</v>
+        <v>160017</v>
       </c>
       <c r="C280">
         <v>1838</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D328" si="10">AVERAGE(C274:C280)</f>
-        <v>1217.8571428571429</v>
+        <f t="shared" ref="D280:D329" si="10">AVERAGE(C274:C280)</f>
+        <v>1218</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5360,10 +5360,10 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161920</v>
+        <v>161922</v>
       </c>
       <c r="C281">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D281">
         <f t="shared" si="10"/>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164094</v>
+        <v>164096</v>
       </c>
       <c r="C282">
         <v>2174</v>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166511</v>
+        <v>166513</v>
       </c>
       <c r="C283">
         <v>2417</v>
@@ -5408,14 +5408,14 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168748</v>
+        <v>168750</v>
       </c>
       <c r="C284">
         <v>2237</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1709.2857142857142</v>
+        <v>1709.1428571428571</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,14 +5424,14 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170074</v>
+        <v>170076</v>
       </c>
       <c r="C285">
         <v>1326</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1774.2857142857142</v>
+        <v>1774.1428571428571</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5440,14 +5440,14 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171017</v>
+        <v>171019</v>
       </c>
       <c r="C286">
         <v>943</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1834.4285714285713</v>
+        <v>1834.2857142857142</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="B287">
         <f t="shared" ref="B287:B319" si="11">C287+B286</f>
-        <v>174194</v>
+        <v>174196</v>
       </c>
       <c r="C287">
         <v>3177</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2025.7142857142858</v>
+        <v>2025.5714285714287</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177012</v>
+        <v>177015</v>
       </c>
       <c r="C288">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2156</v>
+        <v>2156.1428571428573</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5488,14 +5488,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179675</v>
+        <v>179678</v>
       </c>
       <c r="C289">
         <v>2663</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2225.8571428571427</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5504,10 +5504,10 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182662</v>
+        <v>182664</v>
       </c>
       <c r="C290">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
@@ -5520,14 +5520,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185269</v>
+        <v>185272</v>
       </c>
       <c r="C291">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2360.1428571428573</v>
+        <v>2360.2857142857142</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,14 +5536,14 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>186979</v>
+        <v>186983</v>
       </c>
       <c r="C292">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2415</v>
+        <v>2415.2857142857142</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5552,14 +5552,14 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188171</v>
+        <v>188175</v>
       </c>
       <c r="C293">
         <v>1192</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2450.5714285714284</v>
+        <v>2450.8571428571427</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191696</v>
+        <v>191700</v>
       </c>
       <c r="C294">
         <v>3525</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2500.2857142857142</v>
+        <v>2500.5714285714284</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,14 +5584,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194829</v>
+        <v>194835</v>
       </c>
       <c r="C295">
-        <v>3133</v>
+        <v>3135</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2545.2857142857142</v>
+        <v>2545.7142857142858</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197752</v>
+        <v>197758</v>
       </c>
       <c r="C296">
         <v>2923</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2582.4285714285716</v>
+        <v>2582.8571428571427</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,14 +5616,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200753</v>
+        <v>200759</v>
       </c>
       <c r="C297">
         <v>3001</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2584.4285714285716</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5632,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203600</v>
+        <v>203607</v>
       </c>
       <c r="C298">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2618.7142857142858</v>
+        <v>2619.2857142857142</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205367</v>
+        <v>205374</v>
       </c>
       <c r="C299">
         <v>1767</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2626.8571428571427</v>
+        <v>2627.2857142857142</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206556</v>
+        <v>206563</v>
       </c>
       <c r="C300">
         <v>1189</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2626.4285714285716</v>
+        <v>2626.8571428571427</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210152</v>
+        <v>210159</v>
       </c>
       <c r="C301">
         <v>3596</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2636.5714285714284</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,10 +5696,10 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213944</v>
+        <v>213950</v>
       </c>
       <c r="C302">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216886</v>
+        <v>216892</v>
       </c>
       <c r="C303">
         <v>2942</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217331</v>
+        <v>217337</v>
       </c>
       <c r="C304">
         <v>445</v>
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220711</v>
+        <v>220719</v>
       </c>
       <c r="C305">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2444.4285714285716</v>
+        <v>2444.5714285714284</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223614</v>
+        <v>223624</v>
       </c>
       <c r="C306">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2606.7142857142858</v>
+        <v>2607.1428571428573</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225374</v>
+        <v>225383</v>
       </c>
       <c r="C307">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2688.2857142857142</v>
+        <v>2688.5714285714284</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230879</v>
+        <v>230887</v>
       </c>
       <c r="C308">
-        <v>5505</v>
+        <v>5504</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2961</v>
+        <v>2961.1428571428573</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236739</v>
+        <v>236748</v>
       </c>
       <c r="C309">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3256.4285714285716</v>
+        <v>3256.8571428571427</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242814</v>
+        <v>242823</v>
       </c>
       <c r="C310">
         <v>6075</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3704</v>
+        <v>3704.4285714285716</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248571</v>
+        <v>248582</v>
       </c>
       <c r="C311">
-        <v>5757</v>
+        <v>5759</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4462.8571428571431</v>
+        <v>4463.5714285714284</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253854</v>
+        <v>253865</v>
       </c>
       <c r="C312">
         <v>5283</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4734.7142857142853</v>
+        <v>4735.1428571428569</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>256034</v>
+        <v>256043</v>
       </c>
       <c r="C313">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4631.4285714285716</v>
+        <v>4631.2857142857147</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>258135</v>
+        <v>258144</v>
       </c>
       <c r="C314">
         <v>2101</v>
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>264334</v>
+        <v>264344</v>
       </c>
       <c r="C315">
-        <v>6199</v>
+        <v>6200</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4779.2857142857147</v>
+        <v>4779.5714285714284</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>269731</v>
+        <v>269741</v>
       </c>
       <c r="C316">
         <v>5397</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4713.1428571428569</v>
+        <v>4713.2857142857147</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>275131</v>
+        <v>275141</v>
       </c>
       <c r="C317">
         <v>5400</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>4616.7142857142853</v>
+        <v>4616.8571428571431</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -5952,14 +5952,14 @@
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>280570</v>
+        <v>280582</v>
       </c>
       <c r="C318">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>4571.2857142857147</v>
+        <v>4571.4285714285716</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5968,14 +5968,14 @@
       </c>
       <c r="B319">
         <f t="shared" si="11"/>
-        <v>285470</v>
+        <v>285490</v>
       </c>
       <c r="C319">
-        <v>4900</v>
+        <v>4908</v>
       </c>
       <c r="D319">
         <f t="shared" si="10"/>
-        <v>4516.5714285714284</v>
+        <v>4517.8571428571431</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -5984,14 +5984,14 @@
       </c>
       <c r="B320">
         <f t="shared" ref="B320:B321" si="12">C320+B319</f>
-        <v>288280</v>
+        <v>288309</v>
       </c>
       <c r="C320">
-        <v>2810</v>
+        <v>2819</v>
       </c>
       <c r="D320">
         <f t="shared" si="10"/>
-        <v>4606.5714285714284</v>
+        <v>4609.4285714285716</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6000,14 +6000,14 @@
       </c>
       <c r="B321">
         <f t="shared" si="12"/>
-        <v>290428</v>
+        <v>290462</v>
       </c>
       <c r="C321">
-        <v>2148</v>
+        <v>2153</v>
       </c>
       <c r="D321">
         <f t="shared" si="10"/>
-        <v>4613.2857142857147</v>
+        <v>4616.8571428571431</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6016,14 +6016,14 @@
       </c>
       <c r="B322">
         <f t="shared" ref="B322:B324" si="13">C322+B321</f>
-        <v>296594</v>
+        <v>296669</v>
       </c>
       <c r="C322">
-        <v>6166</v>
+        <v>6207</v>
       </c>
       <c r="D322">
         <f t="shared" si="10"/>
-        <v>4608.5714285714284</v>
+        <v>4617.8571428571431</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -6032,14 +6032,14 @@
       </c>
       <c r="B323">
         <f t="shared" si="13"/>
-        <v>302418</v>
+        <v>302593</v>
       </c>
       <c r="C323">
-        <v>5824</v>
+        <v>5924</v>
       </c>
       <c r="D323">
         <f t="shared" si="10"/>
-        <v>4669.5714285714284</v>
+        <v>4693.1428571428569</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -6048,14 +6048,14 @@
       </c>
       <c r="B324">
         <f t="shared" si="13"/>
-        <v>307661</v>
+        <v>308058</v>
       </c>
       <c r="C324">
-        <v>5243</v>
+        <v>5465</v>
       </c>
       <c r="D324">
         <f t="shared" si="10"/>
-        <v>4647.1428571428569</v>
+        <v>4702.4285714285716</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -6063,15 +6063,15 @@
         <v>44182</v>
       </c>
       <c r="B325">
-        <f t="shared" ref="B325:B328" si="14">C325+B324</f>
-        <v>308939</v>
+        <f t="shared" ref="B325:B329" si="14">C325+B324</f>
+        <v>309513</v>
       </c>
       <c r="C325">
-        <v>1278</v>
+        <v>1455</v>
       </c>
       <c r="D325">
         <f t="shared" si="10"/>
-        <v>4052.7142857142858</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -6080,14 +6080,14 @@
       </c>
       <c r="B326">
         <f t="shared" si="14"/>
-        <v>312773</v>
+        <v>314242</v>
       </c>
       <c r="C326">
-        <v>3834</v>
+        <v>4729</v>
       </c>
       <c r="D326">
         <f t="shared" si="10"/>
-        <v>3900.4285714285716</v>
+        <v>4107.4285714285716</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -6096,14 +6096,14 @@
       </c>
       <c r="B327">
         <f t="shared" si="14"/>
-        <v>314724</v>
+        <v>316712</v>
       </c>
       <c r="C327">
-        <v>1951</v>
+        <v>2470</v>
       </c>
       <c r="D327">
         <f t="shared" si="10"/>
-        <v>3777.7142857142858</v>
+        <v>4057.5714285714284</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -6112,14 +6112,30 @@
       </c>
       <c r="B328">
         <f t="shared" si="14"/>
-        <v>314850</v>
+        <v>317916</v>
       </c>
       <c r="C328">
-        <v>126</v>
+        <v>1204</v>
       </c>
       <c r="D328">
         <f t="shared" si="10"/>
-        <v>3488.8571428571427</v>
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="14"/>
+        <v>318143</v>
+      </c>
+      <c r="C329">
+        <v>227</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="10"/>
+        <v>3067.7142857142858</v>
       </c>
     </row>
   </sheetData>
@@ -6128,6 +6144,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6241,22 +6272,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6270,21 +6303,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625DD8E-1F24-410B-8DB5-DD52AFD1C0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8B6373-5B35-4919-B910-B52E69A60255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2928,14 +2928,14 @@
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>98611</v>
+        <v>98610</v>
       </c>
       <c r="C129">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D129">
         <f t="shared" si="3"/>
-        <v>393.57142857142856</v>
+        <v>393.42857142857144</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2944,14 +2944,14 @@
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>98948</v>
+        <v>98947</v>
       </c>
       <c r="C130">
         <v>337</v>
       </c>
       <c r="D130">
         <f t="shared" si="3"/>
-        <v>366</v>
+        <v>365.85714285714283</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2960,14 +2960,14 @@
       </c>
       <c r="B131">
         <f t="shared" si="2"/>
-        <v>99096</v>
+        <v>99095</v>
       </c>
       <c r="C131">
         <v>148</v>
       </c>
       <c r="D131">
         <f t="shared" si="3"/>
-        <v>348.42857142857144</v>
+        <v>348.28571428571428</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2976,14 +2976,14 @@
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B195" si="4">C132+B131</f>
-        <v>99247</v>
+        <v>99246</v>
       </c>
       <c r="C132">
         <v>151</v>
       </c>
       <c r="D132">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>346.85714285714283</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2992,14 +2992,14 @@
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>99599</v>
+        <v>99598</v>
       </c>
       <c r="C133">
         <v>352</v>
       </c>
       <c r="D133">
         <f t="shared" si="3"/>
-        <v>324.71428571428572</v>
+        <v>324.57142857142856</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3008,14 +3008,14 @@
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>99942</v>
+        <v>99941</v>
       </c>
       <c r="C134">
         <v>343</v>
       </c>
       <c r="D134">
         <f t="shared" si="3"/>
-        <v>309.85714285714283</v>
+        <v>309.71428571428572</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3024,14 +3024,14 @@
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>100201</v>
+        <v>100200</v>
       </c>
       <c r="C135">
         <v>259</v>
       </c>
       <c r="D135">
         <f t="shared" si="3"/>
-        <v>281.28571428571428</v>
+        <v>281.14285714285717</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>100427</v>
+        <v>100426</v>
       </c>
       <c r="C136">
         <v>226</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
-        <v>100681</v>
+        <v>100680</v>
       </c>
       <c r="C137">
         <v>254</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>100778</v>
+        <v>100777</v>
       </c>
       <c r="C138">
         <v>97</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>100854</v>
+        <v>100853</v>
       </c>
       <c r="C139">
         <v>76</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>101089</v>
+        <v>101088</v>
       </c>
       <c r="C140">
         <v>235</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>101287</v>
+        <v>101286</v>
       </c>
       <c r="C141">
         <v>198</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>101535</v>
+        <v>101534</v>
       </c>
       <c r="C142">
         <v>248</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>101775</v>
+        <v>101774</v>
       </c>
       <c r="C143">
         <v>240</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>101950</v>
+        <v>101949</v>
       </c>
       <c r="C144">
         <v>175</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>102043</v>
+        <v>102042</v>
       </c>
       <c r="C145">
         <v>93</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>102122</v>
+        <v>102121</v>
       </c>
       <c r="C146">
         <v>79</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>102346</v>
+        <v>102345</v>
       </c>
       <c r="C147">
         <v>224</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>102535</v>
+        <v>102534</v>
       </c>
       <c r="C148">
         <v>189</v>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>102745</v>
+        <v>102744</v>
       </c>
       <c r="C149">
         <v>210</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>102951</v>
+        <v>102950</v>
       </c>
       <c r="C150">
         <v>206</v>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>103149</v>
+        <v>103148</v>
       </c>
       <c r="C151">
         <v>198</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>103283</v>
+        <v>103282</v>
       </c>
       <c r="C152">
         <v>134</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>103354</v>
+        <v>103353</v>
       </c>
       <c r="C153">
         <v>71</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>103559</v>
+        <v>103558</v>
       </c>
       <c r="C154">
         <v>205</v>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>103779</v>
+        <v>103778</v>
       </c>
       <c r="C155">
         <v>220</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>103995</v>
+        <v>103994</v>
       </c>
       <c r="C156">
         <v>216</v>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>104221</v>
+        <v>104220</v>
       </c>
       <c r="C157">
         <v>226</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>104320</v>
+        <v>104319</v>
       </c>
       <c r="C158">
         <v>99</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>104380</v>
+        <v>104379</v>
       </c>
       <c r="C159">
         <v>60</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>104481</v>
+        <v>104480</v>
       </c>
       <c r="C160">
         <v>101</v>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>104718</v>
+        <v>104717</v>
       </c>
       <c r="C161">
         <v>237</v>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>104959</v>
+        <v>104958</v>
       </c>
       <c r="C162">
         <v>241</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>105175</v>
+        <v>105174</v>
       </c>
       <c r="C163">
         <v>216</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>105429</v>
+        <v>105428</v>
       </c>
       <c r="C164">
         <v>254</v>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>105657</v>
+        <v>105656</v>
       </c>
       <c r="C165">
         <v>228</v>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>105774</v>
+        <v>105773</v>
       </c>
       <c r="C166">
         <v>117</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>105861</v>
+        <v>105860</v>
       </c>
       <c r="C167">
         <v>87</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>106127</v>
+        <v>106126</v>
       </c>
       <c r="C168">
         <v>266</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
-        <v>106359</v>
+        <v>106358</v>
       </c>
       <c r="C169">
         <v>232</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>106657</v>
+        <v>106656</v>
       </c>
       <c r="C170">
         <v>298</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>106901</v>
+        <v>106900</v>
       </c>
       <c r="C171">
         <v>244</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>107128</v>
+        <v>107127</v>
       </c>
       <c r="C172">
         <v>227</v>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>107256</v>
+        <v>107255</v>
       </c>
       <c r="C173">
         <v>128</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>107330</v>
+        <v>107329</v>
       </c>
       <c r="C174">
         <v>74</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
-        <v>107609</v>
+        <v>107608</v>
       </c>
       <c r="C175">
         <v>279</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>107864</v>
+        <v>107863</v>
       </c>
       <c r="C176">
         <v>255</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>108122</v>
+        <v>108121</v>
       </c>
       <c r="C177">
         <v>258</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
-        <v>108380</v>
+        <v>108379</v>
       </c>
       <c r="C178">
         <v>258</v>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
-        <v>108637</v>
+        <v>108636</v>
       </c>
       <c r="C179">
         <v>257</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="4"/>
-        <v>108796</v>
+        <v>108795</v>
       </c>
       <c r="C180">
         <v>159</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="4"/>
-        <v>108897</v>
+        <v>108896</v>
       </c>
       <c r="C181">
         <v>101</v>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
-        <v>109258</v>
+        <v>109257</v>
       </c>
       <c r="C182">
         <v>361</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
-        <v>109578</v>
+        <v>109577</v>
       </c>
       <c r="C183">
         <v>320</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="4"/>
-        <v>109897</v>
+        <v>109896</v>
       </c>
       <c r="C184">
         <v>319</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
-        <v>110233</v>
+        <v>110232</v>
       </c>
       <c r="C185">
         <v>336</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
-        <v>110552</v>
+        <v>110551</v>
       </c>
       <c r="C186">
         <v>319</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
-        <v>110699</v>
+        <v>110698</v>
       </c>
       <c r="C187">
         <v>147</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
-        <v>110808</v>
+        <v>110807</v>
       </c>
       <c r="C188">
         <v>109</v>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="4"/>
-        <v>111166</v>
+        <v>111165</v>
       </c>
       <c r="C189">
         <v>358</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>111474</v>
+        <v>111473</v>
       </c>
       <c r="C190">
         <v>308</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
-        <v>111807</v>
+        <v>111806</v>
       </c>
       <c r="C191">
         <v>333</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
-        <v>112161</v>
+        <v>112160</v>
       </c>
       <c r="C192">
         <v>354</v>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="4"/>
-        <v>112460</v>
+        <v>112459</v>
       </c>
       <c r="C193">
         <v>299</v>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B194">
         <f t="shared" si="4"/>
-        <v>112629</v>
+        <v>112628</v>
       </c>
       <c r="C194">
         <v>169</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="4"/>
-        <v>112714</v>
+        <v>112713</v>
       </c>
       <c r="C195">
         <v>85</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B259" si="6">C196+B195</f>
-        <v>113088</v>
+        <v>113087</v>
       </c>
       <c r="C196">
         <v>374</v>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>113372</v>
+        <v>113371</v>
       </c>
       <c r="C197">
         <v>284</v>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
-        <v>113676</v>
+        <v>113675</v>
       </c>
       <c r="C198">
         <v>304</v>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
-        <v>114025</v>
+        <v>114024</v>
       </c>
       <c r="C199">
         <v>349</v>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
-        <v>114367</v>
+        <v>114366</v>
       </c>
       <c r="C200">
         <v>342</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
-        <v>114518</v>
+        <v>114517</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
-        <v>114638</v>
+        <v>114637</v>
       </c>
       <c r="C202">
         <v>120</v>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
-        <v>115007</v>
+        <v>115006</v>
       </c>
       <c r="C203">
         <v>369</v>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>115388</v>
+        <v>115387</v>
       </c>
       <c r="C204">
         <v>381</v>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>115725</v>
+        <v>115724</v>
       </c>
       <c r="C205">
         <v>337</v>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>116081</v>
+        <v>116080</v>
       </c>
       <c r="C206">
         <v>356</v>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>116364</v>
+        <v>116363</v>
       </c>
       <c r="C207">
         <v>283</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>116512</v>
+        <v>116511</v>
       </c>
       <c r="C208">
         <v>148</v>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>116604</v>
+        <v>116603</v>
       </c>
       <c r="C209">
         <v>92</v>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>117000</v>
+        <v>116999</v>
       </c>
       <c r="C210">
         <v>396</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
-        <v>117379</v>
+        <v>117378</v>
       </c>
       <c r="C211">
         <v>379</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>117758</v>
+        <v>117757</v>
       </c>
       <c r="C212">
         <v>379</v>
@@ -4272,14 +4272,14 @@
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>118103</v>
+        <v>118101</v>
       </c>
       <c r="C213">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D213">
         <f t="shared" si="7"/>
-        <v>288.85714285714283</v>
+        <v>288.71428571428572</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4288,14 +4288,14 @@
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>118466</v>
+        <v>118464</v>
       </c>
       <c r="C214">
         <v>363</v>
       </c>
       <c r="D214">
         <f t="shared" si="7"/>
-        <v>300.28571428571428</v>
+        <v>300.14285714285717</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4304,14 +4304,14 @@
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>118638</v>
+        <v>118636</v>
       </c>
       <c r="C215">
         <v>172</v>
       </c>
       <c r="D215">
         <f t="shared" si="7"/>
-        <v>303.71428571428572</v>
+        <v>303.57142857142856</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4320,14 +4320,14 @@
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>118778</v>
+        <v>118775</v>
       </c>
       <c r="C216">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D216">
         <f t="shared" si="7"/>
-        <v>310.57142857142856</v>
+        <v>310.28571428571428</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4336,14 +4336,14 @@
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>119216</v>
+        <v>119213</v>
       </c>
       <c r="C217">
         <v>438</v>
       </c>
       <c r="D217">
         <f t="shared" si="7"/>
-        <v>316.57142857142856</v>
+        <v>316.28571428571428</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4352,14 +4352,14 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>119611</v>
+        <v>119608</v>
       </c>
       <c r="C218">
         <v>395</v>
       </c>
       <c r="D218">
         <f t="shared" si="7"/>
-        <v>318.85714285714283</v>
+        <v>318.57142857142856</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4368,14 +4368,14 @@
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>119995</v>
+        <v>119992</v>
       </c>
       <c r="C219">
         <v>384</v>
       </c>
       <c r="D219">
         <f t="shared" si="7"/>
-        <v>319.57142857142856</v>
+        <v>319.28571428571428</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4384,14 +4384,14 @@
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>120459</v>
+        <v>120456</v>
       </c>
       <c r="C220">
         <v>464</v>
       </c>
       <c r="D220">
         <f t="shared" si="7"/>
-        <v>336.57142857142856</v>
+        <v>336.42857142857144</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4400,14 +4400,14 @@
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>120807</v>
+        <v>120804</v>
       </c>
       <c r="C221">
         <v>348</v>
       </c>
       <c r="D221">
         <f t="shared" si="7"/>
-        <v>334.42857142857144</v>
+        <v>334.28571428571428</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,14 +4416,14 @@
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>121005</v>
+        <v>121002</v>
       </c>
       <c r="C222">
         <v>198</v>
       </c>
       <c r="D222">
         <f t="shared" si="7"/>
-        <v>338.14285714285717</v>
+        <v>338</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>121117</v>
+        <v>121114</v>
       </c>
       <c r="C223">
         <v>112</v>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>121278</v>
+        <v>121275</v>
       </c>
       <c r="C224">
         <v>161</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>121825</v>
+        <v>121822</v>
       </c>
       <c r="C225">
         <v>547</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>122299</v>
+        <v>122296</v>
       </c>
       <c r="C226">
         <v>474</v>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>122708</v>
+        <v>122705</v>
       </c>
       <c r="C227">
         <v>409</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>123117</v>
+        <v>123114</v>
       </c>
       <c r="C228">
         <v>409</v>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>123306</v>
+        <v>123303</v>
       </c>
       <c r="C229">
         <v>189</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>123467</v>
+        <v>123464</v>
       </c>
       <c r="C230">
         <v>161</v>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>123970</v>
+        <v>123967</v>
       </c>
       <c r="C231">
         <v>503</v>
@@ -4576,14 +4576,14 @@
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>124393</v>
+        <v>124391</v>
       </c>
       <c r="C232">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D232">
         <f t="shared" si="7"/>
-        <v>366.85714285714283</v>
+        <v>367</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4592,14 +4592,14 @@
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>124806</v>
+        <v>124804</v>
       </c>
       <c r="C233">
         <v>413</v>
       </c>
       <c r="D233">
         <f t="shared" si="7"/>
-        <v>358.14285714285717</v>
+        <v>358.28571428571428</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4608,14 +4608,14 @@
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>125161</v>
+        <v>125159</v>
       </c>
       <c r="C234">
         <v>355</v>
       </c>
       <c r="D234">
         <f t="shared" si="7"/>
-        <v>350.42857142857144</v>
+        <v>350.57142857142856</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4624,14 +4624,14 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>125597</v>
+        <v>125595</v>
       </c>
       <c r="C235">
         <v>436</v>
       </c>
       <c r="D235">
         <f t="shared" si="7"/>
-        <v>354.28571428571428</v>
+        <v>354.42857142857144</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,14 +4640,14 @@
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>125799</v>
+        <v>125797</v>
       </c>
       <c r="C236">
         <v>202</v>
       </c>
       <c r="D236">
         <f t="shared" si="7"/>
-        <v>356.14285714285717</v>
+        <v>356.28571428571428</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4656,14 +4656,14 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>125940</v>
+        <v>125938</v>
       </c>
       <c r="C237">
         <v>141</v>
       </c>
       <c r="D237">
         <f t="shared" si="7"/>
-        <v>353.28571428571428</v>
+        <v>353.42857142857144</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4672,14 +4672,14 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>126367</v>
+        <v>126365</v>
       </c>
       <c r="C238">
         <v>427</v>
       </c>
       <c r="D238">
         <f t="shared" si="7"/>
-        <v>342.42857142857144</v>
+        <v>342.57142857142856</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>126875</v>
+        <v>126873</v>
       </c>
       <c r="C239">
         <v>508</v>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>127435</v>
+        <v>127433</v>
       </c>
       <c r="C240">
         <v>560</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>128032</v>
+        <v>128030</v>
       </c>
       <c r="C241">
         <v>597</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>128585</v>
+        <v>128583</v>
       </c>
       <c r="C242">
         <v>553</v>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>128949</v>
+        <v>128947</v>
       </c>
       <c r="C243">
         <v>364</v>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129173</v>
+        <v>129171</v>
       </c>
       <c r="C244">
         <v>224</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130040</v>
+        <v>130038</v>
       </c>
       <c r="C245">
         <v>867</v>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130760</v>
+        <v>130758</v>
       </c>
       <c r="C246">
         <v>720</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131373</v>
+        <v>131371</v>
       </c>
       <c r="C247">
         <v>613</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132056</v>
+        <v>132054</v>
       </c>
       <c r="C248">
         <v>683</v>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132621</v>
+        <v>132619</v>
       </c>
       <c r="C249">
         <v>565</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133029</v>
+        <v>133027</v>
       </c>
       <c r="C250">
         <v>408</v>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133321</v>
+        <v>133319</v>
       </c>
       <c r="C251">
         <v>292</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134071</v>
+        <v>134069</v>
       </c>
       <c r="C252">
         <v>750</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134805</v>
+        <v>134803</v>
       </c>
       <c r="C253">
         <v>734</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135526</v>
+        <v>135524</v>
       </c>
       <c r="C254">
         <v>721</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136360</v>
+        <v>136358</v>
       </c>
       <c r="C255">
         <v>834</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137049</v>
+        <v>137047</v>
       </c>
       <c r="C256">
         <v>689</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137462</v>
+        <v>137460</v>
       </c>
       <c r="C257">
         <v>413</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137726</v>
+        <v>137724</v>
       </c>
       <c r="C258">
         <v>264</v>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138319</v>
+        <v>138317</v>
       </c>
       <c r="C259">
         <v>593</v>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139105</v>
+        <v>139103</v>
       </c>
       <c r="C260">
         <v>786</v>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140004</v>
+        <v>140002</v>
       </c>
       <c r="C261">
         <v>899</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>140954</v>
+        <v>140952</v>
       </c>
       <c r="C262">
         <v>950</v>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141820</v>
+        <v>141818</v>
       </c>
       <c r="C263">
         <v>866</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142364</v>
+        <v>142362</v>
       </c>
       <c r="C264">
         <v>544</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142695</v>
+        <v>142693</v>
       </c>
       <c r="C265">
         <v>331</v>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143774</v>
+        <v>143772</v>
       </c>
       <c r="C266">
         <v>1079</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144893</v>
+        <v>144891</v>
       </c>
       <c r="C267">
         <v>1119</v>
@@ -5152,14 +5152,14 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146094</v>
+        <v>146091</v>
       </c>
       <c r="C268">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D268">
         <f t="shared" si="9"/>
-        <v>870</v>
+        <v>869.85714285714289</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5168,14 +5168,14 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147469</v>
+        <v>147466</v>
       </c>
       <c r="C269">
         <v>1375</v>
       </c>
       <c r="D269">
         <f t="shared" si="9"/>
-        <v>930.71428571428567</v>
+        <v>930.57142857142856</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5184,14 +5184,14 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148694</v>
+        <v>148690</v>
       </c>
       <c r="C270">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D270">
         <f t="shared" si="9"/>
-        <v>982</v>
+        <v>981.71428571428567</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5200,14 +5200,14 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149482</v>
+        <v>149478</v>
       </c>
       <c r="C271">
         <v>788</v>
       </c>
       <c r="D271">
         <f t="shared" si="9"/>
-        <v>1016.8571428571429</v>
+        <v>1016.5714285714286</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5216,14 +5216,14 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>149966</v>
+        <v>149962</v>
       </c>
       <c r="C272">
         <v>484</v>
       </c>
       <c r="D272">
         <f t="shared" si="9"/>
-        <v>1038.7142857142858</v>
+        <v>1038.4285714285713</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5232,14 +5232,14 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151491</v>
+        <v>151487</v>
       </c>
       <c r="C273">
         <v>1525</v>
       </c>
       <c r="D273">
         <f t="shared" si="9"/>
-        <v>1102.4285714285713</v>
+        <v>1102.1428571428571</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5248,14 +5248,14 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152836</v>
+        <v>152832</v>
       </c>
       <c r="C274">
         <v>1345</v>
       </c>
       <c r="D274">
         <f t="shared" si="9"/>
-        <v>1134.7142857142858</v>
+        <v>1134.4285714285713</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5264,14 +5264,14 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154276</v>
+        <v>154272</v>
       </c>
       <c r="C275">
         <v>1440</v>
       </c>
       <c r="D275">
         <f t="shared" si="9"/>
-        <v>1168.8571428571429</v>
+        <v>1168.7142857142858</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5280,14 +5280,14 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155661</v>
+        <v>155657</v>
       </c>
       <c r="C276">
         <v>1385</v>
       </c>
       <c r="D276">
         <f t="shared" si="9"/>
-        <v>1170.2857142857142</v>
+        <v>1170.1428571428571</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156786</v>
+        <v>156782</v>
       </c>
       <c r="C277">
         <v>1125</v>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157657</v>
+        <v>157653</v>
       </c>
       <c r="C278">
         <v>871</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158179</v>
+        <v>158175</v>
       </c>
       <c r="C279">
         <v>522</v>
@@ -5344,13 +5344,13 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160017</v>
+        <v>160013</v>
       </c>
       <c r="C280">
         <v>1838</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D329" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D331" si="10">AVERAGE(C274:C280)</f>
         <v>1218</v>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161922</v>
+        <v>161918</v>
       </c>
       <c r="C281">
         <v>1905</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164096</v>
+        <v>164092</v>
       </c>
       <c r="C282">
         <v>2174</v>
@@ -5392,14 +5392,14 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166513</v>
+        <v>166508</v>
       </c>
       <c r="C283">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1550.2857142857142</v>
+        <v>1550.1428571428571</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5408,14 +5408,14 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168750</v>
+        <v>168745</v>
       </c>
       <c r="C284">
         <v>2237</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1709.1428571428571</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,14 +5424,14 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170076</v>
+        <v>170071</v>
       </c>
       <c r="C285">
         <v>1326</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
-        <v>1774.1428571428571</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5440,14 +5440,14 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171019</v>
+        <v>171014</v>
       </c>
       <c r="C286">
         <v>943</v>
       </c>
       <c r="D286">
         <f t="shared" si="10"/>
-        <v>1834.2857142857142</v>
+        <v>1834.1428571428571</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="B287">
         <f t="shared" ref="B287:B319" si="11">C287+B286</f>
-        <v>174196</v>
+        <v>174191</v>
       </c>
       <c r="C287">
         <v>3177</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2025.5714285714287</v>
+        <v>2025.4285714285713</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177015</v>
+        <v>177010</v>
       </c>
       <c r="C288">
         <v>2819</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2156.1428571428573</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5488,14 +5488,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179678</v>
+        <v>179670</v>
       </c>
       <c r="C289">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2226</v>
+        <v>2225.4285714285716</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5504,14 +5504,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182664</v>
+        <v>182655</v>
       </c>
       <c r="C290">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2307.2857142857142</v>
+        <v>2306.7142857142858</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5520,14 +5520,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185272</v>
+        <v>185262</v>
       </c>
       <c r="C291">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2360.2857142857142</v>
+        <v>2359.5714285714284</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,14 +5536,14 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>186983</v>
+        <v>186972</v>
       </c>
       <c r="C292">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D292">
         <f t="shared" si="10"/>
-        <v>2415.2857142857142</v>
+        <v>2414.4285714285716</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5552,14 +5552,14 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188175</v>
+        <v>188164</v>
       </c>
       <c r="C293">
         <v>1192</v>
       </c>
       <c r="D293">
         <f t="shared" si="10"/>
-        <v>2450.8571428571427</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,14 +5568,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191700</v>
+        <v>191688</v>
       </c>
       <c r="C294">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2500.5714285714284</v>
+        <v>2499.5714285714284</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,14 +5584,14 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194835</v>
+        <v>194823</v>
       </c>
       <c r="C295">
         <v>3135</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2545.7142857142858</v>
+        <v>2544.7142857142858</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197758</v>
+        <v>197747</v>
       </c>
       <c r="C296">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2582.8571428571427</v>
+        <v>2582.4285714285716</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,14 +5616,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200759</v>
+        <v>200747</v>
       </c>
       <c r="C297">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2585</v>
+        <v>2584.5714285714284</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5632,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203607</v>
+        <v>203595</v>
       </c>
       <c r="C298">
         <v>2848</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2619.2857142857142</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,10 +5648,10 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205374</v>
+        <v>205363</v>
       </c>
       <c r="C299">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
@@ -5664,14 +5664,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206563</v>
+        <v>206554</v>
       </c>
       <c r="C300">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2626.8571428571427</v>
+        <v>2627.1428571428573</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210159</v>
+        <v>210145</v>
       </c>
       <c r="C301">
-        <v>3596</v>
+        <v>3591</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2637</v>
+        <v>2636.7142857142858</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,14 +5696,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213950</v>
+        <v>213931</v>
       </c>
       <c r="C302">
-        <v>3791</v>
+        <v>3786</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2730.7142857142858</v>
+        <v>2729.7142857142858</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,14 +5712,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216892</v>
+        <v>216871</v>
       </c>
       <c r="C303">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2733.4285714285716</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217337</v>
+        <v>217316</v>
       </c>
       <c r="C304">
         <v>445</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2368.2857142857142</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220719</v>
+        <v>220699</v>
       </c>
       <c r="C305">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2444.5714285714284</v>
+        <v>2443.4285714285716</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,14 +5760,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223624</v>
+        <v>223604</v>
       </c>
       <c r="C306">
         <v>2905</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2607.1428571428573</v>
+        <v>2605.8571428571427</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5776,14 +5776,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225383</v>
+        <v>225362</v>
       </c>
       <c r="C307">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2688.5714285714284</v>
+        <v>2686.8571428571427</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,14 +5792,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230887</v>
+        <v>230863</v>
       </c>
       <c r="C308">
-        <v>5504</v>
+        <v>5501</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2961.1428571428573</v>
+        <v>2959.7142857142858</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236748</v>
+        <v>236719</v>
       </c>
       <c r="C309">
-        <v>5861</v>
+        <v>5856</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3256.8571428571427</v>
+        <v>3255.4285714285716</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5824,14 +5824,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242823</v>
+        <v>242792</v>
       </c>
       <c r="C310">
-        <v>6075</v>
+        <v>6073</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3704.4285714285716</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248582</v>
+        <v>248552</v>
       </c>
       <c r="C311">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4463.5714285714284</v>
+        <v>4462.2857142857147</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,14 +5856,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253865</v>
+        <v>253828</v>
       </c>
       <c r="C312">
-        <v>5283</v>
+        <v>5276</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4735.1428571428569</v>
+        <v>4732.7142857142853</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,14 +5872,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>256043</v>
+        <v>256007</v>
       </c>
       <c r="C313">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4631.2857142857147</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,14 +5888,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>258144</v>
+        <v>258109</v>
       </c>
       <c r="C314">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4680.1428571428569</v>
+        <v>4678.1428571428569</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>264344</v>
+        <v>264312</v>
       </c>
       <c r="C315">
-        <v>6200</v>
+        <v>6203</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4779.5714285714284</v>
+        <v>4778.4285714285716</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>269741</v>
+        <v>269707</v>
       </c>
       <c r="C316">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4713.2857142857147</v>
+        <v>4712.5714285714284</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>275141</v>
+        <v>275101</v>
       </c>
       <c r="C317">
-        <v>5400</v>
+        <v>5394</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>4616.8571428571431</v>
+        <v>4615.5714285714284</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -5952,14 +5952,14 @@
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>280582</v>
+        <v>280553</v>
       </c>
       <c r="C318">
-        <v>5441</v>
+        <v>5452</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>4571.4285714285716</v>
+        <v>4571.5714285714284</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5968,14 +5968,14 @@
       </c>
       <c r="B319">
         <f t="shared" si="11"/>
-        <v>285490</v>
+        <v>285482</v>
       </c>
       <c r="C319">
-        <v>4908</v>
+        <v>4929</v>
       </c>
       <c r="D319">
         <f t="shared" si="10"/>
-        <v>4517.8571428571431</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -5984,14 +5984,14 @@
       </c>
       <c r="B320">
         <f t="shared" ref="B320:B321" si="12">C320+B319</f>
-        <v>288309</v>
+        <v>288340</v>
       </c>
       <c r="C320">
-        <v>2819</v>
+        <v>2858</v>
       </c>
       <c r="D320">
         <f t="shared" si="10"/>
-        <v>4609.4285714285716</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6000,14 +6000,14 @@
       </c>
       <c r="B321">
         <f t="shared" si="12"/>
-        <v>290462</v>
+        <v>290514</v>
       </c>
       <c r="C321">
-        <v>2153</v>
+        <v>2174</v>
       </c>
       <c r="D321">
         <f t="shared" si="10"/>
-        <v>4616.8571428571431</v>
+        <v>4629.2857142857147</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6016,14 +6016,14 @@
       </c>
       <c r="B322">
         <f t="shared" ref="B322:B324" si="13">C322+B321</f>
-        <v>296669</v>
+        <v>296747</v>
       </c>
       <c r="C322">
-        <v>6207</v>
+        <v>6233</v>
       </c>
       <c r="D322">
         <f t="shared" si="10"/>
-        <v>4617.8571428571431</v>
+        <v>4633.5714285714284</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -6032,14 +6032,14 @@
       </c>
       <c r="B323">
         <f t="shared" si="13"/>
-        <v>302593</v>
+        <v>302724</v>
       </c>
       <c r="C323">
-        <v>5924</v>
+        <v>5977</v>
       </c>
       <c r="D323">
         <f t="shared" si="10"/>
-        <v>4693.1428571428569</v>
+        <v>4716.7142857142853</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -6048,14 +6048,14 @@
       </c>
       <c r="B324">
         <f t="shared" si="13"/>
-        <v>308058</v>
+        <v>308326</v>
       </c>
       <c r="C324">
-        <v>5465</v>
+        <v>5602</v>
       </c>
       <c r="D324">
         <f t="shared" si="10"/>
-        <v>4702.4285714285716</v>
+        <v>4746.4285714285716</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -6063,15 +6063,15 @@
         <v>44182</v>
       </c>
       <c r="B325">
-        <f t="shared" ref="B325:B329" si="14">C325+B324</f>
-        <v>309513</v>
+        <f t="shared" ref="B325:B331" si="14">C325+B324</f>
+        <v>309869</v>
       </c>
       <c r="C325">
-        <v>1455</v>
+        <v>1543</v>
       </c>
       <c r="D325">
         <f t="shared" si="10"/>
-        <v>4133</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -6080,14 +6080,14 @@
       </c>
       <c r="B326">
         <f t="shared" si="14"/>
-        <v>314242</v>
+        <v>315337</v>
       </c>
       <c r="C326">
-        <v>4729</v>
+        <v>5468</v>
       </c>
       <c r="D326">
         <f t="shared" si="10"/>
-        <v>4107.4285714285716</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -6096,14 +6096,14 @@
       </c>
       <c r="B327">
         <f t="shared" si="14"/>
-        <v>316712</v>
+        <v>318547</v>
       </c>
       <c r="C327">
-        <v>2470</v>
+        <v>3210</v>
       </c>
       <c r="D327">
         <f t="shared" si="10"/>
-        <v>4057.5714285714284</v>
+        <v>4315.2857142857147</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -6112,14 +6112,14 @@
       </c>
       <c r="B328">
         <f t="shared" si="14"/>
-        <v>317916</v>
+        <v>320397</v>
       </c>
       <c r="C328">
-        <v>1204</v>
+        <v>1850</v>
       </c>
       <c r="D328">
         <f t="shared" si="10"/>
-        <v>3922</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -6128,14 +6128,46 @@
       </c>
       <c r="B329">
         <f t="shared" si="14"/>
-        <v>318143</v>
+        <v>325052</v>
       </c>
       <c r="C329">
-        <v>227</v>
+        <v>4655</v>
       </c>
       <c r="D329">
         <f t="shared" si="10"/>
-        <v>3067.7142857142858</v>
+        <v>4043.5714285714284</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="14"/>
+        <v>328173</v>
+      </c>
+      <c r="C330">
+        <v>3121</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="10"/>
+        <v>3635.5714285714284</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="14"/>
+        <v>328307</v>
+      </c>
+      <c r="C331">
+        <v>134</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="10"/>
+        <v>2854.4285714285716</v>
       </c>
     </row>
   </sheetData>

--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8B6373-5B35-4919-B910-B52E69A60255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E76A4-8927-4B3C-99C0-1AE94072C58B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CasesByDate" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -884,24 +881,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C331"/>
+      <selection pane="bottomRight" activeCell="G331" sqref="G331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43859</v>
       </c>
@@ -926,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43860</v>
       </c>
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43861</v>
       </c>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43862</v>
       </c>
@@ -962,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43863</v>
       </c>
@@ -974,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43864</v>
       </c>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43866</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43867</v>
       </c>
@@ -1034,7 +1031,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43868</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43869</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43870</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43871</v>
       </c>
@@ -1098,7 +1095,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43872</v>
       </c>
@@ -1114,7 +1111,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -1130,7 +1127,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43874</v>
       </c>
@@ -1146,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43875</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43876</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43877</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43878</v>
       </c>
@@ -1210,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43879</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43880</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43881</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43882</v>
       </c>
@@ -1274,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43883</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43884</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43885</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43886</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43887</v>
       </c>
@@ -1354,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43888</v>
       </c>
@@ -1370,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43889</v>
       </c>
@@ -1386,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43890</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43891</v>
       </c>
@@ -1418,7 +1415,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43892</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43893</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43894</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43895</v>
       </c>
@@ -1482,7 +1479,7 @@
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43896</v>
       </c>
@@ -1498,7 +1495,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43897</v>
       </c>
@@ -1514,7 +1511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43898</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43899</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43900</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43901</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43902</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43903</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>27.714285714285715</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43904</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>31.857142857142858</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43905</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>38.857142857142854</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43906</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>59.571428571428569</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43907</v>
       </c>
@@ -1674,7 +1671,7 @@
         <v>93.142857142857139</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43908</v>
       </c>
@@ -1690,7 +1687,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43909</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>162.57142857142858</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43910</v>
       </c>
@@ -1722,7 +1719,7 @@
         <v>209.28571428571428</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43911</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>244.85714285714286</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43912</v>
       </c>
@@ -1754,7 +1751,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43913</v>
       </c>
@@ -1770,7 +1767,7 @@
         <v>341.57142857142856</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43914</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>408.57142857142856</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43915</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>478.14285714285717</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43916</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43917</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>651.28571428571433</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43918</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>698.71428571428567</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43919</v>
       </c>
@@ -1866,7 +1863,7 @@
         <v>732.57142857142856</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43920</v>
       </c>
@@ -1882,7 +1879,7 @@
         <v>822.42857142857144</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43921</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>900.71428571428567</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43922</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>985.28571428571433</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43923</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>1033.8571428571429</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43924</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>1110.5714285714287</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43925</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>1183.1428571428571</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43926</v>
       </c>
@@ -1978,7 +1975,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43927</v>
       </c>
@@ -1994,7 +1991,7 @@
         <v>1347.1428571428571</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43928</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43929</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>1530.1428571428571</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43930</v>
       </c>
@@ -2042,7 +2039,7 @@
         <v>1630.5714285714287</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43931</v>
       </c>
@@ -2058,7 +2055,7 @@
         <v>1712.7142857142858</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43932</v>
       </c>
@@ -2074,7 +2071,7 @@
         <v>1736.5714285714287</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43933</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>1729.8571428571429</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43934</v>
       </c>
@@ -2106,7 +2103,7 @@
         <v>1737.5714285714287</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43935</v>
       </c>
@@ -2122,7 +2119,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43936</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>1963.5714285714287</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43937</v>
       </c>
@@ -2154,7 +2151,7 @@
         <v>2021.8571428571429</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43938</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>2155.2857142857142</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43939</v>
       </c>
@@ -2186,7 +2183,7 @@
         <v>2176.8571428571427</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43940</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>2199.5714285714284</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43941</v>
       </c>
@@ -2218,7 +2215,7 @@
         <v>2299.4285714285716</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43942</v>
       </c>
@@ -2234,7 +2231,7 @@
         <v>2193.5714285714284</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43943</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>2216.8571428571427</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43944</v>
       </c>
@@ -2266,7 +2263,7 @@
         <v>2219.5714285714284</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43945</v>
       </c>
@@ -2282,7 +2279,7 @@
         <v>2117.4285714285716</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43946</v>
       </c>
@@ -2298,7 +2295,7 @@
         <v>2119.1428571428573</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43947</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>2084.1428571428573</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43948</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>2004.5714285714287</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43949</v>
       </c>
@@ -2346,7 +2343,7 @@
         <v>1992.7142857142858</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43950</v>
       </c>
@@ -2362,7 +2359,7 @@
         <v>1918.7142857142858</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43951</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>1867.5714285714287</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43952</v>
       </c>
@@ -2394,7 +2391,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43953</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>1773.8571428571429</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43954</v>
       </c>
@@ -2426,7 +2423,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43955</v>
       </c>
@@ -2442,7 +2439,7 @@
         <v>1722.2857142857142</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43956</v>
       </c>
@@ -2458,7 +2455,7 @@
         <v>1669.4285714285713</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43957</v>
       </c>
@@ -2474,7 +2471,7 @@
         <v>1599.8571428571429</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43958</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43959</v>
       </c>
@@ -2506,7 +2503,7 @@
         <v>1457.2857142857142</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43960</v>
       </c>
@@ -2522,7 +2519,7 @@
         <v>1407.7142857142858</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43961</v>
       </c>
@@ -2538,7 +2535,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43962</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>1276.1428571428571</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43963</v>
       </c>
@@ -2570,7 +2567,7 @@
         <v>1235.7142857142858</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43964</v>
       </c>
@@ -2586,7 +2583,7 @@
         <v>1180.4285714285713</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43965</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>1128.7142857142858</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43966</v>
       </c>
@@ -2618,7 +2615,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43967</v>
       </c>
@@ -2634,7 +2631,7 @@
         <v>1073.7142857142858</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43968</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>1070.5714285714287</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43969</v>
       </c>
@@ -2666,7 +2663,7 @@
         <v>1071.4285714285713</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43970</v>
       </c>
@@ -2682,7 +2679,7 @@
         <v>1017.5714285714286</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43971</v>
       </c>
@@ -2698,7 +2695,7 @@
         <v>974.71428571428567</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43972</v>
       </c>
@@ -2714,7 +2711,7 @@
         <v>924.42857142857144</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43973</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>889.71428571428567</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43974</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>852.85714285714289</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43975</v>
       </c>
@@ -2762,7 +2759,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43976</v>
       </c>
@@ -2778,7 +2775,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43977</v>
       </c>
@@ -2794,7 +2791,7 @@
         <v>655.14285714285711</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43978</v>
       </c>
@@ -2810,7 +2807,7 @@
         <v>608.85714285714289</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43979</v>
       </c>
@@ -2826,7 +2823,7 @@
         <v>562.57142857142856</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43980</v>
       </c>
@@ -2842,7 +2839,7 @@
         <v>515.14285714285711</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43981</v>
       </c>
@@ -2858,7 +2855,7 @@
         <v>498.57142857142856</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43982</v>
       </c>
@@ -2874,7 +2871,7 @@
         <v>478.57142857142856</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43983</v>
       </c>
@@ -2890,7 +2887,7 @@
         <v>522.85714285714289</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43984</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>463.28571428571428</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43985</v>
       </c>
@@ -2922,7 +2919,7 @@
         <v>430.71428571428572</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43986</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>393.42857142857144</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43987</v>
       </c>
@@ -2954,7 +2951,7 @@
         <v>365.85714285714283</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43988</v>
       </c>
@@ -2970,7 +2967,7 @@
         <v>348.28571428571428</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43989</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>346.85714285714283</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43990</v>
       </c>
@@ -3002,7 +2999,7 @@
         <v>324.57142857142856</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43991</v>
       </c>
@@ -3018,7 +3015,7 @@
         <v>309.71428571428572</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43992</v>
       </c>
@@ -3034,7 +3031,7 @@
         <v>281.14285714285717</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43993</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>259.42857142857144</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43994</v>
       </c>
@@ -3066,7 +3063,7 @@
         <v>247.57142857142858</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43995</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>240.28571428571428</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43996</v>
       </c>
@@ -3098,7 +3095,7 @@
         <v>229.57142857142858</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43997</v>
       </c>
@@ -3114,7 +3111,7 @@
         <v>212.85714285714286</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43998</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>192.14285714285714</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43999</v>
       </c>
@@ -3146,7 +3143,7 @@
         <v>190.57142857142858</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44000</v>
       </c>
@@ -3162,7 +3159,7 @@
         <v>192.57142857142858</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44001</v>
       </c>
@@ -3178,7 +3175,7 @@
         <v>181.28571428571428</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44002</v>
       </c>
@@ -3194,7 +3191,7 @@
         <v>180.71428571428572</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44003</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>181.14285714285714</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44004</v>
       </c>
@@ -3226,7 +3223,7 @@
         <v>179.57142857142858</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44005</v>
       </c>
@@ -3242,7 +3239,7 @@
         <v>178.28571428571428</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44006</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>172.85714285714286</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44007</v>
       </c>
@@ -3274,7 +3271,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44008</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>171.28571428571428</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44009</v>
       </c>
@@ -3306,7 +3303,7 @@
         <v>177.14285714285714</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44010</v>
       </c>
@@ -3322,7 +3319,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44011</v>
       </c>
@@ -3338,7 +3335,7 @@
         <v>173.28571428571428</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44012</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>177.71428571428572</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44013</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>178.57142857142858</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44014</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>181.42857142857142</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44015</v>
       </c>
@@ -3402,7 +3399,7 @@
         <v>167.28571428571428</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44016</v>
       </c>
@@ -3418,7 +3415,7 @@
         <v>156.71428571428572</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44017</v>
       </c>
@@ -3434,7 +3431,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44018</v>
       </c>
@@ -3450,7 +3447,7 @@
         <v>165.57142857142858</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44019</v>
       </c>
@@ -3466,7 +3463,7 @@
         <v>168.57142857142858</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44020</v>
       </c>
@@ -3482,7 +3479,7 @@
         <v>168.57142857142858</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44021</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>172.57142857142858</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44022</v>
       </c>
@@ -3514,7 +3511,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44023</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>199.14285714285714</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44024</v>
       </c>
@@ -3546,7 +3543,7 @@
         <v>197.14285714285714</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44025</v>
       </c>
@@ -3562,7 +3559,7 @@
         <v>201.28571428571428</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44026</v>
       </c>
@@ -3578,7 +3575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44027</v>
       </c>
@@ -3594,7 +3591,7 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44028</v>
       </c>
@@ -3610,7 +3607,7 @@
         <v>210.28571428571428</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44029</v>
       </c>
@@ -3626,7 +3623,7 @@
         <v>210.14285714285714</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44030</v>
       </c>
@@ -3642,7 +3639,7 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44031</v>
       </c>
@@ -3658,7 +3655,7 @@
         <v>209.85714285714286</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44032</v>
       </c>
@@ -3674,7 +3671,7 @@
         <v>211.71428571428572</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44033</v>
       </c>
@@ -3690,7 +3687,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44034</v>
       </c>
@@ -3706,7 +3703,7 @@
         <v>209.28571428571428</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44035</v>
       </c>
@@ -3722,7 +3719,7 @@
         <v>211.28571428571428</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44036</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>215.57142857142858</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44037</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44038</v>
       </c>
@@ -3770,7 +3767,7 @@
         <v>223.85714285714286</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44039</v>
       </c>
@@ -3786,7 +3783,7 @@
         <v>235.57142857142858</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44040</v>
       </c>
@@ -3802,7 +3799,7 @@
         <v>244.85714285714286</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44041</v>
       </c>
@@ -3818,7 +3815,7 @@
         <v>253.57142857142858</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44042</v>
       </c>
@@ -3834,7 +3831,7 @@
         <v>264.71428571428572</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44043</v>
       </c>
@@ -3850,7 +3847,7 @@
         <v>273.57142857142856</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44044</v>
       </c>
@@ -3866,7 +3863,7 @@
         <v>271.85714285714283</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44045</v>
       </c>
@@ -3882,7 +3879,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44046</v>
       </c>
@@ -3898,7 +3895,7 @@
         <v>272.57142857142856</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44047</v>
       </c>
@@ -3914,7 +3911,7 @@
         <v>270.85714285714283</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44048</v>
       </c>
@@ -3930,7 +3927,7 @@
         <v>272.85714285714283</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44049</v>
       </c>
@@ -3946,7 +3943,7 @@
         <v>275.42857142857144</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44050</v>
       </c>
@@ -3962,7 +3959,7 @@
         <v>272.57142857142856</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44051</v>
       </c>
@@ -3978,7 +3975,7 @@
         <v>275.71428571428572</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44052</v>
       </c>
@@ -3994,7 +3991,7 @@
         <v>272.28571428571428</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44053</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>274.57142857142856</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44054</v>
       </c>
@@ -4026,7 +4023,7 @@
         <v>271.14285714285717</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44055</v>
       </c>
@@ -4042,7 +4039,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44056</v>
       </c>
@@ -4058,7 +4055,7 @@
         <v>266.28571428571428</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44057</v>
       </c>
@@ -4074,7 +4071,7 @@
         <v>272.42857142857144</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44058</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>269.85714285714283</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44059</v>
       </c>
@@ -4106,7 +4103,7 @@
         <v>274.85714285714283</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44060</v>
       </c>
@@ -4122,7 +4119,7 @@
         <v>274.14285714285717</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44061</v>
       </c>
@@ -4138,7 +4135,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44062</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>292.71428571428572</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44063</v>
       </c>
@@ -4170,7 +4167,7 @@
         <v>293.71428571428572</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44064</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>285.28571428571428</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44065</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>284.85714285714283</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44066</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>280.85714285714283</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44067</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>284.71428571428572</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44068</v>
       </c>
@@ -4250,7 +4247,7 @@
         <v>284.42857142857144</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44069</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>290.42857142857144</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44070</v>
       </c>
@@ -4282,7 +4279,7 @@
         <v>288.71428571428572</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44071</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>300.14285714285717</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44072</v>
       </c>
@@ -4314,7 +4311,7 @@
         <v>303.57142857142856</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44073</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>310.28571428571428</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44074</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>316.28571428571428</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44075</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>318.57142857142856</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44076</v>
       </c>
@@ -4378,7 +4375,7 @@
         <v>319.28571428571428</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44077</v>
       </c>
@@ -4394,7 +4391,7 @@
         <v>336.42857142857144</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44078</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>334.28571428571428</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44079</v>
       </c>
@@ -4426,7 +4423,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44080</v>
       </c>
@@ -4442,7 +4439,7 @@
         <v>334.14285714285717</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44081</v>
       </c>
@@ -4458,7 +4455,7 @@
         <v>294.57142857142856</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44082</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>316.28571428571428</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44083</v>
       </c>
@@ -4490,7 +4487,7 @@
         <v>329.14285714285717</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44084</v>
       </c>
@@ -4506,7 +4503,7 @@
         <v>321.28571428571428</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44085</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44086</v>
       </c>
@@ -4538,7 +4535,7 @@
         <v>328.71428571428572</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44087</v>
       </c>
@@ -4554,7 +4551,7 @@
         <v>335.71428571428572</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44088</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>384.57142857142856</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44089</v>
       </c>
@@ -4586,7 +4583,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44090</v>
       </c>
@@ -4602,7 +4599,7 @@
         <v>358.28571428571428</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44091</v>
       </c>
@@ -4618,7 +4615,7 @@
         <v>350.57142857142856</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44092</v>
       </c>
@@ -4634,7 +4631,7 @@
         <v>354.42857142857144</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44093</v>
       </c>
@@ -4650,7 +4647,7 @@
         <v>356.28571428571428</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44094</v>
       </c>
@@ -4666,7 +4663,7 @@
         <v>353.42857142857144</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44095</v>
       </c>
@@ -4682,7 +4679,7 @@
         <v>342.57142857142856</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44096</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>354.57142857142856</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44097</v>
       </c>
@@ -4714,7 +4711,7 @@
         <v>375.57142857142856</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44098</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>410.14285714285717</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44099</v>
       </c>
@@ -4746,7 +4743,7 @@
         <v>426.85714285714283</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44100</v>
       </c>
@@ -4762,7 +4759,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44101</v>
       </c>
@@ -4778,7 +4775,7 @@
         <v>461.85714285714283</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44102</v>
       </c>
@@ -4794,7 +4791,7 @@
         <v>524.71428571428567</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44103</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44104</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>562.57142857142856</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44105</v>
       </c>
@@ -4842,7 +4839,7 @@
         <v>574.85714285714289</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44106</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>576.57142857142856</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44107</v>
       </c>
@@ -4874,7 +4871,7 @@
         <v>582.85714285714289</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44108</v>
       </c>
@@ -4890,7 +4887,7 @@
         <v>592.57142857142856</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44109</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>575.85714285714289</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44110</v>
       </c>
@@ -4922,7 +4919,7 @@
         <v>577.85714285714289</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44111</v>
       </c>
@@ -4938,7 +4935,7 @@
         <v>593.28571428571433</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44112</v>
       </c>
@@ -4954,7 +4951,7 @@
         <v>614.85714285714289</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44113</v>
       </c>
@@ -4970,7 +4967,7 @@
         <v>632.57142857142856</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44114</v>
       </c>
@@ -4986,7 +4983,7 @@
         <v>633.28571428571433</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44115</v>
       </c>
@@ -5002,7 +4999,7 @@
         <v>629.28571428571433</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44116</v>
       </c>
@@ -5018,7 +5015,7 @@
         <v>606.85714285714289</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44117</v>
       </c>
@@ -5034,7 +5031,7 @@
         <v>614.28571428571433</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44118</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>639.71428571428567</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44119</v>
       </c>
@@ -5066,7 +5063,7 @@
         <v>656.28571428571433</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44120</v>
       </c>
@@ -5082,7 +5079,7 @@
         <v>681.57142857142856</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44121</v>
       </c>
@@ -5098,7 +5095,7 @@
         <v>700.28571428571433</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44122</v>
       </c>
@@ -5114,7 +5111,7 @@
         <v>709.85714285714289</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44123</v>
       </c>
@@ -5130,7 +5127,7 @@
         <v>779.28571428571433</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44124</v>
       </c>
@@ -5146,7 +5143,7 @@
         <v>826.85714285714289</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44125</v>
       </c>
@@ -5162,157 +5159,157 @@
         <v>869.85714285714289</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44126</v>
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147466</v>
+        <v>147467</v>
       </c>
       <c r="C269">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D269">
         <f t="shared" si="9"/>
-        <v>930.57142857142856</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>930.71428571428567</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44127</v>
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148690</v>
+        <v>148691</v>
       </c>
       <c r="C270">
         <v>1224</v>
       </c>
       <c r="D270">
         <f t="shared" si="9"/>
-        <v>981.71428571428567</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>981.85714285714289</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44128</v>
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149478</v>
+        <v>149480</v>
       </c>
       <c r="C271">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D271">
         <f t="shared" si="9"/>
-        <v>1016.5714285714286</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1016.8571428571429</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44129</v>
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>149962</v>
+        <v>149964</v>
       </c>
       <c r="C272">
         <v>484</v>
       </c>
       <c r="D272">
         <f t="shared" si="9"/>
-        <v>1038.4285714285713</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1038.7142857142858</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44130</v>
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151487</v>
+        <v>151489</v>
       </c>
       <c r="C273">
         <v>1525</v>
       </c>
       <c r="D273">
         <f t="shared" si="9"/>
-        <v>1102.1428571428571</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1102.4285714285713</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44131</v>
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152832</v>
+        <v>152834</v>
       </c>
       <c r="C274">
         <v>1345</v>
       </c>
       <c r="D274">
         <f t="shared" si="9"/>
-        <v>1134.4285714285713</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1134.7142857142858</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44132</v>
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154272</v>
+        <v>154274</v>
       </c>
       <c r="C275">
         <v>1440</v>
       </c>
       <c r="D275">
         <f t="shared" si="9"/>
-        <v>1168.7142857142858</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44133</v>
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155657</v>
+        <v>155659</v>
       </c>
       <c r="C276">
         <v>1385</v>
       </c>
       <c r="D276">
         <f t="shared" si="9"/>
-        <v>1170.1428571428571</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1170.2857142857142</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44134</v>
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156782</v>
+        <v>156784</v>
       </c>
       <c r="C277">
         <v>1125</v>
       </c>
       <c r="D277">
         <f t="shared" si="9"/>
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1156.1428571428571</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44135</v>
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157653</v>
+        <v>157655</v>
       </c>
       <c r="C278">
         <v>871</v>
@@ -5322,13 +5319,13 @@
         <v>1167.8571428571429</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44136</v>
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158175</v>
+        <v>158177</v>
       </c>
       <c r="C279">
         <v>522</v>
@@ -5338,29 +5335,29 @@
         <v>1173.2857142857142</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44137</v>
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160013</v>
+        <v>160015</v>
       </c>
       <c r="C280">
         <v>1838</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D331" si="10">AVERAGE(C274:C280)</f>
+        <f t="shared" ref="D280:D334" si="10">AVERAGE(C274:C280)</f>
         <v>1218</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44138</v>
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161918</v>
+        <v>161920</v>
       </c>
       <c r="C281">
         <v>1905</v>
@@ -5370,13 +5367,13 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44139</v>
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164092</v>
+        <v>164094</v>
       </c>
       <c r="C282">
         <v>2174</v>
@@ -5386,13 +5383,13 @@
         <v>1402.8571428571429</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44140</v>
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166508</v>
+        <v>166510</v>
       </c>
       <c r="C283">
         <v>2416</v>
@@ -5402,13 +5399,13 @@
         <v>1550.1428571428571</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44141</v>
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168745</v>
+        <v>168747</v>
       </c>
       <c r="C284">
         <v>2237</v>
@@ -5418,13 +5415,13 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44142</v>
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170071</v>
+        <v>170073</v>
       </c>
       <c r="C285">
         <v>1326</v>
@@ -5434,13 +5431,13 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44143</v>
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171014</v>
+        <v>171016</v>
       </c>
       <c r="C286">
         <v>943</v>
@@ -5450,13 +5447,13 @@
         <v>1834.1428571428571</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44144</v>
       </c>
       <c r="B287">
         <f t="shared" ref="B287:B319" si="11">C287+B286</f>
-        <v>174191</v>
+        <v>174193</v>
       </c>
       <c r="C287">
         <v>3177</v>
@@ -5466,77 +5463,77 @@
         <v>2025.4285714285713</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44145</v>
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177010</v>
+        <v>177013</v>
       </c>
       <c r="C288">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2156.1428571428573</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44146</v>
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179670</v>
+        <v>179673</v>
       </c>
       <c r="C289">
         <v>2660</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2225.4285714285716</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2225.5714285714284</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44147</v>
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182655</v>
+        <v>182658</v>
       </c>
       <c r="C290">
         <v>2985</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2306.7142857142858</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2306.8571428571427</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44148</v>
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185262</v>
+        <v>185264</v>
       </c>
       <c r="C291">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
         <v>2359.5714285714284</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44149</v>
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>186972</v>
+        <v>186974</v>
       </c>
       <c r="C292">
         <v>1710</v>
@@ -5546,13 +5543,13 @@
         <v>2414.4285714285716</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44150</v>
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188164</v>
+        <v>188166</v>
       </c>
       <c r="C293">
         <v>1192</v>
@@ -5562,13 +5559,13 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44151</v>
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191688</v>
+        <v>191690</v>
       </c>
       <c r="C294">
         <v>3524</v>
@@ -5578,61 +5575,61 @@
         <v>2499.5714285714284</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44152</v>
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194823</v>
+        <v>194825</v>
       </c>
       <c r="C295">
         <v>3135</v>
       </c>
       <c r="D295">
         <f t="shared" si="10"/>
-        <v>2544.7142857142858</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2544.5714285714284</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44153</v>
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197747</v>
+        <v>197749</v>
       </c>
       <c r="C296">
         <v>2924</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2582.4285714285716</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2582.2857142857142</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44154</v>
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200747</v>
+        <v>200749</v>
       </c>
       <c r="C297">
         <v>3000</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2584.5714285714284</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2584.4285714285716</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44155</v>
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203595</v>
+        <v>203597</v>
       </c>
       <c r="C298">
         <v>2848</v>
@@ -5642,13 +5639,13 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44156</v>
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205363</v>
+        <v>205365</v>
       </c>
       <c r="C299">
         <v>1768</v>
@@ -5658,13 +5655,13 @@
         <v>2627.2857142857142</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44157</v>
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206554</v>
+        <v>206556</v>
       </c>
       <c r="C300">
         <v>1191</v>
@@ -5674,13 +5671,13 @@
         <v>2627.1428571428573</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44158</v>
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210145</v>
+        <v>210147</v>
       </c>
       <c r="C301">
         <v>3591</v>
@@ -5690,13 +5687,13 @@
         <v>2636.7142857142858</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44159</v>
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213931</v>
+        <v>213933</v>
       </c>
       <c r="C302">
         <v>3786</v>
@@ -5706,13 +5703,13 @@
         <v>2729.7142857142858</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44160</v>
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216871</v>
+        <v>216873</v>
       </c>
       <c r="C303">
         <v>2940</v>
@@ -5722,13 +5719,13 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44161</v>
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217316</v>
+        <v>217318</v>
       </c>
       <c r="C304">
         <v>445</v>
@@ -5738,167 +5735,167 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44162</v>
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220699</v>
+        <v>220700</v>
       </c>
       <c r="C305">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2443.4285714285716</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2443.2857142857142</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44163</v>
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223604</v>
+        <v>223605</v>
       </c>
       <c r="C306">
         <v>2905</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2605.8571428571427</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2605.7142857142858</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44164</v>
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225362</v>
+        <v>225363</v>
       </c>
       <c r="C307">
         <v>1758</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2686.8571428571427</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2686.7142857142858</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44165</v>
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230863</v>
+        <v>230864</v>
       </c>
       <c r="C308">
         <v>5501</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2959.7142857142858</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2959.5714285714284</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44166</v>
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236719</v>
+        <v>236720</v>
       </c>
       <c r="C309">
         <v>5856</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3255.4285714285716</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3255.2857142857142</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44167</v>
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242792</v>
+        <v>242794</v>
       </c>
       <c r="C310">
-        <v>6073</v>
+        <v>6074</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
         <v>3703</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44168</v>
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248552</v>
+        <v>248553</v>
       </c>
       <c r="C311">
-        <v>5760</v>
+        <v>5759</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4462.2857142857147</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4462.1428571428569</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44169</v>
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253828</v>
+        <v>253830</v>
       </c>
       <c r="C312">
-        <v>5276</v>
+        <v>5277</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4732.7142857142853</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4732.8571428571431</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44170</v>
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>256007</v>
+        <v>256009</v>
       </c>
       <c r="C313">
         <v>2179</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4629</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4629.1428571428569</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44171</v>
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>258109</v>
+        <v>258110</v>
       </c>
       <c r="C314">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
         <v>4678.1428571428569</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44172</v>
       </c>
@@ -5907,30 +5904,30 @@
         <v>264312</v>
       </c>
       <c r="C315">
-        <v>6203</v>
+        <v>6202</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4778.4285714285716</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4778.2857142857147</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44173</v>
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>269707</v>
+        <v>269704</v>
       </c>
       <c r="C316">
-        <v>5395</v>
+        <v>5392</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4712.5714285714284</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44174</v>
       </c>
@@ -5939,235 +5936,283 @@
         <v>275101</v>
       </c>
       <c r="C317">
-        <v>5394</v>
+        <v>5397</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>4615.5714285714284</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4615.2857142857147</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44175</v>
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>280553</v>
+        <v>280556</v>
       </c>
       <c r="C318">
-        <v>5452</v>
+        <v>5455</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>4571.5714285714284</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4571.8571428571431</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44176</v>
       </c>
       <c r="B319">
         <f t="shared" si="11"/>
-        <v>285482</v>
+        <v>285491</v>
       </c>
       <c r="C319">
-        <v>4929</v>
+        <v>4935</v>
       </c>
       <c r="D319">
         <f t="shared" si="10"/>
-        <v>4522</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44177</v>
       </c>
       <c r="B320">
         <f t="shared" ref="B320:B321" si="12">C320+B319</f>
-        <v>288340</v>
+        <v>288359</v>
       </c>
       <c r="C320">
-        <v>2858</v>
+        <v>2868</v>
       </c>
       <c r="D320">
         <f t="shared" si="10"/>
-        <v>4619</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4621.4285714285716</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44178</v>
       </c>
       <c r="B321">
         <f t="shared" si="12"/>
-        <v>290514</v>
+        <v>290556</v>
       </c>
       <c r="C321">
-        <v>2174</v>
+        <v>2197</v>
       </c>
       <c r="D321">
         <f t="shared" si="10"/>
-        <v>4629.2857142857147</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4635.1428571428569</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44179</v>
       </c>
       <c r="B322">
         <f t="shared" ref="B322:B324" si="13">C322+B321</f>
-        <v>296747</v>
+        <v>296807</v>
       </c>
       <c r="C322">
-        <v>6233</v>
+        <v>6251</v>
       </c>
       <c r="D322">
         <f t="shared" si="10"/>
-        <v>4633.5714285714284</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4642.1428571428569</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44180</v>
       </c>
       <c r="B323">
         <f t="shared" si="13"/>
-        <v>302724</v>
+        <v>302798</v>
       </c>
       <c r="C323">
-        <v>5977</v>
+        <v>5991</v>
       </c>
       <c r="D323">
         <f t="shared" si="10"/>
-        <v>4716.7142857142853</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4727.7142857142853</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44181</v>
       </c>
       <c r="B324">
         <f t="shared" si="13"/>
-        <v>308326</v>
+        <v>308423</v>
       </c>
       <c r="C324">
-        <v>5602</v>
+        <v>5625</v>
       </c>
       <c r="D324">
         <f t="shared" si="10"/>
-        <v>4746.4285714285716</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4760.2857142857147</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44182</v>
       </c>
       <c r="B325">
-        <f t="shared" ref="B325:B331" si="14">C325+B324</f>
-        <v>309869</v>
+        <f t="shared" ref="B325:B334" si="14">C325+B324</f>
+        <v>309982</v>
       </c>
       <c r="C325">
-        <v>1543</v>
+        <v>1559</v>
       </c>
       <c r="D325">
         <f t="shared" si="10"/>
-        <v>4188</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4203.7142857142853</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44183</v>
       </c>
       <c r="B326">
         <f t="shared" si="14"/>
-        <v>315337</v>
+        <v>315619</v>
       </c>
       <c r="C326">
-        <v>5468</v>
+        <v>5637</v>
       </c>
       <c r="D326">
         <f t="shared" si="10"/>
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44184</v>
       </c>
       <c r="B327">
         <f t="shared" si="14"/>
-        <v>318547</v>
+        <v>319230</v>
       </c>
       <c r="C327">
-        <v>3210</v>
+        <v>3611</v>
       </c>
       <c r="D327">
         <f t="shared" si="10"/>
-        <v>4315.2857142857147</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4410.1428571428569</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44185</v>
       </c>
       <c r="B328">
         <f t="shared" si="14"/>
-        <v>320397</v>
+        <v>321511</v>
       </c>
       <c r="C328">
-        <v>1850</v>
+        <v>2281</v>
       </c>
       <c r="D328">
         <f t="shared" si="10"/>
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4422.1428571428569</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44186</v>
       </c>
       <c r="B329">
         <f t="shared" si="14"/>
-        <v>325052</v>
+        <v>327771</v>
       </c>
       <c r="C329">
-        <v>4655</v>
+        <v>6260</v>
       </c>
       <c r="D329">
         <f t="shared" si="10"/>
-        <v>4043.5714285714284</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4423.4285714285716</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44187</v>
       </c>
       <c r="B330">
         <f t="shared" si="14"/>
-        <v>328173</v>
+        <v>333360</v>
       </c>
       <c r="C330">
-        <v>3121</v>
+        <v>5589</v>
       </c>
       <c r="D330">
         <f t="shared" si="10"/>
-        <v>3635.5714285714284</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44188</v>
       </c>
       <c r="B331">
         <f t="shared" si="14"/>
-        <v>328307</v>
+        <v>336699</v>
       </c>
       <c r="C331">
-        <v>134</v>
+        <v>3339</v>
       </c>
       <c r="D331">
         <f t="shared" si="10"/>
-        <v>2854.4285714285716</v>
+        <v>4039.4285714285716</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="14"/>
+        <v>338099</v>
+      </c>
+      <c r="C332">
+        <v>1400</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="10"/>
+        <v>4016.7142857142858</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="14"/>
+        <v>338345</v>
+      </c>
+      <c r="C333">
+        <v>246</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="10"/>
+        <v>3246.5714285714284</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="14"/>
+        <v>338704</v>
+      </c>
+      <c r="C334">
+        <v>359</v>
+      </c>
+      <c r="D334">
+        <f>AVERAGE(C328:C334)</f>
+        <v>2782</v>
       </c>
     </row>
   </sheetData>
@@ -6176,21 +6221,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -6304,10 +6334,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -6322,16 +6374,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7812BB-980B-4585-92C6-973734300155}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/data/CasesByDate.xlsx
+++ b/data/CasesByDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E76A4-8927-4B3C-99C0-1AE94072C58B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B289D95D-37A8-4F74-BFCA-BFB1843E0EE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B319" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G331" sqref="G331"/>
+      <selection pane="bottomRight" activeCell="J336" sqref="J336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4765,14 +4765,14 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>129171</v>
+        <v>129172</v>
       </c>
       <c r="C244">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D244">
         <f t="shared" si="7"/>
-        <v>461.85714285714283</v>
+        <v>462</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,14 +4781,14 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>130038</v>
+        <v>130039</v>
       </c>
       <c r="C245">
         <v>867</v>
       </c>
       <c r="D245">
         <f t="shared" si="7"/>
-        <v>524.71428571428567</v>
+        <v>524.85714285714289</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4797,14 +4797,14 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>130758</v>
+        <v>130759</v>
       </c>
       <c r="C246">
         <v>720</v>
       </c>
       <c r="D246">
         <f t="shared" si="7"/>
-        <v>555</v>
+        <v>555.14285714285711</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>131371</v>
+        <v>131372</v>
       </c>
       <c r="C247">
         <v>613</v>
       </c>
       <c r="D247">
         <f t="shared" si="7"/>
-        <v>562.57142857142856</v>
+        <v>562.71428571428567</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4829,14 +4829,14 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>132054</v>
+        <v>132055</v>
       </c>
       <c r="C248">
         <v>683</v>
       </c>
       <c r="D248">
         <f t="shared" si="7"/>
-        <v>574.85714285714289</v>
+        <v>575</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4845,14 +4845,14 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>132619</v>
+        <v>132620</v>
       </c>
       <c r="C249">
         <v>565</v>
       </c>
       <c r="D249">
         <f t="shared" si="7"/>
-        <v>576.57142857142856</v>
+        <v>576.71428571428567</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,14 +4861,14 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>133027</v>
+        <v>133028</v>
       </c>
       <c r="C250">
         <v>408</v>
       </c>
       <c r="D250">
         <f t="shared" si="7"/>
-        <v>582.85714285714289</v>
+        <v>583</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>133319</v>
+        <v>133320</v>
       </c>
       <c r="C251">
         <v>292</v>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>134069</v>
+        <v>134070</v>
       </c>
       <c r="C252">
         <v>750</v>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>134803</v>
+        <v>134804</v>
       </c>
       <c r="C253">
         <v>734</v>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>135524</v>
+        <v>135525</v>
       </c>
       <c r="C254">
         <v>721</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>136358</v>
+        <v>136359</v>
       </c>
       <c r="C255">
         <v>834</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>137047</v>
+        <v>137048</v>
       </c>
       <c r="C256">
         <v>689</v>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>137460</v>
+        <v>137461</v>
       </c>
       <c r="C257">
         <v>413</v>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>137724</v>
+        <v>137725</v>
       </c>
       <c r="C258">
         <v>264</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>138317</v>
+        <v>138318</v>
       </c>
       <c r="C259">
         <v>593</v>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B260">
         <f t="shared" ref="B260:B286" si="8">C260+B259</f>
-        <v>139103</v>
+        <v>139104</v>
       </c>
       <c r="C260">
         <v>786</v>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>140002</v>
+        <v>140003</v>
       </c>
       <c r="C261">
         <v>899</v>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>140952</v>
+        <v>140953</v>
       </c>
       <c r="C262">
         <v>950</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
-        <v>141818</v>
+        <v>141819</v>
       </c>
       <c r="C263">
         <v>866</v>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="8"/>
-        <v>142362</v>
+        <v>142363</v>
       </c>
       <c r="C264">
         <v>544</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="8"/>
-        <v>142693</v>
+        <v>142694</v>
       </c>
       <c r="C265">
         <v>331</v>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="8"/>
-        <v>143772</v>
+        <v>143773</v>
       </c>
       <c r="C266">
         <v>1079</v>
@@ -5133,14 +5133,14 @@
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>144891</v>
+        <v>144893</v>
       </c>
       <c r="C267">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D267">
         <f t="shared" si="9"/>
-        <v>826.85714285714289</v>
+        <v>827</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,14 +5149,14 @@
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>146091</v>
+        <v>146093</v>
       </c>
       <c r="C268">
         <v>1200</v>
       </c>
       <c r="D268">
         <f t="shared" si="9"/>
-        <v>869.85714285714289</v>
+        <v>870</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,14 +5165,14 @@
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>147467</v>
+        <v>147469</v>
       </c>
       <c r="C269">
         <v>1376</v>
       </c>
       <c r="D269">
         <f t="shared" si="9"/>
-        <v>930.71428571428567</v>
+        <v>930.85714285714289</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>148691</v>
+        <v>148693</v>
       </c>
       <c r="C270">
         <v>1224</v>
       </c>
       <c r="D270">
         <f t="shared" si="9"/>
-        <v>981.85714285714289</v>
+        <v>982</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,14 +5197,14 @@
       </c>
       <c r="B271">
         <f t="shared" si="8"/>
-        <v>149480</v>
+        <v>149482</v>
       </c>
       <c r="C271">
         <v>789</v>
       </c>
       <c r="D271">
         <f t="shared" si="9"/>
-        <v>1016.8571428571429</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5213,14 +5213,14 @@
       </c>
       <c r="B272">
         <f t="shared" si="8"/>
-        <v>149964</v>
+        <v>149966</v>
       </c>
       <c r="C272">
         <v>484</v>
       </c>
       <c r="D272">
         <f t="shared" si="9"/>
-        <v>1038.7142857142858</v>
+        <v>1038.8571428571429</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,14 +5229,14 @@
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>151489</v>
+        <v>151491</v>
       </c>
       <c r="C273">
         <v>1525</v>
       </c>
       <c r="D273">
         <f t="shared" si="9"/>
-        <v>1102.4285714285713</v>
+        <v>1102.5714285714287</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>152834</v>
+        <v>152836</v>
       </c>
       <c r="C274">
         <v>1345</v>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>154274</v>
+        <v>154276</v>
       </c>
       <c r="C275">
         <v>1440</v>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>155659</v>
+        <v>155661</v>
       </c>
       <c r="C276">
         <v>1385</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="8"/>
-        <v>156784</v>
+        <v>156786</v>
       </c>
       <c r="C277">
         <v>1125</v>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>157655</v>
+        <v>157657</v>
       </c>
       <c r="C278">
         <v>871</v>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>158177</v>
+        <v>158179</v>
       </c>
       <c r="C279">
         <v>522</v>
@@ -5341,14 +5341,14 @@
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>160015</v>
+        <v>160016</v>
       </c>
       <c r="C280">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D280">
-        <f t="shared" ref="D280:D334" si="10">AVERAGE(C274:C280)</f>
-        <v>1218</v>
+        <f t="shared" ref="D280:D333" si="10">AVERAGE(C274:C280)</f>
+        <v>1217.8571428571429</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5357,14 +5357,14 @@
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>161920</v>
+        <v>161921</v>
       </c>
       <c r="C281">
         <v>1905</v>
       </c>
       <c r="D281">
         <f t="shared" si="10"/>
-        <v>1298</v>
+        <v>1297.8571428571429</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5373,14 +5373,14 @@
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>164094</v>
+        <v>164095</v>
       </c>
       <c r="C282">
         <v>2174</v>
       </c>
       <c r="D282">
         <f t="shared" si="10"/>
-        <v>1402.8571428571429</v>
+        <v>1402.7142857142858</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5389,14 +5389,14 @@
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>166510</v>
+        <v>166511</v>
       </c>
       <c r="C283">
         <v>2416</v>
       </c>
       <c r="D283">
         <f t="shared" si="10"/>
-        <v>1550.1428571428571</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5405,14 +5405,14 @@
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>168747</v>
+        <v>168748</v>
       </c>
       <c r="C284">
         <v>2237</v>
       </c>
       <c r="D284">
         <f t="shared" si="10"/>
-        <v>1709</v>
+        <v>1708.8571428571429</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,10 +5421,10 @@
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>170073</v>
+        <v>170075</v>
       </c>
       <c r="C285">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D285">
         <f t="shared" si="10"/>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>171016</v>
+        <v>171018</v>
       </c>
       <c r="C286">
         <v>943</v>
@@ -5453,14 +5453,14 @@
       </c>
       <c r="B287">
         <f t="shared" ref="B287:B319" si="11">C287+B286</f>
-        <v>174193</v>
+        <v>174195</v>
       </c>
       <c r="C287">
         <v>3177</v>
       </c>
       <c r="D287">
         <f t="shared" si="10"/>
-        <v>2025.4285714285713</v>
+        <v>2025.5714285714287</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,14 +5469,14 @@
       </c>
       <c r="B288">
         <f t="shared" si="11"/>
-        <v>177013</v>
+        <v>177016</v>
       </c>
       <c r="C288">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="D288">
         <f t="shared" si="10"/>
-        <v>2156.1428571428573</v>
+        <v>2156.4285714285716</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,14 +5485,14 @@
       </c>
       <c r="B289">
         <f t="shared" si="11"/>
-        <v>179673</v>
+        <v>179675</v>
       </c>
       <c r="C289">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D289">
         <f t="shared" si="10"/>
-        <v>2225.5714285714284</v>
+        <v>2225.7142857142858</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,14 +5501,14 @@
       </c>
       <c r="B290">
         <f t="shared" si="11"/>
-        <v>182658</v>
+        <v>182660</v>
       </c>
       <c r="C290">
         <v>2985</v>
       </c>
       <c r="D290">
         <f t="shared" si="10"/>
-        <v>2306.8571428571427</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5517,14 +5517,14 @@
       </c>
       <c r="B291">
         <f t="shared" si="11"/>
-        <v>185264</v>
+        <v>185266</v>
       </c>
       <c r="C291">
         <v>2606</v>
       </c>
       <c r="D291">
         <f t="shared" si="10"/>
-        <v>2359.5714285714284</v>
+        <v>2359.7142857142858</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B292">
         <f t="shared" si="11"/>
-        <v>186974</v>
+        <v>186976</v>
       </c>
       <c r="C292">
         <v>1710</v>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="B293">
         <f t="shared" si="11"/>
-        <v>188166</v>
+        <v>188168</v>
       </c>
       <c r="C293">
         <v>1192</v>
@@ -5565,14 +5565,14 @@
       </c>
       <c r="B294">
         <f t="shared" si="11"/>
-        <v>191690</v>
+        <v>191693</v>
       </c>
       <c r="C294">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="D294">
         <f>AVERAGE(C288:C294)</f>
-        <v>2499.5714285714284</v>
+        <v>2499.7142857142858</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="B295">
         <f t="shared" si="11"/>
-        <v>194825</v>
+        <v>194828</v>
       </c>
       <c r="C295">
         <v>3135</v>
@@ -5597,14 +5597,14 @@
       </c>
       <c r="B296">
         <f t="shared" si="11"/>
-        <v>197749</v>
+        <v>197752</v>
       </c>
       <c r="C296">
         <v>2924</v>
       </c>
       <c r="D296">
         <f t="shared" si="10"/>
-        <v>2582.2857142857142</v>
+        <v>2582.4285714285716</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5613,14 +5613,14 @@
       </c>
       <c r="B297">
         <f t="shared" si="11"/>
-        <v>200749</v>
+        <v>200752</v>
       </c>
       <c r="C297">
         <v>3000</v>
       </c>
       <c r="D297">
         <f t="shared" si="10"/>
-        <v>2584.4285714285716</v>
+        <v>2584.5714285714284</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5629,14 +5629,14 @@
       </c>
       <c r="B298">
         <f t="shared" si="11"/>
-        <v>203597</v>
+        <v>203600</v>
       </c>
       <c r="C298">
         <v>2848</v>
       </c>
       <c r="D298">
         <f t="shared" si="10"/>
-        <v>2619</v>
+        <v>2619.1428571428573</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="B299">
         <f t="shared" si="11"/>
-        <v>205365</v>
+        <v>205368</v>
       </c>
       <c r="C299">
         <v>1768</v>
       </c>
       <c r="D299">
         <f t="shared" si="10"/>
-        <v>2627.2857142857142</v>
+        <v>2627.4285714285716</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,14 +5661,14 @@
       </c>
       <c r="B300">
         <f t="shared" si="11"/>
-        <v>206556</v>
+        <v>206561</v>
       </c>
       <c r="C300">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D300">
         <f t="shared" si="10"/>
-        <v>2627.1428571428573</v>
+        <v>2627.5714285714284</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,14 +5677,14 @@
       </c>
       <c r="B301">
         <f t="shared" si="11"/>
-        <v>210147</v>
+        <v>210151</v>
       </c>
       <c r="C301">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="D301">
         <f t="shared" si="10"/>
-        <v>2636.7142857142858</v>
+        <v>2636.8571428571427</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,14 +5693,14 @@
       </c>
       <c r="B302">
         <f t="shared" si="11"/>
-        <v>213933</v>
+        <v>213939</v>
       </c>
       <c r="C302">
-        <v>3786</v>
+        <v>3788</v>
       </c>
       <c r="D302">
         <f t="shared" si="10"/>
-        <v>2729.7142857142858</v>
+        <v>2730.1428571428573</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,14 +5709,14 @@
       </c>
       <c r="B303">
         <f t="shared" si="11"/>
-        <v>216873</v>
+        <v>216879</v>
       </c>
       <c r="C303">
         <v>2940</v>
       </c>
       <c r="D303">
         <f t="shared" si="10"/>
-        <v>2732</v>
+        <v>2732.4285714285716</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,14 +5725,14 @@
       </c>
       <c r="B304">
         <f t="shared" si="11"/>
-        <v>217318</v>
+        <v>217324</v>
       </c>
       <c r="C304">
         <v>445</v>
       </c>
       <c r="D304">
         <f t="shared" si="10"/>
-        <v>2367</v>
+        <v>2367.4285714285716</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5741,14 +5741,14 @@
       </c>
       <c r="B305">
         <f t="shared" si="11"/>
-        <v>220700</v>
+        <v>220706</v>
       </c>
       <c r="C305">
         <v>3382</v>
       </c>
       <c r="D305">
         <f t="shared" si="10"/>
-        <v>2443.2857142857142</v>
+        <v>2443.7142857142858</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,14 +5757,14 @@
       </c>
       <c r="B306">
         <f t="shared" si="11"/>
-        <v>223605</v>
+        <v>223611</v>
       </c>
       <c r="C306">
         <v>2905</v>
       </c>
       <c r="D306">
         <f t="shared" si="10"/>
-        <v>2605.7142857142858</v>
+        <v>2606.1428571428573</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,14 +5773,14 @@
       </c>
       <c r="B307">
         <f t="shared" si="11"/>
-        <v>225363</v>
+        <v>225369</v>
       </c>
       <c r="C307">
         <v>1758</v>
       </c>
       <c r="D307">
         <f t="shared" si="10"/>
-        <v>2686.7142857142858</v>
+        <v>2686.8571428571427</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,14 +5789,14 @@
       </c>
       <c r="B308">
         <f t="shared" si="11"/>
-        <v>230864</v>
+        <v>230872</v>
       </c>
       <c r="C308">
-        <v>5501</v>
+        <v>5503</v>
       </c>
       <c r="D308">
         <f t="shared" si="10"/>
-        <v>2959.5714285714284</v>
+        <v>2960.1428571428573</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5805,14 +5805,14 @@
       </c>
       <c r="B309">
         <f t="shared" si="11"/>
-        <v>236720</v>
+        <v>236730</v>
       </c>
       <c r="C309">
-        <v>5856</v>
+        <v>5858</v>
       </c>
       <c r="D309">
         <f t="shared" si="10"/>
-        <v>3255.2857142857142</v>
+        <v>3255.8571428571427</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,14 +5821,14 @@
       </c>
       <c r="B310">
         <f t="shared" si="11"/>
-        <v>242794</v>
+        <v>242803</v>
       </c>
       <c r="C310">
-        <v>6074</v>
+        <v>6073</v>
       </c>
       <c r="D310">
         <f t="shared" si="10"/>
-        <v>3703</v>
+        <v>3703.4285714285716</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,14 +5837,14 @@
       </c>
       <c r="B311">
         <f t="shared" si="11"/>
-        <v>248553</v>
+        <v>248563</v>
       </c>
       <c r="C311">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="D311">
         <f t="shared" si="10"/>
-        <v>4462.1428571428569</v>
+        <v>4462.7142857142853</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5853,14 +5853,14 @@
       </c>
       <c r="B312">
         <f t="shared" si="11"/>
-        <v>253830</v>
+        <v>253840</v>
       </c>
       <c r="C312">
         <v>5277</v>
       </c>
       <c r="D312">
         <f t="shared" si="10"/>
-        <v>4732.8571428571431</v>
+        <v>4733.4285714285716</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5869,14 +5869,14 @@
       </c>
       <c r="B313">
         <f t="shared" si="11"/>
-        <v>256009</v>
+        <v>256019</v>
       </c>
       <c r="C313">
         <v>2179</v>
       </c>
       <c r="D313">
         <f t="shared" si="10"/>
-        <v>4629.1428571428569</v>
+        <v>4629.7142857142853</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5885,14 +5885,14 @@
       </c>
       <c r="B314">
         <f t="shared" si="11"/>
-        <v>258110</v>
+        <v>258120</v>
       </c>
       <c r="C314">
         <v>2101</v>
       </c>
       <c r="D314">
         <f t="shared" si="10"/>
-        <v>4678.1428571428569</v>
+        <v>4678.7142857142853</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,14 +5901,14 @@
       </c>
       <c r="B315">
         <f t="shared" si="11"/>
-        <v>264312</v>
+        <v>264325</v>
       </c>
       <c r="C315">
-        <v>6202</v>
+        <v>6205</v>
       </c>
       <c r="D315">
         <f t="shared" si="10"/>
-        <v>4778.2857142857147</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="B316">
         <f t="shared" si="11"/>
-        <v>269704</v>
+        <v>269716</v>
       </c>
       <c r="C316">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="D316">
         <f t="shared" si="10"/>
-        <v>4712</v>
+        <v>4712.2857142857147</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5933,14 +5933,14 @@
       </c>
       <c r="B317">
         <f t="shared" si="11"/>
-        <v>275101</v>
+        <v>275111</v>
       </c>
       <c r="C317">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="D317">
         <f t="shared" si="10"/>
-        <v>4615.2857142857147</v>
+        <v>4615.4285714285716</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,14 +5949,14 @@
       </c>
       <c r="B318">
         <f t="shared" si="11"/>
-        <v>280556</v>
+        <v>280565</v>
       </c>
       <c r="C318">
-        <v>5455</v>
+        <v>5454</v>
       </c>
       <c r="D318">
         <f t="shared" si="10"/>
-        <v>4571.8571428571431</v>
+        <v>4571.7142857142853</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5965,10 +5965,10 @@
       </c>
       <c r="B319">
         <f t="shared" si="11"/>
-        <v>285491</v>
+        <v>285501</v>
       </c>
       <c r="C319">
-        <v>4935</v>
+        <v>4936</v>
       </c>
       <c r="D319">
         <f t="shared" si="10"/>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B320">
         <f t="shared" ref="B320:B321" si="12">C320+B319</f>
-        <v>288359</v>
+        <v>288369</v>
       </c>
       <c r="C320">
         <v>2868</v>
@@ -5997,14 +5997,14 @@
       </c>
       <c r="B321">
         <f t="shared" si="12"/>
-        <v>290556</v>
+        <v>290571</v>
       </c>
       <c r="C321">
-        <v>2197</v>
+        <v>2202</v>
       </c>
       <c r="D321">
         <f t="shared" si="10"/>
-        <v>4635.1428571428569</v>
+        <v>4635.8571428571431</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,14 +6013,14 @@
       </c>
       <c r="B322">
         <f t="shared" ref="B322:B324" si="13">C322+B321</f>
-        <v>296807</v>
+        <v>296830</v>
       </c>
       <c r="C322">
-        <v>6251</v>
+        <v>6259</v>
       </c>
       <c r="D322">
         <f t="shared" si="10"/>
-        <v>4642.1428571428569</v>
+        <v>4643.5714285714284</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6029,14 +6029,14 @@
       </c>
       <c r="B323">
         <f t="shared" si="13"/>
-        <v>302798</v>
+        <v>302828</v>
       </c>
       <c r="C323">
-        <v>5991</v>
+        <v>5998</v>
       </c>
       <c r="D323">
         <f t="shared" si="10"/>
-        <v>4727.7142857142853</v>
+        <v>4730.2857142857147</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,14 +6045,14 @@
       </c>
       <c r="B324">
         <f t="shared" si="13"/>
-        <v>308423</v>
+        <v>308462</v>
       </c>
       <c r="C324">
-        <v>5625</v>
+        <v>5634</v>
       </c>
       <c r="D324">
         <f t="shared" si="10"/>
-        <v>4760.2857142857147</v>
+        <v>4764.4285714285716</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6060,15 +6060,15 @@
         <v>44182</v>
       </c>
       <c r="B325">
-        <f t="shared" ref="B325:B334" si="14">C325+B324</f>
-        <v>309982</v>
+        <f t="shared" ref="B325:B335" si="14">C325+B324</f>
+        <v>310026</v>
       </c>
       <c r="C325">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="D325">
         <f t="shared" si="10"/>
-        <v>4203.7142857142853</v>
+        <v>4208.7142857142853</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6077,14 +6077,14 @@
       </c>
       <c r="B326">
         <f t="shared" si="14"/>
-        <v>315619</v>
+        <v>315681</v>
       </c>
       <c r="C326">
-        <v>5637</v>
+        <v>5655</v>
       </c>
       <c r="D326">
         <f t="shared" si="10"/>
-        <v>4304</v>
+        <v>4311.4285714285716</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6093,14 +6093,14 @@
       </c>
       <c r="B327">
         <f t="shared" si="14"/>
-        <v>319230</v>
+        <v>319315</v>
       </c>
       <c r="C327">
-        <v>3611</v>
+        <v>3634</v>
       </c>
       <c r="D327">
         <f t="shared" si="10"/>
-        <v>4410.1428571428569</v>
+        <v>4420.8571428571431</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6109,14 +6109,14 @@
       </c>
       <c r="B328">
         <f t="shared" si="14"/>
-        <v>321511</v>
+        <v>321620</v>
       </c>
       <c r="C328">
-        <v>2281</v>
+        <v>2305</v>
       </c>
       <c r="D328">
         <f t="shared" si="10"/>
-        <v>4422.1428571428569</v>
+        <v>4435.5714285714284</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,14 +6125,14 @@
       </c>
       <c r="B329">
         <f t="shared" si="14"/>
-        <v>327771</v>
+        <v>328069</v>
       </c>
       <c r="C329">
-        <v>6260</v>
+        <v>6449</v>
       </c>
       <c r="D329">
         <f t="shared" si="10"/>
-        <v>4423.4285714285716</v>
+        <v>4462.7142857142853</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6141,14 +6141,14 @@
       </c>
       <c r="B330">
         <f t="shared" si="14"/>
-        <v>333360</v>
+        <v>334002</v>
       </c>
       <c r="C330">
-        <v>5589</v>
+        <v>5933</v>
       </c>
       <c r="D330">
         <f t="shared" si="10"/>
-        <v>4366</v>
+        <v>4453.4285714285716</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6157,14 +6157,14 @@
       </c>
       <c r="B331">
         <f t="shared" si="14"/>
-        <v>336699</v>
+        <v>338466</v>
       </c>
       <c r="C331">
-        <v>3339</v>
+        <v>4464</v>
       </c>
       <c r="D331">
         <f t="shared" si="10"/>
-        <v>4039.4285714285716</v>
+        <v>4286.2857142857147</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,14 +6173,14 @@
       </c>
       <c r="B332">
         <f t="shared" si="14"/>
-        <v>338099</v>
+        <v>341084</v>
       </c>
       <c r="C332">
-        <v>1400</v>
+        <v>2618</v>
       </c>
       <c r="D332">
         <f t="shared" si="10"/>
-        <v>4016.7142857142858</v>
+        <v>4436.8571428571431</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6189,14 +6189,14 @@
       </c>
       <c r="B333">
         <f t="shared" si="14"/>
-        <v>338345</v>
+        <v>341573</v>
       </c>
       <c r="C333">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="D333">
         <f t="shared" si="10"/>
-        <v>3246.5714285714284</v>
+        <v>3698.8571428571427</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6205,14 +6205,110 @@
       </c>
       <c r="B334">
         <f t="shared" si="14"/>
-        <v>338704</v>
+        <v>345710</v>
       </c>
       <c r="C334">
-        <v>359</v>
+        <v>4137</v>
       </c>
       <c r="D334">
         <f>AVERAGE(C328:C334)</f>
-        <v>2782</v>
+        <v>3770.7142857142858</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="14"/>
+        <v>348347</v>
+      </c>
+      <c r="C335">
+        <v>2637</v>
+      </c>
+      <c r="D335">
+        <f>AVERAGE(C329:C335)</f>
+        <v>3818.1428571428573</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B336">
+        <f t="shared" ref="B336" si="15">C336+B335</f>
+        <v>356484</v>
+      </c>
+      <c r="C336">
+        <v>8137</v>
+      </c>
+      <c r="D336">
+        <f>AVERAGE(C330:C336)</f>
+        <v>4059.2857142857142</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B337">
+        <f t="shared" ref="B337" si="16">C337+B336</f>
+        <v>362889</v>
+      </c>
+      <c r="C337">
+        <v>6405</v>
+      </c>
+      <c r="D337">
+        <f>AVERAGE(C331:C337)</f>
+        <v>4126.7142857142853</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B338">
+        <f t="shared" ref="B338:B340" si="17">C338+B337</f>
+        <v>366808</v>
+      </c>
+      <c r="C338">
+        <v>3919</v>
+      </c>
+      <c r="D338">
+        <f>AVERAGE(C332:C338)</f>
+        <v>4048.8571428571427</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="17"/>
+        <v>367891</v>
+      </c>
+      <c r="C339">
+        <v>1083</v>
+      </c>
+      <c r="D339">
+        <f t="shared" ref="D339:D340" si="18">AVERAGE(C333:C339)</f>
+        <v>3829.5714285714284</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="17"/>
+        <v>367987</v>
+      </c>
+      <c r="C340">
+        <v>96</v>
+      </c>
+      <c r="D340">
+        <f>AVERAGE(C334:C340)</f>
+        <v>3773.4285714285716</v>
       </c>
     </row>
   </sheetData>
@@ -6335,18 +6431,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6366,18 +6462,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E2A907-BC75-4262-BBD0-4F1B2976CD82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76A581D-70D9-4324-B3C2-C549CBC3A500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>